--- a/EE_Project_Dashboard.xlsx
+++ b/EE_Project_Dashboard.xlsx
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border/>
     <border>
       <left/>
@@ -132,11 +132,67 @@
         <color rgb="FFB0B0B0"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0078D4"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0078D4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0078D4"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0078D4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0078D4"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF005A9E"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF0078D4"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF0078D4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0078D4"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF0078D4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF005A9E"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF0078D4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0078D4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF005A9E"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -212,6 +268,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,8 +767,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -772,6 +831,12 @@
           <t>RASI</t>
         </is>
       </c>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="28" t="n"/>
       <c r="K1" s="19" t="inlineStr">
         <is>
           <t>T1/2025</t>
@@ -894,9 +959,9 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" s="18">
-      <c r="A2" s="24" t="n"/>
-      <c r="B2" s="24" t="n"/>
-      <c r="C2" s="24" t="n"/>
+      <c r="A2" s="29" t="n"/>
+      <c r="B2" s="29" t="n"/>
+      <c r="C2" s="29" t="n"/>
       <c r="D2" s="25" t="inlineStr">
         <is>
           <t>Đinh Hoàng Phú</t>
@@ -932,30 +997,30 @@
           <t>Tôn Thất Phúc Khánh</t>
         </is>
       </c>
-      <c r="K2" s="24" t="n"/>
-      <c r="L2" s="24" t="n"/>
-      <c r="M2" s="24" t="n"/>
-      <c r="N2" s="24" t="n"/>
-      <c r="O2" s="24" t="n"/>
-      <c r="P2" s="24" t="n"/>
-      <c r="Q2" s="24" t="n"/>
-      <c r="R2" s="24" t="n"/>
-      <c r="S2" s="24" t="n"/>
-      <c r="T2" s="24" t="n"/>
-      <c r="U2" s="24" t="n"/>
-      <c r="V2" s="24" t="n"/>
-      <c r="W2" s="24" t="n"/>
-      <c r="X2" s="24" t="n"/>
-      <c r="Y2" s="24" t="n"/>
-      <c r="Z2" s="24" t="n"/>
-      <c r="AA2" s="24" t="n"/>
-      <c r="AB2" s="24" t="n"/>
-      <c r="AC2" s="24" t="n"/>
-      <c r="AD2" s="24" t="n"/>
-      <c r="AE2" s="24" t="n"/>
-      <c r="AF2" s="24" t="n"/>
-      <c r="AG2" s="24" t="n"/>
-      <c r="AH2" s="24" t="n"/>
+      <c r="K2" s="29" t="n"/>
+      <c r="L2" s="29" t="n"/>
+      <c r="M2" s="29" t="n"/>
+      <c r="N2" s="29" t="n"/>
+      <c r="O2" s="29" t="n"/>
+      <c r="P2" s="29" t="n"/>
+      <c r="Q2" s="29" t="n"/>
+      <c r="R2" s="29" t="n"/>
+      <c r="S2" s="29" t="n"/>
+      <c r="T2" s="29" t="n"/>
+      <c r="U2" s="29" t="n"/>
+      <c r="V2" s="29" t="n"/>
+      <c r="W2" s="29" t="n"/>
+      <c r="X2" s="29" t="n"/>
+      <c r="Y2" s="29" t="n"/>
+      <c r="Z2" s="29" t="n"/>
+      <c r="AA2" s="29" t="n"/>
+      <c r="AB2" s="29" t="n"/>
+      <c r="AC2" s="29" t="n"/>
+      <c r="AD2" s="29" t="n"/>
+      <c r="AE2" s="29" t="n"/>
+      <c r="AF2" s="29" t="n"/>
+      <c r="AG2" s="29" t="n"/>
+      <c r="AH2" s="29" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="20" t="n">
@@ -963,7 +1028,7 @@
       </c>
       <c r="B3" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C3" s="21" t="inlineStr">
@@ -1033,7 +1098,7 @@
       </c>
       <c r="B4" s="20" t="inlineStr">
         <is>
-          <t>MOT300</t>
+          <t>MOT0300</t>
         </is>
       </c>
       <c r="C4" s="21" t="inlineStr">
@@ -2894,12 +2959,12 @@
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:J1"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -3124,7 +3189,7 @@
       </c>
       <c r="B3" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C3" s="21">
@@ -3181,7 +3246,7 @@
       </c>
       <c r="B4" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C4" s="21">
@@ -3238,7 +3303,7 @@
       </c>
       <c r="B5" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C5" s="21">
@@ -3466,7 +3531,7 @@
       </c>
       <c r="B9" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C9" s="21">
@@ -3523,7 +3588,7 @@
       </c>
       <c r="B10" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C10" s="21">
@@ -3580,7 +3645,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C11" s="21">
@@ -3637,7 +3702,7 @@
       </c>
       <c r="B12" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C12" s="21">
@@ -3694,7 +3759,7 @@
       </c>
       <c r="B13" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C13" s="21">
@@ -3751,7 +3816,7 @@
       </c>
       <c r="B14" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C14" s="21">
@@ -3808,7 +3873,7 @@
       </c>
       <c r="B15" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C15" s="21">
@@ -3865,7 +3930,7 @@
       </c>
       <c r="B16" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C16" s="21">
@@ -3922,7 +3987,7 @@
       </c>
       <c r="B17" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C17" s="21">
@@ -3979,7 +4044,7 @@
       </c>
       <c r="B18" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C18" s="21">
@@ -4036,7 +4101,7 @@
       </c>
       <c r="B19" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C19" s="21">
@@ -4093,7 +4158,7 @@
       </c>
       <c r="B20" s="20" t="inlineStr">
         <is>
-          <t>MOT200</t>
+          <t>MOT0200</t>
         </is>
       </c>
       <c r="C20" s="21">

--- a/EE_Project_Dashboard.xlsx
+++ b/EE_Project_Dashboard.xlsx
@@ -763,7 +763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AI1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -2944,6 +2944,955 @@
       <c r="AG52" s="20" t="n"/>
       <c r="AH52" s="20" t="n"/>
     </row>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+    <row r="1001"/>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="AB1:AB2"/>
@@ -3025,7 +3974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AI1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21015,7 +21964,7 @@
       </c>
       <c r="B501" s="9" t="n"/>
       <c r="C501" s="9">
-        <f>IF(B501="","",VLOOKUP(B501,Projects!$B:$C,2,FALSE()))</f>
+        <f>IF(B501="","",VLOOKUP(B501,Roadmap!$B$3:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D501" s="11" t="n"/>
@@ -35014,6 +35963,7 @@
       <c r="Z1000" s="9" t="n"/>
       <c r="AA1000" s="9" t="n"/>
     </row>
+    <row r="1001"/>
   </sheetData>
   <autoFilter ref="A1:L501"/>
   <conditionalFormatting sqref="E2:E501">

--- a/EE_Project_Dashboard.xlsx
+++ b/EE_Project_Dashboard.xlsx
@@ -10,6 +10,13 @@
     <sheet name="Tasks" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="MOT0200">'Roadmap'!$AK$2:$AK$6</definedName>
+    <definedName name="MOT0300">'Roadmap'!$AL$2</definedName>
+    <definedName name="HSCR01">'Roadmap'!$AL$2</definedName>
+    <definedName name="HBR00">'Roadmap'!$AL$2</definedName>
+    <definedName name="EMBPC00">'Roadmap'!$AL$2</definedName>
+    <definedName name="HCR00">'Roadmap'!$AL$2</definedName>
+    <definedName name="BATERY00">'Roadmap'!$AL$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tasks'!$A$1:$M$58</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -22,7 +29,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -54,6 +61,17 @@
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color rgb="FF999999"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF999999"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="5">
@@ -229,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -273,6 +291,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -836,6 +856,8 @@
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="6.81640625" customWidth="1" min="4" max="10"/>
     <col width="10" customWidth="1" min="11" max="34"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="3" customWidth="1" min="38" max="38"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -983,6 +1005,11 @@
       <c r="AH1" s="10" t="inlineStr">
         <is>
           <t>T12/2026</t>
+        </is>
+      </c>
+      <c r="AK1" s="19" t="inlineStr">
+        <is>
+          <t>Board List</t>
         </is>
       </c>
     </row>
@@ -1049,6 +1076,16 @@
       <c r="AF2" s="11" t="n"/>
       <c r="AG2" s="11" t="n"/>
       <c r="AH2" s="11" t="n"/>
+      <c r="AK2" s="20" t="inlineStr">
+        <is>
+          <t>PDU</t>
+        </is>
+      </c>
+      <c r="AL2" s="20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="45.5" customHeight="1">
       <c r="A3" s="5" t="n">
@@ -1123,6 +1160,11 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
+      <c r="AK3" s="20" t="inlineStr">
+        <is>
+          <t>LLB</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="45.5" customHeight="1">
       <c r="A4" s="5" t="n">
@@ -1177,6 +1219,11 @@
       <c r="AF4" s="5" t="n"/>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
+      <c r="AK4" s="20" t="inlineStr">
+        <is>
+          <t>Hub Ethernet</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="45.5" customHeight="1">
       <c r="A5" s="5" t="n">
@@ -1235,6 +1282,11 @@
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
+      <c r="AK5" s="20" t="inlineStr">
+        <is>
+          <t>Hot Swap</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="45.5" customHeight="1">
       <c r="A6" s="5" t="n">
@@ -1285,6 +1337,11 @@
       <c r="AF6" s="5" t="n"/>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
+      <c r="AK6" s="20" t="inlineStr">
+        <is>
+          <t>Wire Harness</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="45.5" customHeight="1">
       <c r="A7" s="5" t="n">
@@ -4647,11 +4704,7 @@
         <f>IF(B26="","",VLOOKUP(B26,Roadmap!$B$3:$C$100,2,FALSE()))</f>
         <v/>
       </c>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>Tổng hợp</t>
-        </is>
-      </c>
+      <c r="D26" s="14" t="n"/>
       <c r="E26" s="15" t="inlineStr">
         <is>
           <t>Lắp ráp và test Robot</t>
@@ -4957,11 +5010,7 @@
         <f>IF(B31="","",VLOOKUP(B31,Roadmap!$B$3:$C$100,2,FALSE()))</f>
         <v/>
       </c>
-      <c r="D31" s="14" t="inlineStr">
-        <is>
-          <t>Tổng hợp</t>
-        </is>
-      </c>
+      <c r="D31" s="14" t="n"/>
       <c r="E31" s="15" t="inlineStr">
         <is>
           <t>Lựa chọn linh kiện nút nhấn cho Robot Vin Motion 2</t>
@@ -5019,11 +5068,7 @@
         <f>IF(B32="","",VLOOKUP(B32,Roadmap!$B$3:$C$100,2,FALSE()))</f>
         <v/>
       </c>
-      <c r="D32" s="14" t="inlineStr">
-        <is>
-          <t>Tổng hợp</t>
-        </is>
-      </c>
+      <c r="D32" s="14" t="n"/>
       <c r="E32" s="15" t="inlineStr">
         <is>
           <t>Benchmarking hệ thống điện tử, máy tính, camera các robot trên thế giới (Engine AI, Unitree, Ubitech,…)</t>
@@ -5081,11 +5126,7 @@
         <f>IF(B33="","",VLOOKUP(B33,Roadmap!$B$3:$C$100,2,FALSE()))</f>
         <v/>
       </c>
-      <c r="D33" s="14" t="inlineStr">
-        <is>
-          <t>Tổng hợp</t>
-        </is>
-      </c>
+      <c r="D33" s="14" t="n"/>
       <c r="E33" s="15" t="inlineStr">
         <is>
           <t>Test Anten đặt trên đầu xem có ổn không</t>
@@ -5143,11 +5184,7 @@
         <f>IF(B34="","",VLOOKUP(B34,Roadmap!$B$3:$C$100,2,FALSE()))</f>
         <v/>
       </c>
-      <c r="D34" s="14" t="inlineStr">
-        <is>
-          <t>Tổng hợp</t>
-        </is>
-      </c>
+      <c r="D34" s="14" t="n"/>
       <c r="E34" s="15" t="inlineStr">
         <is>
           <t>Test loa</t>
@@ -5263,11 +5300,7 @@
         <f>IF(B36="","",VLOOKUP(B36,Roadmap!$B$3:$C$100,2,FALSE()))</f>
         <v/>
       </c>
-      <c r="D36" s="14" t="inlineStr">
-        <is>
-          <t>Tổng hợp</t>
-        </is>
-      </c>
+      <c r="D36" s="14" t="n"/>
       <c r="E36" s="15" t="inlineStr">
         <is>
           <t>Test dây cho Robot</t>
@@ -5325,11 +5358,7 @@
         <f>IF(B37="","",VLOOKUP(B37,Roadmap!$B$3:$C$100,2,FALSE()))</f>
         <v/>
       </c>
-      <c r="D37" s="14" t="inlineStr">
-        <is>
-          <t>Tổng hợp</t>
-        </is>
-      </c>
+      <c r="D37" s="14" t="n"/>
       <c r="E37" s="15" t="inlineStr">
         <is>
           <t>Làm việc nhà máy Vfe</t>
@@ -5387,11 +5416,7 @@
         <f>IF(B38="","",VLOOKUP(B38,Roadmap!$B$3:$C$100,2,FALSE()))</f>
         <v/>
       </c>
-      <c r="D38" s="14" t="inlineStr">
-        <is>
-          <t>Tổng hợp</t>
-        </is>
-      </c>
+      <c r="D38" s="14" t="n"/>
       <c r="E38" s="15" t="inlineStr">
         <is>
           <t>Tiếp nhận và và xử lý lỗi của Robot đang hoạt động tại các P&amp;L</t>
@@ -32998,46 +33023,43 @@
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="11">
       <formula>"Wire Harness"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="4">
-      <formula>"Tổng hợp"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F58">
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="8">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="8">
       <formula>"Task"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="7">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="7">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I58">
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="6">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="1">
       <formula>"Doing"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="4">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="0">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M58">
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="2">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="1">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="0">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"PDU,LLB,Hub Ethernet,Hot Swap,Wire Harness,Tổng hợp"</formula1>
+    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Không hợp lệ" error="Board/Module chỉ áp dụng cho dự án MOT0200" type="list">
+      <formula1>=INDIRECT($B2)</formula1>
     </dataValidation>
     <dataValidation sqref="B2:B58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>Roadmap!$B$3:$B$100</formula1>

--- a/EE_Project_Dashboard.xlsx
+++ b/EE_Project_Dashboard.xlsx
@@ -10,13 +10,17 @@
     <sheet name="Tasks" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="MOT0200">'Roadmap'!$AK$2:$AK$6</definedName>
-    <definedName name="MOT0300">'Roadmap'!$AL$2</definedName>
-    <definedName name="HSCR01">'Roadmap'!$AL$2</definedName>
-    <definedName name="HBR00">'Roadmap'!$AL$2</definedName>
-    <definedName name="EMBPC00">'Roadmap'!$AL$2</definedName>
-    <definedName name="HCR00">'Roadmap'!$AL$2</definedName>
-    <definedName name="BATERY00">'Roadmap'!$AL$2</definedName>
+    <definedName name="RASI_List">'Roadmap'!$AL$3:$AL$7</definedName>
+    <definedName name="Status_List">'Roadmap'!$AL$8:$AL$11</definedName>
+    <definedName name="Type_List">'Roadmap'!$AL$12:$AL$13</definedName>
+    <definedName name="Priority_List">'Roadmap'!$AL$14:$AL$16</definedName>
+    <definedName name="MOT0200">OFFSET('Roadmap'!$AO$3,0,0,MAX(COUNTA('Roadmap'!$AO$3:$AO$22),1),1)</definedName>
+    <definedName name="MOT0300">OFFSET('Roadmap'!$AP$3,0,0,MAX(COUNTA('Roadmap'!$AP$3:$AP$22),1),1)</definedName>
+    <definedName name="HSCR01">OFFSET('Roadmap'!$AQ$3,0,0,MAX(COUNTA('Roadmap'!$AQ$3:$AQ$22),1),1)</definedName>
+    <definedName name="HBR00">OFFSET('Roadmap'!$AR$3,0,0,MAX(COUNTA('Roadmap'!$AR$3:$AR$22),1),1)</definedName>
+    <definedName name="EMBPC00">OFFSET('Roadmap'!$AS$3,0,0,MAX(COUNTA('Roadmap'!$AS$3:$AS$22),1),1)</definedName>
+    <definedName name="HCR00">OFFSET('Roadmap'!$AT$3,0,0,MAX(COUNTA('Roadmap'!$AT$3:$AT$22),1),1)</definedName>
+    <definedName name="BATERY00">OFFSET('Roadmap'!$AU$3,0,0,MAX(COUNTA('Roadmap'!$AU$3:$AU$22),1),1)</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tasks'!$A$1:$M$58</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -29,7 +33,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -73,8 +77,67 @@
       <color rgb="FF999999"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF4A148C"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF1864AB"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF0B6623"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF9B1D1D"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF7C5E00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color rgb="FF888888"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF0070C0"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF666666"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF495057"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="20">
     <fill>
       <patternFill/>
     </fill>
@@ -99,8 +162,98 @@
         <bgColor rgb="FF33C1FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBEAFE"/>
+        <bgColor rgb="FFDBEAFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3F2FD"/>
+        <bgColor rgb="FFE3F2FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3F9D8"/>
+        <bgColor rgb="FFD3F9D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD6D6"/>
+        <bgColor rgb="FFFFD6D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF9DB"/>
+        <bgColor rgb="FFFFF9DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F4FD"/>
+        <bgColor rgb="FFE8F4FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6B6B"/>
+        <bgColor rgb="FFFF6B6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA94D"/>
+        <bgColor rgb="FFFFA94D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69DB7C"/>
+        <bgColor rgb="FF69DB7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF74C0FC"/>
+        <bgColor rgb="FF74C0FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB197FC"/>
+        <bgColor rgb="FFB197FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD43B"/>
+        <bgColor rgb="FFFFD43B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE2E6"/>
+        <bgColor rgb="FFDEE2E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -243,11 +396,26 @@
         <color rgb="FF005A9E"/>
       </bottom>
     </border>
+    <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D0D0"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -293,6 +461,65 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL52"/>
+  <dimension ref="A1:BB52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -856,8 +1083,17 @@
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="6.81640625" customWidth="1" min="4" max="10"/>
     <col width="10" customWidth="1" min="11" max="34"/>
-    <col width="14" customWidth="1" min="37" max="37"/>
-    <col width="3" customWidth="1" min="38" max="38"/>
+    <col width="12" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="45" customWidth="1" min="39" max="39"/>
+    <col width="16" customWidth="1" min="40" max="40"/>
+    <col width="16" customWidth="1" min="41" max="41"/>
+    <col width="16" customWidth="1" min="42" max="42"/>
+    <col width="16" customWidth="1" min="43" max="43"/>
+    <col width="16" customWidth="1" min="44" max="44"/>
+    <col width="16" customWidth="1" min="45" max="45"/>
+    <col width="16" customWidth="1" min="46" max="46"/>
+    <col width="16" customWidth="1" min="47" max="47"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1007,11 +1243,32 @@
           <t>T12/2026</t>
         </is>
       </c>
-      <c r="AK1" s="19" t="inlineStr">
+      <c r="AK1" s="21" t="inlineStr">
         <is>
-          <t>Board List</t>
+          <t>THƯ VIỆN ĐỊNH NGHĨA</t>
         </is>
       </c>
+      <c r="AL1" s="22" t="n"/>
+      <c r="AM1" s="22" t="n"/>
+      <c r="AN1" s="23" t="n"/>
+      <c r="AO1" s="21" t="inlineStr">
+        <is>
+          <t>BOARD / MODULE CHO TỪNG DỰ ÁN</t>
+        </is>
+      </c>
+      <c r="AP1" s="22" t="n"/>
+      <c r="AQ1" s="22" t="n"/>
+      <c r="AR1" s="22" t="n"/>
+      <c r="AS1" s="22" t="n"/>
+      <c r="AT1" s="22" t="n"/>
+      <c r="AU1" s="22" t="n"/>
+      <c r="AV1" s="23" t="n"/>
+      <c r="AW1" s="23" t="n"/>
+      <c r="AX1" s="23" t="n"/>
+      <c r="AY1" s="23" t="n"/>
+      <c r="AZ1" s="23" t="n"/>
+      <c r="BA1" s="23" t="n"/>
+      <c r="BB1" s="23" t="n"/>
     </row>
     <row r="2" ht="58" customHeight="1">
       <c r="A2" s="11" t="n"/>
@@ -1076,16 +1333,64 @@
       <c r="AF2" s="11" t="n"/>
       <c r="AG2" s="11" t="n"/>
       <c r="AH2" s="11" t="n"/>
-      <c r="AK2" s="20" t="inlineStr">
+      <c r="AK2" s="24" t="inlineStr">
         <is>
-          <t>PDU</t>
+          <t>Loại</t>
         </is>
       </c>
-      <c r="AL2" s="20" t="inlineStr">
+      <c r="AL2" s="24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Giá trị</t>
         </is>
       </c>
+      <c r="AM2" s="24" t="inlineStr">
+        <is>
+          <t>Mô tả</t>
+        </is>
+      </c>
+      <c r="AN2" s="23" t="n"/>
+      <c r="AO2" s="24" t="inlineStr">
+        <is>
+          <t>MOT0200</t>
+        </is>
+      </c>
+      <c r="AP2" s="24" t="inlineStr">
+        <is>
+          <t>MOT0300</t>
+        </is>
+      </c>
+      <c r="AQ2" s="24" t="inlineStr">
+        <is>
+          <t>HSCR01</t>
+        </is>
+      </c>
+      <c r="AR2" s="24" t="inlineStr">
+        <is>
+          <t>HBR00</t>
+        </is>
+      </c>
+      <c r="AS2" s="24" t="inlineStr">
+        <is>
+          <t>EMBPC00</t>
+        </is>
+      </c>
+      <c r="AT2" s="24" t="inlineStr">
+        <is>
+          <t>HCR00</t>
+        </is>
+      </c>
+      <c r="AU2" s="24" t="inlineStr">
+        <is>
+          <t>BATERY00</t>
+        </is>
+      </c>
+      <c r="AV2" s="23" t="n"/>
+      <c r="AW2" s="23" t="n"/>
+      <c r="AX2" s="23" t="n"/>
+      <c r="AY2" s="23" t="n"/>
+      <c r="AZ2" s="23" t="n"/>
+      <c r="BA2" s="23" t="n"/>
+      <c r="BB2" s="23" t="n"/>
     </row>
     <row r="3" ht="45.5" customHeight="1">
       <c r="A3" s="5" t="n">
@@ -1160,11 +1465,40 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AK3" s="20" t="inlineStr">
+      <c r="AK3" s="32" t="inlineStr">
         <is>
-          <t>LLB</t>
+          <t>RASI</t>
         </is>
       </c>
+      <c r="AL3" s="33" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AM3" s="34" t="inlineStr">
+        <is>
+          <t>Responsible - Chịu trách nhiệm thực hiện</t>
+        </is>
+      </c>
+      <c r="AN3" s="23" t="n"/>
+      <c r="AO3" s="25" t="inlineStr">
+        <is>
+          <t>PDU</t>
+        </is>
+      </c>
+      <c r="AP3" s="26" t="n"/>
+      <c r="AQ3" s="26" t="n"/>
+      <c r="AR3" s="26" t="n"/>
+      <c r="AS3" s="26" t="n"/>
+      <c r="AT3" s="26" t="n"/>
+      <c r="AU3" s="26" t="n"/>
+      <c r="AV3" s="23" t="n"/>
+      <c r="AW3" s="23" t="n"/>
+      <c r="AX3" s="23" t="n"/>
+      <c r="AY3" s="23" t="n"/>
+      <c r="AZ3" s="23" t="n"/>
+      <c r="BA3" s="23" t="n"/>
+      <c r="BB3" s="23" t="n"/>
     </row>
     <row r="4" ht="45.5" customHeight="1">
       <c r="A4" s="5" t="n">
@@ -1219,11 +1553,36 @@
       <c r="AF4" s="5" t="n"/>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
-      <c r="AK4" s="20" t="inlineStr">
+      <c r="AK4" s="35" t="n"/>
+      <c r="AL4" s="36" t="inlineStr">
         <is>
-          <t>Hub Ethernet</t>
+          <t>A</t>
         </is>
       </c>
+      <c r="AM4" s="34" t="inlineStr">
+        <is>
+          <t>Accountable - Phê duyệt, chịu trách nhiệm cuối cùng</t>
+        </is>
+      </c>
+      <c r="AN4" s="23" t="n"/>
+      <c r="AO4" s="27" t="inlineStr">
+        <is>
+          <t>LLB</t>
+        </is>
+      </c>
+      <c r="AP4" s="26" t="n"/>
+      <c r="AQ4" s="26" t="n"/>
+      <c r="AR4" s="26" t="n"/>
+      <c r="AS4" s="26" t="n"/>
+      <c r="AT4" s="26" t="n"/>
+      <c r="AU4" s="26" t="n"/>
+      <c r="AV4" s="23" t="n"/>
+      <c r="AW4" s="23" t="n"/>
+      <c r="AX4" s="23" t="n"/>
+      <c r="AY4" s="23" t="n"/>
+      <c r="AZ4" s="23" t="n"/>
+      <c r="BA4" s="23" t="n"/>
+      <c r="BB4" s="23" t="n"/>
     </row>
     <row r="5" ht="45.5" customHeight="1">
       <c r="A5" s="5" t="n">
@@ -1282,11 +1641,36 @@
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
-      <c r="AK5" s="20" t="inlineStr">
+      <c r="AK5" s="35" t="n"/>
+      <c r="AL5" s="37" t="inlineStr">
         <is>
-          <t>Hot Swap</t>
+          <t>S</t>
         </is>
       </c>
+      <c r="AM5" s="34" t="inlineStr">
+        <is>
+          <t>Support - Hỗ trợ thực hiện</t>
+        </is>
+      </c>
+      <c r="AN5" s="23" t="n"/>
+      <c r="AO5" s="28" t="inlineStr">
+        <is>
+          <t>Hub Ethernet</t>
+        </is>
+      </c>
+      <c r="AP5" s="26" t="n"/>
+      <c r="AQ5" s="26" t="n"/>
+      <c r="AR5" s="26" t="n"/>
+      <c r="AS5" s="26" t="n"/>
+      <c r="AT5" s="26" t="n"/>
+      <c r="AU5" s="26" t="n"/>
+      <c r="AV5" s="23" t="n"/>
+      <c r="AW5" s="23" t="n"/>
+      <c r="AX5" s="23" t="n"/>
+      <c r="AY5" s="23" t="n"/>
+      <c r="AZ5" s="23" t="n"/>
+      <c r="BA5" s="23" t="n"/>
+      <c r="BB5" s="23" t="n"/>
     </row>
     <row r="6" ht="45.5" customHeight="1">
       <c r="A6" s="5" t="n">
@@ -1337,11 +1721,36 @@
       <c r="AF6" s="5" t="n"/>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
-      <c r="AK6" s="20" t="inlineStr">
+      <c r="AK6" s="35" t="n"/>
+      <c r="AL6" s="38" t="inlineStr">
         <is>
-          <t>Wire Harness</t>
+          <t>C</t>
         </is>
       </c>
+      <c r="AM6" s="34" t="inlineStr">
+        <is>
+          <t>Consulted - Được tham vấn ý kiến</t>
+        </is>
+      </c>
+      <c r="AN6" s="23" t="n"/>
+      <c r="AO6" s="29" t="inlineStr">
+        <is>
+          <t>Hot Swap</t>
+        </is>
+      </c>
+      <c r="AP6" s="26" t="n"/>
+      <c r="AQ6" s="26" t="n"/>
+      <c r="AR6" s="26" t="n"/>
+      <c r="AS6" s="26" t="n"/>
+      <c r="AT6" s="26" t="n"/>
+      <c r="AU6" s="26" t="n"/>
+      <c r="AV6" s="23" t="n"/>
+      <c r="AW6" s="23" t="n"/>
+      <c r="AX6" s="23" t="n"/>
+      <c r="AY6" s="23" t="n"/>
+      <c r="AZ6" s="23" t="n"/>
+      <c r="BA6" s="23" t="n"/>
+      <c r="BB6" s="23" t="n"/>
     </row>
     <row r="7" ht="45.5" customHeight="1">
       <c r="A7" s="5" t="n">
@@ -1392,6 +1801,36 @@
       <c r="AF7" s="5" t="n"/>
       <c r="AG7" s="5" t="n"/>
       <c r="AH7" s="5" t="n"/>
+      <c r="AK7" s="35" t="n"/>
+      <c r="AL7" s="39" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AM7" s="34" t="inlineStr">
+        <is>
+          <t>Informed - Được thông báo kết quả</t>
+        </is>
+      </c>
+      <c r="AN7" s="23" t="n"/>
+      <c r="AO7" s="30" t="inlineStr">
+        <is>
+          <t>Wire Harness</t>
+        </is>
+      </c>
+      <c r="AP7" s="26" t="n"/>
+      <c r="AQ7" s="26" t="n"/>
+      <c r="AR7" s="26" t="n"/>
+      <c r="AS7" s="26" t="n"/>
+      <c r="AT7" s="26" t="n"/>
+      <c r="AU7" s="26" t="n"/>
+      <c r="AV7" s="23" t="n"/>
+      <c r="AW7" s="23" t="n"/>
+      <c r="AX7" s="23" t="n"/>
+      <c r="AY7" s="23" t="n"/>
+      <c r="AZ7" s="23" t="n"/>
+      <c r="BA7" s="23" t="n"/>
+      <c r="BB7" s="23" t="n"/>
     </row>
     <row r="8" ht="45.5" customHeight="1">
       <c r="A8" s="5" t="n">
@@ -1450,6 +1889,36 @@
       <c r="AF8" s="5" t="n"/>
       <c r="AG8" s="5" t="n"/>
       <c r="AH8" s="5" t="n"/>
+      <c r="AK8" s="32" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="AL8" s="38" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="AM8" s="34" t="inlineStr">
+        <is>
+          <t>Chưa bắt đầu</t>
+        </is>
+      </c>
+      <c r="AN8" s="23" t="n"/>
+      <c r="AO8" s="26" t="n"/>
+      <c r="AP8" s="26" t="n"/>
+      <c r="AQ8" s="26" t="n"/>
+      <c r="AR8" s="26" t="n"/>
+      <c r="AS8" s="26" t="n"/>
+      <c r="AT8" s="26" t="n"/>
+      <c r="AU8" s="26" t="n"/>
+      <c r="AV8" s="23" t="n"/>
+      <c r="AW8" s="23" t="n"/>
+      <c r="AX8" s="23" t="n"/>
+      <c r="AY8" s="23" t="n"/>
+      <c r="AZ8" s="23" t="n"/>
+      <c r="BA8" s="23" t="n"/>
+      <c r="BB8" s="23" t="n"/>
     </row>
     <row r="9" ht="45.5" customHeight="1">
       <c r="A9" s="5" t="n">
@@ -1500,6 +1969,32 @@
       <c r="AF9" s="5" t="n"/>
       <c r="AG9" s="5" t="n"/>
       <c r="AH9" s="5" t="n"/>
+      <c r="AK9" s="35" t="n"/>
+      <c r="AL9" s="40" t="inlineStr">
+        <is>
+          <t>Doing</t>
+        </is>
+      </c>
+      <c r="AM9" s="34" t="inlineStr">
+        <is>
+          <t>Đang thực hiện</t>
+        </is>
+      </c>
+      <c r="AN9" s="23" t="n"/>
+      <c r="AO9" s="26" t="n"/>
+      <c r="AP9" s="26" t="n"/>
+      <c r="AQ9" s="26" t="n"/>
+      <c r="AR9" s="26" t="n"/>
+      <c r="AS9" s="26" t="n"/>
+      <c r="AT9" s="26" t="n"/>
+      <c r="AU9" s="26" t="n"/>
+      <c r="AV9" s="23" t="n"/>
+      <c r="AW9" s="23" t="n"/>
+      <c r="AX9" s="23" t="n"/>
+      <c r="AY9" s="23" t="n"/>
+      <c r="AZ9" s="23" t="n"/>
+      <c r="BA9" s="23" t="n"/>
+      <c r="BB9" s="23" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n"/>
@@ -1536,6 +2031,32 @@
       <c r="AF10" s="5" t="n"/>
       <c r="AG10" s="5" t="n"/>
       <c r="AH10" s="5" t="n"/>
+      <c r="AK10" s="35" t="n"/>
+      <c r="AL10" s="41" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="AM10" s="34" t="inlineStr">
+        <is>
+          <t>Tạm dừng / Chờ xử lý</t>
+        </is>
+      </c>
+      <c r="AN10" s="23" t="n"/>
+      <c r="AO10" s="26" t="n"/>
+      <c r="AP10" s="26" t="n"/>
+      <c r="AQ10" s="26" t="n"/>
+      <c r="AR10" s="26" t="n"/>
+      <c r="AS10" s="26" t="n"/>
+      <c r="AT10" s="26" t="n"/>
+      <c r="AU10" s="26" t="n"/>
+      <c r="AV10" s="23" t="n"/>
+      <c r="AW10" s="23" t="n"/>
+      <c r="AX10" s="23" t="n"/>
+      <c r="AY10" s="23" t="n"/>
+      <c r="AZ10" s="23" t="n"/>
+      <c r="BA10" s="23" t="n"/>
+      <c r="BB10" s="23" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n"/>
@@ -1572,6 +2093,32 @@
       <c r="AF11" s="5" t="n"/>
       <c r="AG11" s="5" t="n"/>
       <c r="AH11" s="5" t="n"/>
+      <c r="AK11" s="35" t="n"/>
+      <c r="AL11" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="AM11" s="34" t="inlineStr">
+        <is>
+          <t>Hoàn thành</t>
+        </is>
+      </c>
+      <c r="AN11" s="23" t="n"/>
+      <c r="AO11" s="26" t="n"/>
+      <c r="AP11" s="26" t="n"/>
+      <c r="AQ11" s="26" t="n"/>
+      <c r="AR11" s="26" t="n"/>
+      <c r="AS11" s="26" t="n"/>
+      <c r="AT11" s="26" t="n"/>
+      <c r="AU11" s="26" t="n"/>
+      <c r="AV11" s="23" t="n"/>
+      <c r="AW11" s="23" t="n"/>
+      <c r="AX11" s="23" t="n"/>
+      <c r="AY11" s="23" t="n"/>
+      <c r="AZ11" s="23" t="n"/>
+      <c r="BA11" s="23" t="n"/>
+      <c r="BB11" s="23" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n"/>
@@ -1608,6 +2155,36 @@
       <c r="AF12" s="5" t="n"/>
       <c r="AG12" s="5" t="n"/>
       <c r="AH12" s="5" t="n"/>
+      <c r="AK12" s="32" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="AL12" s="27" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="AM12" s="34" t="inlineStr">
+        <is>
+          <t>Công việc thường</t>
+        </is>
+      </c>
+      <c r="AN12" s="23" t="n"/>
+      <c r="AO12" s="26" t="n"/>
+      <c r="AP12" s="26" t="n"/>
+      <c r="AQ12" s="26" t="n"/>
+      <c r="AR12" s="26" t="n"/>
+      <c r="AS12" s="26" t="n"/>
+      <c r="AT12" s="26" t="n"/>
+      <c r="AU12" s="26" t="n"/>
+      <c r="AV12" s="23" t="n"/>
+      <c r="AW12" s="23" t="n"/>
+      <c r="AX12" s="23" t="n"/>
+      <c r="AY12" s="23" t="n"/>
+      <c r="AZ12" s="23" t="n"/>
+      <c r="BA12" s="23" t="n"/>
+      <c r="BB12" s="23" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
@@ -1644,6 +2221,32 @@
       <c r="AF13" s="5" t="n"/>
       <c r="AG13" s="5" t="n"/>
       <c r="AH13" s="5" t="n"/>
+      <c r="AK13" s="35" t="n"/>
+      <c r="AL13" s="29" t="inlineStr">
+        <is>
+          <t>Issue</t>
+        </is>
+      </c>
+      <c r="AM13" s="34" t="inlineStr">
+        <is>
+          <t>Vấn đề / Lỗi cần xử lý</t>
+        </is>
+      </c>
+      <c r="AN13" s="23" t="n"/>
+      <c r="AO13" s="26" t="n"/>
+      <c r="AP13" s="26" t="n"/>
+      <c r="AQ13" s="26" t="n"/>
+      <c r="AR13" s="26" t="n"/>
+      <c r="AS13" s="26" t="n"/>
+      <c r="AT13" s="26" t="n"/>
+      <c r="AU13" s="26" t="n"/>
+      <c r="AV13" s="23" t="n"/>
+      <c r="AW13" s="23" t="n"/>
+      <c r="AX13" s="23" t="n"/>
+      <c r="AY13" s="23" t="n"/>
+      <c r="AZ13" s="23" t="n"/>
+      <c r="BA13" s="23" t="n"/>
+      <c r="BB13" s="23" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n"/>
@@ -1680,6 +2283,36 @@
       <c r="AF14" s="5" t="n"/>
       <c r="AG14" s="5" t="n"/>
       <c r="AH14" s="5" t="n"/>
+      <c r="AK14" s="32" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="AL14" s="33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AM14" s="34" t="inlineStr">
+        <is>
+          <t>Ưu tiên cao - Cần xử lý gấp</t>
+        </is>
+      </c>
+      <c r="AN14" s="23" t="n"/>
+      <c r="AO14" s="26" t="n"/>
+      <c r="AP14" s="26" t="n"/>
+      <c r="AQ14" s="26" t="n"/>
+      <c r="AR14" s="26" t="n"/>
+      <c r="AS14" s="26" t="n"/>
+      <c r="AT14" s="26" t="n"/>
+      <c r="AU14" s="26" t="n"/>
+      <c r="AV14" s="23" t="n"/>
+      <c r="AW14" s="23" t="n"/>
+      <c r="AX14" s="23" t="n"/>
+      <c r="AY14" s="23" t="n"/>
+      <c r="AZ14" s="23" t="n"/>
+      <c r="BA14" s="23" t="n"/>
+      <c r="BB14" s="23" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -1716,6 +2349,32 @@
       <c r="AF15" s="5" t="n"/>
       <c r="AG15" s="5" t="n"/>
       <c r="AH15" s="5" t="n"/>
+      <c r="AK15" s="35" t="n"/>
+      <c r="AL15" s="40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM15" s="34" t="inlineStr">
+        <is>
+          <t>Ưu tiên trung bình</t>
+        </is>
+      </c>
+      <c r="AN15" s="23" t="n"/>
+      <c r="AO15" s="26" t="n"/>
+      <c r="AP15" s="26" t="n"/>
+      <c r="AQ15" s="26" t="n"/>
+      <c r="AR15" s="26" t="n"/>
+      <c r="AS15" s="26" t="n"/>
+      <c r="AT15" s="26" t="n"/>
+      <c r="AU15" s="26" t="n"/>
+      <c r="AV15" s="23" t="n"/>
+      <c r="AW15" s="23" t="n"/>
+      <c r="AX15" s="23" t="n"/>
+      <c r="AY15" s="23" t="n"/>
+      <c r="AZ15" s="23" t="n"/>
+      <c r="BA15" s="23" t="n"/>
+      <c r="BB15" s="23" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n"/>
@@ -1752,6 +2411,32 @@
       <c r="AF16" s="5" t="n"/>
       <c r="AG16" s="5" t="n"/>
       <c r="AH16" s="5" t="n"/>
+      <c r="AK16" s="35" t="n"/>
+      <c r="AL16" s="37" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AM16" s="34" t="inlineStr">
+        <is>
+          <t>Ưu tiên thấp</t>
+        </is>
+      </c>
+      <c r="AN16" s="23" t="n"/>
+      <c r="AO16" s="26" t="n"/>
+      <c r="AP16" s="26" t="n"/>
+      <c r="AQ16" s="26" t="n"/>
+      <c r="AR16" s="26" t="n"/>
+      <c r="AS16" s="26" t="n"/>
+      <c r="AT16" s="26" t="n"/>
+      <c r="AU16" s="26" t="n"/>
+      <c r="AV16" s="23" t="n"/>
+      <c r="AW16" s="23" t="n"/>
+      <c r="AX16" s="23" t="n"/>
+      <c r="AY16" s="23" t="n"/>
+      <c r="AZ16" s="23" t="n"/>
+      <c r="BA16" s="23" t="n"/>
+      <c r="BB16" s="23" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
@@ -1788,6 +2473,24 @@
       <c r="AF17" s="5" t="n"/>
       <c r="AG17" s="5" t="n"/>
       <c r="AH17" s="5" t="n"/>
+      <c r="AK17" s="42" t="n"/>
+      <c r="AL17" s="42" t="n"/>
+      <c r="AM17" s="42" t="n"/>
+      <c r="AN17" s="23" t="n"/>
+      <c r="AO17" s="26" t="n"/>
+      <c r="AP17" s="26" t="n"/>
+      <c r="AQ17" s="26" t="n"/>
+      <c r="AR17" s="26" t="n"/>
+      <c r="AS17" s="26" t="n"/>
+      <c r="AT17" s="26" t="n"/>
+      <c r="AU17" s="26" t="n"/>
+      <c r="AV17" s="23" t="n"/>
+      <c r="AW17" s="23" t="n"/>
+      <c r="AX17" s="23" t="n"/>
+      <c r="AY17" s="23" t="n"/>
+      <c r="AZ17" s="23" t="n"/>
+      <c r="BA17" s="23" t="n"/>
+      <c r="BB17" s="23" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n"/>
@@ -1824,6 +2527,24 @@
       <c r="AF18" s="5" t="n"/>
       <c r="AG18" s="5" t="n"/>
       <c r="AH18" s="5" t="n"/>
+      <c r="AK18" s="42" t="n"/>
+      <c r="AL18" s="42" t="n"/>
+      <c r="AM18" s="42" t="n"/>
+      <c r="AN18" s="23" t="n"/>
+      <c r="AO18" s="26" t="n"/>
+      <c r="AP18" s="26" t="n"/>
+      <c r="AQ18" s="26" t="n"/>
+      <c r="AR18" s="26" t="n"/>
+      <c r="AS18" s="26" t="n"/>
+      <c r="AT18" s="26" t="n"/>
+      <c r="AU18" s="26" t="n"/>
+      <c r="AV18" s="23" t="n"/>
+      <c r="AW18" s="23" t="n"/>
+      <c r="AX18" s="23" t="n"/>
+      <c r="AY18" s="23" t="n"/>
+      <c r="AZ18" s="23" t="n"/>
+      <c r="BA18" s="23" t="n"/>
+      <c r="BB18" s="23" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n"/>
@@ -1860,6 +2581,24 @@
       <c r="AF19" s="5" t="n"/>
       <c r="AG19" s="5" t="n"/>
       <c r="AH19" s="5" t="n"/>
+      <c r="AK19" s="42" t="n"/>
+      <c r="AL19" s="42" t="n"/>
+      <c r="AM19" s="42" t="n"/>
+      <c r="AN19" s="23" t="n"/>
+      <c r="AO19" s="26" t="n"/>
+      <c r="AP19" s="26" t="n"/>
+      <c r="AQ19" s="26" t="n"/>
+      <c r="AR19" s="26" t="n"/>
+      <c r="AS19" s="26" t="n"/>
+      <c r="AT19" s="26" t="n"/>
+      <c r="AU19" s="26" t="n"/>
+      <c r="AV19" s="23" t="n"/>
+      <c r="AW19" s="23" t="n"/>
+      <c r="AX19" s="23" t="n"/>
+      <c r="AY19" s="23" t="n"/>
+      <c r="AZ19" s="23" t="n"/>
+      <c r="BA19" s="23" t="n"/>
+      <c r="BB19" s="23" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n"/>
@@ -1896,6 +2635,24 @@
       <c r="AF20" s="5" t="n"/>
       <c r="AG20" s="5" t="n"/>
       <c r="AH20" s="5" t="n"/>
+      <c r="AK20" s="42" t="n"/>
+      <c r="AL20" s="42" t="n"/>
+      <c r="AM20" s="42" t="n"/>
+      <c r="AN20" s="23" t="n"/>
+      <c r="AO20" s="26" t="n"/>
+      <c r="AP20" s="26" t="n"/>
+      <c r="AQ20" s="26" t="n"/>
+      <c r="AR20" s="26" t="n"/>
+      <c r="AS20" s="26" t="n"/>
+      <c r="AT20" s="26" t="n"/>
+      <c r="AU20" s="26" t="n"/>
+      <c r="AV20" s="23" t="n"/>
+      <c r="AW20" s="23" t="n"/>
+      <c r="AX20" s="23" t="n"/>
+      <c r="AY20" s="23" t="n"/>
+      <c r="AZ20" s="23" t="n"/>
+      <c r="BA20" s="23" t="n"/>
+      <c r="BB20" s="23" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n"/>
@@ -1932,6 +2689,24 @@
       <c r="AF21" s="5" t="n"/>
       <c r="AG21" s="5" t="n"/>
       <c r="AH21" s="5" t="n"/>
+      <c r="AK21" s="42" t="n"/>
+      <c r="AL21" s="42" t="n"/>
+      <c r="AM21" s="42" t="n"/>
+      <c r="AN21" s="23" t="n"/>
+      <c r="AO21" s="26" t="n"/>
+      <c r="AP21" s="26" t="n"/>
+      <c r="AQ21" s="26" t="n"/>
+      <c r="AR21" s="26" t="n"/>
+      <c r="AS21" s="26" t="n"/>
+      <c r="AT21" s="26" t="n"/>
+      <c r="AU21" s="26" t="n"/>
+      <c r="AV21" s="23" t="n"/>
+      <c r="AW21" s="23" t="n"/>
+      <c r="AX21" s="23" t="n"/>
+      <c r="AY21" s="23" t="n"/>
+      <c r="AZ21" s="23" t="n"/>
+      <c r="BA21" s="23" t="n"/>
+      <c r="BB21" s="23" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n"/>
@@ -1968,6 +2743,26 @@
       <c r="AF22" s="5" t="n"/>
       <c r="AG22" s="5" t="n"/>
       <c r="AH22" s="5" t="n"/>
+      <c r="AK22" s="43" t="inlineStr">
+        <is>
+          <t>* Thêm giá trị mới vào các ô trống bên trên → tự cập nhật dropdown</t>
+        </is>
+      </c>
+      <c r="AN22" s="23" t="n"/>
+      <c r="AO22" s="26" t="n"/>
+      <c r="AP22" s="26" t="n"/>
+      <c r="AQ22" s="26" t="n"/>
+      <c r="AR22" s="26" t="n"/>
+      <c r="AS22" s="26" t="n"/>
+      <c r="AT22" s="26" t="n"/>
+      <c r="AU22" s="26" t="n"/>
+      <c r="AV22" s="23" t="n"/>
+      <c r="AW22" s="23" t="n"/>
+      <c r="AX22" s="23" t="n"/>
+      <c r="AY22" s="23" t="n"/>
+      <c r="AZ22" s="23" t="n"/>
+      <c r="BA22" s="23" t="n"/>
+      <c r="BB22" s="23" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n"/>
@@ -2004,6 +2799,22 @@
       <c r="AF23" s="5" t="n"/>
       <c r="AG23" s="5" t="n"/>
       <c r="AH23" s="5" t="n"/>
+      <c r="AK23" s="23" t="n"/>
+      <c r="AL23" s="23" t="n"/>
+      <c r="AM23" s="23" t="n"/>
+      <c r="AN23" s="23" t="n"/>
+      <c r="AO23" s="43" t="inlineStr">
+        <is>
+          <t>* Thêm/xóa Board ở đây → tự cập nhật dropdown trong Tasks</t>
+        </is>
+      </c>
+      <c r="AV23" s="23" t="n"/>
+      <c r="AW23" s="23" t="n"/>
+      <c r="AX23" s="23" t="n"/>
+      <c r="AY23" s="23" t="n"/>
+      <c r="AZ23" s="23" t="n"/>
+      <c r="BA23" s="23" t="n"/>
+      <c r="BB23" s="23" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -2040,6 +2851,24 @@
       <c r="AF24" s="5" t="n"/>
       <c r="AG24" s="5" t="n"/>
       <c r="AH24" s="5" t="n"/>
+      <c r="AK24" s="23" t="n"/>
+      <c r="AL24" s="23" t="n"/>
+      <c r="AM24" s="23" t="n"/>
+      <c r="AN24" s="23" t="n"/>
+      <c r="AO24" s="23" t="n"/>
+      <c r="AP24" s="23" t="n"/>
+      <c r="AQ24" s="23" t="n"/>
+      <c r="AR24" s="23" t="n"/>
+      <c r="AS24" s="23" t="n"/>
+      <c r="AT24" s="23" t="n"/>
+      <c r="AU24" s="23" t="n"/>
+      <c r="AV24" s="23" t="n"/>
+      <c r="AW24" s="23" t="n"/>
+      <c r="AX24" s="23" t="n"/>
+      <c r="AY24" s="23" t="n"/>
+      <c r="AZ24" s="23" t="n"/>
+      <c r="BA24" s="23" t="n"/>
+      <c r="BB24" s="23" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n"/>
@@ -2076,6 +2905,24 @@
       <c r="AF25" s="5" t="n"/>
       <c r="AG25" s="5" t="n"/>
       <c r="AH25" s="5" t="n"/>
+      <c r="AK25" s="23" t="n"/>
+      <c r="AL25" s="23" t="n"/>
+      <c r="AM25" s="23" t="n"/>
+      <c r="AN25" s="23" t="n"/>
+      <c r="AO25" s="23" t="n"/>
+      <c r="AP25" s="23" t="n"/>
+      <c r="AQ25" s="23" t="n"/>
+      <c r="AR25" s="23" t="n"/>
+      <c r="AS25" s="23" t="n"/>
+      <c r="AT25" s="23" t="n"/>
+      <c r="AU25" s="23" t="n"/>
+      <c r="AV25" s="23" t="n"/>
+      <c r="AW25" s="23" t="n"/>
+      <c r="AX25" s="23" t="n"/>
+      <c r="AY25" s="23" t="n"/>
+      <c r="AZ25" s="23" t="n"/>
+      <c r="BA25" s="23" t="n"/>
+      <c r="BB25" s="23" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
@@ -2112,6 +2959,24 @@
       <c r="AF26" s="5" t="n"/>
       <c r="AG26" s="5" t="n"/>
       <c r="AH26" s="5" t="n"/>
+      <c r="AK26" s="23" t="n"/>
+      <c r="AL26" s="23" t="n"/>
+      <c r="AM26" s="23" t="n"/>
+      <c r="AN26" s="23" t="n"/>
+      <c r="AO26" s="23" t="n"/>
+      <c r="AP26" s="23" t="n"/>
+      <c r="AQ26" s="23" t="n"/>
+      <c r="AR26" s="23" t="n"/>
+      <c r="AS26" s="23" t="n"/>
+      <c r="AT26" s="23" t="n"/>
+      <c r="AU26" s="23" t="n"/>
+      <c r="AV26" s="23" t="n"/>
+      <c r="AW26" s="23" t="n"/>
+      <c r="AX26" s="23" t="n"/>
+      <c r="AY26" s="23" t="n"/>
+      <c r="AZ26" s="23" t="n"/>
+      <c r="BA26" s="23" t="n"/>
+      <c r="BB26" s="23" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
@@ -2148,6 +3013,24 @@
       <c r="AF27" s="5" t="n"/>
       <c r="AG27" s="5" t="n"/>
       <c r="AH27" s="5" t="n"/>
+      <c r="AK27" s="23" t="n"/>
+      <c r="AL27" s="23" t="n"/>
+      <c r="AM27" s="23" t="n"/>
+      <c r="AN27" s="23" t="n"/>
+      <c r="AO27" s="23" t="n"/>
+      <c r="AP27" s="23" t="n"/>
+      <c r="AQ27" s="23" t="n"/>
+      <c r="AR27" s="23" t="n"/>
+      <c r="AS27" s="23" t="n"/>
+      <c r="AT27" s="23" t="n"/>
+      <c r="AU27" s="23" t="n"/>
+      <c r="AV27" s="23" t="n"/>
+      <c r="AW27" s="23" t="n"/>
+      <c r="AX27" s="23" t="n"/>
+      <c r="AY27" s="23" t="n"/>
+      <c r="AZ27" s="23" t="n"/>
+      <c r="BA27" s="23" t="n"/>
+      <c r="BB27" s="23" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
@@ -2184,6 +3067,24 @@
       <c r="AF28" s="5" t="n"/>
       <c r="AG28" s="5" t="n"/>
       <c r="AH28" s="5" t="n"/>
+      <c r="AK28" s="23" t="n"/>
+      <c r="AL28" s="23" t="n"/>
+      <c r="AM28" s="23" t="n"/>
+      <c r="AN28" s="23" t="n"/>
+      <c r="AO28" s="23" t="n"/>
+      <c r="AP28" s="23" t="n"/>
+      <c r="AQ28" s="23" t="n"/>
+      <c r="AR28" s="23" t="n"/>
+      <c r="AS28" s="23" t="n"/>
+      <c r="AT28" s="23" t="n"/>
+      <c r="AU28" s="23" t="n"/>
+      <c r="AV28" s="23" t="n"/>
+      <c r="AW28" s="23" t="n"/>
+      <c r="AX28" s="23" t="n"/>
+      <c r="AY28" s="23" t="n"/>
+      <c r="AZ28" s="23" t="n"/>
+      <c r="BA28" s="23" t="n"/>
+      <c r="BB28" s="23" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n"/>
@@ -2220,6 +3121,24 @@
       <c r="AF29" s="5" t="n"/>
       <c r="AG29" s="5" t="n"/>
       <c r="AH29" s="5" t="n"/>
+      <c r="AK29" s="23" t="n"/>
+      <c r="AL29" s="23" t="n"/>
+      <c r="AM29" s="23" t="n"/>
+      <c r="AN29" s="23" t="n"/>
+      <c r="AO29" s="23" t="n"/>
+      <c r="AP29" s="23" t="n"/>
+      <c r="AQ29" s="23" t="n"/>
+      <c r="AR29" s="23" t="n"/>
+      <c r="AS29" s="23" t="n"/>
+      <c r="AT29" s="23" t="n"/>
+      <c r="AU29" s="23" t="n"/>
+      <c r="AV29" s="23" t="n"/>
+      <c r="AW29" s="23" t="n"/>
+      <c r="AX29" s="23" t="n"/>
+      <c r="AY29" s="23" t="n"/>
+      <c r="AZ29" s="23" t="n"/>
+      <c r="BA29" s="23" t="n"/>
+      <c r="BB29" s="23" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n"/>
@@ -2256,6 +3175,24 @@
       <c r="AF30" s="5" t="n"/>
       <c r="AG30" s="5" t="n"/>
       <c r="AH30" s="5" t="n"/>
+      <c r="AK30" s="23" t="n"/>
+      <c r="AL30" s="23" t="n"/>
+      <c r="AM30" s="23" t="n"/>
+      <c r="AN30" s="23" t="n"/>
+      <c r="AO30" s="23" t="n"/>
+      <c r="AP30" s="23" t="n"/>
+      <c r="AQ30" s="23" t="n"/>
+      <c r="AR30" s="23" t="n"/>
+      <c r="AS30" s="23" t="n"/>
+      <c r="AT30" s="23" t="n"/>
+      <c r="AU30" s="23" t="n"/>
+      <c r="AV30" s="23" t="n"/>
+      <c r="AW30" s="23" t="n"/>
+      <c r="AX30" s="23" t="n"/>
+      <c r="AY30" s="23" t="n"/>
+      <c r="AZ30" s="23" t="n"/>
+      <c r="BA30" s="23" t="n"/>
+      <c r="BB30" s="23" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n"/>
@@ -2292,6 +3229,24 @@
       <c r="AF31" s="5" t="n"/>
       <c r="AG31" s="5" t="n"/>
       <c r="AH31" s="5" t="n"/>
+      <c r="AK31" s="23" t="n"/>
+      <c r="AL31" s="23" t="n"/>
+      <c r="AM31" s="23" t="n"/>
+      <c r="AN31" s="23" t="n"/>
+      <c r="AO31" s="23" t="n"/>
+      <c r="AP31" s="23" t="n"/>
+      <c r="AQ31" s="23" t="n"/>
+      <c r="AR31" s="23" t="n"/>
+      <c r="AS31" s="23" t="n"/>
+      <c r="AT31" s="23" t="n"/>
+      <c r="AU31" s="23" t="n"/>
+      <c r="AV31" s="23" t="n"/>
+      <c r="AW31" s="23" t="n"/>
+      <c r="AX31" s="23" t="n"/>
+      <c r="AY31" s="23" t="n"/>
+      <c r="AZ31" s="23" t="n"/>
+      <c r="BA31" s="23" t="n"/>
+      <c r="BB31" s="23" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n"/>
@@ -2328,6 +3283,24 @@
       <c r="AF32" s="5" t="n"/>
       <c r="AG32" s="5" t="n"/>
       <c r="AH32" s="5" t="n"/>
+      <c r="AK32" s="23" t="n"/>
+      <c r="AL32" s="23" t="n"/>
+      <c r="AM32" s="23" t="n"/>
+      <c r="AN32" s="23" t="n"/>
+      <c r="AO32" s="23" t="n"/>
+      <c r="AP32" s="23" t="n"/>
+      <c r="AQ32" s="23" t="n"/>
+      <c r="AR32" s="23" t="n"/>
+      <c r="AS32" s="23" t="n"/>
+      <c r="AT32" s="23" t="n"/>
+      <c r="AU32" s="23" t="n"/>
+      <c r="AV32" s="23" t="n"/>
+      <c r="AW32" s="23" t="n"/>
+      <c r="AX32" s="23" t="n"/>
+      <c r="AY32" s="23" t="n"/>
+      <c r="AZ32" s="23" t="n"/>
+      <c r="BA32" s="23" t="n"/>
+      <c r="BB32" s="23" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n"/>
@@ -2364,6 +3337,24 @@
       <c r="AF33" s="5" t="n"/>
       <c r="AG33" s="5" t="n"/>
       <c r="AH33" s="5" t="n"/>
+      <c r="AK33" s="23" t="n"/>
+      <c r="AL33" s="23" t="n"/>
+      <c r="AM33" s="23" t="n"/>
+      <c r="AN33" s="23" t="n"/>
+      <c r="AO33" s="23" t="n"/>
+      <c r="AP33" s="23" t="n"/>
+      <c r="AQ33" s="23" t="n"/>
+      <c r="AR33" s="23" t="n"/>
+      <c r="AS33" s="23" t="n"/>
+      <c r="AT33" s="23" t="n"/>
+      <c r="AU33" s="23" t="n"/>
+      <c r="AV33" s="23" t="n"/>
+      <c r="AW33" s="23" t="n"/>
+      <c r="AX33" s="23" t="n"/>
+      <c r="AY33" s="23" t="n"/>
+      <c r="AZ33" s="23" t="n"/>
+      <c r="BA33" s="23" t="n"/>
+      <c r="BB33" s="23" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n"/>
@@ -2400,6 +3391,24 @@
       <c r="AF34" s="5" t="n"/>
       <c r="AG34" s="5" t="n"/>
       <c r="AH34" s="5" t="n"/>
+      <c r="AK34" s="23" t="n"/>
+      <c r="AL34" s="23" t="n"/>
+      <c r="AM34" s="23" t="n"/>
+      <c r="AN34" s="23" t="n"/>
+      <c r="AO34" s="23" t="n"/>
+      <c r="AP34" s="23" t="n"/>
+      <c r="AQ34" s="23" t="n"/>
+      <c r="AR34" s="23" t="n"/>
+      <c r="AS34" s="23" t="n"/>
+      <c r="AT34" s="23" t="n"/>
+      <c r="AU34" s="23" t="n"/>
+      <c r="AV34" s="23" t="n"/>
+      <c r="AW34" s="23" t="n"/>
+      <c r="AX34" s="23" t="n"/>
+      <c r="AY34" s="23" t="n"/>
+      <c r="AZ34" s="23" t="n"/>
+      <c r="BA34" s="23" t="n"/>
+      <c r="BB34" s="23" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n"/>
@@ -3050,7 +4059,8 @@
       <c r="AH52" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="32">
+    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="C1:C2"/>
@@ -3062,6 +4072,8 @@
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AK22:AM22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="AC1:AC2"/>
@@ -3072,6 +4084,7 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="X1:X2"/>
+    <mergeCell ref="AO23:AU23"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="U1:U2"/>
@@ -3111,14 +4124,13 @@
       <formula>"Delay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation sqref="D3:J52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"R,A,S,C,I"</formula1>
+      <formula1>=RASI_List</formula1>
     </dataValidation>
-    <dataValidation sqref="K10:AH52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="K3:AH52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Plan,Active,Done,Delay"</formula1>
     </dataValidation>
-    <dataValidation sqref="K3:AH9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -33058,23 +34070,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Không hợp lệ" error="Board/Module chỉ áp dụng cho dự án MOT0200" type="list">
-      <formula1>=INDIRECT($B2)</formula1>
-    </dataValidation>
     <dataValidation sqref="B2:B58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>Roadmap!$B$3:$B$100</formula1>
     </dataValidation>
+    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" errorTitle="Board/Module" error="Board không hợp lệ. Kiểm tra thư viện định nghĩa trên Roadmap." promptTitle="Board/Module" prompt="Chọn Board/Module (cấu hình trên Roadmap)" type="list">
+      <formula1>=INDIRECT($B2)</formula1>
+    </dataValidation>
     <dataValidation sqref="F2:F58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Task,Issue"</formula1>
+      <formula1>=Type_List</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"phudh2,kienlt44,hienpn2,khoavd11,anhlt25,huyldk,khanhttp"</formula1>
     </dataValidation>
     <dataValidation sqref="I2:I58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Open,Doing,Pending,Done"</formula1>
+      <formula1>=Status_List</formula1>
     </dataValidation>
     <dataValidation sqref="M2:M58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"High,Medium,Low"</formula1>
+      <formula1>=Priority_List</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/EE_Project_Dashboard.xlsx
+++ b/EE_Project_Dashboard.xlsx
@@ -10,17 +10,17 @@
     <sheet name="Tasks" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="MOT0200">'Roadmap'!$AO$3:$AO$7</definedName>
+    <definedName name="MOT0300">'Roadmap'!$BA$1</definedName>
+    <definedName name="HSCR01">'Roadmap'!$BA$1</definedName>
+    <definedName name="HBR00">'Roadmap'!$BA$1</definedName>
+    <definedName name="EMBPC00">'Roadmap'!$BA$1</definedName>
+    <definedName name="HCR00">'Roadmap'!$BA$1</definedName>
+    <definedName name="BATERY00">'Roadmap'!$BA$1</definedName>
     <definedName name="RASI_List">'Roadmap'!$AL$3:$AL$7</definedName>
     <definedName name="Status_List">'Roadmap'!$AL$8:$AL$11</definedName>
     <definedName name="Type_List">'Roadmap'!$AL$12:$AL$13</definedName>
     <definedName name="Priority_List">'Roadmap'!$AL$14:$AL$16</definedName>
-    <definedName name="MOT0200">OFFSET('Roadmap'!$AO$3,0,0,MAX(COUNTA('Roadmap'!$AO$3:$AO$22),1),1)</definedName>
-    <definedName name="MOT0300">OFFSET('Roadmap'!$AP$3,0,0,MAX(COUNTA('Roadmap'!$AP$3:$AP$22),1),1)</definedName>
-    <definedName name="HSCR01">OFFSET('Roadmap'!$AQ$3,0,0,MAX(COUNTA('Roadmap'!$AQ$3:$AQ$22),1),1)</definedName>
-    <definedName name="HBR00">OFFSET('Roadmap'!$AR$3,0,0,MAX(COUNTA('Roadmap'!$AR$3:$AR$22),1),1)</definedName>
-    <definedName name="EMBPC00">OFFSET('Roadmap'!$AS$3,0,0,MAX(COUNTA('Roadmap'!$AS$3:$AS$22),1),1)</definedName>
-    <definedName name="HCR00">OFFSET('Roadmap'!$AT$3,0,0,MAX(COUNTA('Roadmap'!$AT$3:$AT$22),1),1)</definedName>
-    <definedName name="BATERY00">OFFSET('Roadmap'!$AU$3,0,0,MAX(COUNTA('Roadmap'!$AU$3:$AU$22),1),1)</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tasks'!$A$1:$M$58</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -33,7 +33,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -135,6 +135,11 @@
       <b val="1"/>
       <color rgb="FF495057"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="1"/>
     </font>
   </fonts>
   <fills count="20">
@@ -415,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -520,6 +525,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,26 +1254,30 @@
           <t>THƯ VIỆN ĐỊNH NGHĨA</t>
         </is>
       </c>
-      <c r="AL1" s="22" t="n"/>
-      <c r="AM1" s="22" t="n"/>
+      <c r="AL1" s="12" t="n"/>
+      <c r="AM1" s="13" t="n"/>
       <c r="AN1" s="23" t="n"/>
       <c r="AO1" s="21" t="inlineStr">
         <is>
-          <t>BOARD / MODULE CHO TỪNG DỰ ÁN</t>
+          <t>SUB PROJECT CHO TỪNG DỰ ÁN</t>
         </is>
       </c>
-      <c r="AP1" s="22" t="n"/>
-      <c r="AQ1" s="22" t="n"/>
-      <c r="AR1" s="22" t="n"/>
-      <c r="AS1" s="22" t="n"/>
-      <c r="AT1" s="22" t="n"/>
-      <c r="AU1" s="22" t="n"/>
+      <c r="AP1" s="12" t="n"/>
+      <c r="AQ1" s="12" t="n"/>
+      <c r="AR1" s="12" t="n"/>
+      <c r="AS1" s="12" t="n"/>
+      <c r="AT1" s="12" t="n"/>
+      <c r="AU1" s="13" t="n"/>
       <c r="AV1" s="23" t="n"/>
       <c r="AW1" s="23" t="n"/>
       <c r="AX1" s="23" t="n"/>
       <c r="AY1" s="23" t="n"/>
       <c r="AZ1" s="23" t="n"/>
-      <c r="BA1" s="23" t="n"/>
+      <c r="BA1" s="44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="BB1" s="23" t="n"/>
     </row>
     <row r="2" ht="58" customHeight="1">
@@ -2805,7 +2815,7 @@
       <c r="AN23" s="23" t="n"/>
       <c r="AO23" s="43" t="inlineStr">
         <is>
-          <t>* Thêm/xóa Board ở đây → tự cập nhật dropdown trong Tasks</t>
+          <t>* Thêm/xóa Sub Project ở đây. Sau khi thêm, vào Name Manager để mở rộng range.</t>
         </is>
       </c>
       <c r="AV23" s="23" t="n"/>
@@ -4126,7 +4136,7 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation sqref="D3:J52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>=RASI_List</formula1>
+      <formula1>RASI_List</formula1>
     </dataValidation>
     <dataValidation sqref="K3:AH52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Plan,Active,Done,Delay"</formula1>
@@ -4186,7 +4196,7 @@
       </c>
       <c r="D1" s="18" t="inlineStr">
         <is>
-          <t>Board/Module</t>
+          <t>Sub Project</t>
         </is>
       </c>
       <c r="E1" s="18" t="inlineStr">
@@ -34073,20 +34083,20 @@
     <dataValidation sqref="B2:B58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>Roadmap!$B$3:$B$100</formula1>
     </dataValidation>
-    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" errorTitle="Board/Module" error="Board không hợp lệ. Kiểm tra thư viện định nghĩa trên Roadmap." promptTitle="Board/Module" prompt="Chọn Board/Module (cấu hình trên Roadmap)" type="list">
-      <formula1>=INDIRECT($B2)</formula1>
+    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" errorTitle="Sub Project" error="Sub Project không hợp lệ. Kiểm tra thư viện trên Roadmap." promptTitle="Sub Project" prompt="Chọn Sub Project (chỉ áp dụng cho dự án có sub-project)" type="list">
+      <formula1>INDIRECT($B2)</formula1>
     </dataValidation>
     <dataValidation sqref="F2:F58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>=Type_List</formula1>
+      <formula1>Type_List</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"phudh2,kienlt44,hienpn2,khoavd11,anhlt25,huyldk,khanhttp"</formula1>
     </dataValidation>
     <dataValidation sqref="I2:I58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>=Status_List</formula1>
+      <formula1>Status_List</formula1>
     </dataValidation>
     <dataValidation sqref="M2:M58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>=Priority_List</formula1>
+      <formula1>Priority_List</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/EE_Project_Dashboard.xlsx
+++ b/EE_Project_Dashboard.xlsx
@@ -8,19 +8,20 @@
   <sheets>
     <sheet name="Roadmap" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Tasks" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Definitions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MOT0200">'Roadmap'!$AO$3:$AO$7</definedName>
-    <definedName name="MOT0300">'Roadmap'!$BA$1</definedName>
-    <definedName name="HSCR01">'Roadmap'!$BA$1</definedName>
-    <definedName name="HBR00">'Roadmap'!$BA$1</definedName>
-    <definedName name="EMBPC00">'Roadmap'!$BA$1</definedName>
-    <definedName name="HCR00">'Roadmap'!$BA$1</definedName>
-    <definedName name="BATERY00">'Roadmap'!$BA$1</definedName>
-    <definedName name="RASI_List">'Roadmap'!$AL$3:$AL$7</definedName>
-    <definedName name="Status_List">'Roadmap'!$AL$8:$AL$11</definedName>
-    <definedName name="Type_List">'Roadmap'!$AL$12:$AL$13</definedName>
-    <definedName name="Priority_List">'Roadmap'!$AL$14:$AL$16</definedName>
+    <definedName name="RASI_List">'Definitions'!$B$3:$B$7</definedName>
+    <definedName name="Status_List">'Definitions'!$B$8:$B$11</definedName>
+    <definedName name="Type_List">'Definitions'!$B$12:$B$13</definedName>
+    <definedName name="Priority_List">'Definitions'!$B$14:$B$16</definedName>
+    <definedName name="PRJ_MOT0200">'Definitions'!$E$3:$E$7</definedName>
+    <definedName name="PRJ_MOT0300">'Definitions'!$Z$1</definedName>
+    <definedName name="PRJ_HSCR01">'Definitions'!$Z$1</definedName>
+    <definedName name="PRJ_HBR00">'Definitions'!$Z$1</definedName>
+    <definedName name="PRJ_EMBPC00">'Definitions'!$Z$1</definedName>
+    <definedName name="PRJ_HCR00">'Definitions'!$Z$1</definedName>
+    <definedName name="PRJ_BATERY00">'Definitions'!$Z$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tasks'!$A$1:$M$58</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -420,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -526,6 +527,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,35 +1251,23 @@
           <t>T12/2026</t>
         </is>
       </c>
-      <c r="AK1" s="21" t="inlineStr">
-        <is>
-          <t>THƯ VIỆN ĐỊNH NGHĨA</t>
-        </is>
-      </c>
-      <c r="AL1" s="12" t="n"/>
-      <c r="AM1" s="13" t="n"/>
+      <c r="AK1" s="23" t="n"/>
+      <c r="AL1" s="23" t="n"/>
+      <c r="AM1" s="23" t="n"/>
       <c r="AN1" s="23" t="n"/>
-      <c r="AO1" s="21" t="inlineStr">
-        <is>
-          <t>SUB PROJECT CHO TỪNG DỰ ÁN</t>
-        </is>
-      </c>
-      <c r="AP1" s="12" t="n"/>
-      <c r="AQ1" s="12" t="n"/>
-      <c r="AR1" s="12" t="n"/>
-      <c r="AS1" s="12" t="n"/>
-      <c r="AT1" s="12" t="n"/>
-      <c r="AU1" s="13" t="n"/>
+      <c r="AO1" s="23" t="n"/>
+      <c r="AP1" s="23" t="n"/>
+      <c r="AQ1" s="23" t="n"/>
+      <c r="AR1" s="23" t="n"/>
+      <c r="AS1" s="23" t="n"/>
+      <c r="AT1" s="23" t="n"/>
+      <c r="AU1" s="23" t="n"/>
       <c r="AV1" s="23" t="n"/>
       <c r="AW1" s="23" t="n"/>
       <c r="AX1" s="23" t="n"/>
       <c r="AY1" s="23" t="n"/>
       <c r="AZ1" s="23" t="n"/>
-      <c r="BA1" s="44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="BA1" s="23" t="n"/>
       <c r="BB1" s="23" t="n"/>
     </row>
     <row r="2" ht="58" customHeight="1">
@@ -1343,57 +1333,17 @@
       <c r="AF2" s="11" t="n"/>
       <c r="AG2" s="11" t="n"/>
       <c r="AH2" s="11" t="n"/>
-      <c r="AK2" s="24" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="AL2" s="24" t="inlineStr">
-        <is>
-          <t>Giá trị</t>
-        </is>
-      </c>
-      <c r="AM2" s="24" t="inlineStr">
-        <is>
-          <t>Mô tả</t>
-        </is>
-      </c>
+      <c r="AK2" s="23" t="n"/>
+      <c r="AL2" s="23" t="n"/>
+      <c r="AM2" s="23" t="n"/>
       <c r="AN2" s="23" t="n"/>
-      <c r="AO2" s="24" t="inlineStr">
-        <is>
-          <t>MOT0200</t>
-        </is>
-      </c>
-      <c r="AP2" s="24" t="inlineStr">
-        <is>
-          <t>MOT0300</t>
-        </is>
-      </c>
-      <c r="AQ2" s="24" t="inlineStr">
-        <is>
-          <t>HSCR01</t>
-        </is>
-      </c>
-      <c r="AR2" s="24" t="inlineStr">
-        <is>
-          <t>HBR00</t>
-        </is>
-      </c>
-      <c r="AS2" s="24" t="inlineStr">
-        <is>
-          <t>EMBPC00</t>
-        </is>
-      </c>
-      <c r="AT2" s="24" t="inlineStr">
-        <is>
-          <t>HCR00</t>
-        </is>
-      </c>
-      <c r="AU2" s="24" t="inlineStr">
-        <is>
-          <t>BATERY00</t>
-        </is>
-      </c>
+      <c r="AO2" s="23" t="n"/>
+      <c r="AP2" s="23" t="n"/>
+      <c r="AQ2" s="23" t="n"/>
+      <c r="AR2" s="23" t="n"/>
+      <c r="AS2" s="23" t="n"/>
+      <c r="AT2" s="23" t="n"/>
+      <c r="AU2" s="23" t="n"/>
       <c r="AV2" s="23" t="n"/>
       <c r="AW2" s="23" t="n"/>
       <c r="AX2" s="23" t="n"/>
@@ -1475,33 +1425,17 @@
       <c r="AF3" s="5" t="n"/>
       <c r="AG3" s="5" t="n"/>
       <c r="AH3" s="5" t="n"/>
-      <c r="AK3" s="32" t="inlineStr">
-        <is>
-          <t>RASI</t>
-        </is>
-      </c>
-      <c r="AL3" s="33" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AM3" s="34" t="inlineStr">
-        <is>
-          <t>Responsible - Chịu trách nhiệm thực hiện</t>
-        </is>
-      </c>
+      <c r="AK3" s="23" t="n"/>
+      <c r="AL3" s="23" t="n"/>
+      <c r="AM3" s="23" t="n"/>
       <c r="AN3" s="23" t="n"/>
-      <c r="AO3" s="25" t="inlineStr">
-        <is>
-          <t>PDU</t>
-        </is>
-      </c>
-      <c r="AP3" s="26" t="n"/>
-      <c r="AQ3" s="26" t="n"/>
-      <c r="AR3" s="26" t="n"/>
-      <c r="AS3" s="26" t="n"/>
-      <c r="AT3" s="26" t="n"/>
-      <c r="AU3" s="26" t="n"/>
+      <c r="AO3" s="23" t="n"/>
+      <c r="AP3" s="23" t="n"/>
+      <c r="AQ3" s="23" t="n"/>
+      <c r="AR3" s="23" t="n"/>
+      <c r="AS3" s="23" t="n"/>
+      <c r="AT3" s="23" t="n"/>
+      <c r="AU3" s="23" t="n"/>
       <c r="AV3" s="23" t="n"/>
       <c r="AW3" s="23" t="n"/>
       <c r="AX3" s="23" t="n"/>
@@ -1563,29 +1497,17 @@
       <c r="AF4" s="5" t="n"/>
       <c r="AG4" s="5" t="n"/>
       <c r="AH4" s="5" t="n"/>
-      <c r="AK4" s="35" t="n"/>
-      <c r="AL4" s="36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AM4" s="34" t="inlineStr">
-        <is>
-          <t>Accountable - Phê duyệt, chịu trách nhiệm cuối cùng</t>
-        </is>
-      </c>
+      <c r="AK4" s="23" t="n"/>
+      <c r="AL4" s="23" t="n"/>
+      <c r="AM4" s="23" t="n"/>
       <c r="AN4" s="23" t="n"/>
-      <c r="AO4" s="27" t="inlineStr">
-        <is>
-          <t>LLB</t>
-        </is>
-      </c>
-      <c r="AP4" s="26" t="n"/>
-      <c r="AQ4" s="26" t="n"/>
-      <c r="AR4" s="26" t="n"/>
-      <c r="AS4" s="26" t="n"/>
-      <c r="AT4" s="26" t="n"/>
-      <c r="AU4" s="26" t="n"/>
+      <c r="AO4" s="23" t="n"/>
+      <c r="AP4" s="23" t="n"/>
+      <c r="AQ4" s="23" t="n"/>
+      <c r="AR4" s="23" t="n"/>
+      <c r="AS4" s="23" t="n"/>
+      <c r="AT4" s="23" t="n"/>
+      <c r="AU4" s="23" t="n"/>
       <c r="AV4" s="23" t="n"/>
       <c r="AW4" s="23" t="n"/>
       <c r="AX4" s="23" t="n"/>
@@ -1651,29 +1573,17 @@
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
-      <c r="AK5" s="35" t="n"/>
-      <c r="AL5" s="37" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AM5" s="34" t="inlineStr">
-        <is>
-          <t>Support - Hỗ trợ thực hiện</t>
-        </is>
-      </c>
+      <c r="AK5" s="23" t="n"/>
+      <c r="AL5" s="23" t="n"/>
+      <c r="AM5" s="23" t="n"/>
       <c r="AN5" s="23" t="n"/>
-      <c r="AO5" s="28" t="inlineStr">
-        <is>
-          <t>Hub Ethernet</t>
-        </is>
-      </c>
-      <c r="AP5" s="26" t="n"/>
-      <c r="AQ5" s="26" t="n"/>
-      <c r="AR5" s="26" t="n"/>
-      <c r="AS5" s="26" t="n"/>
-      <c r="AT5" s="26" t="n"/>
-      <c r="AU5" s="26" t="n"/>
+      <c r="AO5" s="23" t="n"/>
+      <c r="AP5" s="23" t="n"/>
+      <c r="AQ5" s="23" t="n"/>
+      <c r="AR5" s="23" t="n"/>
+      <c r="AS5" s="23" t="n"/>
+      <c r="AT5" s="23" t="n"/>
+      <c r="AU5" s="23" t="n"/>
       <c r="AV5" s="23" t="n"/>
       <c r="AW5" s="23" t="n"/>
       <c r="AX5" s="23" t="n"/>
@@ -1731,29 +1641,17 @@
       <c r="AF6" s="5" t="n"/>
       <c r="AG6" s="5" t="n"/>
       <c r="AH6" s="5" t="n"/>
-      <c r="AK6" s="35" t="n"/>
-      <c r="AL6" s="38" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AM6" s="34" t="inlineStr">
-        <is>
-          <t>Consulted - Được tham vấn ý kiến</t>
-        </is>
-      </c>
+      <c r="AK6" s="23" t="n"/>
+      <c r="AL6" s="23" t="n"/>
+      <c r="AM6" s="23" t="n"/>
       <c r="AN6" s="23" t="n"/>
-      <c r="AO6" s="29" t="inlineStr">
-        <is>
-          <t>Hot Swap</t>
-        </is>
-      </c>
-      <c r="AP6" s="26" t="n"/>
-      <c r="AQ6" s="26" t="n"/>
-      <c r="AR6" s="26" t="n"/>
-      <c r="AS6" s="26" t="n"/>
-      <c r="AT6" s="26" t="n"/>
-      <c r="AU6" s="26" t="n"/>
+      <c r="AO6" s="23" t="n"/>
+      <c r="AP6" s="23" t="n"/>
+      <c r="AQ6" s="23" t="n"/>
+      <c r="AR6" s="23" t="n"/>
+      <c r="AS6" s="23" t="n"/>
+      <c r="AT6" s="23" t="n"/>
+      <c r="AU6" s="23" t="n"/>
       <c r="AV6" s="23" t="n"/>
       <c r="AW6" s="23" t="n"/>
       <c r="AX6" s="23" t="n"/>
@@ -1811,29 +1709,17 @@
       <c r="AF7" s="5" t="n"/>
       <c r="AG7" s="5" t="n"/>
       <c r="AH7" s="5" t="n"/>
-      <c r="AK7" s="35" t="n"/>
-      <c r="AL7" s="39" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AM7" s="34" t="inlineStr">
-        <is>
-          <t>Informed - Được thông báo kết quả</t>
-        </is>
-      </c>
+      <c r="AK7" s="23" t="n"/>
+      <c r="AL7" s="23" t="n"/>
+      <c r="AM7" s="23" t="n"/>
       <c r="AN7" s="23" t="n"/>
-      <c r="AO7" s="30" t="inlineStr">
-        <is>
-          <t>Wire Harness</t>
-        </is>
-      </c>
-      <c r="AP7" s="26" t="n"/>
-      <c r="AQ7" s="26" t="n"/>
-      <c r="AR7" s="26" t="n"/>
-      <c r="AS7" s="26" t="n"/>
-      <c r="AT7" s="26" t="n"/>
-      <c r="AU7" s="26" t="n"/>
+      <c r="AO7" s="23" t="n"/>
+      <c r="AP7" s="23" t="n"/>
+      <c r="AQ7" s="23" t="n"/>
+      <c r="AR7" s="23" t="n"/>
+      <c r="AS7" s="23" t="n"/>
+      <c r="AT7" s="23" t="n"/>
+      <c r="AU7" s="23" t="n"/>
       <c r="AV7" s="23" t="n"/>
       <c r="AW7" s="23" t="n"/>
       <c r="AX7" s="23" t="n"/>
@@ -1899,29 +1785,17 @@
       <c r="AF8" s="5" t="n"/>
       <c r="AG8" s="5" t="n"/>
       <c r="AH8" s="5" t="n"/>
-      <c r="AK8" s="32" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="AL8" s="38" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="AM8" s="34" t="inlineStr">
-        <is>
-          <t>Chưa bắt đầu</t>
-        </is>
-      </c>
+      <c r="AK8" s="23" t="n"/>
+      <c r="AL8" s="23" t="n"/>
+      <c r="AM8" s="23" t="n"/>
       <c r="AN8" s="23" t="n"/>
-      <c r="AO8" s="26" t="n"/>
-      <c r="AP8" s="26" t="n"/>
-      <c r="AQ8" s="26" t="n"/>
-      <c r="AR8" s="26" t="n"/>
-      <c r="AS8" s="26" t="n"/>
-      <c r="AT8" s="26" t="n"/>
-      <c r="AU8" s="26" t="n"/>
+      <c r="AO8" s="23" t="n"/>
+      <c r="AP8" s="23" t="n"/>
+      <c r="AQ8" s="23" t="n"/>
+      <c r="AR8" s="23" t="n"/>
+      <c r="AS8" s="23" t="n"/>
+      <c r="AT8" s="23" t="n"/>
+      <c r="AU8" s="23" t="n"/>
       <c r="AV8" s="23" t="n"/>
       <c r="AW8" s="23" t="n"/>
       <c r="AX8" s="23" t="n"/>
@@ -1979,25 +1853,17 @@
       <c r="AF9" s="5" t="n"/>
       <c r="AG9" s="5" t="n"/>
       <c r="AH9" s="5" t="n"/>
-      <c r="AK9" s="35" t="n"/>
-      <c r="AL9" s="40" t="inlineStr">
-        <is>
-          <t>Doing</t>
-        </is>
-      </c>
-      <c r="AM9" s="34" t="inlineStr">
-        <is>
-          <t>Đang thực hiện</t>
-        </is>
-      </c>
+      <c r="AK9" s="23" t="n"/>
+      <c r="AL9" s="23" t="n"/>
+      <c r="AM9" s="23" t="n"/>
       <c r="AN9" s="23" t="n"/>
-      <c r="AO9" s="26" t="n"/>
-      <c r="AP9" s="26" t="n"/>
-      <c r="AQ9" s="26" t="n"/>
-      <c r="AR9" s="26" t="n"/>
-      <c r="AS9" s="26" t="n"/>
-      <c r="AT9" s="26" t="n"/>
-      <c r="AU9" s="26" t="n"/>
+      <c r="AO9" s="23" t="n"/>
+      <c r="AP9" s="23" t="n"/>
+      <c r="AQ9" s="23" t="n"/>
+      <c r="AR9" s="23" t="n"/>
+      <c r="AS9" s="23" t="n"/>
+      <c r="AT9" s="23" t="n"/>
+      <c r="AU9" s="23" t="n"/>
       <c r="AV9" s="23" t="n"/>
       <c r="AW9" s="23" t="n"/>
       <c r="AX9" s="23" t="n"/>
@@ -2041,25 +1907,17 @@
       <c r="AF10" s="5" t="n"/>
       <c r="AG10" s="5" t="n"/>
       <c r="AH10" s="5" t="n"/>
-      <c r="AK10" s="35" t="n"/>
-      <c r="AL10" s="41" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="AM10" s="34" t="inlineStr">
-        <is>
-          <t>Tạm dừng / Chờ xử lý</t>
-        </is>
-      </c>
+      <c r="AK10" s="23" t="n"/>
+      <c r="AL10" s="23" t="n"/>
+      <c r="AM10" s="23" t="n"/>
       <c r="AN10" s="23" t="n"/>
-      <c r="AO10" s="26" t="n"/>
-      <c r="AP10" s="26" t="n"/>
-      <c r="AQ10" s="26" t="n"/>
-      <c r="AR10" s="26" t="n"/>
-      <c r="AS10" s="26" t="n"/>
-      <c r="AT10" s="26" t="n"/>
-      <c r="AU10" s="26" t="n"/>
+      <c r="AO10" s="23" t="n"/>
+      <c r="AP10" s="23" t="n"/>
+      <c r="AQ10" s="23" t="n"/>
+      <c r="AR10" s="23" t="n"/>
+      <c r="AS10" s="23" t="n"/>
+      <c r="AT10" s="23" t="n"/>
+      <c r="AU10" s="23" t="n"/>
       <c r="AV10" s="23" t="n"/>
       <c r="AW10" s="23" t="n"/>
       <c r="AX10" s="23" t="n"/>
@@ -2103,25 +1961,17 @@
       <c r="AF11" s="5" t="n"/>
       <c r="AG11" s="5" t="n"/>
       <c r="AH11" s="5" t="n"/>
-      <c r="AK11" s="35" t="n"/>
-      <c r="AL11" s="37" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="AM11" s="34" t="inlineStr">
-        <is>
-          <t>Hoàn thành</t>
-        </is>
-      </c>
+      <c r="AK11" s="23" t="n"/>
+      <c r="AL11" s="23" t="n"/>
+      <c r="AM11" s="23" t="n"/>
       <c r="AN11" s="23" t="n"/>
-      <c r="AO11" s="26" t="n"/>
-      <c r="AP11" s="26" t="n"/>
-      <c r="AQ11" s="26" t="n"/>
-      <c r="AR11" s="26" t="n"/>
-      <c r="AS11" s="26" t="n"/>
-      <c r="AT11" s="26" t="n"/>
-      <c r="AU11" s="26" t="n"/>
+      <c r="AO11" s="23" t="n"/>
+      <c r="AP11" s="23" t="n"/>
+      <c r="AQ11" s="23" t="n"/>
+      <c r="AR11" s="23" t="n"/>
+      <c r="AS11" s="23" t="n"/>
+      <c r="AT11" s="23" t="n"/>
+      <c r="AU11" s="23" t="n"/>
       <c r="AV11" s="23" t="n"/>
       <c r="AW11" s="23" t="n"/>
       <c r="AX11" s="23" t="n"/>
@@ -2165,29 +2015,17 @@
       <c r="AF12" s="5" t="n"/>
       <c r="AG12" s="5" t="n"/>
       <c r="AH12" s="5" t="n"/>
-      <c r="AK12" s="32" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="AL12" s="27" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="AM12" s="34" t="inlineStr">
-        <is>
-          <t>Công việc thường</t>
-        </is>
-      </c>
+      <c r="AK12" s="23" t="n"/>
+      <c r="AL12" s="23" t="n"/>
+      <c r="AM12" s="23" t="n"/>
       <c r="AN12" s="23" t="n"/>
-      <c r="AO12" s="26" t="n"/>
-      <c r="AP12" s="26" t="n"/>
-      <c r="AQ12" s="26" t="n"/>
-      <c r="AR12" s="26" t="n"/>
-      <c r="AS12" s="26" t="n"/>
-      <c r="AT12" s="26" t="n"/>
-      <c r="AU12" s="26" t="n"/>
+      <c r="AO12" s="23" t="n"/>
+      <c r="AP12" s="23" t="n"/>
+      <c r="AQ12" s="23" t="n"/>
+      <c r="AR12" s="23" t="n"/>
+      <c r="AS12" s="23" t="n"/>
+      <c r="AT12" s="23" t="n"/>
+      <c r="AU12" s="23" t="n"/>
       <c r="AV12" s="23" t="n"/>
       <c r="AW12" s="23" t="n"/>
       <c r="AX12" s="23" t="n"/>
@@ -2231,25 +2069,17 @@
       <c r="AF13" s="5" t="n"/>
       <c r="AG13" s="5" t="n"/>
       <c r="AH13" s="5" t="n"/>
-      <c r="AK13" s="35" t="n"/>
-      <c r="AL13" s="29" t="inlineStr">
-        <is>
-          <t>Issue</t>
-        </is>
-      </c>
-      <c r="AM13" s="34" t="inlineStr">
-        <is>
-          <t>Vấn đề / Lỗi cần xử lý</t>
-        </is>
-      </c>
+      <c r="AK13" s="23" t="n"/>
+      <c r="AL13" s="23" t="n"/>
+      <c r="AM13" s="23" t="n"/>
       <c r="AN13" s="23" t="n"/>
-      <c r="AO13" s="26" t="n"/>
-      <c r="AP13" s="26" t="n"/>
-      <c r="AQ13" s="26" t="n"/>
-      <c r="AR13" s="26" t="n"/>
-      <c r="AS13" s="26" t="n"/>
-      <c r="AT13" s="26" t="n"/>
-      <c r="AU13" s="26" t="n"/>
+      <c r="AO13" s="23" t="n"/>
+      <c r="AP13" s="23" t="n"/>
+      <c r="AQ13" s="23" t="n"/>
+      <c r="AR13" s="23" t="n"/>
+      <c r="AS13" s="23" t="n"/>
+      <c r="AT13" s="23" t="n"/>
+      <c r="AU13" s="23" t="n"/>
       <c r="AV13" s="23" t="n"/>
       <c r="AW13" s="23" t="n"/>
       <c r="AX13" s="23" t="n"/>
@@ -2293,29 +2123,17 @@
       <c r="AF14" s="5" t="n"/>
       <c r="AG14" s="5" t="n"/>
       <c r="AH14" s="5" t="n"/>
-      <c r="AK14" s="32" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="AL14" s="33" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="AM14" s="34" t="inlineStr">
-        <is>
-          <t>Ưu tiên cao - Cần xử lý gấp</t>
-        </is>
-      </c>
+      <c r="AK14" s="23" t="n"/>
+      <c r="AL14" s="23" t="n"/>
+      <c r="AM14" s="23" t="n"/>
       <c r="AN14" s="23" t="n"/>
-      <c r="AO14" s="26" t="n"/>
-      <c r="AP14" s="26" t="n"/>
-      <c r="AQ14" s="26" t="n"/>
-      <c r="AR14" s="26" t="n"/>
-      <c r="AS14" s="26" t="n"/>
-      <c r="AT14" s="26" t="n"/>
-      <c r="AU14" s="26" t="n"/>
+      <c r="AO14" s="23" t="n"/>
+      <c r="AP14" s="23" t="n"/>
+      <c r="AQ14" s="23" t="n"/>
+      <c r="AR14" s="23" t="n"/>
+      <c r="AS14" s="23" t="n"/>
+      <c r="AT14" s="23" t="n"/>
+      <c r="AU14" s="23" t="n"/>
       <c r="AV14" s="23" t="n"/>
       <c r="AW14" s="23" t="n"/>
       <c r="AX14" s="23" t="n"/>
@@ -2359,25 +2177,17 @@
       <c r="AF15" s="5" t="n"/>
       <c r="AG15" s="5" t="n"/>
       <c r="AH15" s="5" t="n"/>
-      <c r="AK15" s="35" t="n"/>
-      <c r="AL15" s="40" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AM15" s="34" t="inlineStr">
-        <is>
-          <t>Ưu tiên trung bình</t>
-        </is>
-      </c>
+      <c r="AK15" s="23" t="n"/>
+      <c r="AL15" s="23" t="n"/>
+      <c r="AM15" s="23" t="n"/>
       <c r="AN15" s="23" t="n"/>
-      <c r="AO15" s="26" t="n"/>
-      <c r="AP15" s="26" t="n"/>
-      <c r="AQ15" s="26" t="n"/>
-      <c r="AR15" s="26" t="n"/>
-      <c r="AS15" s="26" t="n"/>
-      <c r="AT15" s="26" t="n"/>
-      <c r="AU15" s="26" t="n"/>
+      <c r="AO15" s="23" t="n"/>
+      <c r="AP15" s="23" t="n"/>
+      <c r="AQ15" s="23" t="n"/>
+      <c r="AR15" s="23" t="n"/>
+      <c r="AS15" s="23" t="n"/>
+      <c r="AT15" s="23" t="n"/>
+      <c r="AU15" s="23" t="n"/>
       <c r="AV15" s="23" t="n"/>
       <c r="AW15" s="23" t="n"/>
       <c r="AX15" s="23" t="n"/>
@@ -2421,25 +2231,17 @@
       <c r="AF16" s="5" t="n"/>
       <c r="AG16" s="5" t="n"/>
       <c r="AH16" s="5" t="n"/>
-      <c r="AK16" s="35" t="n"/>
-      <c r="AL16" s="37" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AM16" s="34" t="inlineStr">
-        <is>
-          <t>Ưu tiên thấp</t>
-        </is>
-      </c>
+      <c r="AK16" s="23" t="n"/>
+      <c r="AL16" s="23" t="n"/>
+      <c r="AM16" s="23" t="n"/>
       <c r="AN16" s="23" t="n"/>
-      <c r="AO16" s="26" t="n"/>
-      <c r="AP16" s="26" t="n"/>
-      <c r="AQ16" s="26" t="n"/>
-      <c r="AR16" s="26" t="n"/>
-      <c r="AS16" s="26" t="n"/>
-      <c r="AT16" s="26" t="n"/>
-      <c r="AU16" s="26" t="n"/>
+      <c r="AO16" s="23" t="n"/>
+      <c r="AP16" s="23" t="n"/>
+      <c r="AQ16" s="23" t="n"/>
+      <c r="AR16" s="23" t="n"/>
+      <c r="AS16" s="23" t="n"/>
+      <c r="AT16" s="23" t="n"/>
+      <c r="AU16" s="23" t="n"/>
       <c r="AV16" s="23" t="n"/>
       <c r="AW16" s="23" t="n"/>
       <c r="AX16" s="23" t="n"/>
@@ -2483,17 +2285,17 @@
       <c r="AF17" s="5" t="n"/>
       <c r="AG17" s="5" t="n"/>
       <c r="AH17" s="5" t="n"/>
-      <c r="AK17" s="42" t="n"/>
-      <c r="AL17" s="42" t="n"/>
-      <c r="AM17" s="42" t="n"/>
+      <c r="AK17" s="23" t="n"/>
+      <c r="AL17" s="23" t="n"/>
+      <c r="AM17" s="23" t="n"/>
       <c r="AN17" s="23" t="n"/>
-      <c r="AO17" s="26" t="n"/>
-      <c r="AP17" s="26" t="n"/>
-      <c r="AQ17" s="26" t="n"/>
-      <c r="AR17" s="26" t="n"/>
-      <c r="AS17" s="26" t="n"/>
-      <c r="AT17" s="26" t="n"/>
-      <c r="AU17" s="26" t="n"/>
+      <c r="AO17" s="23" t="n"/>
+      <c r="AP17" s="23" t="n"/>
+      <c r="AQ17" s="23" t="n"/>
+      <c r="AR17" s="23" t="n"/>
+      <c r="AS17" s="23" t="n"/>
+      <c r="AT17" s="23" t="n"/>
+      <c r="AU17" s="23" t="n"/>
       <c r="AV17" s="23" t="n"/>
       <c r="AW17" s="23" t="n"/>
       <c r="AX17" s="23" t="n"/>
@@ -2537,17 +2339,17 @@
       <c r="AF18" s="5" t="n"/>
       <c r="AG18" s="5" t="n"/>
       <c r="AH18" s="5" t="n"/>
-      <c r="AK18" s="42" t="n"/>
-      <c r="AL18" s="42" t="n"/>
-      <c r="AM18" s="42" t="n"/>
+      <c r="AK18" s="23" t="n"/>
+      <c r="AL18" s="23" t="n"/>
+      <c r="AM18" s="23" t="n"/>
       <c r="AN18" s="23" t="n"/>
-      <c r="AO18" s="26" t="n"/>
-      <c r="AP18" s="26" t="n"/>
-      <c r="AQ18" s="26" t="n"/>
-      <c r="AR18" s="26" t="n"/>
-      <c r="AS18" s="26" t="n"/>
-      <c r="AT18" s="26" t="n"/>
-      <c r="AU18" s="26" t="n"/>
+      <c r="AO18" s="23" t="n"/>
+      <c r="AP18" s="23" t="n"/>
+      <c r="AQ18" s="23" t="n"/>
+      <c r="AR18" s="23" t="n"/>
+      <c r="AS18" s="23" t="n"/>
+      <c r="AT18" s="23" t="n"/>
+      <c r="AU18" s="23" t="n"/>
       <c r="AV18" s="23" t="n"/>
       <c r="AW18" s="23" t="n"/>
       <c r="AX18" s="23" t="n"/>
@@ -2591,17 +2393,17 @@
       <c r="AF19" s="5" t="n"/>
       <c r="AG19" s="5" t="n"/>
       <c r="AH19" s="5" t="n"/>
-      <c r="AK19" s="42" t="n"/>
-      <c r="AL19" s="42" t="n"/>
-      <c r="AM19" s="42" t="n"/>
+      <c r="AK19" s="23" t="n"/>
+      <c r="AL19" s="23" t="n"/>
+      <c r="AM19" s="23" t="n"/>
       <c r="AN19" s="23" t="n"/>
-      <c r="AO19" s="26" t="n"/>
-      <c r="AP19" s="26" t="n"/>
-      <c r="AQ19" s="26" t="n"/>
-      <c r="AR19" s="26" t="n"/>
-      <c r="AS19" s="26" t="n"/>
-      <c r="AT19" s="26" t="n"/>
-      <c r="AU19" s="26" t="n"/>
+      <c r="AO19" s="23" t="n"/>
+      <c r="AP19" s="23" t="n"/>
+      <c r="AQ19" s="23" t="n"/>
+      <c r="AR19" s="23" t="n"/>
+      <c r="AS19" s="23" t="n"/>
+      <c r="AT19" s="23" t="n"/>
+      <c r="AU19" s="23" t="n"/>
       <c r="AV19" s="23" t="n"/>
       <c r="AW19" s="23" t="n"/>
       <c r="AX19" s="23" t="n"/>
@@ -2645,17 +2447,17 @@
       <c r="AF20" s="5" t="n"/>
       <c r="AG20" s="5" t="n"/>
       <c r="AH20" s="5" t="n"/>
-      <c r="AK20" s="42" t="n"/>
-      <c r="AL20" s="42" t="n"/>
-      <c r="AM20" s="42" t="n"/>
+      <c r="AK20" s="23" t="n"/>
+      <c r="AL20" s="23" t="n"/>
+      <c r="AM20" s="23" t="n"/>
       <c r="AN20" s="23" t="n"/>
-      <c r="AO20" s="26" t="n"/>
-      <c r="AP20" s="26" t="n"/>
-      <c r="AQ20" s="26" t="n"/>
-      <c r="AR20" s="26" t="n"/>
-      <c r="AS20" s="26" t="n"/>
-      <c r="AT20" s="26" t="n"/>
-      <c r="AU20" s="26" t="n"/>
+      <c r="AO20" s="23" t="n"/>
+      <c r="AP20" s="23" t="n"/>
+      <c r="AQ20" s="23" t="n"/>
+      <c r="AR20" s="23" t="n"/>
+      <c r="AS20" s="23" t="n"/>
+      <c r="AT20" s="23" t="n"/>
+      <c r="AU20" s="23" t="n"/>
       <c r="AV20" s="23" t="n"/>
       <c r="AW20" s="23" t="n"/>
       <c r="AX20" s="23" t="n"/>
@@ -2699,17 +2501,17 @@
       <c r="AF21" s="5" t="n"/>
       <c r="AG21" s="5" t="n"/>
       <c r="AH21" s="5" t="n"/>
-      <c r="AK21" s="42" t="n"/>
-      <c r="AL21" s="42" t="n"/>
-      <c r="AM21" s="42" t="n"/>
+      <c r="AK21" s="23" t="n"/>
+      <c r="AL21" s="23" t="n"/>
+      <c r="AM21" s="23" t="n"/>
       <c r="AN21" s="23" t="n"/>
-      <c r="AO21" s="26" t="n"/>
-      <c r="AP21" s="26" t="n"/>
-      <c r="AQ21" s="26" t="n"/>
-      <c r="AR21" s="26" t="n"/>
-      <c r="AS21" s="26" t="n"/>
-      <c r="AT21" s="26" t="n"/>
-      <c r="AU21" s="26" t="n"/>
+      <c r="AO21" s="23" t="n"/>
+      <c r="AP21" s="23" t="n"/>
+      <c r="AQ21" s="23" t="n"/>
+      <c r="AR21" s="23" t="n"/>
+      <c r="AS21" s="23" t="n"/>
+      <c r="AT21" s="23" t="n"/>
+      <c r="AU21" s="23" t="n"/>
       <c r="AV21" s="23" t="n"/>
       <c r="AW21" s="23" t="n"/>
       <c r="AX21" s="23" t="n"/>
@@ -2753,19 +2555,17 @@
       <c r="AF22" s="5" t="n"/>
       <c r="AG22" s="5" t="n"/>
       <c r="AH22" s="5" t="n"/>
-      <c r="AK22" s="43" t="inlineStr">
-        <is>
-          <t>* Thêm giá trị mới vào các ô trống bên trên → tự cập nhật dropdown</t>
-        </is>
-      </c>
+      <c r="AK22" s="23" t="n"/>
+      <c r="AL22" s="23" t="n"/>
+      <c r="AM22" s="23" t="n"/>
       <c r="AN22" s="23" t="n"/>
-      <c r="AO22" s="26" t="n"/>
-      <c r="AP22" s="26" t="n"/>
-      <c r="AQ22" s="26" t="n"/>
-      <c r="AR22" s="26" t="n"/>
-      <c r="AS22" s="26" t="n"/>
-      <c r="AT22" s="26" t="n"/>
-      <c r="AU22" s="26" t="n"/>
+      <c r="AO22" s="23" t="n"/>
+      <c r="AP22" s="23" t="n"/>
+      <c r="AQ22" s="23" t="n"/>
+      <c r="AR22" s="23" t="n"/>
+      <c r="AS22" s="23" t="n"/>
+      <c r="AT22" s="23" t="n"/>
+      <c r="AU22" s="23" t="n"/>
       <c r="AV22" s="23" t="n"/>
       <c r="AW22" s="23" t="n"/>
       <c r="AX22" s="23" t="n"/>
@@ -2813,11 +2613,13 @@
       <c r="AL23" s="23" t="n"/>
       <c r="AM23" s="23" t="n"/>
       <c r="AN23" s="23" t="n"/>
-      <c r="AO23" s="43" t="inlineStr">
-        <is>
-          <t>* Thêm/xóa Sub Project ở đây. Sau khi thêm, vào Name Manager để mở rộng range.</t>
-        </is>
-      </c>
+      <c r="AO23" s="23" t="n"/>
+      <c r="AP23" s="23" t="n"/>
+      <c r="AQ23" s="23" t="n"/>
+      <c r="AR23" s="23" t="n"/>
+      <c r="AS23" s="23" t="n"/>
+      <c r="AT23" s="23" t="n"/>
+      <c r="AU23" s="23" t="n"/>
       <c r="AV23" s="23" t="n"/>
       <c r="AW23" s="23" t="n"/>
       <c r="AX23" s="23" t="n"/>
@@ -4069,8 +3871,7 @@
       <c r="AH52" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="AO1:AU1"/>
+  <mergeCells count="28">
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="C1:C2"/>
@@ -4082,8 +3883,6 @@
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AK22:AM22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="AC1:AC2"/>
@@ -4094,7 +3893,6 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="X1:X2"/>
-    <mergeCell ref="AO23:AU23"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="U1:U2"/>
@@ -34083,8 +33881,8 @@
     <dataValidation sqref="B2:B58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>Roadmap!$B$3:$B$100</formula1>
     </dataValidation>
-    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" errorTitle="Sub Project" error="Sub Project không hợp lệ. Kiểm tra thư viện trên Roadmap." promptTitle="Sub Project" prompt="Chọn Sub Project (chỉ áp dụng cho dự án có sub-project)" type="list">
-      <formula1>INDIRECT($B2)</formula1>
+    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Sub Project" error="Sub Project không hợp lệ cho dự án này." promptTitle="Sub Project" prompt="Chọn Sub Project (nếu có)" type="list">
+      <formula1>INDIRECT("PRJ_"&amp;$B2)</formula1>
     </dataValidation>
     <dataValidation sqref="F2:F58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>Type_List</formula1>
@@ -34102,4 +33900,504 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="007030A0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>DROPDOWN DEFINITIONS</t>
+        </is>
+      </c>
+      <c r="B1" s="22" t="n"/>
+      <c r="C1" s="22" t="n"/>
+      <c r="E1" s="21" t="inlineStr">
+        <is>
+          <t>SUB PROJECT THEO DỰ ÁN</t>
+        </is>
+      </c>
+      <c r="F1" s="22" t="n"/>
+      <c r="G1" s="22" t="n"/>
+      <c r="H1" s="22" t="n"/>
+      <c r="I1" s="22" t="n"/>
+      <c r="J1" s="22" t="n"/>
+      <c r="K1" s="22" t="n"/>
+      <c r="Z1" s="45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B2" s="24" t="inlineStr">
+        <is>
+          <t>Giá trị</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t>Mô tả</t>
+        </is>
+      </c>
+      <c r="E2" s="24" t="inlineStr">
+        <is>
+          <t>MOT0200</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
+        <is>
+          <t>MOT0300</t>
+        </is>
+      </c>
+      <c r="G2" s="24" t="inlineStr">
+        <is>
+          <t>HSCR01</t>
+        </is>
+      </c>
+      <c r="H2" s="24" t="inlineStr">
+        <is>
+          <t>HBR00</t>
+        </is>
+      </c>
+      <c r="I2" s="24" t="inlineStr">
+        <is>
+          <t>EMBPC00</t>
+        </is>
+      </c>
+      <c r="J2" s="24" t="inlineStr">
+        <is>
+          <t>HCR00</t>
+        </is>
+      </c>
+      <c r="K2" s="24" t="inlineStr">
+        <is>
+          <t>BATERY00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="32" t="inlineStr">
+        <is>
+          <t>RASI</t>
+        </is>
+      </c>
+      <c r="B3" s="33" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C3" s="34" t="inlineStr">
+        <is>
+          <t>Responsible - Chịu trách nhiệm thực hiện</t>
+        </is>
+      </c>
+      <c r="E3" s="25" t="inlineStr">
+        <is>
+          <t>PDU</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="n"/>
+      <c r="G3" s="26" t="n"/>
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="26" t="n"/>
+      <c r="J3" s="26" t="n"/>
+      <c r="K3" s="26" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="35" t="n"/>
+      <c r="B4" s="36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C4" s="34" t="inlineStr">
+        <is>
+          <t>Accountable - Phê duyệt</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="inlineStr">
+        <is>
+          <t>LLB</t>
+        </is>
+      </c>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="26" t="n"/>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+      <c r="J4" s="26" t="n"/>
+      <c r="K4" s="26" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="35" t="n"/>
+      <c r="B5" s="37" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C5" s="34" t="inlineStr">
+        <is>
+          <t>Support - Hỗ trợ thực hiện</t>
+        </is>
+      </c>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>Hub Ethernet</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="26" t="n"/>
+      <c r="H5" s="26" t="n"/>
+      <c r="I5" s="26" t="n"/>
+      <c r="J5" s="26" t="n"/>
+      <c r="K5" s="26" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="35" t="n"/>
+      <c r="B6" s="38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C6" s="34" t="inlineStr">
+        <is>
+          <t>Consulted - Được tham vấn ý kiến</t>
+        </is>
+      </c>
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>Hot Swap</t>
+        </is>
+      </c>
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="26" t="n"/>
+      <c r="H6" s="26" t="n"/>
+      <c r="I6" s="26" t="n"/>
+      <c r="J6" s="26" t="n"/>
+      <c r="K6" s="26" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35" t="n"/>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C7" s="34" t="inlineStr">
+        <is>
+          <t>Informed - Được thông báo kết quả</t>
+        </is>
+      </c>
+      <c r="E7" s="30" t="inlineStr">
+        <is>
+          <t>Wire Harness</t>
+        </is>
+      </c>
+      <c r="F7" s="26" t="n"/>
+      <c r="G7" s="26" t="n"/>
+      <c r="H7" s="26" t="n"/>
+      <c r="I7" s="26" t="n"/>
+      <c r="J7" s="26" t="n"/>
+      <c r="K7" s="26" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="32" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B8" s="38" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C8" s="34" t="inlineStr">
+        <is>
+          <t>Chưa bắt đầu</t>
+        </is>
+      </c>
+      <c r="E8" s="26" t="n"/>
+      <c r="F8" s="26" t="n"/>
+      <c r="G8" s="26" t="n"/>
+      <c r="H8" s="26" t="n"/>
+      <c r="I8" s="26" t="n"/>
+      <c r="J8" s="26" t="n"/>
+      <c r="K8" s="26" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="35" t="n"/>
+      <c r="B9" s="40" t="inlineStr">
+        <is>
+          <t>Doing</t>
+        </is>
+      </c>
+      <c r="C9" s="34" t="inlineStr">
+        <is>
+          <t>Đang thực hiện</t>
+        </is>
+      </c>
+      <c r="E9" s="26" t="n"/>
+      <c r="F9" s="26" t="n"/>
+      <c r="G9" s="26" t="n"/>
+      <c r="H9" s="26" t="n"/>
+      <c r="I9" s="26" t="n"/>
+      <c r="J9" s="26" t="n"/>
+      <c r="K9" s="26" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="35" t="n"/>
+      <c r="B10" s="41" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C10" s="34" t="inlineStr">
+        <is>
+          <t>Tạm dừng / Chờ xử lý</t>
+        </is>
+      </c>
+      <c r="E10" s="26" t="n"/>
+      <c r="F10" s="26" t="n"/>
+      <c r="G10" s="26" t="n"/>
+      <c r="H10" s="26" t="n"/>
+      <c r="I10" s="26" t="n"/>
+      <c r="J10" s="26" t="n"/>
+      <c r="K10" s="26" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="35" t="n"/>
+      <c r="B11" s="37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="C11" s="34" t="inlineStr">
+        <is>
+          <t>Hoàn thành</t>
+        </is>
+      </c>
+      <c r="E11" s="26" t="n"/>
+      <c r="F11" s="26" t="n"/>
+      <c r="G11" s="26" t="n"/>
+      <c r="H11" s="26" t="n"/>
+      <c r="I11" s="26" t="n"/>
+      <c r="J11" s="26" t="n"/>
+      <c r="K11" s="26" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B12" s="27" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="C12" s="34" t="inlineStr">
+        <is>
+          <t>Công việc</t>
+        </is>
+      </c>
+      <c r="E12" s="26" t="n"/>
+      <c r="F12" s="26" t="n"/>
+      <c r="G12" s="26" t="n"/>
+      <c r="H12" s="26" t="n"/>
+      <c r="I12" s="26" t="n"/>
+      <c r="J12" s="26" t="n"/>
+      <c r="K12" s="26" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="35" t="n"/>
+      <c r="B13" s="29" t="inlineStr">
+        <is>
+          <t>Issue</t>
+        </is>
+      </c>
+      <c r="C13" s="34" t="inlineStr">
+        <is>
+          <t>Vấn đề / Lỗi cần xử lý</t>
+        </is>
+      </c>
+      <c r="E13" s="26" t="n"/>
+      <c r="F13" s="26" t="n"/>
+      <c r="G13" s="26" t="n"/>
+      <c r="H13" s="26" t="n"/>
+      <c r="I13" s="26" t="n"/>
+      <c r="J13" s="26" t="n"/>
+      <c r="K13" s="26" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="B14" s="33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C14" s="34" t="inlineStr">
+        <is>
+          <t>Ưu tiên cao - Cần xử lý gấp</t>
+        </is>
+      </c>
+      <c r="E14" s="26" t="n"/>
+      <c r="F14" s="26" t="n"/>
+      <c r="G14" s="26" t="n"/>
+      <c r="H14" s="26" t="n"/>
+      <c r="I14" s="26" t="n"/>
+      <c r="J14" s="26" t="n"/>
+      <c r="K14" s="26" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="35" t="n"/>
+      <c r="B15" s="40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C15" s="34" t="inlineStr">
+        <is>
+          <t>Ưu tiên trung bình</t>
+        </is>
+      </c>
+      <c r="E15" s="26" t="n"/>
+      <c r="F15" s="26" t="n"/>
+      <c r="G15" s="26" t="n"/>
+      <c r="H15" s="26" t="n"/>
+      <c r="I15" s="26" t="n"/>
+      <c r="J15" s="26" t="n"/>
+      <c r="K15" s="26" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="n"/>
+      <c r="B16" s="37" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C16" s="34" t="inlineStr">
+        <is>
+          <t>Ưu tiên thấp</t>
+        </is>
+      </c>
+      <c r="E16" s="26" t="n"/>
+      <c r="F16" s="26" t="n"/>
+      <c r="G16" s="26" t="n"/>
+      <c r="H16" s="26" t="n"/>
+      <c r="I16" s="26" t="n"/>
+      <c r="J16" s="26" t="n"/>
+      <c r="K16" s="26" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="42" t="n"/>
+      <c r="B17" s="42" t="n"/>
+      <c r="C17" s="42" t="n"/>
+      <c r="E17" s="26" t="n"/>
+      <c r="F17" s="26" t="n"/>
+      <c r="G17" s="26" t="n"/>
+      <c r="H17" s="26" t="n"/>
+      <c r="I17" s="26" t="n"/>
+      <c r="J17" s="26" t="n"/>
+      <c r="K17" s="26" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="42" t="n"/>
+      <c r="B18" s="42" t="n"/>
+      <c r="C18" s="42" t="n"/>
+      <c r="E18" s="26" t="n"/>
+      <c r="F18" s="26" t="n"/>
+      <c r="G18" s="26" t="n"/>
+      <c r="H18" s="26" t="n"/>
+      <c r="I18" s="26" t="n"/>
+      <c r="J18" s="26" t="n"/>
+      <c r="K18" s="26" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="42" t="n"/>
+      <c r="B19" s="42" t="n"/>
+      <c r="C19" s="42" t="n"/>
+      <c r="E19" s="26" t="n"/>
+      <c r="F19" s="26" t="n"/>
+      <c r="G19" s="26" t="n"/>
+      <c r="H19" s="26" t="n"/>
+      <c r="I19" s="26" t="n"/>
+      <c r="J19" s="26" t="n"/>
+      <c r="K19" s="26" t="n"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="26" t="n"/>
+      <c r="F20" s="26" t="n"/>
+      <c r="G20" s="26" t="n"/>
+      <c r="H20" s="26" t="n"/>
+      <c r="I20" s="26" t="n"/>
+      <c r="J20" s="26" t="n"/>
+      <c r="K20" s="26" t="n"/>
+    </row>
+    <row r="21">
+      <c r="E21" s="26" t="n"/>
+      <c r="F21" s="26" t="n"/>
+      <c r="G21" s="26" t="n"/>
+      <c r="H21" s="26" t="n"/>
+      <c r="I21" s="26" t="n"/>
+      <c r="J21" s="26" t="n"/>
+      <c r="K21" s="26" t="n"/>
+    </row>
+    <row r="22">
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="26" t="n"/>
+      <c r="G22" s="26" t="n"/>
+      <c r="H22" s="26" t="n"/>
+      <c r="I22" s="26" t="n"/>
+      <c r="J22" s="26" t="n"/>
+      <c r="K22" s="26" t="n"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="19" t="inlineStr">
+        <is>
+          <t>* Thêm Sub Project → gõ vào ô trống bên dưới. Nếu cần mở rộng, chỉnh Named Range trong Name Manager.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/EE_Project_Dashboard.xlsx
+++ b/EE_Project_Dashboard.xlsx
@@ -34,7 +34,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -141,6 +141,18 @@
       <name val="Calibri"/>
       <color rgb="FFFFFFFF"/>
       <sz val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color rgb="FF0070C0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color rgb="FFCCCCCC"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="20">
@@ -421,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -528,6 +540,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33935,19 +33954,19 @@
           <t>DROPDOWN DEFINITIONS</t>
         </is>
       </c>
-      <c r="B1" s="22" t="n"/>
-      <c r="C1" s="22" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="13" t="n"/>
       <c r="E1" s="21" t="inlineStr">
         <is>
           <t>SUB PROJECT THEO DỰ ÁN</t>
         </is>
       </c>
-      <c r="F1" s="22" t="n"/>
-      <c r="G1" s="22" t="n"/>
-      <c r="H1" s="22" t="n"/>
-      <c r="I1" s="22" t="n"/>
-      <c r="J1" s="22" t="n"/>
-      <c r="K1" s="22" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="13" t="n"/>
       <c r="Z1" s="45" t="inlineStr">
         <is>
           <t> </t>
@@ -34027,12 +34046,36 @@
           <t>PDU</t>
         </is>
       </c>
-      <c r="F3" s="26" t="n"/>
-      <c r="G3" s="26" t="n"/>
-      <c r="H3" s="26" t="n"/>
-      <c r="I3" s="26" t="n"/>
-      <c r="J3" s="26" t="n"/>
-      <c r="K3" s="26" t="n"/>
+      <c r="F3" s="46" t="inlineStr">
+        <is>
+          <t>(thêm ở đây)</t>
+        </is>
+      </c>
+      <c r="G3" s="46" t="inlineStr">
+        <is>
+          <t>(thêm ở đây)</t>
+        </is>
+      </c>
+      <c r="H3" s="46" t="inlineStr">
+        <is>
+          <t>(thêm ở đây)</t>
+        </is>
+      </c>
+      <c r="I3" s="46" t="inlineStr">
+        <is>
+          <t>(thêm ở đây)</t>
+        </is>
+      </c>
+      <c r="J3" s="46" t="inlineStr">
+        <is>
+          <t>(thêm ở đây)</t>
+        </is>
+      </c>
+      <c r="K3" s="46" t="inlineStr">
+        <is>
+          <t>(thêm ở đây)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="n"/>
@@ -34146,7 +34189,11 @@
           <t>Chưa bắt đầu</t>
         </is>
       </c>
-      <c r="E8" s="26" t="n"/>
+      <c r="E8" s="46" t="inlineStr">
+        <is>
+          <t>(thêm ở đây)</t>
+        </is>
+      </c>
       <c r="F8" s="26" t="n"/>
       <c r="G8" s="26" t="n"/>
       <c r="H8" s="26" t="n"/>
@@ -34359,6 +34406,11 @@
       <c r="K19" s="26" t="n"/>
     </row>
     <row r="20">
+      <c r="A20" s="47" t="inlineStr">
+        <is>
+          <t>Lưu ý: Màu sắc ở đây là bảng tham chiếu. Để đổi màu hiển thị trên Roadmap/Tasks:</t>
+        </is>
+      </c>
       <c r="E20" s="26" t="n"/>
       <c r="F20" s="26" t="n"/>
       <c r="G20" s="26" t="n"/>
@@ -34368,6 +34420,11 @@
       <c r="K20" s="26" t="n"/>
     </row>
     <row r="21">
+      <c r="A21" s="47" t="inlineStr">
+        <is>
+          <t>→ Home → Conditional Formatting → Manage Rules → chọn rule cần sửa → Edit Rule → Format</t>
+        </is>
+      </c>
       <c r="E21" s="26" t="n"/>
       <c r="F21" s="26" t="n"/>
       <c r="G21" s="26" t="n"/>
@@ -34385,17 +34442,20 @@
       <c r="J22" s="26" t="n"/>
       <c r="K22" s="26" t="n"/>
     </row>
-    <row r="23">
-      <c r="E23" s="19" t="inlineStr">
+    <row r="23" ht="30" customHeight="1">
+      <c r="E23" s="48" t="inlineStr">
         <is>
-          <t>* Thêm Sub Project → gõ vào ô trống bên dưới. Nếu cần mở rộng, chỉnh Named Range trong Name Manager.</t>
+          <t>① Xóa text "(thêm ở đây)" → gõ tên Sub Project mới vào ô đó
+② Vào Formulas → Name Manager → chọn PRJ_&lt;mã dự án&gt; → sửa Refers to cho khớp</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/EE_Project_Dashboard.xlsx
+++ b/EE_Project_Dashboard.xlsx
@@ -22,6 +22,7 @@
     <definedName name="PRJ_EMBPC00">'Definitions'!$Z$1</definedName>
     <definedName name="PRJ_HCR00">'Definitions'!$Z$1</definedName>
     <definedName name="PRJ_BATERY00">'Definitions'!$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Roadmap'!$A$2:$O$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tasks'!$A$1:$M$58</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -546,6 +547,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,11 +1109,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB52"/>
+  <dimension ref="A1:BB54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
@@ -1107,9 +1124,19 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="6.81640625" customWidth="1" min="4" max="10"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="10"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="34"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="40" customWidth="1" min="15" max="15"/>
     <col width="12" customWidth="1" min="37" max="37"/>
     <col width="12" customWidth="1" min="38" max="38"/>
     <col width="45" customWidth="1" min="39" max="39"/>
@@ -1123,153 +1150,79 @@
     <col width="16" customWidth="1" min="47" max="47"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="22" customHeight="1">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="18" t="inlineStr">
         <is>
           <t>Project Name</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="18" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="E1" s="18" t="inlineStr">
         <is>
           <t>RASI</t>
         </is>
       </c>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="13" t="n"/>
-      <c r="K1" s="10" t="inlineStr">
+      <c r="F1" s="49" t="n"/>
+      <c r="G1" s="49" t="n"/>
+      <c r="H1" s="49" t="n"/>
+      <c r="I1" s="49" t="n"/>
+      <c r="J1" s="49" t="n"/>
+      <c r="K1" s="49" t="n"/>
+      <c r="L1" s="18" t="inlineStr">
         <is>
-          <t>T1/2025</t>
+          <t>Start Date</t>
         </is>
       </c>
-      <c r="L1" s="10" t="inlineStr">
+      <c r="M1" s="18" t="inlineStr">
         <is>
-          <t>T2/2025</t>
+          <t>End Date</t>
         </is>
       </c>
-      <c r="M1" s="10" t="inlineStr">
+      <c r="N1" s="18" t="inlineStr">
         <is>
-          <t>T3/2025</t>
+          <t>Status</t>
         </is>
       </c>
-      <c r="N1" s="10" t="inlineStr">
+      <c r="O1" s="18" t="inlineStr">
         <is>
-          <t>T4/2025</t>
+          <t>Notes</t>
         </is>
       </c>
-      <c r="O1" s="10" t="inlineStr">
-        <is>
-          <t>T5/2025</t>
-        </is>
-      </c>
-      <c r="P1" s="10" t="inlineStr">
-        <is>
-          <t>T6/2025</t>
-        </is>
-      </c>
-      <c r="Q1" s="10" t="inlineStr">
-        <is>
-          <t>T7/2025</t>
-        </is>
-      </c>
-      <c r="R1" s="10" t="inlineStr">
-        <is>
-          <t>T8/2025</t>
-        </is>
-      </c>
-      <c r="S1" s="10" t="inlineStr">
-        <is>
-          <t>T9/2025</t>
-        </is>
-      </c>
-      <c r="T1" s="10" t="inlineStr">
-        <is>
-          <t>T10/2025</t>
-        </is>
-      </c>
-      <c r="U1" s="10" t="inlineStr">
-        <is>
-          <t>T11/2025</t>
-        </is>
-      </c>
-      <c r="V1" s="10" t="inlineStr">
-        <is>
-          <t>T12/2025</t>
-        </is>
-      </c>
-      <c r="W1" s="10" t="inlineStr">
-        <is>
-          <t>T1/2026</t>
-        </is>
-      </c>
-      <c r="X1" s="10" t="inlineStr">
-        <is>
-          <t>T2/2026</t>
-        </is>
-      </c>
-      <c r="Y1" s="10" t="inlineStr">
-        <is>
-          <t>T3/2026</t>
-        </is>
-      </c>
-      <c r="Z1" s="10" t="inlineStr">
-        <is>
-          <t>T4/2026</t>
-        </is>
-      </c>
-      <c r="AA1" s="10" t="inlineStr">
-        <is>
-          <t>T5/2026</t>
-        </is>
-      </c>
-      <c r="AB1" s="10" t="inlineStr">
-        <is>
-          <t>T6/2026</t>
-        </is>
-      </c>
-      <c r="AC1" s="10" t="inlineStr">
-        <is>
-          <t>T7/2026</t>
-        </is>
-      </c>
-      <c r="AD1" s="10" t="inlineStr">
-        <is>
-          <t>T8/2026</t>
-        </is>
-      </c>
-      <c r="AE1" s="10" t="inlineStr">
-        <is>
-          <t>T9/2026</t>
-        </is>
-      </c>
-      <c r="AF1" s="10" t="inlineStr">
-        <is>
-          <t>T10/2026</t>
-        </is>
-      </c>
-      <c r="AG1" s="10" t="inlineStr">
-        <is>
-          <t>T11/2026</t>
-        </is>
-      </c>
-      <c r="AH1" s="10" t="inlineStr">
-        <is>
-          <t>T12/2026</t>
-        </is>
-      </c>
+      <c r="P1" s="23" t="n"/>
+      <c r="Q1" s="23" t="n"/>
+      <c r="R1" s="23" t="n"/>
+      <c r="S1" s="23" t="n"/>
+      <c r="T1" s="23" t="n"/>
+      <c r="U1" s="23" t="n"/>
+      <c r="V1" s="23" t="n"/>
+      <c r="W1" s="23" t="n"/>
+      <c r="X1" s="23" t="n"/>
+      <c r="Y1" s="23" t="n"/>
+      <c r="Z1" s="23" t="n"/>
+      <c r="AA1" s="23" t="n"/>
+      <c r="AB1" s="23" t="n"/>
+      <c r="AC1" s="23" t="n"/>
+      <c r="AD1" s="23" t="n"/>
+      <c r="AE1" s="23" t="n"/>
+      <c r="AF1" s="23" t="n"/>
+      <c r="AG1" s="23" t="n"/>
+      <c r="AH1" s="23" t="n"/>
+      <c r="AI1" s="23" t="n"/>
+      <c r="AJ1" s="23" t="n"/>
       <c r="AK1" s="23" t="n"/>
       <c r="AL1" s="23" t="n"/>
       <c r="AM1" s="23" t="n"/>
@@ -1289,69 +1242,71 @@
       <c r="BA1" s="23" t="n"/>
       <c r="BB1" s="23" t="n"/>
     </row>
-    <row r="2" ht="58" customHeight="1">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="11" t="n"/>
-      <c r="D2" s="8" t="inlineStr">
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="50" t="n"/>
+      <c r="B2" s="50" t="n"/>
+      <c r="C2" s="50" t="n"/>
+      <c r="D2" s="50" t="n"/>
+      <c r="E2" s="51" t="inlineStr">
         <is>
           <t>Đinh Hoàng Phú</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="F2" s="51" t="inlineStr">
         <is>
           <t>Lê Trí Kiên</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="G2" s="51" t="inlineStr">
         <is>
           <t>Phạm Nam Hiền</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
+      <c r="H2" s="51" t="inlineStr">
         <is>
           <t>Vũ Đăng Khoa</t>
         </is>
       </c>
-      <c r="H2" s="8" t="inlineStr">
+      <c r="I2" s="51" t="inlineStr">
         <is>
           <t>Lê Tiến Anh</t>
         </is>
       </c>
-      <c r="I2" s="8" t="inlineStr">
+      <c r="J2" s="51" t="inlineStr">
         <is>
           <t>Lê Dương Khánh Huy</t>
         </is>
       </c>
-      <c r="J2" s="8" t="inlineStr">
+      <c r="K2" s="51" t="inlineStr">
         <is>
           <t>Tôn Thất Phúc Khánh</t>
         </is>
       </c>
-      <c r="K2" s="11" t="n"/>
-      <c r="L2" s="11" t="n"/>
-      <c r="M2" s="11" t="n"/>
-      <c r="N2" s="11" t="n"/>
-      <c r="O2" s="11" t="n"/>
-      <c r="P2" s="11" t="n"/>
-      <c r="Q2" s="11" t="n"/>
-      <c r="R2" s="11" t="n"/>
-      <c r="S2" s="11" t="n"/>
-      <c r="T2" s="11" t="n"/>
-      <c r="U2" s="11" t="n"/>
-      <c r="V2" s="11" t="n"/>
-      <c r="W2" s="11" t="n"/>
-      <c r="X2" s="11" t="n"/>
-      <c r="Y2" s="11" t="n"/>
-      <c r="Z2" s="11" t="n"/>
-      <c r="AA2" s="11" t="n"/>
-      <c r="AB2" s="11" t="n"/>
-      <c r="AC2" s="11" t="n"/>
-      <c r="AD2" s="11" t="n"/>
-      <c r="AE2" s="11" t="n"/>
-      <c r="AF2" s="11" t="n"/>
-      <c r="AG2" s="11" t="n"/>
-      <c r="AH2" s="11" t="n"/>
+      <c r="L2" s="50" t="n"/>
+      <c r="M2" s="50" t="n"/>
+      <c r="N2" s="50" t="n"/>
+      <c r="O2" s="50" t="n"/>
+      <c r="P2" s="23" t="n"/>
+      <c r="Q2" s="23" t="n"/>
+      <c r="R2" s="23" t="n"/>
+      <c r="S2" s="23" t="n"/>
+      <c r="T2" s="23" t="n"/>
+      <c r="U2" s="23" t="n"/>
+      <c r="V2" s="23" t="n"/>
+      <c r="W2" s="23" t="n"/>
+      <c r="X2" s="23" t="n"/>
+      <c r="Y2" s="23" t="n"/>
+      <c r="Z2" s="23" t="n"/>
+      <c r="AA2" s="23" t="n"/>
+      <c r="AB2" s="23" t="n"/>
+      <c r="AC2" s="23" t="n"/>
+      <c r="AD2" s="23" t="n"/>
+      <c r="AE2" s="23" t="n"/>
+      <c r="AF2" s="23" t="n"/>
+      <c r="AG2" s="23" t="n"/>
+      <c r="AH2" s="23" t="n"/>
+      <c r="AI2" s="23" t="n"/>
+      <c r="AJ2" s="23" t="n"/>
       <c r="AK2" s="23" t="n"/>
       <c r="AL2" s="23" t="n"/>
       <c r="AM2" s="23" t="n"/>
@@ -1372,78 +1327,88 @@
       <c r="BB2" s="23" t="n"/>
     </row>
     <row r="3" ht="45.5" customHeight="1">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>MOT0200</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>Dự án phát triển Motion 2</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="14" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="14" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="G3" s="9" t="inlineStr">
+      <c r="H3" s="14" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="I3" s="14" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="J3" s="14" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="14" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="n"/>
-      <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
-      <c r="V3" s="5" t="n"/>
-      <c r="W3" s="5" t="n"/>
-      <c r="X3" s="5" t="n"/>
-      <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="5" t="n"/>
-      <c r="AA3" s="5" t="n"/>
-      <c r="AB3" s="5" t="n"/>
-      <c r="AC3" s="5" t="n"/>
-      <c r="AD3" s="5" t="n"/>
-      <c r="AE3" s="5" t="n"/>
-      <c r="AF3" s="5" t="n"/>
-      <c r="AG3" s="5" t="n"/>
-      <c r="AH3" s="5" t="n"/>
+      <c r="L3" s="16" t="n"/>
+      <c r="M3" s="16" t="n"/>
+      <c r="N3" s="14" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="O3" s="15" t="n"/>
+      <c r="P3" s="23" t="n"/>
+      <c r="Q3" s="23" t="n"/>
+      <c r="R3" s="23" t="n"/>
+      <c r="S3" s="23" t="n"/>
+      <c r="T3" s="23" t="n"/>
+      <c r="U3" s="23" t="n"/>
+      <c r="V3" s="23" t="n"/>
+      <c r="W3" s="23" t="n"/>
+      <c r="X3" s="23" t="n"/>
+      <c r="Y3" s="23" t="n"/>
+      <c r="Z3" s="23" t="n"/>
+      <c r="AA3" s="23" t="n"/>
+      <c r="AB3" s="23" t="n"/>
+      <c r="AC3" s="23" t="n"/>
+      <c r="AD3" s="23" t="n"/>
+      <c r="AE3" s="23" t="n"/>
+      <c r="AF3" s="23" t="n"/>
+      <c r="AG3" s="23" t="n"/>
+      <c r="AH3" s="23" t="n"/>
+      <c r="AI3" s="23" t="n"/>
+      <c r="AJ3" s="23" t="n"/>
       <c r="AK3" s="23" t="n"/>
       <c r="AL3" s="23" t="n"/>
       <c r="AM3" s="23" t="n"/>
@@ -1464,58 +1429,60 @@
       <c r="BB3" s="23" t="n"/>
     </row>
     <row r="4" ht="45.5" customHeight="1">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>MOT0300</t>
+          <t>MOT0200</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
-          <t>Dự án phát triển Motion 3</t>
+          <t>Dự án phát triển Motion 2</t>
         </is>
       </c>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>B</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="E4" s="14" t="n"/>
+      <c r="F4" s="14" t="n"/>
+      <c r="G4" s="14" t="n"/>
+      <c r="H4" s="14" t="n"/>
+      <c r="I4" s="14" t="n"/>
+      <c r="J4" s="14" t="n"/>
+      <c r="K4" s="14" t="n"/>
+      <c r="L4" s="16" t="n"/>
+      <c r="M4" s="16" t="n"/>
+      <c r="N4" s="14" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Plan</t>
         </is>
       </c>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="9" t="n"/>
-      <c r="I4" s="9" t="n"/>
-      <c r="J4" s="9" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
-      <c r="P4" s="5" t="n"/>
-      <c r="Q4" s="5" t="n"/>
-      <c r="R4" s="5" t="n"/>
-      <c r="S4" s="5" t="n"/>
-      <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
-      <c r="V4" s="5" t="n"/>
-      <c r="W4" s="5" t="n"/>
-      <c r="X4" s="5" t="n"/>
-      <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="5" t="n"/>
-      <c r="AA4" s="5" t="n"/>
-      <c r="AB4" s="5" t="n"/>
-      <c r="AC4" s="5" t="n"/>
-      <c r="AD4" s="5" t="n"/>
-      <c r="AE4" s="5" t="n"/>
-      <c r="AF4" s="5" t="n"/>
-      <c r="AG4" s="5" t="n"/>
-      <c r="AH4" s="5" t="n"/>
+      <c r="O4" s="15" t="n"/>
+      <c r="P4" s="23" t="n"/>
+      <c r="Q4" s="23" t="n"/>
+      <c r="R4" s="23" t="n"/>
+      <c r="S4" s="23" t="n"/>
+      <c r="T4" s="23" t="n"/>
+      <c r="U4" s="23" t="n"/>
+      <c r="V4" s="23" t="n"/>
+      <c r="W4" s="23" t="n"/>
+      <c r="X4" s="23" t="n"/>
+      <c r="Y4" s="23" t="n"/>
+      <c r="Z4" s="23" t="n"/>
+      <c r="AA4" s="23" t="n"/>
+      <c r="AB4" s="23" t="n"/>
+      <c r="AC4" s="23" t="n"/>
+      <c r="AD4" s="23" t="n"/>
+      <c r="AE4" s="23" t="n"/>
+      <c r="AF4" s="23" t="n"/>
+      <c r="AG4" s="23" t="n"/>
+      <c r="AH4" s="23" t="n"/>
+      <c r="AI4" s="23" t="n"/>
+      <c r="AJ4" s="23" t="n"/>
       <c r="AK4" s="23" t="n"/>
       <c r="AL4" s="23" t="n"/>
       <c r="AM4" s="23" t="n"/>
@@ -1536,62 +1503,60 @@
       <c r="BB4" s="23" t="n"/>
     </row>
     <row r="5" ht="45.5" customHeight="1">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>HSCR01</t>
+          <t>MOT0200</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
-          <t>Dự án NC trạm sạc và thay pin cho Robot VMO</t>
+          <t>Dự án phát triển Motion 2</t>
         </is>
       </c>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>C</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="E5" s="14" t="n"/>
+      <c r="F5" s="14" t="n"/>
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
+      <c r="J5" s="14" t="n"/>
+      <c r="K5" s="14" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="M5" s="16" t="n"/>
+      <c r="N5" s="14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Plan</t>
         </is>
       </c>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="9" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="J5" s="9" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="5" t="n"/>
-      <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="5" t="n"/>
-      <c r="S5" s="5" t="n"/>
-      <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
-      <c r="V5" s="5" t="n"/>
-      <c r="W5" s="5" t="n"/>
-      <c r="X5" s="5" t="n"/>
-      <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="5" t="n"/>
-      <c r="AA5" s="5" t="n"/>
-      <c r="AB5" s="5" t="n"/>
-      <c r="AC5" s="5" t="n"/>
-      <c r="AD5" s="5" t="n"/>
-      <c r="AE5" s="5" t="n"/>
-      <c r="AF5" s="5" t="n"/>
-      <c r="AG5" s="5" t="n"/>
-      <c r="AH5" s="5" t="n"/>
+      <c r="O5" s="15" t="n"/>
+      <c r="P5" s="23" t="n"/>
+      <c r="Q5" s="23" t="n"/>
+      <c r="R5" s="23" t="n"/>
+      <c r="S5" s="23" t="n"/>
+      <c r="T5" s="23" t="n"/>
+      <c r="U5" s="23" t="n"/>
+      <c r="V5" s="23" t="n"/>
+      <c r="W5" s="23" t="n"/>
+      <c r="X5" s="23" t="n"/>
+      <c r="Y5" s="23" t="n"/>
+      <c r="Z5" s="23" t="n"/>
+      <c r="AA5" s="23" t="n"/>
+      <c r="AB5" s="23" t="n"/>
+      <c r="AC5" s="23" t="n"/>
+      <c r="AD5" s="23" t="n"/>
+      <c r="AE5" s="23" t="n"/>
+      <c r="AF5" s="23" t="n"/>
+      <c r="AG5" s="23" t="n"/>
+      <c r="AH5" s="23" t="n"/>
+      <c r="AI5" s="23" t="n"/>
+      <c r="AJ5" s="23" t="n"/>
       <c r="AK5" s="23" t="n"/>
       <c r="AL5" s="23" t="n"/>
       <c r="AM5" s="23" t="n"/>
@@ -1612,54 +1577,64 @@
       <c r="BB5" s="23" t="n"/>
     </row>
     <row r="6" ht="45.5" customHeight="1">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
-          <t>HBR00</t>
+          <t>MOT0300</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>Dự án NC bàn tay Robot VMO</t>
+          <t>Dự án phát triển Motion 3</t>
         </is>
       </c>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="9" t="n"/>
-      <c r="F6" s="9" t="n"/>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="14" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H6" s="9" t="n"/>
-      <c r="I6" s="9" t="n"/>
-      <c r="J6" s="9" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="5" t="n"/>
-      <c r="N6" s="5" t="n"/>
-      <c r="O6" s="5" t="n"/>
-      <c r="P6" s="5" t="n"/>
-      <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="5" t="n"/>
-      <c r="S6" s="5" t="n"/>
-      <c r="T6" s="5" t="n"/>
-      <c r="U6" s="5" t="n"/>
-      <c r="V6" s="5" t="n"/>
-      <c r="W6" s="5" t="n"/>
-      <c r="X6" s="5" t="n"/>
-      <c r="Y6" s="5" t="n"/>
-      <c r="Z6" s="5" t="n"/>
-      <c r="AA6" s="5" t="n"/>
-      <c r="AB6" s="5" t="n"/>
-      <c r="AC6" s="5" t="n"/>
-      <c r="AD6" s="5" t="n"/>
-      <c r="AE6" s="5" t="n"/>
-      <c r="AF6" s="5" t="n"/>
-      <c r="AG6" s="5" t="n"/>
-      <c r="AH6" s="5" t="n"/>
+      <c r="G6" s="14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H6" s="14" t="n"/>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="14" t="n"/>
+      <c r="K6" s="14" t="n"/>
+      <c r="L6" s="16" t="n"/>
+      <c r="M6" s="16" t="n"/>
+      <c r="N6" s="14" t="inlineStr">
+        <is>
+          <t>Plan</t>
+        </is>
+      </c>
+      <c r="O6" s="15" t="n"/>
+      <c r="P6" s="23" t="n"/>
+      <c r="Q6" s="23" t="n"/>
+      <c r="R6" s="23" t="n"/>
+      <c r="S6" s="23" t="n"/>
+      <c r="T6" s="23" t="n"/>
+      <c r="U6" s="23" t="n"/>
+      <c r="V6" s="23" t="n"/>
+      <c r="W6" s="23" t="n"/>
+      <c r="X6" s="23" t="n"/>
+      <c r="Y6" s="23" t="n"/>
+      <c r="Z6" s="23" t="n"/>
+      <c r="AA6" s="23" t="n"/>
+      <c r="AB6" s="23" t="n"/>
+      <c r="AC6" s="23" t="n"/>
+      <c r="AD6" s="23" t="n"/>
+      <c r="AE6" s="23" t="n"/>
+      <c r="AF6" s="23" t="n"/>
+      <c r="AG6" s="23" t="n"/>
+      <c r="AH6" s="23" t="n"/>
+      <c r="AI6" s="23" t="n"/>
+      <c r="AJ6" s="23" t="n"/>
       <c r="AK6" s="23" t="n"/>
       <c r="AL6" s="23" t="n"/>
       <c r="AM6" s="23" t="n"/>
@@ -1680,54 +1655,68 @@
       <c r="BB6" s="23" t="n"/>
     </row>
     <row r="7" ht="45.5" customHeight="1">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>EMBPC00</t>
+          <t>HSCR01</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
-          <t>Dự án máy tính nhúng VMO</t>
+          <t>Dự án NC trạm sạc và thay pin cho Robot VMO</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="14" t="n"/>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="14" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="E7" s="9" t="n"/>
-      <c r="F7" s="9" t="n"/>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="9" t="n"/>
-      <c r="I7" s="9" t="n"/>
-      <c r="J7" s="9" t="n"/>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
-      <c r="M7" s="5" t="n"/>
-      <c r="N7" s="5" t="n"/>
-      <c r="O7" s="5" t="n"/>
-      <c r="P7" s="5" t="n"/>
-      <c r="Q7" s="5" t="n"/>
-      <c r="R7" s="5" t="n"/>
-      <c r="S7" s="5" t="n"/>
-      <c r="T7" s="5" t="n"/>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="5" t="n"/>
-      <c r="W7" s="5" t="n"/>
-      <c r="X7" s="5" t="n"/>
-      <c r="Y7" s="5" t="n"/>
-      <c r="Z7" s="5" t="n"/>
-      <c r="AA7" s="5" t="n"/>
-      <c r="AB7" s="5" t="n"/>
-      <c r="AC7" s="5" t="n"/>
-      <c r="AD7" s="5" t="n"/>
-      <c r="AE7" s="5" t="n"/>
-      <c r="AF7" s="5" t="n"/>
-      <c r="AG7" s="5" t="n"/>
-      <c r="AH7" s="5" t="n"/>
+      <c r="G7" s="14" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H7" s="14" t="n"/>
+      <c r="I7" s="14" t="n"/>
+      <c r="J7" s="14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K7" s="14" t="n"/>
+      <c r="L7" s="16" t="n"/>
+      <c r="M7" s="16" t="n"/>
+      <c r="N7" s="14" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="O7" s="15" t="n"/>
+      <c r="P7" s="23" t="n"/>
+      <c r="Q7" s="23" t="n"/>
+      <c r="R7" s="23" t="n"/>
+      <c r="S7" s="23" t="n"/>
+      <c r="T7" s="23" t="n"/>
+      <c r="U7" s="23" t="n"/>
+      <c r="V7" s="23" t="n"/>
+      <c r="W7" s="23" t="n"/>
+      <c r="X7" s="23" t="n"/>
+      <c r="Y7" s="23" t="n"/>
+      <c r="Z7" s="23" t="n"/>
+      <c r="AA7" s="23" t="n"/>
+      <c r="AB7" s="23" t="n"/>
+      <c r="AC7" s="23" t="n"/>
+      <c r="AD7" s="23" t="n"/>
+      <c r="AE7" s="23" t="n"/>
+      <c r="AF7" s="23" t="n"/>
+      <c r="AG7" s="23" t="n"/>
+      <c r="AH7" s="23" t="n"/>
+      <c r="AI7" s="23" t="n"/>
+      <c r="AJ7" s="23" t="n"/>
       <c r="AK7" s="23" t="n"/>
       <c r="AL7" s="23" t="n"/>
       <c r="AM7" s="23" t="n"/>
@@ -1748,62 +1737,60 @@
       <c r="BB7" s="23" t="n"/>
     </row>
     <row r="8" ht="45.5" customHeight="1">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>HCR00</t>
+          <t>HBR00</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>Dự án tay cầm điều khiển từ xa VMO</t>
+          <t>Dự án NC bàn tay Robot VMO</t>
         </is>
       </c>
-      <c r="D8" s="9" t="n"/>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="14" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
+      <c r="L8" s="16" t="n"/>
+      <c r="M8" s="16" t="n"/>
+      <c r="N8" s="14" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Active</t>
         </is>
       </c>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="H8" s="9" t="n"/>
-      <c r="I8" s="9" t="n"/>
-      <c r="J8" s="9" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="5" t="n"/>
-      <c r="N8" s="5" t="n"/>
-      <c r="O8" s="5" t="n"/>
-      <c r="P8" s="5" t="n"/>
-      <c r="Q8" s="5" t="n"/>
-      <c r="R8" s="5" t="n"/>
-      <c r="S8" s="5" t="n"/>
-      <c r="T8" s="5" t="n"/>
-      <c r="U8" s="5" t="n"/>
-      <c r="V8" s="5" t="n"/>
-      <c r="W8" s="5" t="n"/>
-      <c r="X8" s="5" t="n"/>
-      <c r="Y8" s="5" t="n"/>
-      <c r="Z8" s="5" t="n"/>
-      <c r="AA8" s="5" t="n"/>
-      <c r="AB8" s="5" t="n"/>
-      <c r="AC8" s="5" t="n"/>
-      <c r="AD8" s="5" t="n"/>
-      <c r="AE8" s="5" t="n"/>
-      <c r="AF8" s="5" t="n"/>
-      <c r="AG8" s="5" t="n"/>
-      <c r="AH8" s="5" t="n"/>
+      <c r="O8" s="15" t="n"/>
+      <c r="P8" s="23" t="n"/>
+      <c r="Q8" s="23" t="n"/>
+      <c r="R8" s="23" t="n"/>
+      <c r="S8" s="23" t="n"/>
+      <c r="T8" s="23" t="n"/>
+      <c r="U8" s="23" t="n"/>
+      <c r="V8" s="23" t="n"/>
+      <c r="W8" s="23" t="n"/>
+      <c r="X8" s="23" t="n"/>
+      <c r="Y8" s="23" t="n"/>
+      <c r="Z8" s="23" t="n"/>
+      <c r="AA8" s="23" t="n"/>
+      <c r="AB8" s="23" t="n"/>
+      <c r="AC8" s="23" t="n"/>
+      <c r="AD8" s="23" t="n"/>
+      <c r="AE8" s="23" t="n"/>
+      <c r="AF8" s="23" t="n"/>
+      <c r="AG8" s="23" t="n"/>
+      <c r="AH8" s="23" t="n"/>
+      <c r="AI8" s="23" t="n"/>
+      <c r="AJ8" s="23" t="n"/>
       <c r="AK8" s="23" t="n"/>
       <c r="AL8" s="23" t="n"/>
       <c r="AM8" s="23" t="n"/>
@@ -1824,54 +1811,60 @@
       <c r="BB8" s="23" t="n"/>
     </row>
     <row r="9" ht="45.5" customHeight="1">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
-          <t>BATERY00</t>
+          <t>EMBPC00</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
-          <t>Dự án Pack pin cho Robot VMO</t>
+          <t>Dự án máy tính nhúng VMO</t>
         </is>
       </c>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="14" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="9" t="n"/>
-      <c r="J9" s="9" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="5" t="n"/>
-      <c r="N9" s="5" t="n"/>
-      <c r="O9" s="5" t="n"/>
-      <c r="P9" s="5" t="n"/>
-      <c r="Q9" s="5" t="n"/>
-      <c r="R9" s="5" t="n"/>
-      <c r="S9" s="5" t="n"/>
-      <c r="T9" s="5" t="n"/>
-      <c r="U9" s="5" t="n"/>
-      <c r="V9" s="5" t="n"/>
-      <c r="W9" s="5" t="n"/>
-      <c r="X9" s="5" t="n"/>
-      <c r="Y9" s="5" t="n"/>
-      <c r="Z9" s="5" t="n"/>
-      <c r="AA9" s="5" t="n"/>
-      <c r="AB9" s="5" t="n"/>
-      <c r="AC9" s="5" t="n"/>
-      <c r="AD9" s="5" t="n"/>
-      <c r="AE9" s="5" t="n"/>
-      <c r="AF9" s="5" t="n"/>
-      <c r="AG9" s="5" t="n"/>
-      <c r="AH9" s="5" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="14" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="14" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+      <c r="L9" s="16" t="n"/>
+      <c r="M9" s="16" t="n"/>
+      <c r="N9" s="14" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="O9" s="15" t="n"/>
+      <c r="P9" s="23" t="n"/>
+      <c r="Q9" s="23" t="n"/>
+      <c r="R9" s="23" t="n"/>
+      <c r="S9" s="23" t="n"/>
+      <c r="T9" s="23" t="n"/>
+      <c r="U9" s="23" t="n"/>
+      <c r="V9" s="23" t="n"/>
+      <c r="W9" s="23" t="n"/>
+      <c r="X9" s="23" t="n"/>
+      <c r="Y9" s="23" t="n"/>
+      <c r="Z9" s="23" t="n"/>
+      <c r="AA9" s="23" t="n"/>
+      <c r="AB9" s="23" t="n"/>
+      <c r="AC9" s="23" t="n"/>
+      <c r="AD9" s="23" t="n"/>
+      <c r="AE9" s="23" t="n"/>
+      <c r="AF9" s="23" t="n"/>
+      <c r="AG9" s="23" t="n"/>
+      <c r="AH9" s="23" t="n"/>
+      <c r="AI9" s="23" t="n"/>
+      <c r="AJ9" s="23" t="n"/>
       <c r="AK9" s="23" t="n"/>
       <c r="AL9" s="23" t="n"/>
       <c r="AM9" s="23" t="n"/>
@@ -1892,40 +1885,68 @@
       <c r="BB9" s="23" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="5" t="n"/>
-      <c r="O10" s="5" t="n"/>
-      <c r="P10" s="5" t="n"/>
-      <c r="Q10" s="5" t="n"/>
-      <c r="R10" s="5" t="n"/>
-      <c r="S10" s="5" t="n"/>
-      <c r="T10" s="5" t="n"/>
-      <c r="U10" s="5" t="n"/>
-      <c r="V10" s="5" t="n"/>
-      <c r="W10" s="5" t="n"/>
-      <c r="X10" s="5" t="n"/>
-      <c r="Y10" s="5" t="n"/>
-      <c r="Z10" s="5" t="n"/>
-      <c r="AA10" s="5" t="n"/>
-      <c r="AB10" s="5" t="n"/>
-      <c r="AC10" s="5" t="n"/>
-      <c r="AD10" s="5" t="n"/>
-      <c r="AE10" s="5" t="n"/>
-      <c r="AF10" s="5" t="n"/>
-      <c r="AG10" s="5" t="n"/>
-      <c r="AH10" s="5" t="n"/>
+      <c r="A10" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>HCR00</t>
+        </is>
+      </c>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>Dự án tay cầm điều khiển từ xa VMO</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="14" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G10" s="14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I10" s="14" t="n"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+      <c r="L10" s="16" t="n"/>
+      <c r="M10" s="16" t="n"/>
+      <c r="N10" s="14" t="inlineStr">
+        <is>
+          <t>Plan</t>
+        </is>
+      </c>
+      <c r="O10" s="15" t="n"/>
+      <c r="P10" s="23" t="n"/>
+      <c r="Q10" s="23" t="n"/>
+      <c r="R10" s="23" t="n"/>
+      <c r="S10" s="23" t="n"/>
+      <c r="T10" s="23" t="n"/>
+      <c r="U10" s="23" t="n"/>
+      <c r="V10" s="23" t="n"/>
+      <c r="W10" s="23" t="n"/>
+      <c r="X10" s="23" t="n"/>
+      <c r="Y10" s="23" t="n"/>
+      <c r="Z10" s="23" t="n"/>
+      <c r="AA10" s="23" t="n"/>
+      <c r="AB10" s="23" t="n"/>
+      <c r="AC10" s="23" t="n"/>
+      <c r="AD10" s="23" t="n"/>
+      <c r="AE10" s="23" t="n"/>
+      <c r="AF10" s="23" t="n"/>
+      <c r="AG10" s="23" t="n"/>
+      <c r="AH10" s="23" t="n"/>
+      <c r="AI10" s="23" t="n"/>
+      <c r="AJ10" s="23" t="n"/>
       <c r="AK10" s="23" t="n"/>
       <c r="AL10" s="23" t="n"/>
       <c r="AM10" s="23" t="n"/>
@@ -1946,40 +1967,60 @@
       <c r="BB10" s="23" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="5" t="n"/>
-      <c r="N11" s="5" t="n"/>
-      <c r="O11" s="5" t="n"/>
-      <c r="P11" s="5" t="n"/>
-      <c r="Q11" s="5" t="n"/>
-      <c r="R11" s="5" t="n"/>
-      <c r="S11" s="5" t="n"/>
-      <c r="T11" s="5" t="n"/>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="5" t="n"/>
-      <c r="W11" s="5" t="n"/>
-      <c r="X11" s="5" t="n"/>
-      <c r="Y11" s="5" t="n"/>
-      <c r="Z11" s="5" t="n"/>
-      <c r="AA11" s="5" t="n"/>
-      <c r="AB11" s="5" t="n"/>
-      <c r="AC11" s="5" t="n"/>
-      <c r="AD11" s="5" t="n"/>
-      <c r="AE11" s="5" t="n"/>
-      <c r="AF11" s="5" t="n"/>
-      <c r="AG11" s="5" t="n"/>
-      <c r="AH11" s="5" t="n"/>
+      <c r="A11" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>BATERY00</t>
+        </is>
+      </c>
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>Dự án Pack pin cho Robot VMO</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="14" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
+      <c r="L11" s="16" t="n"/>
+      <c r="M11" s="16" t="n"/>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="O11" s="15" t="n"/>
+      <c r="P11" s="23" t="n"/>
+      <c r="Q11" s="23" t="n"/>
+      <c r="R11" s="23" t="n"/>
+      <c r="S11" s="23" t="n"/>
+      <c r="T11" s="23" t="n"/>
+      <c r="U11" s="23" t="n"/>
+      <c r="V11" s="23" t="n"/>
+      <c r="W11" s="23" t="n"/>
+      <c r="X11" s="23" t="n"/>
+      <c r="Y11" s="23" t="n"/>
+      <c r="Z11" s="23" t="n"/>
+      <c r="AA11" s="23" t="n"/>
+      <c r="AB11" s="23" t="n"/>
+      <c r="AC11" s="23" t="n"/>
+      <c r="AD11" s="23" t="n"/>
+      <c r="AE11" s="23" t="n"/>
+      <c r="AF11" s="23" t="n"/>
+      <c r="AG11" s="23" t="n"/>
+      <c r="AH11" s="23" t="n"/>
+      <c r="AI11" s="23" t="n"/>
+      <c r="AJ11" s="23" t="n"/>
       <c r="AK11" s="23" t="n"/>
       <c r="AL11" s="23" t="n"/>
       <c r="AM11" s="23" t="n"/>
@@ -2000,40 +2041,42 @@
       <c r="BB11" s="23" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
-      <c r="O12" s="5" t="n"/>
-      <c r="P12" s="5" t="n"/>
-      <c r="Q12" s="5" t="n"/>
-      <c r="R12" s="5" t="n"/>
-      <c r="S12" s="5" t="n"/>
-      <c r="T12" s="5" t="n"/>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="5" t="n"/>
-      <c r="W12" s="5" t="n"/>
-      <c r="X12" s="5" t="n"/>
-      <c r="Y12" s="5" t="n"/>
-      <c r="Z12" s="5" t="n"/>
-      <c r="AA12" s="5" t="n"/>
-      <c r="AB12" s="5" t="n"/>
-      <c r="AC12" s="5" t="n"/>
-      <c r="AD12" s="5" t="n"/>
-      <c r="AE12" s="5" t="n"/>
-      <c r="AF12" s="5" t="n"/>
-      <c r="AG12" s="5" t="n"/>
-      <c r="AH12" s="5" t="n"/>
+      <c r="A12" s="52" t="n"/>
+      <c r="B12" s="52" t="n"/>
+      <c r="C12" s="53" t="n"/>
+      <c r="D12" s="52" t="n"/>
+      <c r="E12" s="52" t="n"/>
+      <c r="F12" s="52" t="n"/>
+      <c r="G12" s="52" t="n"/>
+      <c r="H12" s="52" t="n"/>
+      <c r="I12" s="52" t="n"/>
+      <c r="J12" s="52" t="n"/>
+      <c r="K12" s="52" t="n"/>
+      <c r="L12" s="54" t="n"/>
+      <c r="M12" s="54" t="n"/>
+      <c r="N12" s="52" t="n"/>
+      <c r="O12" s="53" t="n"/>
+      <c r="P12" s="23" t="n"/>
+      <c r="Q12" s="23" t="n"/>
+      <c r="R12" s="23" t="n"/>
+      <c r="S12" s="23" t="n"/>
+      <c r="T12" s="23" t="n"/>
+      <c r="U12" s="23" t="n"/>
+      <c r="V12" s="23" t="n"/>
+      <c r="W12" s="23" t="n"/>
+      <c r="X12" s="23" t="n"/>
+      <c r="Y12" s="23" t="n"/>
+      <c r="Z12" s="23" t="n"/>
+      <c r="AA12" s="23" t="n"/>
+      <c r="AB12" s="23" t="n"/>
+      <c r="AC12" s="23" t="n"/>
+      <c r="AD12" s="23" t="n"/>
+      <c r="AE12" s="23" t="n"/>
+      <c r="AF12" s="23" t="n"/>
+      <c r="AG12" s="23" t="n"/>
+      <c r="AH12" s="23" t="n"/>
+      <c r="AI12" s="23" t="n"/>
+      <c r="AJ12" s="23" t="n"/>
       <c r="AK12" s="23" t="n"/>
       <c r="AL12" s="23" t="n"/>
       <c r="AM12" s="23" t="n"/>
@@ -2054,40 +2097,42 @@
       <c r="BB12" s="23" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="5" t="n"/>
-      <c r="N13" s="5" t="n"/>
-      <c r="O13" s="5" t="n"/>
-      <c r="P13" s="5" t="n"/>
-      <c r="Q13" s="5" t="n"/>
-      <c r="R13" s="5" t="n"/>
-      <c r="S13" s="5" t="n"/>
-      <c r="T13" s="5" t="n"/>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
-      <c r="W13" s="5" t="n"/>
-      <c r="X13" s="5" t="n"/>
-      <c r="Y13" s="5" t="n"/>
-      <c r="Z13" s="5" t="n"/>
-      <c r="AA13" s="5" t="n"/>
-      <c r="AB13" s="5" t="n"/>
-      <c r="AC13" s="5" t="n"/>
-      <c r="AD13" s="5" t="n"/>
-      <c r="AE13" s="5" t="n"/>
-      <c r="AF13" s="5" t="n"/>
-      <c r="AG13" s="5" t="n"/>
-      <c r="AH13" s="5" t="n"/>
+      <c r="A13" s="52" t="n"/>
+      <c r="B13" s="52" t="n"/>
+      <c r="C13" s="53" t="n"/>
+      <c r="D13" s="52" t="n"/>
+      <c r="E13" s="52" t="n"/>
+      <c r="F13" s="52" t="n"/>
+      <c r="G13" s="52" t="n"/>
+      <c r="H13" s="52" t="n"/>
+      <c r="I13" s="52" t="n"/>
+      <c r="J13" s="52" t="n"/>
+      <c r="K13" s="52" t="n"/>
+      <c r="L13" s="54" t="n"/>
+      <c r="M13" s="54" t="n"/>
+      <c r="N13" s="52" t="n"/>
+      <c r="O13" s="53" t="n"/>
+      <c r="P13" s="23" t="n"/>
+      <c r="Q13" s="23" t="n"/>
+      <c r="R13" s="23" t="n"/>
+      <c r="S13" s="23" t="n"/>
+      <c r="T13" s="23" t="n"/>
+      <c r="U13" s="23" t="n"/>
+      <c r="V13" s="23" t="n"/>
+      <c r="W13" s="23" t="n"/>
+      <c r="X13" s="23" t="n"/>
+      <c r="Y13" s="23" t="n"/>
+      <c r="Z13" s="23" t="n"/>
+      <c r="AA13" s="23" t="n"/>
+      <c r="AB13" s="23" t="n"/>
+      <c r="AC13" s="23" t="n"/>
+      <c r="AD13" s="23" t="n"/>
+      <c r="AE13" s="23" t="n"/>
+      <c r="AF13" s="23" t="n"/>
+      <c r="AG13" s="23" t="n"/>
+      <c r="AH13" s="23" t="n"/>
+      <c r="AI13" s="23" t="n"/>
+      <c r="AJ13" s="23" t="n"/>
       <c r="AK13" s="23" t="n"/>
       <c r="AL13" s="23" t="n"/>
       <c r="AM13" s="23" t="n"/>
@@ -2108,40 +2153,42 @@
       <c r="BB13" s="23" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="5" t="n"/>
-      <c r="N14" s="5" t="n"/>
-      <c r="O14" s="5" t="n"/>
-      <c r="P14" s="5" t="n"/>
-      <c r="Q14" s="5" t="n"/>
-      <c r="R14" s="5" t="n"/>
-      <c r="S14" s="5" t="n"/>
-      <c r="T14" s="5" t="n"/>
-      <c r="U14" s="5" t="n"/>
-      <c r="V14" s="5" t="n"/>
-      <c r="W14" s="5" t="n"/>
-      <c r="X14" s="5" t="n"/>
-      <c r="Y14" s="5" t="n"/>
-      <c r="Z14" s="5" t="n"/>
-      <c r="AA14" s="5" t="n"/>
-      <c r="AB14" s="5" t="n"/>
-      <c r="AC14" s="5" t="n"/>
-      <c r="AD14" s="5" t="n"/>
-      <c r="AE14" s="5" t="n"/>
-      <c r="AF14" s="5" t="n"/>
-      <c r="AG14" s="5" t="n"/>
-      <c r="AH14" s="5" t="n"/>
+      <c r="A14" s="52" t="n"/>
+      <c r="B14" s="52" t="n"/>
+      <c r="C14" s="53" t="n"/>
+      <c r="D14" s="52" t="n"/>
+      <c r="E14" s="52" t="n"/>
+      <c r="F14" s="52" t="n"/>
+      <c r="G14" s="52" t="n"/>
+      <c r="H14" s="52" t="n"/>
+      <c r="I14" s="52" t="n"/>
+      <c r="J14" s="52" t="n"/>
+      <c r="K14" s="52" t="n"/>
+      <c r="L14" s="54" t="n"/>
+      <c r="M14" s="54" t="n"/>
+      <c r="N14" s="52" t="n"/>
+      <c r="O14" s="53" t="n"/>
+      <c r="P14" s="23" t="n"/>
+      <c r="Q14" s="23" t="n"/>
+      <c r="R14" s="23" t="n"/>
+      <c r="S14" s="23" t="n"/>
+      <c r="T14" s="23" t="n"/>
+      <c r="U14" s="23" t="n"/>
+      <c r="V14" s="23" t="n"/>
+      <c r="W14" s="23" t="n"/>
+      <c r="X14" s="23" t="n"/>
+      <c r="Y14" s="23" t="n"/>
+      <c r="Z14" s="23" t="n"/>
+      <c r="AA14" s="23" t="n"/>
+      <c r="AB14" s="23" t="n"/>
+      <c r="AC14" s="23" t="n"/>
+      <c r="AD14" s="23" t="n"/>
+      <c r="AE14" s="23" t="n"/>
+      <c r="AF14" s="23" t="n"/>
+      <c r="AG14" s="23" t="n"/>
+      <c r="AH14" s="23" t="n"/>
+      <c r="AI14" s="23" t="n"/>
+      <c r="AJ14" s="23" t="n"/>
       <c r="AK14" s="23" t="n"/>
       <c r="AL14" s="23" t="n"/>
       <c r="AM14" s="23" t="n"/>
@@ -2162,40 +2209,42 @@
       <c r="BB14" s="23" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
-      <c r="M15" s="5" t="n"/>
-      <c r="N15" s="5" t="n"/>
-      <c r="O15" s="5" t="n"/>
-      <c r="P15" s="5" t="n"/>
-      <c r="Q15" s="5" t="n"/>
-      <c r="R15" s="5" t="n"/>
-      <c r="S15" s="5" t="n"/>
-      <c r="T15" s="5" t="n"/>
-      <c r="U15" s="5" t="n"/>
-      <c r="V15" s="5" t="n"/>
-      <c r="W15" s="5" t="n"/>
-      <c r="X15" s="5" t="n"/>
-      <c r="Y15" s="5" t="n"/>
-      <c r="Z15" s="5" t="n"/>
-      <c r="AA15" s="5" t="n"/>
-      <c r="AB15" s="5" t="n"/>
-      <c r="AC15" s="5" t="n"/>
-      <c r="AD15" s="5" t="n"/>
-      <c r="AE15" s="5" t="n"/>
-      <c r="AF15" s="5" t="n"/>
-      <c r="AG15" s="5" t="n"/>
-      <c r="AH15" s="5" t="n"/>
+      <c r="A15" s="52" t="n"/>
+      <c r="B15" s="52" t="n"/>
+      <c r="C15" s="53" t="n"/>
+      <c r="D15" s="52" t="n"/>
+      <c r="E15" s="52" t="n"/>
+      <c r="F15" s="52" t="n"/>
+      <c r="G15" s="52" t="n"/>
+      <c r="H15" s="52" t="n"/>
+      <c r="I15" s="52" t="n"/>
+      <c r="J15" s="52" t="n"/>
+      <c r="K15" s="52" t="n"/>
+      <c r="L15" s="54" t="n"/>
+      <c r="M15" s="54" t="n"/>
+      <c r="N15" s="52" t="n"/>
+      <c r="O15" s="53" t="n"/>
+      <c r="P15" s="23" t="n"/>
+      <c r="Q15" s="23" t="n"/>
+      <c r="R15" s="23" t="n"/>
+      <c r="S15" s="23" t="n"/>
+      <c r="T15" s="23" t="n"/>
+      <c r="U15" s="23" t="n"/>
+      <c r="V15" s="23" t="n"/>
+      <c r="W15" s="23" t="n"/>
+      <c r="X15" s="23" t="n"/>
+      <c r="Y15" s="23" t="n"/>
+      <c r="Z15" s="23" t="n"/>
+      <c r="AA15" s="23" t="n"/>
+      <c r="AB15" s="23" t="n"/>
+      <c r="AC15" s="23" t="n"/>
+      <c r="AD15" s="23" t="n"/>
+      <c r="AE15" s="23" t="n"/>
+      <c r="AF15" s="23" t="n"/>
+      <c r="AG15" s="23" t="n"/>
+      <c r="AH15" s="23" t="n"/>
+      <c r="AI15" s="23" t="n"/>
+      <c r="AJ15" s="23" t="n"/>
       <c r="AK15" s="23" t="n"/>
       <c r="AL15" s="23" t="n"/>
       <c r="AM15" s="23" t="n"/>
@@ -2216,40 +2265,42 @@
       <c r="BB15" s="23" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="5" t="n"/>
-      <c r="N16" s="5" t="n"/>
-      <c r="O16" s="5" t="n"/>
-      <c r="P16" s="5" t="n"/>
-      <c r="Q16" s="5" t="n"/>
-      <c r="R16" s="5" t="n"/>
-      <c r="S16" s="5" t="n"/>
-      <c r="T16" s="5" t="n"/>
-      <c r="U16" s="5" t="n"/>
-      <c r="V16" s="5" t="n"/>
-      <c r="W16" s="5" t="n"/>
-      <c r="X16" s="5" t="n"/>
-      <c r="Y16" s="5" t="n"/>
-      <c r="Z16" s="5" t="n"/>
-      <c r="AA16" s="5" t="n"/>
-      <c r="AB16" s="5" t="n"/>
-      <c r="AC16" s="5" t="n"/>
-      <c r="AD16" s="5" t="n"/>
-      <c r="AE16" s="5" t="n"/>
-      <c r="AF16" s="5" t="n"/>
-      <c r="AG16" s="5" t="n"/>
-      <c r="AH16" s="5" t="n"/>
+      <c r="A16" s="52" t="n"/>
+      <c r="B16" s="52" t="n"/>
+      <c r="C16" s="53" t="n"/>
+      <c r="D16" s="52" t="n"/>
+      <c r="E16" s="52" t="n"/>
+      <c r="F16" s="52" t="n"/>
+      <c r="G16" s="52" t="n"/>
+      <c r="H16" s="52" t="n"/>
+      <c r="I16" s="52" t="n"/>
+      <c r="J16" s="52" t="n"/>
+      <c r="K16" s="52" t="n"/>
+      <c r="L16" s="54" t="n"/>
+      <c r="M16" s="54" t="n"/>
+      <c r="N16" s="52" t="n"/>
+      <c r="O16" s="53" t="n"/>
+      <c r="P16" s="23" t="n"/>
+      <c r="Q16" s="23" t="n"/>
+      <c r="R16" s="23" t="n"/>
+      <c r="S16" s="23" t="n"/>
+      <c r="T16" s="23" t="n"/>
+      <c r="U16" s="23" t="n"/>
+      <c r="V16" s="23" t="n"/>
+      <c r="W16" s="23" t="n"/>
+      <c r="X16" s="23" t="n"/>
+      <c r="Y16" s="23" t="n"/>
+      <c r="Z16" s="23" t="n"/>
+      <c r="AA16" s="23" t="n"/>
+      <c r="AB16" s="23" t="n"/>
+      <c r="AC16" s="23" t="n"/>
+      <c r="AD16" s="23" t="n"/>
+      <c r="AE16" s="23" t="n"/>
+      <c r="AF16" s="23" t="n"/>
+      <c r="AG16" s="23" t="n"/>
+      <c r="AH16" s="23" t="n"/>
+      <c r="AI16" s="23" t="n"/>
+      <c r="AJ16" s="23" t="n"/>
       <c r="AK16" s="23" t="n"/>
       <c r="AL16" s="23" t="n"/>
       <c r="AM16" s="23" t="n"/>
@@ -2270,40 +2321,42 @@
       <c r="BB16" s="23" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n"/>
-      <c r="N17" s="5" t="n"/>
-      <c r="O17" s="5" t="n"/>
-      <c r="P17" s="5" t="n"/>
-      <c r="Q17" s="5" t="n"/>
-      <c r="R17" s="5" t="n"/>
-      <c r="S17" s="5" t="n"/>
-      <c r="T17" s="5" t="n"/>
-      <c r="U17" s="5" t="n"/>
-      <c r="V17" s="5" t="n"/>
-      <c r="W17" s="5" t="n"/>
-      <c r="X17" s="5" t="n"/>
-      <c r="Y17" s="5" t="n"/>
-      <c r="Z17" s="5" t="n"/>
-      <c r="AA17" s="5" t="n"/>
-      <c r="AB17" s="5" t="n"/>
-      <c r="AC17" s="5" t="n"/>
-      <c r="AD17" s="5" t="n"/>
-      <c r="AE17" s="5" t="n"/>
-      <c r="AF17" s="5" t="n"/>
-      <c r="AG17" s="5" t="n"/>
-      <c r="AH17" s="5" t="n"/>
+      <c r="A17" s="52" t="n"/>
+      <c r="B17" s="52" t="n"/>
+      <c r="C17" s="53" t="n"/>
+      <c r="D17" s="52" t="n"/>
+      <c r="E17" s="52" t="n"/>
+      <c r="F17" s="52" t="n"/>
+      <c r="G17" s="52" t="n"/>
+      <c r="H17" s="52" t="n"/>
+      <c r="I17" s="52" t="n"/>
+      <c r="J17" s="52" t="n"/>
+      <c r="K17" s="52" t="n"/>
+      <c r="L17" s="54" t="n"/>
+      <c r="M17" s="54" t="n"/>
+      <c r="N17" s="52" t="n"/>
+      <c r="O17" s="53" t="n"/>
+      <c r="P17" s="23" t="n"/>
+      <c r="Q17" s="23" t="n"/>
+      <c r="R17" s="23" t="n"/>
+      <c r="S17" s="23" t="n"/>
+      <c r="T17" s="23" t="n"/>
+      <c r="U17" s="23" t="n"/>
+      <c r="V17" s="23" t="n"/>
+      <c r="W17" s="23" t="n"/>
+      <c r="X17" s="23" t="n"/>
+      <c r="Y17" s="23" t="n"/>
+      <c r="Z17" s="23" t="n"/>
+      <c r="AA17" s="23" t="n"/>
+      <c r="AB17" s="23" t="n"/>
+      <c r="AC17" s="23" t="n"/>
+      <c r="AD17" s="23" t="n"/>
+      <c r="AE17" s="23" t="n"/>
+      <c r="AF17" s="23" t="n"/>
+      <c r="AG17" s="23" t="n"/>
+      <c r="AH17" s="23" t="n"/>
+      <c r="AI17" s="23" t="n"/>
+      <c r="AJ17" s="23" t="n"/>
       <c r="AK17" s="23" t="n"/>
       <c r="AL17" s="23" t="n"/>
       <c r="AM17" s="23" t="n"/>
@@ -2324,40 +2377,42 @@
       <c r="BB17" s="23" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n"/>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
-      <c r="I18" s="5" t="n"/>
-      <c r="J18" s="5" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
-      <c r="M18" s="5" t="n"/>
-      <c r="N18" s="5" t="n"/>
-      <c r="O18" s="5" t="n"/>
-      <c r="P18" s="5" t="n"/>
-      <c r="Q18" s="5" t="n"/>
-      <c r="R18" s="5" t="n"/>
-      <c r="S18" s="5" t="n"/>
-      <c r="T18" s="5" t="n"/>
-      <c r="U18" s="5" t="n"/>
-      <c r="V18" s="5" t="n"/>
-      <c r="W18" s="5" t="n"/>
-      <c r="X18" s="5" t="n"/>
-      <c r="Y18" s="5" t="n"/>
-      <c r="Z18" s="5" t="n"/>
-      <c r="AA18" s="5" t="n"/>
-      <c r="AB18" s="5" t="n"/>
-      <c r="AC18" s="5" t="n"/>
-      <c r="AD18" s="5" t="n"/>
-      <c r="AE18" s="5" t="n"/>
-      <c r="AF18" s="5" t="n"/>
-      <c r="AG18" s="5" t="n"/>
-      <c r="AH18" s="5" t="n"/>
+      <c r="A18" s="52" t="n"/>
+      <c r="B18" s="52" t="n"/>
+      <c r="C18" s="53" t="n"/>
+      <c r="D18" s="52" t="n"/>
+      <c r="E18" s="52" t="n"/>
+      <c r="F18" s="52" t="n"/>
+      <c r="G18" s="52" t="n"/>
+      <c r="H18" s="52" t="n"/>
+      <c r="I18" s="52" t="n"/>
+      <c r="J18" s="52" t="n"/>
+      <c r="K18" s="52" t="n"/>
+      <c r="L18" s="54" t="n"/>
+      <c r="M18" s="54" t="n"/>
+      <c r="N18" s="52" t="n"/>
+      <c r="O18" s="53" t="n"/>
+      <c r="P18" s="23" t="n"/>
+      <c r="Q18" s="23" t="n"/>
+      <c r="R18" s="23" t="n"/>
+      <c r="S18" s="23" t="n"/>
+      <c r="T18" s="23" t="n"/>
+      <c r="U18" s="23" t="n"/>
+      <c r="V18" s="23" t="n"/>
+      <c r="W18" s="23" t="n"/>
+      <c r="X18" s="23" t="n"/>
+      <c r="Y18" s="23" t="n"/>
+      <c r="Z18" s="23" t="n"/>
+      <c r="AA18" s="23" t="n"/>
+      <c r="AB18" s="23" t="n"/>
+      <c r="AC18" s="23" t="n"/>
+      <c r="AD18" s="23" t="n"/>
+      <c r="AE18" s="23" t="n"/>
+      <c r="AF18" s="23" t="n"/>
+      <c r="AG18" s="23" t="n"/>
+      <c r="AH18" s="23" t="n"/>
+      <c r="AI18" s="23" t="n"/>
+      <c r="AJ18" s="23" t="n"/>
       <c r="AK18" s="23" t="n"/>
       <c r="AL18" s="23" t="n"/>
       <c r="AM18" s="23" t="n"/>
@@ -2378,40 +2433,42 @@
       <c r="BB18" s="23" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-      <c r="I19" s="5" t="n"/>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
-      <c r="N19" s="5" t="n"/>
-      <c r="O19" s="5" t="n"/>
-      <c r="P19" s="5" t="n"/>
-      <c r="Q19" s="5" t="n"/>
-      <c r="R19" s="5" t="n"/>
-      <c r="S19" s="5" t="n"/>
-      <c r="T19" s="5" t="n"/>
-      <c r="U19" s="5" t="n"/>
-      <c r="V19" s="5" t="n"/>
-      <c r="W19" s="5" t="n"/>
-      <c r="X19" s="5" t="n"/>
-      <c r="Y19" s="5" t="n"/>
-      <c r="Z19" s="5" t="n"/>
-      <c r="AA19" s="5" t="n"/>
-      <c r="AB19" s="5" t="n"/>
-      <c r="AC19" s="5" t="n"/>
-      <c r="AD19" s="5" t="n"/>
-      <c r="AE19" s="5" t="n"/>
-      <c r="AF19" s="5" t="n"/>
-      <c r="AG19" s="5" t="n"/>
-      <c r="AH19" s="5" t="n"/>
+      <c r="A19" s="52" t="n"/>
+      <c r="B19" s="52" t="n"/>
+      <c r="C19" s="53" t="n"/>
+      <c r="D19" s="52" t="n"/>
+      <c r="E19" s="52" t="n"/>
+      <c r="F19" s="52" t="n"/>
+      <c r="G19" s="52" t="n"/>
+      <c r="H19" s="52" t="n"/>
+      <c r="I19" s="52" t="n"/>
+      <c r="J19" s="52" t="n"/>
+      <c r="K19" s="52" t="n"/>
+      <c r="L19" s="54" t="n"/>
+      <c r="M19" s="54" t="n"/>
+      <c r="N19" s="52" t="n"/>
+      <c r="O19" s="53" t="n"/>
+      <c r="P19" s="23" t="n"/>
+      <c r="Q19" s="23" t="n"/>
+      <c r="R19" s="23" t="n"/>
+      <c r="S19" s="23" t="n"/>
+      <c r="T19" s="23" t="n"/>
+      <c r="U19" s="23" t="n"/>
+      <c r="V19" s="23" t="n"/>
+      <c r="W19" s="23" t="n"/>
+      <c r="X19" s="23" t="n"/>
+      <c r="Y19" s="23" t="n"/>
+      <c r="Z19" s="23" t="n"/>
+      <c r="AA19" s="23" t="n"/>
+      <c r="AB19" s="23" t="n"/>
+      <c r="AC19" s="23" t="n"/>
+      <c r="AD19" s="23" t="n"/>
+      <c r="AE19" s="23" t="n"/>
+      <c r="AF19" s="23" t="n"/>
+      <c r="AG19" s="23" t="n"/>
+      <c r="AH19" s="23" t="n"/>
+      <c r="AI19" s="23" t="n"/>
+      <c r="AJ19" s="23" t="n"/>
       <c r="AK19" s="23" t="n"/>
       <c r="AL19" s="23" t="n"/>
       <c r="AM19" s="23" t="n"/>
@@ -2432,40 +2489,42 @@
       <c r="BB19" s="23" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" s="5" t="n"/>
-      <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="5" t="n"/>
-      <c r="N20" s="5" t="n"/>
-      <c r="O20" s="5" t="n"/>
-      <c r="P20" s="5" t="n"/>
-      <c r="Q20" s="5" t="n"/>
-      <c r="R20" s="5" t="n"/>
-      <c r="S20" s="5" t="n"/>
-      <c r="T20" s="5" t="n"/>
-      <c r="U20" s="5" t="n"/>
-      <c r="V20" s="5" t="n"/>
-      <c r="W20" s="5" t="n"/>
-      <c r="X20" s="5" t="n"/>
-      <c r="Y20" s="5" t="n"/>
-      <c r="Z20" s="5" t="n"/>
-      <c r="AA20" s="5" t="n"/>
-      <c r="AB20" s="5" t="n"/>
-      <c r="AC20" s="5" t="n"/>
-      <c r="AD20" s="5" t="n"/>
-      <c r="AE20" s="5" t="n"/>
-      <c r="AF20" s="5" t="n"/>
-      <c r="AG20" s="5" t="n"/>
-      <c r="AH20" s="5" t="n"/>
+      <c r="A20" s="52" t="n"/>
+      <c r="B20" s="52" t="n"/>
+      <c r="C20" s="53" t="n"/>
+      <c r="D20" s="52" t="n"/>
+      <c r="E20" s="52" t="n"/>
+      <c r="F20" s="52" t="n"/>
+      <c r="G20" s="52" t="n"/>
+      <c r="H20" s="52" t="n"/>
+      <c r="I20" s="52" t="n"/>
+      <c r="J20" s="52" t="n"/>
+      <c r="K20" s="52" t="n"/>
+      <c r="L20" s="54" t="n"/>
+      <c r="M20" s="54" t="n"/>
+      <c r="N20" s="52" t="n"/>
+      <c r="O20" s="53" t="n"/>
+      <c r="P20" s="23" t="n"/>
+      <c r="Q20" s="23" t="n"/>
+      <c r="R20" s="23" t="n"/>
+      <c r="S20" s="23" t="n"/>
+      <c r="T20" s="23" t="n"/>
+      <c r="U20" s="23" t="n"/>
+      <c r="V20" s="23" t="n"/>
+      <c r="W20" s="23" t="n"/>
+      <c r="X20" s="23" t="n"/>
+      <c r="Y20" s="23" t="n"/>
+      <c r="Z20" s="23" t="n"/>
+      <c r="AA20" s="23" t="n"/>
+      <c r="AB20" s="23" t="n"/>
+      <c r="AC20" s="23" t="n"/>
+      <c r="AD20" s="23" t="n"/>
+      <c r="AE20" s="23" t="n"/>
+      <c r="AF20" s="23" t="n"/>
+      <c r="AG20" s="23" t="n"/>
+      <c r="AH20" s="23" t="n"/>
+      <c r="AI20" s="23" t="n"/>
+      <c r="AJ20" s="23" t="n"/>
       <c r="AK20" s="23" t="n"/>
       <c r="AL20" s="23" t="n"/>
       <c r="AM20" s="23" t="n"/>
@@ -2486,40 +2545,42 @@
       <c r="BB20" s="23" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
-      <c r="I21" s="5" t="n"/>
-      <c r="J21" s="5" t="n"/>
-      <c r="K21" s="5" t="n"/>
-      <c r="L21" s="5" t="n"/>
-      <c r="M21" s="5" t="n"/>
-      <c r="N21" s="5" t="n"/>
-      <c r="O21" s="5" t="n"/>
-      <c r="P21" s="5" t="n"/>
-      <c r="Q21" s="5" t="n"/>
-      <c r="R21" s="5" t="n"/>
-      <c r="S21" s="5" t="n"/>
-      <c r="T21" s="5" t="n"/>
-      <c r="U21" s="5" t="n"/>
-      <c r="V21" s="5" t="n"/>
-      <c r="W21" s="5" t="n"/>
-      <c r="X21" s="5" t="n"/>
-      <c r="Y21" s="5" t="n"/>
-      <c r="Z21" s="5" t="n"/>
-      <c r="AA21" s="5" t="n"/>
-      <c r="AB21" s="5" t="n"/>
-      <c r="AC21" s="5" t="n"/>
-      <c r="AD21" s="5" t="n"/>
-      <c r="AE21" s="5" t="n"/>
-      <c r="AF21" s="5" t="n"/>
-      <c r="AG21" s="5" t="n"/>
-      <c r="AH21" s="5" t="n"/>
+      <c r="A21" s="52" t="n"/>
+      <c r="B21" s="52" t="n"/>
+      <c r="C21" s="53" t="n"/>
+      <c r="D21" s="52" t="n"/>
+      <c r="E21" s="52" t="n"/>
+      <c r="F21" s="52" t="n"/>
+      <c r="G21" s="52" t="n"/>
+      <c r="H21" s="52" t="n"/>
+      <c r="I21" s="52" t="n"/>
+      <c r="J21" s="52" t="n"/>
+      <c r="K21" s="52" t="n"/>
+      <c r="L21" s="54" t="n"/>
+      <c r="M21" s="54" t="n"/>
+      <c r="N21" s="52" t="n"/>
+      <c r="O21" s="53" t="n"/>
+      <c r="P21" s="23" t="n"/>
+      <c r="Q21" s="23" t="n"/>
+      <c r="R21" s="23" t="n"/>
+      <c r="S21" s="23" t="n"/>
+      <c r="T21" s="23" t="n"/>
+      <c r="U21" s="23" t="n"/>
+      <c r="V21" s="23" t="n"/>
+      <c r="W21" s="23" t="n"/>
+      <c r="X21" s="23" t="n"/>
+      <c r="Y21" s="23" t="n"/>
+      <c r="Z21" s="23" t="n"/>
+      <c r="AA21" s="23" t="n"/>
+      <c r="AB21" s="23" t="n"/>
+      <c r="AC21" s="23" t="n"/>
+      <c r="AD21" s="23" t="n"/>
+      <c r="AE21" s="23" t="n"/>
+      <c r="AF21" s="23" t="n"/>
+      <c r="AG21" s="23" t="n"/>
+      <c r="AH21" s="23" t="n"/>
+      <c r="AI21" s="23" t="n"/>
+      <c r="AJ21" s="23" t="n"/>
       <c r="AK21" s="23" t="n"/>
       <c r="AL21" s="23" t="n"/>
       <c r="AM21" s="23" t="n"/>
@@ -2540,40 +2601,42 @@
       <c r="BB21" s="23" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
-      <c r="I22" s="5" t="n"/>
-      <c r="J22" s="5" t="n"/>
-      <c r="K22" s="5" t="n"/>
-      <c r="L22" s="5" t="n"/>
-      <c r="M22" s="5" t="n"/>
-      <c r="N22" s="5" t="n"/>
-      <c r="O22" s="5" t="n"/>
-      <c r="P22" s="5" t="n"/>
-      <c r="Q22" s="5" t="n"/>
-      <c r="R22" s="5" t="n"/>
-      <c r="S22" s="5" t="n"/>
-      <c r="T22" s="5" t="n"/>
-      <c r="U22" s="5" t="n"/>
-      <c r="V22" s="5" t="n"/>
-      <c r="W22" s="5" t="n"/>
-      <c r="X22" s="5" t="n"/>
-      <c r="Y22" s="5" t="n"/>
-      <c r="Z22" s="5" t="n"/>
-      <c r="AA22" s="5" t="n"/>
-      <c r="AB22" s="5" t="n"/>
-      <c r="AC22" s="5" t="n"/>
-      <c r="AD22" s="5" t="n"/>
-      <c r="AE22" s="5" t="n"/>
-      <c r="AF22" s="5" t="n"/>
-      <c r="AG22" s="5" t="n"/>
-      <c r="AH22" s="5" t="n"/>
+      <c r="A22" s="52" t="n"/>
+      <c r="B22" s="52" t="n"/>
+      <c r="C22" s="53" t="n"/>
+      <c r="D22" s="52" t="n"/>
+      <c r="E22" s="52" t="n"/>
+      <c r="F22" s="52" t="n"/>
+      <c r="G22" s="52" t="n"/>
+      <c r="H22" s="52" t="n"/>
+      <c r="I22" s="52" t="n"/>
+      <c r="J22" s="52" t="n"/>
+      <c r="K22" s="52" t="n"/>
+      <c r="L22" s="54" t="n"/>
+      <c r="M22" s="54" t="n"/>
+      <c r="N22" s="52" t="n"/>
+      <c r="O22" s="53" t="n"/>
+      <c r="P22" s="23" t="n"/>
+      <c r="Q22" s="23" t="n"/>
+      <c r="R22" s="23" t="n"/>
+      <c r="S22" s="23" t="n"/>
+      <c r="T22" s="23" t="n"/>
+      <c r="U22" s="23" t="n"/>
+      <c r="V22" s="23" t="n"/>
+      <c r="W22" s="23" t="n"/>
+      <c r="X22" s="23" t="n"/>
+      <c r="Y22" s="23" t="n"/>
+      <c r="Z22" s="23" t="n"/>
+      <c r="AA22" s="23" t="n"/>
+      <c r="AB22" s="23" t="n"/>
+      <c r="AC22" s="23" t="n"/>
+      <c r="AD22" s="23" t="n"/>
+      <c r="AE22" s="23" t="n"/>
+      <c r="AF22" s="23" t="n"/>
+      <c r="AG22" s="23" t="n"/>
+      <c r="AH22" s="23" t="n"/>
+      <c r="AI22" s="23" t="n"/>
+      <c r="AJ22" s="23" t="n"/>
       <c r="AK22" s="23" t="n"/>
       <c r="AL22" s="23" t="n"/>
       <c r="AM22" s="23" t="n"/>
@@ -2594,40 +2657,42 @@
       <c r="BB22" s="23" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
-      <c r="I23" s="5" t="n"/>
-      <c r="J23" s="5" t="n"/>
-      <c r="K23" s="5" t="n"/>
-      <c r="L23" s="5" t="n"/>
-      <c r="M23" s="5" t="n"/>
-      <c r="N23" s="5" t="n"/>
-      <c r="O23" s="5" t="n"/>
-      <c r="P23" s="5" t="n"/>
-      <c r="Q23" s="5" t="n"/>
-      <c r="R23" s="5" t="n"/>
-      <c r="S23" s="5" t="n"/>
-      <c r="T23" s="5" t="n"/>
-      <c r="U23" s="5" t="n"/>
-      <c r="V23" s="5" t="n"/>
-      <c r="W23" s="5" t="n"/>
-      <c r="X23" s="5" t="n"/>
-      <c r="Y23" s="5" t="n"/>
-      <c r="Z23" s="5" t="n"/>
-      <c r="AA23" s="5" t="n"/>
-      <c r="AB23" s="5" t="n"/>
-      <c r="AC23" s="5" t="n"/>
-      <c r="AD23" s="5" t="n"/>
-      <c r="AE23" s="5" t="n"/>
-      <c r="AF23" s="5" t="n"/>
-      <c r="AG23" s="5" t="n"/>
-      <c r="AH23" s="5" t="n"/>
+      <c r="A23" s="52" t="n"/>
+      <c r="B23" s="52" t="n"/>
+      <c r="C23" s="53" t="n"/>
+      <c r="D23" s="52" t="n"/>
+      <c r="E23" s="52" t="n"/>
+      <c r="F23" s="52" t="n"/>
+      <c r="G23" s="52" t="n"/>
+      <c r="H23" s="52" t="n"/>
+      <c r="I23" s="52" t="n"/>
+      <c r="J23" s="52" t="n"/>
+      <c r="K23" s="52" t="n"/>
+      <c r="L23" s="54" t="n"/>
+      <c r="M23" s="54" t="n"/>
+      <c r="N23" s="52" t="n"/>
+      <c r="O23" s="53" t="n"/>
+      <c r="P23" s="23" t="n"/>
+      <c r="Q23" s="23" t="n"/>
+      <c r="R23" s="23" t="n"/>
+      <c r="S23" s="23" t="n"/>
+      <c r="T23" s="23" t="n"/>
+      <c r="U23" s="23" t="n"/>
+      <c r="V23" s="23" t="n"/>
+      <c r="W23" s="23" t="n"/>
+      <c r="X23" s="23" t="n"/>
+      <c r="Y23" s="23" t="n"/>
+      <c r="Z23" s="23" t="n"/>
+      <c r="AA23" s="23" t="n"/>
+      <c r="AB23" s="23" t="n"/>
+      <c r="AC23" s="23" t="n"/>
+      <c r="AD23" s="23" t="n"/>
+      <c r="AE23" s="23" t="n"/>
+      <c r="AF23" s="23" t="n"/>
+      <c r="AG23" s="23" t="n"/>
+      <c r="AH23" s="23" t="n"/>
+      <c r="AI23" s="23" t="n"/>
+      <c r="AJ23" s="23" t="n"/>
       <c r="AK23" s="23" t="n"/>
       <c r="AL23" s="23" t="n"/>
       <c r="AM23" s="23" t="n"/>
@@ -2648,40 +2713,42 @@
       <c r="BB23" s="23" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
-      <c r="I24" s="5" t="n"/>
-      <c r="J24" s="5" t="n"/>
-      <c r="K24" s="5" t="n"/>
-      <c r="L24" s="5" t="n"/>
-      <c r="M24" s="5" t="n"/>
-      <c r="N24" s="5" t="n"/>
-      <c r="O24" s="5" t="n"/>
-      <c r="P24" s="5" t="n"/>
-      <c r="Q24" s="5" t="n"/>
-      <c r="R24" s="5" t="n"/>
-      <c r="S24" s="5" t="n"/>
-      <c r="T24" s="5" t="n"/>
-      <c r="U24" s="5" t="n"/>
-      <c r="V24" s="5" t="n"/>
-      <c r="W24" s="5" t="n"/>
-      <c r="X24" s="5" t="n"/>
-      <c r="Y24" s="5" t="n"/>
-      <c r="Z24" s="5" t="n"/>
-      <c r="AA24" s="5" t="n"/>
-      <c r="AB24" s="5" t="n"/>
-      <c r="AC24" s="5" t="n"/>
-      <c r="AD24" s="5" t="n"/>
-      <c r="AE24" s="5" t="n"/>
-      <c r="AF24" s="5" t="n"/>
-      <c r="AG24" s="5" t="n"/>
-      <c r="AH24" s="5" t="n"/>
+      <c r="A24" s="52" t="n"/>
+      <c r="B24" s="52" t="n"/>
+      <c r="C24" s="53" t="n"/>
+      <c r="D24" s="52" t="n"/>
+      <c r="E24" s="52" t="n"/>
+      <c r="F24" s="52" t="n"/>
+      <c r="G24" s="52" t="n"/>
+      <c r="H24" s="52" t="n"/>
+      <c r="I24" s="52" t="n"/>
+      <c r="J24" s="52" t="n"/>
+      <c r="K24" s="52" t="n"/>
+      <c r="L24" s="54" t="n"/>
+      <c r="M24" s="54" t="n"/>
+      <c r="N24" s="52" t="n"/>
+      <c r="O24" s="53" t="n"/>
+      <c r="P24" s="23" t="n"/>
+      <c r="Q24" s="23" t="n"/>
+      <c r="R24" s="23" t="n"/>
+      <c r="S24" s="23" t="n"/>
+      <c r="T24" s="23" t="n"/>
+      <c r="U24" s="23" t="n"/>
+      <c r="V24" s="23" t="n"/>
+      <c r="W24" s="23" t="n"/>
+      <c r="X24" s="23" t="n"/>
+      <c r="Y24" s="23" t="n"/>
+      <c r="Z24" s="23" t="n"/>
+      <c r="AA24" s="23" t="n"/>
+      <c r="AB24" s="23" t="n"/>
+      <c r="AC24" s="23" t="n"/>
+      <c r="AD24" s="23" t="n"/>
+      <c r="AE24" s="23" t="n"/>
+      <c r="AF24" s="23" t="n"/>
+      <c r="AG24" s="23" t="n"/>
+      <c r="AH24" s="23" t="n"/>
+      <c r="AI24" s="23" t="n"/>
+      <c r="AJ24" s="23" t="n"/>
       <c r="AK24" s="23" t="n"/>
       <c r="AL24" s="23" t="n"/>
       <c r="AM24" s="23" t="n"/>
@@ -2702,40 +2769,42 @@
       <c r="BB24" s="23" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
-      <c r="I25" s="5" t="n"/>
-      <c r="J25" s="5" t="n"/>
-      <c r="K25" s="5" t="n"/>
-      <c r="L25" s="5" t="n"/>
-      <c r="M25" s="5" t="n"/>
-      <c r="N25" s="5" t="n"/>
-      <c r="O25" s="5" t="n"/>
-      <c r="P25" s="5" t="n"/>
-      <c r="Q25" s="5" t="n"/>
-      <c r="R25" s="5" t="n"/>
-      <c r="S25" s="5" t="n"/>
-      <c r="T25" s="5" t="n"/>
-      <c r="U25" s="5" t="n"/>
-      <c r="V25" s="5" t="n"/>
-      <c r="W25" s="5" t="n"/>
-      <c r="X25" s="5" t="n"/>
-      <c r="Y25" s="5" t="n"/>
-      <c r="Z25" s="5" t="n"/>
-      <c r="AA25" s="5" t="n"/>
-      <c r="AB25" s="5" t="n"/>
-      <c r="AC25" s="5" t="n"/>
-      <c r="AD25" s="5" t="n"/>
-      <c r="AE25" s="5" t="n"/>
-      <c r="AF25" s="5" t="n"/>
-      <c r="AG25" s="5" t="n"/>
-      <c r="AH25" s="5" t="n"/>
+      <c r="A25" s="52" t="n"/>
+      <c r="B25" s="52" t="n"/>
+      <c r="C25" s="53" t="n"/>
+      <c r="D25" s="52" t="n"/>
+      <c r="E25" s="52" t="n"/>
+      <c r="F25" s="52" t="n"/>
+      <c r="G25" s="52" t="n"/>
+      <c r="H25" s="52" t="n"/>
+      <c r="I25" s="52" t="n"/>
+      <c r="J25" s="52" t="n"/>
+      <c r="K25" s="52" t="n"/>
+      <c r="L25" s="54" t="n"/>
+      <c r="M25" s="54" t="n"/>
+      <c r="N25" s="52" t="n"/>
+      <c r="O25" s="53" t="n"/>
+      <c r="P25" s="23" t="n"/>
+      <c r="Q25" s="23" t="n"/>
+      <c r="R25" s="23" t="n"/>
+      <c r="S25" s="23" t="n"/>
+      <c r="T25" s="23" t="n"/>
+      <c r="U25" s="23" t="n"/>
+      <c r="V25" s="23" t="n"/>
+      <c r="W25" s="23" t="n"/>
+      <c r="X25" s="23" t="n"/>
+      <c r="Y25" s="23" t="n"/>
+      <c r="Z25" s="23" t="n"/>
+      <c r="AA25" s="23" t="n"/>
+      <c r="AB25" s="23" t="n"/>
+      <c r="AC25" s="23" t="n"/>
+      <c r="AD25" s="23" t="n"/>
+      <c r="AE25" s="23" t="n"/>
+      <c r="AF25" s="23" t="n"/>
+      <c r="AG25" s="23" t="n"/>
+      <c r="AH25" s="23" t="n"/>
+      <c r="AI25" s="23" t="n"/>
+      <c r="AJ25" s="23" t="n"/>
       <c r="AK25" s="23" t="n"/>
       <c r="AL25" s="23" t="n"/>
       <c r="AM25" s="23" t="n"/>
@@ -2756,40 +2825,42 @@
       <c r="BB25" s="23" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="5" t="n"/>
-      <c r="E26" s="5" t="n"/>
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="5" t="n"/>
-      <c r="H26" s="5" t="n"/>
-      <c r="I26" s="5" t="n"/>
-      <c r="J26" s="5" t="n"/>
-      <c r="K26" s="5" t="n"/>
-      <c r="L26" s="5" t="n"/>
-      <c r="M26" s="5" t="n"/>
-      <c r="N26" s="5" t="n"/>
-      <c r="O26" s="5" t="n"/>
-      <c r="P26" s="5" t="n"/>
-      <c r="Q26" s="5" t="n"/>
-      <c r="R26" s="5" t="n"/>
-      <c r="S26" s="5" t="n"/>
-      <c r="T26" s="5" t="n"/>
-      <c r="U26" s="5" t="n"/>
-      <c r="V26" s="5" t="n"/>
-      <c r="W26" s="5" t="n"/>
-      <c r="X26" s="5" t="n"/>
-      <c r="Y26" s="5" t="n"/>
-      <c r="Z26" s="5" t="n"/>
-      <c r="AA26" s="5" t="n"/>
-      <c r="AB26" s="5" t="n"/>
-      <c r="AC26" s="5" t="n"/>
-      <c r="AD26" s="5" t="n"/>
-      <c r="AE26" s="5" t="n"/>
-      <c r="AF26" s="5" t="n"/>
-      <c r="AG26" s="5" t="n"/>
-      <c r="AH26" s="5" t="n"/>
+      <c r="A26" s="52" t="n"/>
+      <c r="B26" s="52" t="n"/>
+      <c r="C26" s="53" t="n"/>
+      <c r="D26" s="52" t="n"/>
+      <c r="E26" s="52" t="n"/>
+      <c r="F26" s="52" t="n"/>
+      <c r="G26" s="52" t="n"/>
+      <c r="H26" s="52" t="n"/>
+      <c r="I26" s="52" t="n"/>
+      <c r="J26" s="52" t="n"/>
+      <c r="K26" s="52" t="n"/>
+      <c r="L26" s="54" t="n"/>
+      <c r="M26" s="54" t="n"/>
+      <c r="N26" s="52" t="n"/>
+      <c r="O26" s="53" t="n"/>
+      <c r="P26" s="23" t="n"/>
+      <c r="Q26" s="23" t="n"/>
+      <c r="R26" s="23" t="n"/>
+      <c r="S26" s="23" t="n"/>
+      <c r="T26" s="23" t="n"/>
+      <c r="U26" s="23" t="n"/>
+      <c r="V26" s="23" t="n"/>
+      <c r="W26" s="23" t="n"/>
+      <c r="X26" s="23" t="n"/>
+      <c r="Y26" s="23" t="n"/>
+      <c r="Z26" s="23" t="n"/>
+      <c r="AA26" s="23" t="n"/>
+      <c r="AB26" s="23" t="n"/>
+      <c r="AC26" s="23" t="n"/>
+      <c r="AD26" s="23" t="n"/>
+      <c r="AE26" s="23" t="n"/>
+      <c r="AF26" s="23" t="n"/>
+      <c r="AG26" s="23" t="n"/>
+      <c r="AH26" s="23" t="n"/>
+      <c r="AI26" s="23" t="n"/>
+      <c r="AJ26" s="23" t="n"/>
       <c r="AK26" s="23" t="n"/>
       <c r="AL26" s="23" t="n"/>
       <c r="AM26" s="23" t="n"/>
@@ -2810,40 +2881,42 @@
       <c r="BB26" s="23" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="5" t="n"/>
-      <c r="E27" s="5" t="n"/>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="5" t="n"/>
-      <c r="H27" s="5" t="n"/>
-      <c r="I27" s="5" t="n"/>
-      <c r="J27" s="5" t="n"/>
-      <c r="K27" s="5" t="n"/>
-      <c r="L27" s="5" t="n"/>
-      <c r="M27" s="5" t="n"/>
-      <c r="N27" s="5" t="n"/>
-      <c r="O27" s="5" t="n"/>
-      <c r="P27" s="5" t="n"/>
-      <c r="Q27" s="5" t="n"/>
-      <c r="R27" s="5" t="n"/>
-      <c r="S27" s="5" t="n"/>
-      <c r="T27" s="5" t="n"/>
-      <c r="U27" s="5" t="n"/>
-      <c r="V27" s="5" t="n"/>
-      <c r="W27" s="5" t="n"/>
-      <c r="X27" s="5" t="n"/>
-      <c r="Y27" s="5" t="n"/>
-      <c r="Z27" s="5" t="n"/>
-      <c r="AA27" s="5" t="n"/>
-      <c r="AB27" s="5" t="n"/>
-      <c r="AC27" s="5" t="n"/>
-      <c r="AD27" s="5" t="n"/>
-      <c r="AE27" s="5" t="n"/>
-      <c r="AF27" s="5" t="n"/>
-      <c r="AG27" s="5" t="n"/>
-      <c r="AH27" s="5" t="n"/>
+      <c r="A27" s="52" t="n"/>
+      <c r="B27" s="52" t="n"/>
+      <c r="C27" s="53" t="n"/>
+      <c r="D27" s="52" t="n"/>
+      <c r="E27" s="52" t="n"/>
+      <c r="F27" s="52" t="n"/>
+      <c r="G27" s="52" t="n"/>
+      <c r="H27" s="52" t="n"/>
+      <c r="I27" s="52" t="n"/>
+      <c r="J27" s="52" t="n"/>
+      <c r="K27" s="52" t="n"/>
+      <c r="L27" s="54" t="n"/>
+      <c r="M27" s="54" t="n"/>
+      <c r="N27" s="52" t="n"/>
+      <c r="O27" s="53" t="n"/>
+      <c r="P27" s="23" t="n"/>
+      <c r="Q27" s="23" t="n"/>
+      <c r="R27" s="23" t="n"/>
+      <c r="S27" s="23" t="n"/>
+      <c r="T27" s="23" t="n"/>
+      <c r="U27" s="23" t="n"/>
+      <c r="V27" s="23" t="n"/>
+      <c r="W27" s="23" t="n"/>
+      <c r="X27" s="23" t="n"/>
+      <c r="Y27" s="23" t="n"/>
+      <c r="Z27" s="23" t="n"/>
+      <c r="AA27" s="23" t="n"/>
+      <c r="AB27" s="23" t="n"/>
+      <c r="AC27" s="23" t="n"/>
+      <c r="AD27" s="23" t="n"/>
+      <c r="AE27" s="23" t="n"/>
+      <c r="AF27" s="23" t="n"/>
+      <c r="AG27" s="23" t="n"/>
+      <c r="AH27" s="23" t="n"/>
+      <c r="AI27" s="23" t="n"/>
+      <c r="AJ27" s="23" t="n"/>
       <c r="AK27" s="23" t="n"/>
       <c r="AL27" s="23" t="n"/>
       <c r="AM27" s="23" t="n"/>
@@ -2864,40 +2937,42 @@
       <c r="BB27" s="23" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="n"/>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="5" t="n"/>
-      <c r="E28" s="5" t="n"/>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="5" t="n"/>
-      <c r="H28" s="5" t="n"/>
-      <c r="I28" s="5" t="n"/>
-      <c r="J28" s="5" t="n"/>
-      <c r="K28" s="5" t="n"/>
-      <c r="L28" s="5" t="n"/>
-      <c r="M28" s="5" t="n"/>
-      <c r="N28" s="5" t="n"/>
-      <c r="O28" s="5" t="n"/>
-      <c r="P28" s="5" t="n"/>
-      <c r="Q28" s="5" t="n"/>
-      <c r="R28" s="5" t="n"/>
-      <c r="S28" s="5" t="n"/>
-      <c r="T28" s="5" t="n"/>
-      <c r="U28" s="5" t="n"/>
-      <c r="V28" s="5" t="n"/>
-      <c r="W28" s="5" t="n"/>
-      <c r="X28" s="5" t="n"/>
-      <c r="Y28" s="5" t="n"/>
-      <c r="Z28" s="5" t="n"/>
-      <c r="AA28" s="5" t="n"/>
-      <c r="AB28" s="5" t="n"/>
-      <c r="AC28" s="5" t="n"/>
-      <c r="AD28" s="5" t="n"/>
-      <c r="AE28" s="5" t="n"/>
-      <c r="AF28" s="5" t="n"/>
-      <c r="AG28" s="5" t="n"/>
-      <c r="AH28" s="5" t="n"/>
+      <c r="A28" s="52" t="n"/>
+      <c r="B28" s="52" t="n"/>
+      <c r="C28" s="53" t="n"/>
+      <c r="D28" s="52" t="n"/>
+      <c r="E28" s="52" t="n"/>
+      <c r="F28" s="52" t="n"/>
+      <c r="G28" s="52" t="n"/>
+      <c r="H28" s="52" t="n"/>
+      <c r="I28" s="52" t="n"/>
+      <c r="J28" s="52" t="n"/>
+      <c r="K28" s="52" t="n"/>
+      <c r="L28" s="54" t="n"/>
+      <c r="M28" s="54" t="n"/>
+      <c r="N28" s="52" t="n"/>
+      <c r="O28" s="53" t="n"/>
+      <c r="P28" s="23" t="n"/>
+      <c r="Q28" s="23" t="n"/>
+      <c r="R28" s="23" t="n"/>
+      <c r="S28" s="23" t="n"/>
+      <c r="T28" s="23" t="n"/>
+      <c r="U28" s="23" t="n"/>
+      <c r="V28" s="23" t="n"/>
+      <c r="W28" s="23" t="n"/>
+      <c r="X28" s="23" t="n"/>
+      <c r="Y28" s="23" t="n"/>
+      <c r="Z28" s="23" t="n"/>
+      <c r="AA28" s="23" t="n"/>
+      <c r="AB28" s="23" t="n"/>
+      <c r="AC28" s="23" t="n"/>
+      <c r="AD28" s="23" t="n"/>
+      <c r="AE28" s="23" t="n"/>
+      <c r="AF28" s="23" t="n"/>
+      <c r="AG28" s="23" t="n"/>
+      <c r="AH28" s="23" t="n"/>
+      <c r="AI28" s="23" t="n"/>
+      <c r="AJ28" s="23" t="n"/>
       <c r="AK28" s="23" t="n"/>
       <c r="AL28" s="23" t="n"/>
       <c r="AM28" s="23" t="n"/>
@@ -2918,40 +2993,42 @@
       <c r="BB28" s="23" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="5" t="n"/>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-      <c r="H29" s="5" t="n"/>
-      <c r="I29" s="5" t="n"/>
-      <c r="J29" s="5" t="n"/>
-      <c r="K29" s="5" t="n"/>
-      <c r="L29" s="5" t="n"/>
-      <c r="M29" s="5" t="n"/>
-      <c r="N29" s="5" t="n"/>
-      <c r="O29" s="5" t="n"/>
-      <c r="P29" s="5" t="n"/>
-      <c r="Q29" s="5" t="n"/>
-      <c r="R29" s="5" t="n"/>
-      <c r="S29" s="5" t="n"/>
-      <c r="T29" s="5" t="n"/>
-      <c r="U29" s="5" t="n"/>
-      <c r="V29" s="5" t="n"/>
-      <c r="W29" s="5" t="n"/>
-      <c r="X29" s="5" t="n"/>
-      <c r="Y29" s="5" t="n"/>
-      <c r="Z29" s="5" t="n"/>
-      <c r="AA29" s="5" t="n"/>
-      <c r="AB29" s="5" t="n"/>
-      <c r="AC29" s="5" t="n"/>
-      <c r="AD29" s="5" t="n"/>
-      <c r="AE29" s="5" t="n"/>
-      <c r="AF29" s="5" t="n"/>
-      <c r="AG29" s="5" t="n"/>
-      <c r="AH29" s="5" t="n"/>
+      <c r="A29" s="52" t="n"/>
+      <c r="B29" s="52" t="n"/>
+      <c r="C29" s="53" t="n"/>
+      <c r="D29" s="52" t="n"/>
+      <c r="E29" s="52" t="n"/>
+      <c r="F29" s="52" t="n"/>
+      <c r="G29" s="52" t="n"/>
+      <c r="H29" s="52" t="n"/>
+      <c r="I29" s="52" t="n"/>
+      <c r="J29" s="52" t="n"/>
+      <c r="K29" s="52" t="n"/>
+      <c r="L29" s="54" t="n"/>
+      <c r="M29" s="54" t="n"/>
+      <c r="N29" s="52" t="n"/>
+      <c r="O29" s="53" t="n"/>
+      <c r="P29" s="23" t="n"/>
+      <c r="Q29" s="23" t="n"/>
+      <c r="R29" s="23" t="n"/>
+      <c r="S29" s="23" t="n"/>
+      <c r="T29" s="23" t="n"/>
+      <c r="U29" s="23" t="n"/>
+      <c r="V29" s="23" t="n"/>
+      <c r="W29" s="23" t="n"/>
+      <c r="X29" s="23" t="n"/>
+      <c r="Y29" s="23" t="n"/>
+      <c r="Z29" s="23" t="n"/>
+      <c r="AA29" s="23" t="n"/>
+      <c r="AB29" s="23" t="n"/>
+      <c r="AC29" s="23" t="n"/>
+      <c r="AD29" s="23" t="n"/>
+      <c r="AE29" s="23" t="n"/>
+      <c r="AF29" s="23" t="n"/>
+      <c r="AG29" s="23" t="n"/>
+      <c r="AH29" s="23" t="n"/>
+      <c r="AI29" s="23" t="n"/>
+      <c r="AJ29" s="23" t="n"/>
       <c r="AK29" s="23" t="n"/>
       <c r="AL29" s="23" t="n"/>
       <c r="AM29" s="23" t="n"/>
@@ -2972,40 +3049,42 @@
       <c r="BB29" s="23" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="n"/>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="5" t="n"/>
-      <c r="E30" s="5" t="n"/>
-      <c r="F30" s="5" t="n"/>
-      <c r="G30" s="5" t="n"/>
-      <c r="H30" s="5" t="n"/>
-      <c r="I30" s="5" t="n"/>
-      <c r="J30" s="5" t="n"/>
-      <c r="K30" s="5" t="n"/>
-      <c r="L30" s="5" t="n"/>
-      <c r="M30" s="5" t="n"/>
-      <c r="N30" s="5" t="n"/>
-      <c r="O30" s="5" t="n"/>
-      <c r="P30" s="5" t="n"/>
-      <c r="Q30" s="5" t="n"/>
-      <c r="R30" s="5" t="n"/>
-      <c r="S30" s="5" t="n"/>
-      <c r="T30" s="5" t="n"/>
-      <c r="U30" s="5" t="n"/>
-      <c r="V30" s="5" t="n"/>
-      <c r="W30" s="5" t="n"/>
-      <c r="X30" s="5" t="n"/>
-      <c r="Y30" s="5" t="n"/>
-      <c r="Z30" s="5" t="n"/>
-      <c r="AA30" s="5" t="n"/>
-      <c r="AB30" s="5" t="n"/>
-      <c r="AC30" s="5" t="n"/>
-      <c r="AD30" s="5" t="n"/>
-      <c r="AE30" s="5" t="n"/>
-      <c r="AF30" s="5" t="n"/>
-      <c r="AG30" s="5" t="n"/>
-      <c r="AH30" s="5" t="n"/>
+      <c r="A30" s="52" t="n"/>
+      <c r="B30" s="52" t="n"/>
+      <c r="C30" s="53" t="n"/>
+      <c r="D30" s="52" t="n"/>
+      <c r="E30" s="52" t="n"/>
+      <c r="F30" s="52" t="n"/>
+      <c r="G30" s="52" t="n"/>
+      <c r="H30" s="52" t="n"/>
+      <c r="I30" s="52" t="n"/>
+      <c r="J30" s="52" t="n"/>
+      <c r="K30" s="52" t="n"/>
+      <c r="L30" s="54" t="n"/>
+      <c r="M30" s="54" t="n"/>
+      <c r="N30" s="52" t="n"/>
+      <c r="O30" s="53" t="n"/>
+      <c r="P30" s="23" t="n"/>
+      <c r="Q30" s="23" t="n"/>
+      <c r="R30" s="23" t="n"/>
+      <c r="S30" s="23" t="n"/>
+      <c r="T30" s="23" t="n"/>
+      <c r="U30" s="23" t="n"/>
+      <c r="V30" s="23" t="n"/>
+      <c r="W30" s="23" t="n"/>
+      <c r="X30" s="23" t="n"/>
+      <c r="Y30" s="23" t="n"/>
+      <c r="Z30" s="23" t="n"/>
+      <c r="AA30" s="23" t="n"/>
+      <c r="AB30" s="23" t="n"/>
+      <c r="AC30" s="23" t="n"/>
+      <c r="AD30" s="23" t="n"/>
+      <c r="AE30" s="23" t="n"/>
+      <c r="AF30" s="23" t="n"/>
+      <c r="AG30" s="23" t="n"/>
+      <c r="AH30" s="23" t="n"/>
+      <c r="AI30" s="23" t="n"/>
+      <c r="AJ30" s="23" t="n"/>
       <c r="AK30" s="23" t="n"/>
       <c r="AL30" s="23" t="n"/>
       <c r="AM30" s="23" t="n"/>
@@ -3026,40 +3105,42 @@
       <c r="BB30" s="23" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n"/>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="5" t="n"/>
-      <c r="E31" s="5" t="n"/>
-      <c r="F31" s="5" t="n"/>
-      <c r="G31" s="5" t="n"/>
-      <c r="H31" s="5" t="n"/>
-      <c r="I31" s="5" t="n"/>
-      <c r="J31" s="5" t="n"/>
-      <c r="K31" s="5" t="n"/>
-      <c r="L31" s="5" t="n"/>
-      <c r="M31" s="5" t="n"/>
-      <c r="N31" s="5" t="n"/>
-      <c r="O31" s="5" t="n"/>
-      <c r="P31" s="5" t="n"/>
-      <c r="Q31" s="5" t="n"/>
-      <c r="R31" s="5" t="n"/>
-      <c r="S31" s="5" t="n"/>
-      <c r="T31" s="5" t="n"/>
-      <c r="U31" s="5" t="n"/>
-      <c r="V31" s="5" t="n"/>
-      <c r="W31" s="5" t="n"/>
-      <c r="X31" s="5" t="n"/>
-      <c r="Y31" s="5" t="n"/>
-      <c r="Z31" s="5" t="n"/>
-      <c r="AA31" s="5" t="n"/>
-      <c r="AB31" s="5" t="n"/>
-      <c r="AC31" s="5" t="n"/>
-      <c r="AD31" s="5" t="n"/>
-      <c r="AE31" s="5" t="n"/>
-      <c r="AF31" s="5" t="n"/>
-      <c r="AG31" s="5" t="n"/>
-      <c r="AH31" s="5" t="n"/>
+      <c r="A31" s="52" t="n"/>
+      <c r="B31" s="52" t="n"/>
+      <c r="C31" s="53" t="n"/>
+      <c r="D31" s="52" t="n"/>
+      <c r="E31" s="52" t="n"/>
+      <c r="F31" s="52" t="n"/>
+      <c r="G31" s="52" t="n"/>
+      <c r="H31" s="52" t="n"/>
+      <c r="I31" s="52" t="n"/>
+      <c r="J31" s="52" t="n"/>
+      <c r="K31" s="52" t="n"/>
+      <c r="L31" s="54" t="n"/>
+      <c r="M31" s="54" t="n"/>
+      <c r="N31" s="52" t="n"/>
+      <c r="O31" s="53" t="n"/>
+      <c r="P31" s="23" t="n"/>
+      <c r="Q31" s="23" t="n"/>
+      <c r="R31" s="23" t="n"/>
+      <c r="S31" s="23" t="n"/>
+      <c r="T31" s="23" t="n"/>
+      <c r="U31" s="23" t="n"/>
+      <c r="V31" s="23" t="n"/>
+      <c r="W31" s="23" t="n"/>
+      <c r="X31" s="23" t="n"/>
+      <c r="Y31" s="23" t="n"/>
+      <c r="Z31" s="23" t="n"/>
+      <c r="AA31" s="23" t="n"/>
+      <c r="AB31" s="23" t="n"/>
+      <c r="AC31" s="23" t="n"/>
+      <c r="AD31" s="23" t="n"/>
+      <c r="AE31" s="23" t="n"/>
+      <c r="AF31" s="23" t="n"/>
+      <c r="AG31" s="23" t="n"/>
+      <c r="AH31" s="23" t="n"/>
+      <c r="AI31" s="23" t="n"/>
+      <c r="AJ31" s="23" t="n"/>
       <c r="AK31" s="23" t="n"/>
       <c r="AL31" s="23" t="n"/>
       <c r="AM31" s="23" t="n"/>
@@ -3080,40 +3161,42 @@
       <c r="BB31" s="23" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="n"/>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="5" t="n"/>
-      <c r="E32" s="5" t="n"/>
-      <c r="F32" s="5" t="n"/>
-      <c r="G32" s="5" t="n"/>
-      <c r="H32" s="5" t="n"/>
-      <c r="I32" s="5" t="n"/>
-      <c r="J32" s="5" t="n"/>
-      <c r="K32" s="5" t="n"/>
-      <c r="L32" s="5" t="n"/>
-      <c r="M32" s="5" t="n"/>
-      <c r="N32" s="5" t="n"/>
-      <c r="O32" s="5" t="n"/>
-      <c r="P32" s="5" t="n"/>
-      <c r="Q32" s="5" t="n"/>
-      <c r="R32" s="5" t="n"/>
-      <c r="S32" s="5" t="n"/>
-      <c r="T32" s="5" t="n"/>
-      <c r="U32" s="5" t="n"/>
-      <c r="V32" s="5" t="n"/>
-      <c r="W32" s="5" t="n"/>
-      <c r="X32" s="5" t="n"/>
-      <c r="Y32" s="5" t="n"/>
-      <c r="Z32" s="5" t="n"/>
-      <c r="AA32" s="5" t="n"/>
-      <c r="AB32" s="5" t="n"/>
-      <c r="AC32" s="5" t="n"/>
-      <c r="AD32" s="5" t="n"/>
-      <c r="AE32" s="5" t="n"/>
-      <c r="AF32" s="5" t="n"/>
-      <c r="AG32" s="5" t="n"/>
-      <c r="AH32" s="5" t="n"/>
+      <c r="A32" s="52" t="n"/>
+      <c r="B32" s="52" t="n"/>
+      <c r="C32" s="53" t="n"/>
+      <c r="D32" s="52" t="n"/>
+      <c r="E32" s="52" t="n"/>
+      <c r="F32" s="52" t="n"/>
+      <c r="G32" s="52" t="n"/>
+      <c r="H32" s="52" t="n"/>
+      <c r="I32" s="52" t="n"/>
+      <c r="J32" s="52" t="n"/>
+      <c r="K32" s="52" t="n"/>
+      <c r="L32" s="54" t="n"/>
+      <c r="M32" s="54" t="n"/>
+      <c r="N32" s="52" t="n"/>
+      <c r="O32" s="53" t="n"/>
+      <c r="P32" s="23" t="n"/>
+      <c r="Q32" s="23" t="n"/>
+      <c r="R32" s="23" t="n"/>
+      <c r="S32" s="23" t="n"/>
+      <c r="T32" s="23" t="n"/>
+      <c r="U32" s="23" t="n"/>
+      <c r="V32" s="23" t="n"/>
+      <c r="W32" s="23" t="n"/>
+      <c r="X32" s="23" t="n"/>
+      <c r="Y32" s="23" t="n"/>
+      <c r="Z32" s="23" t="n"/>
+      <c r="AA32" s="23" t="n"/>
+      <c r="AB32" s="23" t="n"/>
+      <c r="AC32" s="23" t="n"/>
+      <c r="AD32" s="23" t="n"/>
+      <c r="AE32" s="23" t="n"/>
+      <c r="AF32" s="23" t="n"/>
+      <c r="AG32" s="23" t="n"/>
+      <c r="AH32" s="23" t="n"/>
+      <c r="AI32" s="23" t="n"/>
+      <c r="AJ32" s="23" t="n"/>
       <c r="AK32" s="23" t="n"/>
       <c r="AL32" s="23" t="n"/>
       <c r="AM32" s="23" t="n"/>
@@ -3134,40 +3217,42 @@
       <c r="BB32" s="23" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="6" t="n"/>
-      <c r="D33" s="5" t="n"/>
-      <c r="E33" s="5" t="n"/>
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="5" t="n"/>
-      <c r="H33" s="5" t="n"/>
-      <c r="I33" s="5" t="n"/>
-      <c r="J33" s="5" t="n"/>
-      <c r="K33" s="5" t="n"/>
-      <c r="L33" s="5" t="n"/>
-      <c r="M33" s="5" t="n"/>
-      <c r="N33" s="5" t="n"/>
-      <c r="O33" s="5" t="n"/>
-      <c r="P33" s="5" t="n"/>
-      <c r="Q33" s="5" t="n"/>
-      <c r="R33" s="5" t="n"/>
-      <c r="S33" s="5" t="n"/>
-      <c r="T33" s="5" t="n"/>
-      <c r="U33" s="5" t="n"/>
-      <c r="V33" s="5" t="n"/>
-      <c r="W33" s="5" t="n"/>
-      <c r="X33" s="5" t="n"/>
-      <c r="Y33" s="5" t="n"/>
-      <c r="Z33" s="5" t="n"/>
-      <c r="AA33" s="5" t="n"/>
-      <c r="AB33" s="5" t="n"/>
-      <c r="AC33" s="5" t="n"/>
-      <c r="AD33" s="5" t="n"/>
-      <c r="AE33" s="5" t="n"/>
-      <c r="AF33" s="5" t="n"/>
-      <c r="AG33" s="5" t="n"/>
-      <c r="AH33" s="5" t="n"/>
+      <c r="A33" s="52" t="n"/>
+      <c r="B33" s="52" t="n"/>
+      <c r="C33" s="53" t="n"/>
+      <c r="D33" s="52" t="n"/>
+      <c r="E33" s="52" t="n"/>
+      <c r="F33" s="52" t="n"/>
+      <c r="G33" s="52" t="n"/>
+      <c r="H33" s="52" t="n"/>
+      <c r="I33" s="52" t="n"/>
+      <c r="J33" s="52" t="n"/>
+      <c r="K33" s="52" t="n"/>
+      <c r="L33" s="54" t="n"/>
+      <c r="M33" s="54" t="n"/>
+      <c r="N33" s="52" t="n"/>
+      <c r="O33" s="53" t="n"/>
+      <c r="P33" s="23" t="n"/>
+      <c r="Q33" s="23" t="n"/>
+      <c r="R33" s="23" t="n"/>
+      <c r="S33" s="23" t="n"/>
+      <c r="T33" s="23" t="n"/>
+      <c r="U33" s="23" t="n"/>
+      <c r="V33" s="23" t="n"/>
+      <c r="W33" s="23" t="n"/>
+      <c r="X33" s="23" t="n"/>
+      <c r="Y33" s="23" t="n"/>
+      <c r="Z33" s="23" t="n"/>
+      <c r="AA33" s="23" t="n"/>
+      <c r="AB33" s="23" t="n"/>
+      <c r="AC33" s="23" t="n"/>
+      <c r="AD33" s="23" t="n"/>
+      <c r="AE33" s="23" t="n"/>
+      <c r="AF33" s="23" t="n"/>
+      <c r="AG33" s="23" t="n"/>
+      <c r="AH33" s="23" t="n"/>
+      <c r="AI33" s="23" t="n"/>
+      <c r="AJ33" s="23" t="n"/>
       <c r="AK33" s="23" t="n"/>
       <c r="AL33" s="23" t="n"/>
       <c r="AM33" s="23" t="n"/>
@@ -3188,40 +3273,42 @@
       <c r="BB33" s="23" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="6" t="n"/>
-      <c r="D34" s="5" t="n"/>
-      <c r="E34" s="5" t="n"/>
-      <c r="F34" s="5" t="n"/>
-      <c r="G34" s="5" t="n"/>
-      <c r="H34" s="5" t="n"/>
-      <c r="I34" s="5" t="n"/>
-      <c r="J34" s="5" t="n"/>
-      <c r="K34" s="5" t="n"/>
-      <c r="L34" s="5" t="n"/>
-      <c r="M34" s="5" t="n"/>
-      <c r="N34" s="5" t="n"/>
-      <c r="O34" s="5" t="n"/>
-      <c r="P34" s="5" t="n"/>
-      <c r="Q34" s="5" t="n"/>
-      <c r="R34" s="5" t="n"/>
-      <c r="S34" s="5" t="n"/>
-      <c r="T34" s="5" t="n"/>
-      <c r="U34" s="5" t="n"/>
-      <c r="V34" s="5" t="n"/>
-      <c r="W34" s="5" t="n"/>
-      <c r="X34" s="5" t="n"/>
-      <c r="Y34" s="5" t="n"/>
-      <c r="Z34" s="5" t="n"/>
-      <c r="AA34" s="5" t="n"/>
-      <c r="AB34" s="5" t="n"/>
-      <c r="AC34" s="5" t="n"/>
-      <c r="AD34" s="5" t="n"/>
-      <c r="AE34" s="5" t="n"/>
-      <c r="AF34" s="5" t="n"/>
-      <c r="AG34" s="5" t="n"/>
-      <c r="AH34" s="5" t="n"/>
+      <c r="A34" s="52" t="n"/>
+      <c r="B34" s="52" t="n"/>
+      <c r="C34" s="53" t="n"/>
+      <c r="D34" s="52" t="n"/>
+      <c r="E34" s="52" t="n"/>
+      <c r="F34" s="52" t="n"/>
+      <c r="G34" s="52" t="n"/>
+      <c r="H34" s="52" t="n"/>
+      <c r="I34" s="52" t="n"/>
+      <c r="J34" s="52" t="n"/>
+      <c r="K34" s="52" t="n"/>
+      <c r="L34" s="54" t="n"/>
+      <c r="M34" s="54" t="n"/>
+      <c r="N34" s="52" t="n"/>
+      <c r="O34" s="53" t="n"/>
+      <c r="P34" s="23" t="n"/>
+      <c r="Q34" s="23" t="n"/>
+      <c r="R34" s="23" t="n"/>
+      <c r="S34" s="23" t="n"/>
+      <c r="T34" s="23" t="n"/>
+      <c r="U34" s="23" t="n"/>
+      <c r="V34" s="23" t="n"/>
+      <c r="W34" s="23" t="n"/>
+      <c r="X34" s="23" t="n"/>
+      <c r="Y34" s="23" t="n"/>
+      <c r="Z34" s="23" t="n"/>
+      <c r="AA34" s="23" t="n"/>
+      <c r="AB34" s="23" t="n"/>
+      <c r="AC34" s="23" t="n"/>
+      <c r="AD34" s="23" t="n"/>
+      <c r="AE34" s="23" t="n"/>
+      <c r="AF34" s="23" t="n"/>
+      <c r="AG34" s="23" t="n"/>
+      <c r="AH34" s="23" t="n"/>
+      <c r="AI34" s="23" t="n"/>
+      <c r="AJ34" s="23" t="n"/>
       <c r="AK34" s="23" t="n"/>
       <c r="AL34" s="23" t="n"/>
       <c r="AM34" s="23" t="n"/>
@@ -3242,685 +3329,839 @@
       <c r="BB34" s="23" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n"/>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="6" t="n"/>
-      <c r="D35" s="5" t="n"/>
-      <c r="E35" s="5" t="n"/>
-      <c r="F35" s="5" t="n"/>
-      <c r="G35" s="5" t="n"/>
-      <c r="H35" s="5" t="n"/>
-      <c r="I35" s="5" t="n"/>
-      <c r="J35" s="5" t="n"/>
-      <c r="K35" s="5" t="n"/>
-      <c r="L35" s="5" t="n"/>
-      <c r="M35" s="5" t="n"/>
-      <c r="N35" s="5" t="n"/>
-      <c r="O35" s="5" t="n"/>
-      <c r="P35" s="5" t="n"/>
-      <c r="Q35" s="5" t="n"/>
-      <c r="R35" s="5" t="n"/>
-      <c r="S35" s="5" t="n"/>
-      <c r="T35" s="5" t="n"/>
-      <c r="U35" s="5" t="n"/>
-      <c r="V35" s="5" t="n"/>
-      <c r="W35" s="5" t="n"/>
-      <c r="X35" s="5" t="n"/>
-      <c r="Y35" s="5" t="n"/>
-      <c r="Z35" s="5" t="n"/>
-      <c r="AA35" s="5" t="n"/>
-      <c r="AB35" s="5" t="n"/>
-      <c r="AC35" s="5" t="n"/>
-      <c r="AD35" s="5" t="n"/>
-      <c r="AE35" s="5" t="n"/>
-      <c r="AF35" s="5" t="n"/>
-      <c r="AG35" s="5" t="n"/>
-      <c r="AH35" s="5" t="n"/>
+      <c r="A35" s="52" t="n"/>
+      <c r="B35" s="52" t="n"/>
+      <c r="C35" s="53" t="n"/>
+      <c r="D35" s="52" t="n"/>
+      <c r="E35" s="52" t="n"/>
+      <c r="F35" s="52" t="n"/>
+      <c r="G35" s="52" t="n"/>
+      <c r="H35" s="52" t="n"/>
+      <c r="I35" s="52" t="n"/>
+      <c r="J35" s="52" t="n"/>
+      <c r="K35" s="52" t="n"/>
+      <c r="L35" s="54" t="n"/>
+      <c r="M35" s="54" t="n"/>
+      <c r="N35" s="52" t="n"/>
+      <c r="O35" s="53" t="n"/>
+      <c r="P35" s="23" t="n"/>
+      <c r="Q35" s="23" t="n"/>
+      <c r="R35" s="23" t="n"/>
+      <c r="S35" s="23" t="n"/>
+      <c r="T35" s="23" t="n"/>
+      <c r="U35" s="23" t="n"/>
+      <c r="V35" s="23" t="n"/>
+      <c r="W35" s="23" t="n"/>
+      <c r="X35" s="23" t="n"/>
+      <c r="Y35" s="23" t="n"/>
+      <c r="Z35" s="23" t="n"/>
+      <c r="AA35" s="23" t="n"/>
+      <c r="AB35" s="23" t="n"/>
+      <c r="AC35" s="23" t="n"/>
+      <c r="AD35" s="23" t="n"/>
+      <c r="AE35" s="23" t="n"/>
+      <c r="AF35" s="23" t="n"/>
+      <c r="AG35" s="23" t="n"/>
+      <c r="AH35" s="23" t="n"/>
+      <c r="AI35" s="23" t="n"/>
+      <c r="AJ35" s="23" t="n"/>
+      <c r="AK35" s="23" t="n"/>
+      <c r="AL35" s="23" t="n"/>
+      <c r="AM35" s="23" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n"/>
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="6" t="n"/>
-      <c r="D36" s="5" t="n"/>
-      <c r="E36" s="5" t="n"/>
-      <c r="F36" s="5" t="n"/>
-      <c r="G36" s="5" t="n"/>
-      <c r="H36" s="5" t="n"/>
-      <c r="I36" s="5" t="n"/>
-      <c r="J36" s="5" t="n"/>
-      <c r="K36" s="5" t="n"/>
-      <c r="L36" s="5" t="n"/>
-      <c r="M36" s="5" t="n"/>
-      <c r="N36" s="5" t="n"/>
-      <c r="O36" s="5" t="n"/>
-      <c r="P36" s="5" t="n"/>
-      <c r="Q36" s="5" t="n"/>
-      <c r="R36" s="5" t="n"/>
-      <c r="S36" s="5" t="n"/>
-      <c r="T36" s="5" t="n"/>
-      <c r="U36" s="5" t="n"/>
-      <c r="V36" s="5" t="n"/>
-      <c r="W36" s="5" t="n"/>
-      <c r="X36" s="5" t="n"/>
-      <c r="Y36" s="5" t="n"/>
-      <c r="Z36" s="5" t="n"/>
-      <c r="AA36" s="5" t="n"/>
-      <c r="AB36" s="5" t="n"/>
-      <c r="AC36" s="5" t="n"/>
-      <c r="AD36" s="5" t="n"/>
-      <c r="AE36" s="5" t="n"/>
-      <c r="AF36" s="5" t="n"/>
-      <c r="AG36" s="5" t="n"/>
-      <c r="AH36" s="5" t="n"/>
+      <c r="A36" s="52" t="n"/>
+      <c r="B36" s="52" t="n"/>
+      <c r="C36" s="53" t="n"/>
+      <c r="D36" s="52" t="n"/>
+      <c r="E36" s="52" t="n"/>
+      <c r="F36" s="52" t="n"/>
+      <c r="G36" s="52" t="n"/>
+      <c r="H36" s="52" t="n"/>
+      <c r="I36" s="52" t="n"/>
+      <c r="J36" s="52" t="n"/>
+      <c r="K36" s="52" t="n"/>
+      <c r="L36" s="54" t="n"/>
+      <c r="M36" s="54" t="n"/>
+      <c r="N36" s="52" t="n"/>
+      <c r="O36" s="53" t="n"/>
+      <c r="P36" s="23" t="n"/>
+      <c r="Q36" s="23" t="n"/>
+      <c r="R36" s="23" t="n"/>
+      <c r="S36" s="23" t="n"/>
+      <c r="T36" s="23" t="n"/>
+      <c r="U36" s="23" t="n"/>
+      <c r="V36" s="23" t="n"/>
+      <c r="W36" s="23" t="n"/>
+      <c r="X36" s="23" t="n"/>
+      <c r="Y36" s="23" t="n"/>
+      <c r="Z36" s="23" t="n"/>
+      <c r="AA36" s="23" t="n"/>
+      <c r="AB36" s="23" t="n"/>
+      <c r="AC36" s="23" t="n"/>
+      <c r="AD36" s="23" t="n"/>
+      <c r="AE36" s="23" t="n"/>
+      <c r="AF36" s="23" t="n"/>
+      <c r="AG36" s="23" t="n"/>
+      <c r="AH36" s="23" t="n"/>
+      <c r="AI36" s="23" t="n"/>
+      <c r="AJ36" s="23" t="n"/>
+      <c r="AK36" s="23" t="n"/>
+      <c r="AL36" s="23" t="n"/>
+      <c r="AM36" s="23" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n"/>
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="6" t="n"/>
-      <c r="D37" s="5" t="n"/>
-      <c r="E37" s="5" t="n"/>
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="5" t="n"/>
-      <c r="H37" s="5" t="n"/>
-      <c r="I37" s="5" t="n"/>
-      <c r="J37" s="5" t="n"/>
-      <c r="K37" s="5" t="n"/>
-      <c r="L37" s="5" t="n"/>
-      <c r="M37" s="5" t="n"/>
-      <c r="N37" s="5" t="n"/>
-      <c r="O37" s="5" t="n"/>
-      <c r="P37" s="5" t="n"/>
-      <c r="Q37" s="5" t="n"/>
-      <c r="R37" s="5" t="n"/>
-      <c r="S37" s="5" t="n"/>
-      <c r="T37" s="5" t="n"/>
-      <c r="U37" s="5" t="n"/>
-      <c r="V37" s="5" t="n"/>
-      <c r="W37" s="5" t="n"/>
-      <c r="X37" s="5" t="n"/>
-      <c r="Y37" s="5" t="n"/>
-      <c r="Z37" s="5" t="n"/>
-      <c r="AA37" s="5" t="n"/>
-      <c r="AB37" s="5" t="n"/>
-      <c r="AC37" s="5" t="n"/>
-      <c r="AD37" s="5" t="n"/>
-      <c r="AE37" s="5" t="n"/>
-      <c r="AF37" s="5" t="n"/>
-      <c r="AG37" s="5" t="n"/>
-      <c r="AH37" s="5" t="n"/>
+      <c r="A37" s="52" t="n"/>
+      <c r="B37" s="52" t="n"/>
+      <c r="C37" s="53" t="n"/>
+      <c r="D37" s="52" t="n"/>
+      <c r="E37" s="52" t="n"/>
+      <c r="F37" s="52" t="n"/>
+      <c r="G37" s="52" t="n"/>
+      <c r="H37" s="52" t="n"/>
+      <c r="I37" s="52" t="n"/>
+      <c r="J37" s="52" t="n"/>
+      <c r="K37" s="52" t="n"/>
+      <c r="L37" s="54" t="n"/>
+      <c r="M37" s="54" t="n"/>
+      <c r="N37" s="52" t="n"/>
+      <c r="O37" s="53" t="n"/>
+      <c r="P37" s="23" t="n"/>
+      <c r="Q37" s="23" t="n"/>
+      <c r="R37" s="23" t="n"/>
+      <c r="S37" s="23" t="n"/>
+      <c r="T37" s="23" t="n"/>
+      <c r="U37" s="23" t="n"/>
+      <c r="V37" s="23" t="n"/>
+      <c r="W37" s="23" t="n"/>
+      <c r="X37" s="23" t="n"/>
+      <c r="Y37" s="23" t="n"/>
+      <c r="Z37" s="23" t="n"/>
+      <c r="AA37" s="23" t="n"/>
+      <c r="AB37" s="23" t="n"/>
+      <c r="AC37" s="23" t="n"/>
+      <c r="AD37" s="23" t="n"/>
+      <c r="AE37" s="23" t="n"/>
+      <c r="AF37" s="23" t="n"/>
+      <c r="AG37" s="23" t="n"/>
+      <c r="AH37" s="23" t="n"/>
+      <c r="AI37" s="23" t="n"/>
+      <c r="AJ37" s="23" t="n"/>
+      <c r="AK37" s="23" t="n"/>
+      <c r="AL37" s="23" t="n"/>
+      <c r="AM37" s="23" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n"/>
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="6" t="n"/>
-      <c r="D38" s="5" t="n"/>
-      <c r="E38" s="5" t="n"/>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="5" t="n"/>
-      <c r="H38" s="5" t="n"/>
-      <c r="I38" s="5" t="n"/>
-      <c r="J38" s="5" t="n"/>
-      <c r="K38" s="5" t="n"/>
-      <c r="L38" s="5" t="n"/>
-      <c r="M38" s="5" t="n"/>
-      <c r="N38" s="5" t="n"/>
-      <c r="O38" s="5" t="n"/>
-      <c r="P38" s="5" t="n"/>
-      <c r="Q38" s="5" t="n"/>
-      <c r="R38" s="5" t="n"/>
-      <c r="S38" s="5" t="n"/>
-      <c r="T38" s="5" t="n"/>
-      <c r="U38" s="5" t="n"/>
-      <c r="V38" s="5" t="n"/>
-      <c r="W38" s="5" t="n"/>
-      <c r="X38" s="5" t="n"/>
-      <c r="Y38" s="5" t="n"/>
-      <c r="Z38" s="5" t="n"/>
-      <c r="AA38" s="5" t="n"/>
-      <c r="AB38" s="5" t="n"/>
-      <c r="AC38" s="5" t="n"/>
-      <c r="AD38" s="5" t="n"/>
-      <c r="AE38" s="5" t="n"/>
-      <c r="AF38" s="5" t="n"/>
-      <c r="AG38" s="5" t="n"/>
-      <c r="AH38" s="5" t="n"/>
+      <c r="A38" s="52" t="n"/>
+      <c r="B38" s="52" t="n"/>
+      <c r="C38" s="53" t="n"/>
+      <c r="D38" s="52" t="n"/>
+      <c r="E38" s="52" t="n"/>
+      <c r="F38" s="52" t="n"/>
+      <c r="G38" s="52" t="n"/>
+      <c r="H38" s="52" t="n"/>
+      <c r="I38" s="52" t="n"/>
+      <c r="J38" s="52" t="n"/>
+      <c r="K38" s="52" t="n"/>
+      <c r="L38" s="54" t="n"/>
+      <c r="M38" s="54" t="n"/>
+      <c r="N38" s="52" t="n"/>
+      <c r="O38" s="53" t="n"/>
+      <c r="P38" s="23" t="n"/>
+      <c r="Q38" s="23" t="n"/>
+      <c r="R38" s="23" t="n"/>
+      <c r="S38" s="23" t="n"/>
+      <c r="T38" s="23" t="n"/>
+      <c r="U38" s="23" t="n"/>
+      <c r="V38" s="23" t="n"/>
+      <c r="W38" s="23" t="n"/>
+      <c r="X38" s="23" t="n"/>
+      <c r="Y38" s="23" t="n"/>
+      <c r="Z38" s="23" t="n"/>
+      <c r="AA38" s="23" t="n"/>
+      <c r="AB38" s="23" t="n"/>
+      <c r="AC38" s="23" t="n"/>
+      <c r="AD38" s="23" t="n"/>
+      <c r="AE38" s="23" t="n"/>
+      <c r="AF38" s="23" t="n"/>
+      <c r="AG38" s="23" t="n"/>
+      <c r="AH38" s="23" t="n"/>
+      <c r="AI38" s="23" t="n"/>
+      <c r="AJ38" s="23" t="n"/>
+      <c r="AK38" s="23" t="n"/>
+      <c r="AL38" s="23" t="n"/>
+      <c r="AM38" s="23" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n"/>
-      <c r="B39" s="6" t="n"/>
-      <c r="C39" s="6" t="n"/>
-      <c r="D39" s="5" t="n"/>
-      <c r="E39" s="5" t="n"/>
-      <c r="F39" s="5" t="n"/>
-      <c r="G39" s="5" t="n"/>
-      <c r="H39" s="5" t="n"/>
-      <c r="I39" s="5" t="n"/>
-      <c r="J39" s="5" t="n"/>
-      <c r="K39" s="5" t="n"/>
-      <c r="L39" s="5" t="n"/>
-      <c r="M39" s="5" t="n"/>
-      <c r="N39" s="5" t="n"/>
-      <c r="O39" s="5" t="n"/>
-      <c r="P39" s="5" t="n"/>
-      <c r="Q39" s="5" t="n"/>
-      <c r="R39" s="5" t="n"/>
-      <c r="S39" s="5" t="n"/>
-      <c r="T39" s="5" t="n"/>
-      <c r="U39" s="5" t="n"/>
-      <c r="V39" s="5" t="n"/>
-      <c r="W39" s="5" t="n"/>
-      <c r="X39" s="5" t="n"/>
-      <c r="Y39" s="5" t="n"/>
-      <c r="Z39" s="5" t="n"/>
-      <c r="AA39" s="5" t="n"/>
-      <c r="AB39" s="5" t="n"/>
-      <c r="AC39" s="5" t="n"/>
-      <c r="AD39" s="5" t="n"/>
-      <c r="AE39" s="5" t="n"/>
-      <c r="AF39" s="5" t="n"/>
-      <c r="AG39" s="5" t="n"/>
-      <c r="AH39" s="5" t="n"/>
+      <c r="A39" s="52" t="n"/>
+      <c r="B39" s="52" t="n"/>
+      <c r="C39" s="53" t="n"/>
+      <c r="D39" s="52" t="n"/>
+      <c r="E39" s="52" t="n"/>
+      <c r="F39" s="52" t="n"/>
+      <c r="G39" s="52" t="n"/>
+      <c r="H39" s="52" t="n"/>
+      <c r="I39" s="52" t="n"/>
+      <c r="J39" s="52" t="n"/>
+      <c r="K39" s="52" t="n"/>
+      <c r="L39" s="54" t="n"/>
+      <c r="M39" s="54" t="n"/>
+      <c r="N39" s="52" t="n"/>
+      <c r="O39" s="53" t="n"/>
+      <c r="P39" s="23" t="n"/>
+      <c r="Q39" s="23" t="n"/>
+      <c r="R39" s="23" t="n"/>
+      <c r="S39" s="23" t="n"/>
+      <c r="T39" s="23" t="n"/>
+      <c r="U39" s="23" t="n"/>
+      <c r="V39" s="23" t="n"/>
+      <c r="W39" s="23" t="n"/>
+      <c r="X39" s="23" t="n"/>
+      <c r="Y39" s="23" t="n"/>
+      <c r="Z39" s="23" t="n"/>
+      <c r="AA39" s="23" t="n"/>
+      <c r="AB39" s="23" t="n"/>
+      <c r="AC39" s="23" t="n"/>
+      <c r="AD39" s="23" t="n"/>
+      <c r="AE39" s="23" t="n"/>
+      <c r="AF39" s="23" t="n"/>
+      <c r="AG39" s="23" t="n"/>
+      <c r="AH39" s="23" t="n"/>
+      <c r="AI39" s="23" t="n"/>
+      <c r="AJ39" s="23" t="n"/>
+      <c r="AK39" s="23" t="n"/>
+      <c r="AL39" s="23" t="n"/>
+      <c r="AM39" s="23" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n"/>
-      <c r="B40" s="6" t="n"/>
-      <c r="C40" s="6" t="n"/>
-      <c r="D40" s="5" t="n"/>
-      <c r="E40" s="5" t="n"/>
-      <c r="F40" s="5" t="n"/>
-      <c r="G40" s="5" t="n"/>
-      <c r="H40" s="5" t="n"/>
-      <c r="I40" s="5" t="n"/>
-      <c r="J40" s="5" t="n"/>
-      <c r="K40" s="5" t="n"/>
-      <c r="L40" s="5" t="n"/>
-      <c r="M40" s="5" t="n"/>
-      <c r="N40" s="5" t="n"/>
-      <c r="O40" s="5" t="n"/>
-      <c r="P40" s="5" t="n"/>
-      <c r="Q40" s="5" t="n"/>
-      <c r="R40" s="5" t="n"/>
-      <c r="S40" s="5" t="n"/>
-      <c r="T40" s="5" t="n"/>
-      <c r="U40" s="5" t="n"/>
-      <c r="V40" s="5" t="n"/>
-      <c r="W40" s="5" t="n"/>
-      <c r="X40" s="5" t="n"/>
-      <c r="Y40" s="5" t="n"/>
-      <c r="Z40" s="5" t="n"/>
-      <c r="AA40" s="5" t="n"/>
-      <c r="AB40" s="5" t="n"/>
-      <c r="AC40" s="5" t="n"/>
-      <c r="AD40" s="5" t="n"/>
-      <c r="AE40" s="5" t="n"/>
-      <c r="AF40" s="5" t="n"/>
-      <c r="AG40" s="5" t="n"/>
-      <c r="AH40" s="5" t="n"/>
+      <c r="A40" s="52" t="n"/>
+      <c r="B40" s="52" t="n"/>
+      <c r="C40" s="53" t="n"/>
+      <c r="D40" s="52" t="n"/>
+      <c r="E40" s="52" t="n"/>
+      <c r="F40" s="52" t="n"/>
+      <c r="G40" s="52" t="n"/>
+      <c r="H40" s="52" t="n"/>
+      <c r="I40" s="52" t="n"/>
+      <c r="J40" s="52" t="n"/>
+      <c r="K40" s="52" t="n"/>
+      <c r="L40" s="54" t="n"/>
+      <c r="M40" s="54" t="n"/>
+      <c r="N40" s="52" t="n"/>
+      <c r="O40" s="53" t="n"/>
+      <c r="P40" s="23" t="n"/>
+      <c r="Q40" s="23" t="n"/>
+      <c r="R40" s="23" t="n"/>
+      <c r="S40" s="23" t="n"/>
+      <c r="T40" s="23" t="n"/>
+      <c r="U40" s="23" t="n"/>
+      <c r="V40" s="23" t="n"/>
+      <c r="W40" s="23" t="n"/>
+      <c r="X40" s="23" t="n"/>
+      <c r="Y40" s="23" t="n"/>
+      <c r="Z40" s="23" t="n"/>
+      <c r="AA40" s="23" t="n"/>
+      <c r="AB40" s="23" t="n"/>
+      <c r="AC40" s="23" t="n"/>
+      <c r="AD40" s="23" t="n"/>
+      <c r="AE40" s="23" t="n"/>
+      <c r="AF40" s="23" t="n"/>
+      <c r="AG40" s="23" t="n"/>
+      <c r="AH40" s="23" t="n"/>
+      <c r="AI40" s="23" t="n"/>
+      <c r="AJ40" s="23" t="n"/>
+      <c r="AK40" s="23" t="n"/>
+      <c r="AL40" s="23" t="n"/>
+      <c r="AM40" s="23" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n"/>
-      <c r="B41" s="6" t="n"/>
-      <c r="C41" s="6" t="n"/>
-      <c r="D41" s="5" t="n"/>
-      <c r="E41" s="5" t="n"/>
-      <c r="F41" s="5" t="n"/>
-      <c r="G41" s="5" t="n"/>
-      <c r="H41" s="5" t="n"/>
-      <c r="I41" s="5" t="n"/>
-      <c r="J41" s="5" t="n"/>
-      <c r="K41" s="5" t="n"/>
-      <c r="L41" s="5" t="n"/>
-      <c r="M41" s="5" t="n"/>
-      <c r="N41" s="5" t="n"/>
-      <c r="O41" s="5" t="n"/>
-      <c r="P41" s="5" t="n"/>
-      <c r="Q41" s="5" t="n"/>
-      <c r="R41" s="5" t="n"/>
-      <c r="S41" s="5" t="n"/>
-      <c r="T41" s="5" t="n"/>
-      <c r="U41" s="5" t="n"/>
-      <c r="V41" s="5" t="n"/>
-      <c r="W41" s="5" t="n"/>
-      <c r="X41" s="5" t="n"/>
-      <c r="Y41" s="5" t="n"/>
-      <c r="Z41" s="5" t="n"/>
-      <c r="AA41" s="5" t="n"/>
-      <c r="AB41" s="5" t="n"/>
-      <c r="AC41" s="5" t="n"/>
-      <c r="AD41" s="5" t="n"/>
-      <c r="AE41" s="5" t="n"/>
-      <c r="AF41" s="5" t="n"/>
-      <c r="AG41" s="5" t="n"/>
-      <c r="AH41" s="5" t="n"/>
+      <c r="A41" s="52" t="n"/>
+      <c r="B41" s="52" t="n"/>
+      <c r="C41" s="53" t="n"/>
+      <c r="D41" s="52" t="n"/>
+      <c r="E41" s="52" t="n"/>
+      <c r="F41" s="52" t="n"/>
+      <c r="G41" s="52" t="n"/>
+      <c r="H41" s="52" t="n"/>
+      <c r="I41" s="52" t="n"/>
+      <c r="J41" s="52" t="n"/>
+      <c r="K41" s="52" t="n"/>
+      <c r="L41" s="54" t="n"/>
+      <c r="M41" s="54" t="n"/>
+      <c r="N41" s="52" t="n"/>
+      <c r="O41" s="53" t="n"/>
+      <c r="P41" s="23" t="n"/>
+      <c r="Q41" s="23" t="n"/>
+      <c r="R41" s="23" t="n"/>
+      <c r="S41" s="23" t="n"/>
+      <c r="T41" s="23" t="n"/>
+      <c r="U41" s="23" t="n"/>
+      <c r="V41" s="23" t="n"/>
+      <c r="W41" s="23" t="n"/>
+      <c r="X41" s="23" t="n"/>
+      <c r="Y41" s="23" t="n"/>
+      <c r="Z41" s="23" t="n"/>
+      <c r="AA41" s="23" t="n"/>
+      <c r="AB41" s="23" t="n"/>
+      <c r="AC41" s="23" t="n"/>
+      <c r="AD41" s="23" t="n"/>
+      <c r="AE41" s="23" t="n"/>
+      <c r="AF41" s="23" t="n"/>
+      <c r="AG41" s="23" t="n"/>
+      <c r="AH41" s="23" t="n"/>
+      <c r="AI41" s="23" t="n"/>
+      <c r="AJ41" s="23" t="n"/>
+      <c r="AK41" s="23" t="n"/>
+      <c r="AL41" s="23" t="n"/>
+      <c r="AM41" s="23" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n"/>
-      <c r="B42" s="6" t="n"/>
-      <c r="C42" s="6" t="n"/>
-      <c r="D42" s="5" t="n"/>
-      <c r="E42" s="5" t="n"/>
-      <c r="F42" s="5" t="n"/>
-      <c r="G42" s="5" t="n"/>
-      <c r="H42" s="5" t="n"/>
-      <c r="I42" s="5" t="n"/>
-      <c r="J42" s="5" t="n"/>
-      <c r="K42" s="5" t="n"/>
-      <c r="L42" s="5" t="n"/>
-      <c r="M42" s="5" t="n"/>
-      <c r="N42" s="5" t="n"/>
-      <c r="O42" s="5" t="n"/>
-      <c r="P42" s="5" t="n"/>
-      <c r="Q42" s="5" t="n"/>
-      <c r="R42" s="5" t="n"/>
-      <c r="S42" s="5" t="n"/>
-      <c r="T42" s="5" t="n"/>
-      <c r="U42" s="5" t="n"/>
-      <c r="V42" s="5" t="n"/>
-      <c r="W42" s="5" t="n"/>
-      <c r="X42" s="5" t="n"/>
-      <c r="Y42" s="5" t="n"/>
-      <c r="Z42" s="5" t="n"/>
-      <c r="AA42" s="5" t="n"/>
-      <c r="AB42" s="5" t="n"/>
-      <c r="AC42" s="5" t="n"/>
-      <c r="AD42" s="5" t="n"/>
-      <c r="AE42" s="5" t="n"/>
-      <c r="AF42" s="5" t="n"/>
-      <c r="AG42" s="5" t="n"/>
-      <c r="AH42" s="5" t="n"/>
+      <c r="A42" s="52" t="n"/>
+      <c r="B42" s="52" t="n"/>
+      <c r="C42" s="53" t="n"/>
+      <c r="D42" s="52" t="n"/>
+      <c r="E42" s="52" t="n"/>
+      <c r="F42" s="52" t="n"/>
+      <c r="G42" s="52" t="n"/>
+      <c r="H42" s="52" t="n"/>
+      <c r="I42" s="52" t="n"/>
+      <c r="J42" s="52" t="n"/>
+      <c r="K42" s="52" t="n"/>
+      <c r="L42" s="54" t="n"/>
+      <c r="M42" s="54" t="n"/>
+      <c r="N42" s="52" t="n"/>
+      <c r="O42" s="53" t="n"/>
+      <c r="P42" s="23" t="n"/>
+      <c r="Q42" s="23" t="n"/>
+      <c r="R42" s="23" t="n"/>
+      <c r="S42" s="23" t="n"/>
+      <c r="T42" s="23" t="n"/>
+      <c r="U42" s="23" t="n"/>
+      <c r="V42" s="23" t="n"/>
+      <c r="W42" s="23" t="n"/>
+      <c r="X42" s="23" t="n"/>
+      <c r="Y42" s="23" t="n"/>
+      <c r="Z42" s="23" t="n"/>
+      <c r="AA42" s="23" t="n"/>
+      <c r="AB42" s="23" t="n"/>
+      <c r="AC42" s="23" t="n"/>
+      <c r="AD42" s="23" t="n"/>
+      <c r="AE42" s="23" t="n"/>
+      <c r="AF42" s="23" t="n"/>
+      <c r="AG42" s="23" t="n"/>
+      <c r="AH42" s="23" t="n"/>
+      <c r="AI42" s="23" t="n"/>
+      <c r="AJ42" s="23" t="n"/>
+      <c r="AK42" s="23" t="n"/>
+      <c r="AL42" s="23" t="n"/>
+      <c r="AM42" s="23" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n"/>
-      <c r="B43" s="6" t="n"/>
-      <c r="C43" s="6" t="n"/>
-      <c r="D43" s="5" t="n"/>
-      <c r="E43" s="5" t="n"/>
-      <c r="F43" s="5" t="n"/>
-      <c r="G43" s="5" t="n"/>
-      <c r="H43" s="5" t="n"/>
-      <c r="I43" s="5" t="n"/>
-      <c r="J43" s="5" t="n"/>
-      <c r="K43" s="5" t="n"/>
-      <c r="L43" s="5" t="n"/>
-      <c r="M43" s="5" t="n"/>
-      <c r="N43" s="5" t="n"/>
-      <c r="O43" s="5" t="n"/>
-      <c r="P43" s="5" t="n"/>
-      <c r="Q43" s="5" t="n"/>
-      <c r="R43" s="5" t="n"/>
-      <c r="S43" s="5" t="n"/>
-      <c r="T43" s="5" t="n"/>
-      <c r="U43" s="5" t="n"/>
-      <c r="V43" s="5" t="n"/>
-      <c r="W43" s="5" t="n"/>
-      <c r="X43" s="5" t="n"/>
-      <c r="Y43" s="5" t="n"/>
-      <c r="Z43" s="5" t="n"/>
-      <c r="AA43" s="5" t="n"/>
-      <c r="AB43" s="5" t="n"/>
-      <c r="AC43" s="5" t="n"/>
-      <c r="AD43" s="5" t="n"/>
-      <c r="AE43" s="5" t="n"/>
-      <c r="AF43" s="5" t="n"/>
-      <c r="AG43" s="5" t="n"/>
-      <c r="AH43" s="5" t="n"/>
+      <c r="A43" s="52" t="n"/>
+      <c r="B43" s="52" t="n"/>
+      <c r="C43" s="53" t="n"/>
+      <c r="D43" s="52" t="n"/>
+      <c r="E43" s="52" t="n"/>
+      <c r="F43" s="52" t="n"/>
+      <c r="G43" s="52" t="n"/>
+      <c r="H43" s="52" t="n"/>
+      <c r="I43" s="52" t="n"/>
+      <c r="J43" s="52" t="n"/>
+      <c r="K43" s="52" t="n"/>
+      <c r="L43" s="54" t="n"/>
+      <c r="M43" s="54" t="n"/>
+      <c r="N43" s="52" t="n"/>
+      <c r="O43" s="53" t="n"/>
+      <c r="P43" s="23" t="n"/>
+      <c r="Q43" s="23" t="n"/>
+      <c r="R43" s="23" t="n"/>
+      <c r="S43" s="23" t="n"/>
+      <c r="T43" s="23" t="n"/>
+      <c r="U43" s="23" t="n"/>
+      <c r="V43" s="23" t="n"/>
+      <c r="W43" s="23" t="n"/>
+      <c r="X43" s="23" t="n"/>
+      <c r="Y43" s="23" t="n"/>
+      <c r="Z43" s="23" t="n"/>
+      <c r="AA43" s="23" t="n"/>
+      <c r="AB43" s="23" t="n"/>
+      <c r="AC43" s="23" t="n"/>
+      <c r="AD43" s="23" t="n"/>
+      <c r="AE43" s="23" t="n"/>
+      <c r="AF43" s="23" t="n"/>
+      <c r="AG43" s="23" t="n"/>
+      <c r="AH43" s="23" t="n"/>
+      <c r="AI43" s="23" t="n"/>
+      <c r="AJ43" s="23" t="n"/>
+      <c r="AK43" s="23" t="n"/>
+      <c r="AL43" s="23" t="n"/>
+      <c r="AM43" s="23" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n"/>
-      <c r="B44" s="6" t="n"/>
-      <c r="C44" s="6" t="n"/>
-      <c r="D44" s="5" t="n"/>
-      <c r="E44" s="5" t="n"/>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="5" t="n"/>
-      <c r="H44" s="5" t="n"/>
-      <c r="I44" s="5" t="n"/>
-      <c r="J44" s="5" t="n"/>
-      <c r="K44" s="5" t="n"/>
-      <c r="L44" s="5" t="n"/>
-      <c r="M44" s="5" t="n"/>
-      <c r="N44" s="5" t="n"/>
-      <c r="O44" s="5" t="n"/>
-      <c r="P44" s="5" t="n"/>
-      <c r="Q44" s="5" t="n"/>
-      <c r="R44" s="5" t="n"/>
-      <c r="S44" s="5" t="n"/>
-      <c r="T44" s="5" t="n"/>
-      <c r="U44" s="5" t="n"/>
-      <c r="V44" s="5" t="n"/>
-      <c r="W44" s="5" t="n"/>
-      <c r="X44" s="5" t="n"/>
-      <c r="Y44" s="5" t="n"/>
-      <c r="Z44" s="5" t="n"/>
-      <c r="AA44" s="5" t="n"/>
-      <c r="AB44" s="5" t="n"/>
-      <c r="AC44" s="5" t="n"/>
-      <c r="AD44" s="5" t="n"/>
-      <c r="AE44" s="5" t="n"/>
-      <c r="AF44" s="5" t="n"/>
-      <c r="AG44" s="5" t="n"/>
-      <c r="AH44" s="5" t="n"/>
+      <c r="A44" s="52" t="n"/>
+      <c r="B44" s="52" t="n"/>
+      <c r="C44" s="53" t="n"/>
+      <c r="D44" s="52" t="n"/>
+      <c r="E44" s="52" t="n"/>
+      <c r="F44" s="52" t="n"/>
+      <c r="G44" s="52" t="n"/>
+      <c r="H44" s="52" t="n"/>
+      <c r="I44" s="52" t="n"/>
+      <c r="J44" s="52" t="n"/>
+      <c r="K44" s="52" t="n"/>
+      <c r="L44" s="54" t="n"/>
+      <c r="M44" s="54" t="n"/>
+      <c r="N44" s="52" t="n"/>
+      <c r="O44" s="53" t="n"/>
+      <c r="P44" s="23" t="n"/>
+      <c r="Q44" s="23" t="n"/>
+      <c r="R44" s="23" t="n"/>
+      <c r="S44" s="23" t="n"/>
+      <c r="T44" s="23" t="n"/>
+      <c r="U44" s="23" t="n"/>
+      <c r="V44" s="23" t="n"/>
+      <c r="W44" s="23" t="n"/>
+      <c r="X44" s="23" t="n"/>
+      <c r="Y44" s="23" t="n"/>
+      <c r="Z44" s="23" t="n"/>
+      <c r="AA44" s="23" t="n"/>
+      <c r="AB44" s="23" t="n"/>
+      <c r="AC44" s="23" t="n"/>
+      <c r="AD44" s="23" t="n"/>
+      <c r="AE44" s="23" t="n"/>
+      <c r="AF44" s="23" t="n"/>
+      <c r="AG44" s="23" t="n"/>
+      <c r="AH44" s="23" t="n"/>
+      <c r="AI44" s="23" t="n"/>
+      <c r="AJ44" s="23" t="n"/>
+      <c r="AK44" s="23" t="n"/>
+      <c r="AL44" s="23" t="n"/>
+      <c r="AM44" s="23" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n"/>
-      <c r="B45" s="6" t="n"/>
-      <c r="C45" s="6" t="n"/>
-      <c r="D45" s="5" t="n"/>
-      <c r="E45" s="5" t="n"/>
-      <c r="F45" s="5" t="n"/>
-      <c r="G45" s="5" t="n"/>
-      <c r="H45" s="5" t="n"/>
-      <c r="I45" s="5" t="n"/>
-      <c r="J45" s="5" t="n"/>
-      <c r="K45" s="5" t="n"/>
-      <c r="L45" s="5" t="n"/>
-      <c r="M45" s="5" t="n"/>
-      <c r="N45" s="5" t="n"/>
-      <c r="O45" s="5" t="n"/>
-      <c r="P45" s="5" t="n"/>
-      <c r="Q45" s="5" t="n"/>
-      <c r="R45" s="5" t="n"/>
-      <c r="S45" s="5" t="n"/>
-      <c r="T45" s="5" t="n"/>
-      <c r="U45" s="5" t="n"/>
-      <c r="V45" s="5" t="n"/>
-      <c r="W45" s="5" t="n"/>
-      <c r="X45" s="5" t="n"/>
-      <c r="Y45" s="5" t="n"/>
-      <c r="Z45" s="5" t="n"/>
-      <c r="AA45" s="5" t="n"/>
-      <c r="AB45" s="5" t="n"/>
-      <c r="AC45" s="5" t="n"/>
-      <c r="AD45" s="5" t="n"/>
-      <c r="AE45" s="5" t="n"/>
-      <c r="AF45" s="5" t="n"/>
-      <c r="AG45" s="5" t="n"/>
-      <c r="AH45" s="5" t="n"/>
+      <c r="A45" s="52" t="n"/>
+      <c r="B45" s="52" t="n"/>
+      <c r="C45" s="53" t="n"/>
+      <c r="D45" s="52" t="n"/>
+      <c r="E45" s="52" t="n"/>
+      <c r="F45" s="52" t="n"/>
+      <c r="G45" s="52" t="n"/>
+      <c r="H45" s="52" t="n"/>
+      <c r="I45" s="52" t="n"/>
+      <c r="J45" s="52" t="n"/>
+      <c r="K45" s="52" t="n"/>
+      <c r="L45" s="54" t="n"/>
+      <c r="M45" s="54" t="n"/>
+      <c r="N45" s="52" t="n"/>
+      <c r="O45" s="53" t="n"/>
+      <c r="P45" s="23" t="n"/>
+      <c r="Q45" s="23" t="n"/>
+      <c r="R45" s="23" t="n"/>
+      <c r="S45" s="23" t="n"/>
+      <c r="T45" s="23" t="n"/>
+      <c r="U45" s="23" t="n"/>
+      <c r="V45" s="23" t="n"/>
+      <c r="W45" s="23" t="n"/>
+      <c r="X45" s="23" t="n"/>
+      <c r="Y45" s="23" t="n"/>
+      <c r="Z45" s="23" t="n"/>
+      <c r="AA45" s="23" t="n"/>
+      <c r="AB45" s="23" t="n"/>
+      <c r="AC45" s="23" t="n"/>
+      <c r="AD45" s="23" t="n"/>
+      <c r="AE45" s="23" t="n"/>
+      <c r="AF45" s="23" t="n"/>
+      <c r="AG45" s="23" t="n"/>
+      <c r="AH45" s="23" t="n"/>
+      <c r="AI45" s="23" t="n"/>
+      <c r="AJ45" s="23" t="n"/>
+      <c r="AK45" s="23" t="n"/>
+      <c r="AL45" s="23" t="n"/>
+      <c r="AM45" s="23" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n"/>
-      <c r="B46" s="6" t="n"/>
-      <c r="C46" s="6" t="n"/>
-      <c r="D46" s="5" t="n"/>
-      <c r="E46" s="5" t="n"/>
-      <c r="F46" s="5" t="n"/>
-      <c r="G46" s="5" t="n"/>
-      <c r="H46" s="5" t="n"/>
-      <c r="I46" s="5" t="n"/>
-      <c r="J46" s="5" t="n"/>
-      <c r="K46" s="5" t="n"/>
-      <c r="L46" s="5" t="n"/>
-      <c r="M46" s="5" t="n"/>
-      <c r="N46" s="5" t="n"/>
-      <c r="O46" s="5" t="n"/>
-      <c r="P46" s="5" t="n"/>
-      <c r="Q46" s="5" t="n"/>
-      <c r="R46" s="5" t="n"/>
-      <c r="S46" s="5" t="n"/>
-      <c r="T46" s="5" t="n"/>
-      <c r="U46" s="5" t="n"/>
-      <c r="V46" s="5" t="n"/>
-      <c r="W46" s="5" t="n"/>
-      <c r="X46" s="5" t="n"/>
-      <c r="Y46" s="5" t="n"/>
-      <c r="Z46" s="5" t="n"/>
-      <c r="AA46" s="5" t="n"/>
-      <c r="AB46" s="5" t="n"/>
-      <c r="AC46" s="5" t="n"/>
-      <c r="AD46" s="5" t="n"/>
-      <c r="AE46" s="5" t="n"/>
-      <c r="AF46" s="5" t="n"/>
-      <c r="AG46" s="5" t="n"/>
-      <c r="AH46" s="5" t="n"/>
+      <c r="A46" s="52" t="n"/>
+      <c r="B46" s="52" t="n"/>
+      <c r="C46" s="53" t="n"/>
+      <c r="D46" s="52" t="n"/>
+      <c r="E46" s="52" t="n"/>
+      <c r="F46" s="52" t="n"/>
+      <c r="G46" s="52" t="n"/>
+      <c r="H46" s="52" t="n"/>
+      <c r="I46" s="52" t="n"/>
+      <c r="J46" s="52" t="n"/>
+      <c r="K46" s="52" t="n"/>
+      <c r="L46" s="54" t="n"/>
+      <c r="M46" s="54" t="n"/>
+      <c r="N46" s="52" t="n"/>
+      <c r="O46" s="53" t="n"/>
+      <c r="P46" s="23" t="n"/>
+      <c r="Q46" s="23" t="n"/>
+      <c r="R46" s="23" t="n"/>
+      <c r="S46" s="23" t="n"/>
+      <c r="T46" s="23" t="n"/>
+      <c r="U46" s="23" t="n"/>
+      <c r="V46" s="23" t="n"/>
+      <c r="W46" s="23" t="n"/>
+      <c r="X46" s="23" t="n"/>
+      <c r="Y46" s="23" t="n"/>
+      <c r="Z46" s="23" t="n"/>
+      <c r="AA46" s="23" t="n"/>
+      <c r="AB46" s="23" t="n"/>
+      <c r="AC46" s="23" t="n"/>
+      <c r="AD46" s="23" t="n"/>
+      <c r="AE46" s="23" t="n"/>
+      <c r="AF46" s="23" t="n"/>
+      <c r="AG46" s="23" t="n"/>
+      <c r="AH46" s="23" t="n"/>
+      <c r="AI46" s="23" t="n"/>
+      <c r="AJ46" s="23" t="n"/>
+      <c r="AK46" s="23" t="n"/>
+      <c r="AL46" s="23" t="n"/>
+      <c r="AM46" s="23" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
-      <c r="B47" s="6" t="n"/>
-      <c r="C47" s="6" t="n"/>
-      <c r="D47" s="5" t="n"/>
-      <c r="E47" s="5" t="n"/>
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="5" t="n"/>
-      <c r="H47" s="5" t="n"/>
-      <c r="I47" s="5" t="n"/>
-      <c r="J47" s="5" t="n"/>
-      <c r="K47" s="5" t="n"/>
-      <c r="L47" s="5" t="n"/>
-      <c r="M47" s="5" t="n"/>
-      <c r="N47" s="5" t="n"/>
-      <c r="O47" s="5" t="n"/>
-      <c r="P47" s="5" t="n"/>
-      <c r="Q47" s="5" t="n"/>
-      <c r="R47" s="5" t="n"/>
-      <c r="S47" s="5" t="n"/>
-      <c r="T47" s="5" t="n"/>
-      <c r="U47" s="5" t="n"/>
-      <c r="V47" s="5" t="n"/>
-      <c r="W47" s="5" t="n"/>
-      <c r="X47" s="5" t="n"/>
-      <c r="Y47" s="5" t="n"/>
-      <c r="Z47" s="5" t="n"/>
-      <c r="AA47" s="5" t="n"/>
-      <c r="AB47" s="5" t="n"/>
-      <c r="AC47" s="5" t="n"/>
-      <c r="AD47" s="5" t="n"/>
-      <c r="AE47" s="5" t="n"/>
-      <c r="AF47" s="5" t="n"/>
-      <c r="AG47" s="5" t="n"/>
-      <c r="AH47" s="5" t="n"/>
+      <c r="A47" s="52" t="n"/>
+      <c r="B47" s="52" t="n"/>
+      <c r="C47" s="53" t="n"/>
+      <c r="D47" s="52" t="n"/>
+      <c r="E47" s="52" t="n"/>
+      <c r="F47" s="52" t="n"/>
+      <c r="G47" s="52" t="n"/>
+      <c r="H47" s="52" t="n"/>
+      <c r="I47" s="52" t="n"/>
+      <c r="J47" s="52" t="n"/>
+      <c r="K47" s="52" t="n"/>
+      <c r="L47" s="54" t="n"/>
+      <c r="M47" s="54" t="n"/>
+      <c r="N47" s="52" t="n"/>
+      <c r="O47" s="53" t="n"/>
+      <c r="P47" s="23" t="n"/>
+      <c r="Q47" s="23" t="n"/>
+      <c r="R47" s="23" t="n"/>
+      <c r="S47" s="23" t="n"/>
+      <c r="T47" s="23" t="n"/>
+      <c r="U47" s="23" t="n"/>
+      <c r="V47" s="23" t="n"/>
+      <c r="W47" s="23" t="n"/>
+      <c r="X47" s="23" t="n"/>
+      <c r="Y47" s="23" t="n"/>
+      <c r="Z47" s="23" t="n"/>
+      <c r="AA47" s="23" t="n"/>
+      <c r="AB47" s="23" t="n"/>
+      <c r="AC47" s="23" t="n"/>
+      <c r="AD47" s="23" t="n"/>
+      <c r="AE47" s="23" t="n"/>
+      <c r="AF47" s="23" t="n"/>
+      <c r="AG47" s="23" t="n"/>
+      <c r="AH47" s="23" t="n"/>
+      <c r="AI47" s="23" t="n"/>
+      <c r="AJ47" s="23" t="n"/>
+      <c r="AK47" s="23" t="n"/>
+      <c r="AL47" s="23" t="n"/>
+      <c r="AM47" s="23" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n"/>
-      <c r="B48" s="6" t="n"/>
-      <c r="C48" s="6" t="n"/>
-      <c r="D48" s="5" t="n"/>
-      <c r="E48" s="5" t="n"/>
-      <c r="F48" s="5" t="n"/>
-      <c r="G48" s="5" t="n"/>
-      <c r="H48" s="5" t="n"/>
-      <c r="I48" s="5" t="n"/>
-      <c r="J48" s="5" t="n"/>
-      <c r="K48" s="5" t="n"/>
-      <c r="L48" s="5" t="n"/>
-      <c r="M48" s="5" t="n"/>
-      <c r="N48" s="5" t="n"/>
-      <c r="O48" s="5" t="n"/>
-      <c r="P48" s="5" t="n"/>
-      <c r="Q48" s="5" t="n"/>
-      <c r="R48" s="5" t="n"/>
-      <c r="S48" s="5" t="n"/>
-      <c r="T48" s="5" t="n"/>
-      <c r="U48" s="5" t="n"/>
-      <c r="V48" s="5" t="n"/>
-      <c r="W48" s="5" t="n"/>
-      <c r="X48" s="5" t="n"/>
-      <c r="Y48" s="5" t="n"/>
-      <c r="Z48" s="5" t="n"/>
-      <c r="AA48" s="5" t="n"/>
-      <c r="AB48" s="5" t="n"/>
-      <c r="AC48" s="5" t="n"/>
-      <c r="AD48" s="5" t="n"/>
-      <c r="AE48" s="5" t="n"/>
-      <c r="AF48" s="5" t="n"/>
-      <c r="AG48" s="5" t="n"/>
-      <c r="AH48" s="5" t="n"/>
+      <c r="A48" s="52" t="n"/>
+      <c r="B48" s="52" t="n"/>
+      <c r="C48" s="53" t="n"/>
+      <c r="D48" s="52" t="n"/>
+      <c r="E48" s="52" t="n"/>
+      <c r="F48" s="52" t="n"/>
+      <c r="G48" s="52" t="n"/>
+      <c r="H48" s="52" t="n"/>
+      <c r="I48" s="52" t="n"/>
+      <c r="J48" s="52" t="n"/>
+      <c r="K48" s="52" t="n"/>
+      <c r="L48" s="54" t="n"/>
+      <c r="M48" s="54" t="n"/>
+      <c r="N48" s="52" t="n"/>
+      <c r="O48" s="53" t="n"/>
+      <c r="P48" s="23" t="n"/>
+      <c r="Q48" s="23" t="n"/>
+      <c r="R48" s="23" t="n"/>
+      <c r="S48" s="23" t="n"/>
+      <c r="T48" s="23" t="n"/>
+      <c r="U48" s="23" t="n"/>
+      <c r="V48" s="23" t="n"/>
+      <c r="W48" s="23" t="n"/>
+      <c r="X48" s="23" t="n"/>
+      <c r="Y48" s="23" t="n"/>
+      <c r="Z48" s="23" t="n"/>
+      <c r="AA48" s="23" t="n"/>
+      <c r="AB48" s="23" t="n"/>
+      <c r="AC48" s="23" t="n"/>
+      <c r="AD48" s="23" t="n"/>
+      <c r="AE48" s="23" t="n"/>
+      <c r="AF48" s="23" t="n"/>
+      <c r="AG48" s="23" t="n"/>
+      <c r="AH48" s="23" t="n"/>
+      <c r="AI48" s="23" t="n"/>
+      <c r="AJ48" s="23" t="n"/>
+      <c r="AK48" s="23" t="n"/>
+      <c r="AL48" s="23" t="n"/>
+      <c r="AM48" s="23" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n"/>
-      <c r="B49" s="6" t="n"/>
-      <c r="C49" s="6" t="n"/>
-      <c r="D49" s="5" t="n"/>
-      <c r="E49" s="5" t="n"/>
-      <c r="F49" s="5" t="n"/>
-      <c r="G49" s="5" t="n"/>
-      <c r="H49" s="5" t="n"/>
-      <c r="I49" s="5" t="n"/>
-      <c r="J49" s="5" t="n"/>
-      <c r="K49" s="5" t="n"/>
-      <c r="L49" s="5" t="n"/>
-      <c r="M49" s="5" t="n"/>
-      <c r="N49" s="5" t="n"/>
-      <c r="O49" s="5" t="n"/>
-      <c r="P49" s="5" t="n"/>
-      <c r="Q49" s="5" t="n"/>
-      <c r="R49" s="5" t="n"/>
-      <c r="S49" s="5" t="n"/>
-      <c r="T49" s="5" t="n"/>
-      <c r="U49" s="5" t="n"/>
-      <c r="V49" s="5" t="n"/>
-      <c r="W49" s="5" t="n"/>
-      <c r="X49" s="5" t="n"/>
-      <c r="Y49" s="5" t="n"/>
-      <c r="Z49" s="5" t="n"/>
-      <c r="AA49" s="5" t="n"/>
-      <c r="AB49" s="5" t="n"/>
-      <c r="AC49" s="5" t="n"/>
-      <c r="AD49" s="5" t="n"/>
-      <c r="AE49" s="5" t="n"/>
-      <c r="AF49" s="5" t="n"/>
-      <c r="AG49" s="5" t="n"/>
-      <c r="AH49" s="5" t="n"/>
+      <c r="A49" s="52" t="n"/>
+      <c r="B49" s="52" t="n"/>
+      <c r="C49" s="53" t="n"/>
+      <c r="D49" s="52" t="n"/>
+      <c r="E49" s="52" t="n"/>
+      <c r="F49" s="52" t="n"/>
+      <c r="G49" s="52" t="n"/>
+      <c r="H49" s="52" t="n"/>
+      <c r="I49" s="52" t="n"/>
+      <c r="J49" s="52" t="n"/>
+      <c r="K49" s="52" t="n"/>
+      <c r="L49" s="54" t="n"/>
+      <c r="M49" s="54" t="n"/>
+      <c r="N49" s="52" t="n"/>
+      <c r="O49" s="53" t="n"/>
+      <c r="P49" s="23" t="n"/>
+      <c r="Q49" s="23" t="n"/>
+      <c r="R49" s="23" t="n"/>
+      <c r="S49" s="23" t="n"/>
+      <c r="T49" s="23" t="n"/>
+      <c r="U49" s="23" t="n"/>
+      <c r="V49" s="23" t="n"/>
+      <c r="W49" s="23" t="n"/>
+      <c r="X49" s="23" t="n"/>
+      <c r="Y49" s="23" t="n"/>
+      <c r="Z49" s="23" t="n"/>
+      <c r="AA49" s="23" t="n"/>
+      <c r="AB49" s="23" t="n"/>
+      <c r="AC49" s="23" t="n"/>
+      <c r="AD49" s="23" t="n"/>
+      <c r="AE49" s="23" t="n"/>
+      <c r="AF49" s="23" t="n"/>
+      <c r="AG49" s="23" t="n"/>
+      <c r="AH49" s="23" t="n"/>
+      <c r="AI49" s="23" t="n"/>
+      <c r="AJ49" s="23" t="n"/>
+      <c r="AK49" s="23" t="n"/>
+      <c r="AL49" s="23" t="n"/>
+      <c r="AM49" s="23" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n"/>
-      <c r="B50" s="6" t="n"/>
-      <c r="C50" s="6" t="n"/>
-      <c r="D50" s="5" t="n"/>
-      <c r="E50" s="5" t="n"/>
-      <c r="F50" s="5" t="n"/>
-      <c r="G50" s="5" t="n"/>
-      <c r="H50" s="5" t="n"/>
-      <c r="I50" s="5" t="n"/>
-      <c r="J50" s="5" t="n"/>
-      <c r="K50" s="5" t="n"/>
-      <c r="L50" s="5" t="n"/>
-      <c r="M50" s="5" t="n"/>
-      <c r="N50" s="5" t="n"/>
-      <c r="O50" s="5" t="n"/>
-      <c r="P50" s="5" t="n"/>
-      <c r="Q50" s="5" t="n"/>
-      <c r="R50" s="5" t="n"/>
-      <c r="S50" s="5" t="n"/>
-      <c r="T50" s="5" t="n"/>
-      <c r="U50" s="5" t="n"/>
-      <c r="V50" s="5" t="n"/>
-      <c r="W50" s="5" t="n"/>
-      <c r="X50" s="5" t="n"/>
-      <c r="Y50" s="5" t="n"/>
-      <c r="Z50" s="5" t="n"/>
-      <c r="AA50" s="5" t="n"/>
-      <c r="AB50" s="5" t="n"/>
-      <c r="AC50" s="5" t="n"/>
-      <c r="AD50" s="5" t="n"/>
-      <c r="AE50" s="5" t="n"/>
-      <c r="AF50" s="5" t="n"/>
-      <c r="AG50" s="5" t="n"/>
-      <c r="AH50" s="5" t="n"/>
+      <c r="A50" s="52" t="n"/>
+      <c r="B50" s="52" t="n"/>
+      <c r="C50" s="53" t="n"/>
+      <c r="D50" s="52" t="n"/>
+      <c r="E50" s="52" t="n"/>
+      <c r="F50" s="52" t="n"/>
+      <c r="G50" s="52" t="n"/>
+      <c r="H50" s="52" t="n"/>
+      <c r="I50" s="52" t="n"/>
+      <c r="J50" s="52" t="n"/>
+      <c r="K50" s="52" t="n"/>
+      <c r="L50" s="54" t="n"/>
+      <c r="M50" s="54" t="n"/>
+      <c r="N50" s="52" t="n"/>
+      <c r="O50" s="53" t="n"/>
+      <c r="P50" s="23" t="n"/>
+      <c r="Q50" s="23" t="n"/>
+      <c r="R50" s="23" t="n"/>
+      <c r="S50" s="23" t="n"/>
+      <c r="T50" s="23" t="n"/>
+      <c r="U50" s="23" t="n"/>
+      <c r="V50" s="23" t="n"/>
+      <c r="W50" s="23" t="n"/>
+      <c r="X50" s="23" t="n"/>
+      <c r="Y50" s="23" t="n"/>
+      <c r="Z50" s="23" t="n"/>
+      <c r="AA50" s="23" t="n"/>
+      <c r="AB50" s="23" t="n"/>
+      <c r="AC50" s="23" t="n"/>
+      <c r="AD50" s="23" t="n"/>
+      <c r="AE50" s="23" t="n"/>
+      <c r="AF50" s="23" t="n"/>
+      <c r="AG50" s="23" t="n"/>
+      <c r="AH50" s="23" t="n"/>
+      <c r="AI50" s="23" t="n"/>
+      <c r="AJ50" s="23" t="n"/>
+      <c r="AK50" s="23" t="n"/>
+      <c r="AL50" s="23" t="n"/>
+      <c r="AM50" s="23" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n"/>
-      <c r="B51" s="6" t="n"/>
-      <c r="C51" s="6" t="n"/>
-      <c r="D51" s="5" t="n"/>
-      <c r="E51" s="5" t="n"/>
-      <c r="F51" s="5" t="n"/>
-      <c r="G51" s="5" t="n"/>
-      <c r="H51" s="5" t="n"/>
-      <c r="I51" s="5" t="n"/>
-      <c r="J51" s="5" t="n"/>
-      <c r="K51" s="5" t="n"/>
-      <c r="L51" s="5" t="n"/>
-      <c r="M51" s="5" t="n"/>
-      <c r="N51" s="5" t="n"/>
-      <c r="O51" s="5" t="n"/>
-      <c r="P51" s="5" t="n"/>
-      <c r="Q51" s="5" t="n"/>
-      <c r="R51" s="5" t="n"/>
-      <c r="S51" s="5" t="n"/>
-      <c r="T51" s="5" t="n"/>
-      <c r="U51" s="5" t="n"/>
-      <c r="V51" s="5" t="n"/>
-      <c r="W51" s="5" t="n"/>
-      <c r="X51" s="5" t="n"/>
-      <c r="Y51" s="5" t="n"/>
-      <c r="Z51" s="5" t="n"/>
-      <c r="AA51" s="5" t="n"/>
-      <c r="AB51" s="5" t="n"/>
-      <c r="AC51" s="5" t="n"/>
-      <c r="AD51" s="5" t="n"/>
-      <c r="AE51" s="5" t="n"/>
-      <c r="AF51" s="5" t="n"/>
-      <c r="AG51" s="5" t="n"/>
-      <c r="AH51" s="5" t="n"/>
+      <c r="A51" s="23" t="n"/>
+      <c r="B51" s="23" t="n"/>
+      <c r="C51" s="23" t="n"/>
+      <c r="D51" s="23" t="n"/>
+      <c r="E51" s="23" t="n"/>
+      <c r="F51" s="23" t="n"/>
+      <c r="G51" s="23" t="n"/>
+      <c r="H51" s="23" t="n"/>
+      <c r="I51" s="23" t="n"/>
+      <c r="J51" s="23" t="n"/>
+      <c r="K51" s="23" t="n"/>
+      <c r="L51" s="23" t="n"/>
+      <c r="M51" s="23" t="n"/>
+      <c r="N51" s="23" t="n"/>
+      <c r="O51" s="23" t="n"/>
+      <c r="P51" s="23" t="n"/>
+      <c r="Q51" s="23" t="n"/>
+      <c r="R51" s="23" t="n"/>
+      <c r="S51" s="23" t="n"/>
+      <c r="T51" s="23" t="n"/>
+      <c r="U51" s="23" t="n"/>
+      <c r="V51" s="23" t="n"/>
+      <c r="W51" s="23" t="n"/>
+      <c r="X51" s="23" t="n"/>
+      <c r="Y51" s="23" t="n"/>
+      <c r="Z51" s="23" t="n"/>
+      <c r="AA51" s="23" t="n"/>
+      <c r="AB51" s="23" t="n"/>
+      <c r="AC51" s="23" t="n"/>
+      <c r="AD51" s="23" t="n"/>
+      <c r="AE51" s="23" t="n"/>
+      <c r="AF51" s="23" t="n"/>
+      <c r="AG51" s="23" t="n"/>
+      <c r="AH51" s="23" t="n"/>
+      <c r="AI51" s="23" t="n"/>
+      <c r="AJ51" s="23" t="n"/>
+      <c r="AK51" s="23" t="n"/>
+      <c r="AL51" s="23" t="n"/>
+      <c r="AM51" s="23" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n"/>
-      <c r="B52" s="6" t="n"/>
-      <c r="C52" s="6" t="n"/>
-      <c r="D52" s="5" t="n"/>
-      <c r="E52" s="5" t="n"/>
-      <c r="F52" s="5" t="n"/>
-      <c r="G52" s="5" t="n"/>
-      <c r="H52" s="5" t="n"/>
-      <c r="I52" s="5" t="n"/>
-      <c r="J52" s="5" t="n"/>
-      <c r="K52" s="5" t="n"/>
-      <c r="L52" s="5" t="n"/>
-      <c r="M52" s="5" t="n"/>
-      <c r="N52" s="5" t="n"/>
-      <c r="O52" s="5" t="n"/>
-      <c r="P52" s="5" t="n"/>
-      <c r="Q52" s="5" t="n"/>
-      <c r="R52" s="5" t="n"/>
-      <c r="S52" s="5" t="n"/>
-      <c r="T52" s="5" t="n"/>
-      <c r="U52" s="5" t="n"/>
-      <c r="V52" s="5" t="n"/>
-      <c r="W52" s="5" t="n"/>
-      <c r="X52" s="5" t="n"/>
-      <c r="Y52" s="5" t="n"/>
-      <c r="Z52" s="5" t="n"/>
-      <c r="AA52" s="5" t="n"/>
-      <c r="AB52" s="5" t="n"/>
-      <c r="AC52" s="5" t="n"/>
-      <c r="AD52" s="5" t="n"/>
-      <c r="AE52" s="5" t="n"/>
-      <c r="AF52" s="5" t="n"/>
-      <c r="AG52" s="5" t="n"/>
-      <c r="AH52" s="5" t="n"/>
+      <c r="A52" s="23" t="n"/>
+      <c r="B52" s="23" t="n"/>
+      <c r="C52" s="23" t="n"/>
+      <c r="D52" s="23" t="n"/>
+      <c r="E52" s="23" t="n"/>
+      <c r="F52" s="23" t="n"/>
+      <c r="G52" s="23" t="n"/>
+      <c r="H52" s="23" t="n"/>
+      <c r="I52" s="23" t="n"/>
+      <c r="J52" s="23" t="n"/>
+      <c r="K52" s="23" t="n"/>
+      <c r="L52" s="23" t="n"/>
+      <c r="M52" s="23" t="n"/>
+      <c r="N52" s="23" t="n"/>
+      <c r="O52" s="23" t="n"/>
+      <c r="P52" s="23" t="n"/>
+      <c r="Q52" s="23" t="n"/>
+      <c r="R52" s="23" t="n"/>
+      <c r="S52" s="23" t="n"/>
+      <c r="T52" s="23" t="n"/>
+      <c r="U52" s="23" t="n"/>
+      <c r="V52" s="23" t="n"/>
+      <c r="W52" s="23" t="n"/>
+      <c r="X52" s="23" t="n"/>
+      <c r="Y52" s="23" t="n"/>
+      <c r="Z52" s="23" t="n"/>
+      <c r="AA52" s="23" t="n"/>
+      <c r="AB52" s="23" t="n"/>
+      <c r="AC52" s="23" t="n"/>
+      <c r="AD52" s="23" t="n"/>
+      <c r="AE52" s="23" t="n"/>
+      <c r="AF52" s="23" t="n"/>
+      <c r="AG52" s="23" t="n"/>
+      <c r="AH52" s="23" t="n"/>
+      <c r="AI52" s="23" t="n"/>
+      <c r="AJ52" s="23" t="n"/>
+      <c r="AK52" s="23" t="n"/>
+      <c r="AL52" s="23" t="n"/>
+      <c r="AM52" s="23" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="23" t="n"/>
+      <c r="B53" s="23" t="n"/>
+      <c r="C53" s="23" t="n"/>
+      <c r="D53" s="23" t="n"/>
+      <c r="E53" s="23" t="n"/>
+      <c r="F53" s="23" t="n"/>
+      <c r="G53" s="23" t="n"/>
+      <c r="H53" s="23" t="n"/>
+      <c r="I53" s="23" t="n"/>
+      <c r="J53" s="23" t="n"/>
+      <c r="K53" s="23" t="n"/>
+      <c r="L53" s="23" t="n"/>
+      <c r="M53" s="23" t="n"/>
+      <c r="N53" s="23" t="n"/>
+      <c r="O53" s="23" t="n"/>
+      <c r="P53" s="23" t="n"/>
+      <c r="Q53" s="23" t="n"/>
+      <c r="R53" s="23" t="n"/>
+      <c r="S53" s="23" t="n"/>
+      <c r="T53" s="23" t="n"/>
+      <c r="U53" s="23" t="n"/>
+      <c r="V53" s="23" t="n"/>
+      <c r="W53" s="23" t="n"/>
+      <c r="X53" s="23" t="n"/>
+      <c r="Y53" s="23" t="n"/>
+      <c r="Z53" s="23" t="n"/>
+      <c r="AA53" s="23" t="n"/>
+      <c r="AB53" s="23" t="n"/>
+      <c r="AC53" s="23" t="n"/>
+      <c r="AD53" s="23" t="n"/>
+      <c r="AE53" s="23" t="n"/>
+      <c r="AF53" s="23" t="n"/>
+      <c r="AG53" s="23" t="n"/>
+      <c r="AH53" s="23" t="n"/>
+      <c r="AI53" s="23" t="n"/>
+      <c r="AJ53" s="23" t="n"/>
+      <c r="AK53" s="23" t="n"/>
+      <c r="AL53" s="23" t="n"/>
+      <c r="AM53" s="23" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="23" t="n"/>
+      <c r="B54" s="23" t="n"/>
+      <c r="C54" s="23" t="n"/>
+      <c r="D54" s="23" t="n"/>
+      <c r="E54" s="23" t="n"/>
+      <c r="F54" s="23" t="n"/>
+      <c r="G54" s="23" t="n"/>
+      <c r="H54" s="23" t="n"/>
+      <c r="I54" s="23" t="n"/>
+      <c r="J54" s="23" t="n"/>
+      <c r="K54" s="23" t="n"/>
+      <c r="L54" s="23" t="n"/>
+      <c r="M54" s="23" t="n"/>
+      <c r="N54" s="23" t="n"/>
+      <c r="O54" s="23" t="n"/>
+      <c r="P54" s="23" t="n"/>
+      <c r="Q54" s="23" t="n"/>
+      <c r="R54" s="23" t="n"/>
+      <c r="S54" s="23" t="n"/>
+      <c r="T54" s="23" t="n"/>
+      <c r="U54" s="23" t="n"/>
+      <c r="V54" s="23" t="n"/>
+      <c r="W54" s="23" t="n"/>
+      <c r="X54" s="23" t="n"/>
+      <c r="Y54" s="23" t="n"/>
+      <c r="Z54" s="23" t="n"/>
+      <c r="AA54" s="23" t="n"/>
+      <c r="AB54" s="23" t="n"/>
+      <c r="AC54" s="23" t="n"/>
+      <c r="AD54" s="23" t="n"/>
+      <c r="AE54" s="23" t="n"/>
+      <c r="AF54" s="23" t="n"/>
+      <c r="AG54" s="23" t="n"/>
+      <c r="AH54" s="23" t="n"/>
+      <c r="AI54" s="23" t="n"/>
+      <c r="AJ54" s="23" t="n"/>
+      <c r="AK54" s="23" t="n"/>
+      <c r="AL54" s="23" t="n"/>
+      <c r="AM54" s="23" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AD1:AD2"/>
+  <autoFilter ref="A2:O50"/>
+  <mergeCells count="9">
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:J52">
+  <conditionalFormatting sqref="E3:K50">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="2">
       <formula>"R"</formula>
     </cfRule>
@@ -3937,7 +4178,7 @@
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:AH52">
+  <conditionalFormatting sqref="N3:N50">
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="8">
       <formula>"Plan"</formula>
     </cfRule>
@@ -3952,11 +4193,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="D3:J52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E3:K50" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>RASI_List</formula1>
     </dataValidation>
-    <dataValidation sqref="K3:AH52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Plan,Active,Done,Delay"</formula1>
+    <dataValidation sqref="N3:N50" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>Status_List</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/EE_Project_Dashboard.xlsx
+++ b/EE_Project_Dashboard.xlsx
@@ -22,7 +22,7 @@
     <definedName name="PRJ_EMBPC00">'Definitions'!$Z$1</definedName>
     <definedName name="PRJ_HCR00">'Definitions'!$Z$1</definedName>
     <definedName name="PRJ_BATERY00">'Definitions'!$Z$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Roadmap'!$A$2:$O$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Roadmap'!$A$3:$AK$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tasks'!$A$1:$M$58</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -31,11 +31,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -155,8 +157,19 @@
       <color rgb="FFCCCCCC"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill/>
     </fill>
@@ -269,6 +282,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE2E6"/>
         <bgColor rgb="FFDEE2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0090D0"/>
+        <bgColor rgb="FF0090D0"/>
       </patternFill>
     </fill>
   </fills>
@@ -434,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -562,11 +581,34 @@
     <xf numFmtId="165" fontId="4" fillId="11" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="25">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -830,6 +872,90 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFDBEAFE"/>
           <bgColor rgb="FFDBEAFE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <b val="1"/>
+        <color rgb="FF1864AB"/>
+        <sz val="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E8FF"/>
+          <bgColor rgb="FFD0E8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <b val="1"/>
+        <color rgb="FF0B6623"/>
+        <sz val="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD3F9D8"/>
+          <bgColor rgb="FFD3F9D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <b val="1"/>
+        <color rgb="FF7C5E00"/>
+        <sz val="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF3CD"/>
+          <bgColor rgb="FFFFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <b val="1"/>
+        <color rgb="FF4A148C"/>
+        <sz val="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8D5F5"/>
+          <bgColor rgb="FFE8D5F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <b val="1"/>
+        <color rgb="FF9B1D1D"/>
+        <sz val="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD6D6"/>
+          <bgColor rgb="FFFFD6D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <b val="1"/>
+        <color rgb="FF0070C0"/>
+        <sz val="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDE0FF"/>
+          <bgColor rgb="FFBDE0FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1112,9 +1238,11 @@
   <dimension ref="A1:BB54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
@@ -1124,8 +1252,8 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="48" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="10"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="10"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
@@ -1133,11 +1261,32 @@
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="34"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="40" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="37" max="37"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="27" max="27"/>
+    <col width="5" customWidth="1" min="28" max="28"/>
+    <col width="5" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="36" max="36"/>
+    <col width="5" customWidth="1" min="37" max="37"/>
     <col width="12" customWidth="1" min="38" max="38"/>
     <col width="45" customWidth="1" min="39" max="39"/>
     <col width="16" customWidth="1" min="40" max="40"/>
@@ -1150,7 +1299,7 @@
     <col width="16" customWidth="1" min="47" max="47"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1">
+    <row r="1" ht="20" customHeight="1">
       <c r="A1" s="18" t="inlineStr">
         <is>
           <t>No</t>
@@ -1192,38 +1341,126 @@
           <t>End Date</t>
         </is>
       </c>
-      <c r="N1" s="18" t="inlineStr">
+      <c r="N1" s="55" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>T1/2025</t>
         </is>
       </c>
-      <c r="O1" s="18" t="inlineStr">
+      <c r="O1" s="56" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>T2/2025</t>
         </is>
       </c>
-      <c r="P1" s="23" t="n"/>
-      <c r="Q1" s="23" t="n"/>
-      <c r="R1" s="23" t="n"/>
-      <c r="S1" s="23" t="n"/>
-      <c r="T1" s="23" t="n"/>
-      <c r="U1" s="23" t="n"/>
-      <c r="V1" s="23" t="n"/>
-      <c r="W1" s="23" t="n"/>
-      <c r="X1" s="23" t="n"/>
-      <c r="Y1" s="23" t="n"/>
-      <c r="Z1" s="23" t="n"/>
-      <c r="AA1" s="23" t="n"/>
-      <c r="AB1" s="23" t="n"/>
-      <c r="AC1" s="23" t="n"/>
-      <c r="AD1" s="23" t="n"/>
-      <c r="AE1" s="23" t="n"/>
-      <c r="AF1" s="23" t="n"/>
-      <c r="AG1" s="23" t="n"/>
-      <c r="AH1" s="23" t="n"/>
-      <c r="AI1" s="23" t="n"/>
-      <c r="AJ1" s="23" t="n"/>
-      <c r="AK1" s="23" t="n"/>
+      <c r="P1" s="55" t="inlineStr">
+        <is>
+          <t>T3/2025</t>
+        </is>
+      </c>
+      <c r="Q1" s="56" t="inlineStr">
+        <is>
+          <t>T4/2025</t>
+        </is>
+      </c>
+      <c r="R1" s="55" t="inlineStr">
+        <is>
+          <t>T5/2025</t>
+        </is>
+      </c>
+      <c r="S1" s="56" t="inlineStr">
+        <is>
+          <t>T6/2025</t>
+        </is>
+      </c>
+      <c r="T1" s="55" t="inlineStr">
+        <is>
+          <t>T7/2025</t>
+        </is>
+      </c>
+      <c r="U1" s="56" t="inlineStr">
+        <is>
+          <t>T8/2025</t>
+        </is>
+      </c>
+      <c r="V1" s="55" t="inlineStr">
+        <is>
+          <t>T9/2025</t>
+        </is>
+      </c>
+      <c r="W1" s="56" t="inlineStr">
+        <is>
+          <t>T10/2025</t>
+        </is>
+      </c>
+      <c r="X1" s="55" t="inlineStr">
+        <is>
+          <t>T11/2025</t>
+        </is>
+      </c>
+      <c r="Y1" s="56" t="inlineStr">
+        <is>
+          <t>T12/2025</t>
+        </is>
+      </c>
+      <c r="Z1" s="55" t="inlineStr">
+        <is>
+          <t>T1/2026</t>
+        </is>
+      </c>
+      <c r="AA1" s="56" t="inlineStr">
+        <is>
+          <t>T2/2026</t>
+        </is>
+      </c>
+      <c r="AB1" s="55" t="inlineStr">
+        <is>
+          <t>T3/2026</t>
+        </is>
+      </c>
+      <c r="AC1" s="56" t="inlineStr">
+        <is>
+          <t>T4/2026</t>
+        </is>
+      </c>
+      <c r="AD1" s="55" t="inlineStr">
+        <is>
+          <t>T5/2026</t>
+        </is>
+      </c>
+      <c r="AE1" s="56" t="inlineStr">
+        <is>
+          <t>T6/2026</t>
+        </is>
+      </c>
+      <c r="AF1" s="55" t="inlineStr">
+        <is>
+          <t>T7/2026</t>
+        </is>
+      </c>
+      <c r="AG1" s="56" t="inlineStr">
+        <is>
+          <t>T8/2026</t>
+        </is>
+      </c>
+      <c r="AH1" s="55" t="inlineStr">
+        <is>
+          <t>T9/2026</t>
+        </is>
+      </c>
+      <c r="AI1" s="56" t="inlineStr">
+        <is>
+          <t>T10/2026</t>
+        </is>
+      </c>
+      <c r="AJ1" s="55" t="inlineStr">
+        <is>
+          <t>T11/2026</t>
+        </is>
+      </c>
+      <c r="AK1" s="56" t="inlineStr">
+        <is>
+          <t>T12/2026</t>
+        </is>
+      </c>
       <c r="AL1" s="23" t="n"/>
       <c r="AM1" s="23" t="n"/>
       <c r="AN1" s="23" t="n"/>
@@ -1242,7 +1479,7 @@
       <c r="BA1" s="23" t="n"/>
       <c r="BB1" s="23" t="n"/>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" ht="28" customHeight="1">
       <c r="A2" s="50" t="n"/>
       <c r="B2" s="50" t="n"/>
       <c r="C2" s="50" t="n"/>
@@ -1286,28 +1523,28 @@
       <c r="M2" s="50" t="n"/>
       <c r="N2" s="50" t="n"/>
       <c r="O2" s="50" t="n"/>
-      <c r="P2" s="23" t="n"/>
-      <c r="Q2" s="23" t="n"/>
-      <c r="R2" s="23" t="n"/>
-      <c r="S2" s="23" t="n"/>
-      <c r="T2" s="23" t="n"/>
-      <c r="U2" s="23" t="n"/>
-      <c r="V2" s="23" t="n"/>
-      <c r="W2" s="23" t="n"/>
-      <c r="X2" s="23" t="n"/>
-      <c r="Y2" s="23" t="n"/>
-      <c r="Z2" s="23" t="n"/>
-      <c r="AA2" s="23" t="n"/>
-      <c r="AB2" s="23" t="n"/>
-      <c r="AC2" s="23" t="n"/>
-      <c r="AD2" s="23" t="n"/>
-      <c r="AE2" s="23" t="n"/>
-      <c r="AF2" s="23" t="n"/>
-      <c r="AG2" s="23" t="n"/>
-      <c r="AH2" s="23" t="n"/>
-      <c r="AI2" s="23" t="n"/>
-      <c r="AJ2" s="23" t="n"/>
-      <c r="AK2" s="23" t="n"/>
+      <c r="P2" s="50" t="n"/>
+      <c r="Q2" s="50" t="n"/>
+      <c r="R2" s="50" t="n"/>
+      <c r="S2" s="50" t="n"/>
+      <c r="T2" s="50" t="n"/>
+      <c r="U2" s="50" t="n"/>
+      <c r="V2" s="50" t="n"/>
+      <c r="W2" s="50" t="n"/>
+      <c r="X2" s="50" t="n"/>
+      <c r="Y2" s="50" t="n"/>
+      <c r="Z2" s="50" t="n"/>
+      <c r="AA2" s="50" t="n"/>
+      <c r="AB2" s="50" t="n"/>
+      <c r="AC2" s="50" t="n"/>
+      <c r="AD2" s="50" t="n"/>
+      <c r="AE2" s="50" t="n"/>
+      <c r="AF2" s="50" t="n"/>
+      <c r="AG2" s="50" t="n"/>
+      <c r="AH2" s="50" t="n"/>
+      <c r="AI2" s="50" t="n"/>
+      <c r="AJ2" s="50" t="n"/>
+      <c r="AK2" s="50" t="n"/>
       <c r="AL2" s="23" t="n"/>
       <c r="AM2" s="23" t="n"/>
       <c r="AN2" s="23" t="n"/>
@@ -1326,90 +1563,92 @@
       <c r="BA2" s="23" t="n"/>
       <c r="BB2" s="23" t="n"/>
     </row>
-    <row r="3" ht="45.5" customHeight="1">
-      <c r="A3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>MOT0200</t>
-        </is>
-      </c>
-      <c r="C3" s="15" t="inlineStr">
-        <is>
-          <t>Dự án phát triển Motion 2</t>
-        </is>
-      </c>
-      <c r="D3" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E3" s="14" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G3" s="14" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="H3" s="14" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I3" s="14" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J3" s="14" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="K3" s="14" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="L3" s="16" t="n"/>
-      <c r="M3" s="16" t="n"/>
-      <c r="N3" s="14" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="O3" s="15" t="n"/>
-      <c r="P3" s="23" t="n"/>
-      <c r="Q3" s="23" t="n"/>
-      <c r="R3" s="23" t="n"/>
-      <c r="S3" s="23" t="n"/>
-      <c r="T3" s="23" t="n"/>
-      <c r="U3" s="23" t="n"/>
-      <c r="V3" s="23" t="n"/>
-      <c r="W3" s="23" t="n"/>
-      <c r="X3" s="23" t="n"/>
-      <c r="Y3" s="23" t="n"/>
-      <c r="Z3" s="23" t="n"/>
-      <c r="AA3" s="23" t="n"/>
-      <c r="AB3" s="23" t="n"/>
-      <c r="AC3" s="23" t="n"/>
-      <c r="AD3" s="23" t="n"/>
-      <c r="AE3" s="23" t="n"/>
-      <c r="AF3" s="23" t="n"/>
-      <c r="AG3" s="23" t="n"/>
-      <c r="AH3" s="23" t="n"/>
-      <c r="AI3" s="23" t="n"/>
-      <c r="AJ3" s="23" t="n"/>
-      <c r="AK3" s="23" t="n"/>
+    <row r="3" hidden="1" ht="0.5" customHeight="1">
+      <c r="A3" s="23" t="n"/>
+      <c r="B3" s="23" t="n"/>
+      <c r="C3" s="23" t="n"/>
+      <c r="D3" s="23" t="n"/>
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="23" t="n"/>
+      <c r="G3" s="23" t="n"/>
+      <c r="H3" s="23" t="n"/>
+      <c r="I3" s="23" t="n"/>
+      <c r="J3" s="23" t="n"/>
+      <c r="K3" s="23" t="n"/>
+      <c r="L3" s="57" t="n"/>
+      <c r="M3" s="57" t="n"/>
+      <c r="N3" s="58" t="n">
+        <v>45658</v>
+      </c>
+      <c r="O3" s="58" t="n">
+        <v>45689</v>
+      </c>
+      <c r="P3" s="58" t="n">
+        <v>45717</v>
+      </c>
+      <c r="Q3" s="58" t="n">
+        <v>45748</v>
+      </c>
+      <c r="R3" s="58" t="n">
+        <v>45778</v>
+      </c>
+      <c r="S3" s="58" t="n">
+        <v>45809</v>
+      </c>
+      <c r="T3" s="58" t="n">
+        <v>45839</v>
+      </c>
+      <c r="U3" s="58" t="n">
+        <v>45870</v>
+      </c>
+      <c r="V3" s="58" t="n">
+        <v>45901</v>
+      </c>
+      <c r="W3" s="58" t="n">
+        <v>45931</v>
+      </c>
+      <c r="X3" s="58" t="n">
+        <v>45962</v>
+      </c>
+      <c r="Y3" s="58" t="n">
+        <v>45992</v>
+      </c>
+      <c r="Z3" s="58" t="n">
+        <v>46023</v>
+      </c>
+      <c r="AA3" s="58" t="n">
+        <v>46054</v>
+      </c>
+      <c r="AB3" s="58" t="n">
+        <v>46082</v>
+      </c>
+      <c r="AC3" s="58" t="n">
+        <v>46113</v>
+      </c>
+      <c r="AD3" s="58" t="n">
+        <v>46143</v>
+      </c>
+      <c r="AE3" s="58" t="n">
+        <v>46174</v>
+      </c>
+      <c r="AF3" s="58" t="n">
+        <v>46204</v>
+      </c>
+      <c r="AG3" s="58" t="n">
+        <v>46235</v>
+      </c>
+      <c r="AH3" s="58" t="n">
+        <v>46266</v>
+      </c>
+      <c r="AI3" s="58" t="n">
+        <v>46296</v>
+      </c>
+      <c r="AJ3" s="58" t="n">
+        <v>46327</v>
+      </c>
+      <c r="AK3" s="58" t="n">
+        <v>46357</v>
+      </c>
       <c r="AL3" s="23" t="n"/>
       <c r="AM3" s="23" t="n"/>
       <c r="AN3" s="23" t="n"/>
@@ -1429,61 +1668,157 @@
       <c r="BB3" s="23" t="n"/>
     </row>
     <row r="4" ht="45.5" customHeight="1">
-      <c r="A4" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="A4" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="59" t="inlineStr">
         <is>
           <t>MOT0200</t>
         </is>
       </c>
-      <c r="C4" s="15" t="inlineStr">
+      <c r="C4" s="60" t="inlineStr">
         <is>
           <t>Dự án phát triển Motion 2</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
-      <c r="K4" s="14" t="n"/>
-      <c r="L4" s="16" t="n"/>
-      <c r="M4" s="16" t="n"/>
-      <c r="N4" s="14" t="inlineStr">
+      <c r="E4" s="59" t="inlineStr">
         <is>
-          <t>Plan</t>
+          <t>R</t>
         </is>
       </c>
-      <c r="O4" s="15" t="n"/>
-      <c r="P4" s="23" t="n"/>
-      <c r="Q4" s="23" t="n"/>
-      <c r="R4" s="23" t="n"/>
-      <c r="S4" s="23" t="n"/>
-      <c r="T4" s="23" t="n"/>
-      <c r="U4" s="23" t="n"/>
-      <c r="V4" s="23" t="n"/>
-      <c r="W4" s="23" t="n"/>
-      <c r="X4" s="23" t="n"/>
-      <c r="Y4" s="23" t="n"/>
-      <c r="Z4" s="23" t="n"/>
-      <c r="AA4" s="23" t="n"/>
-      <c r="AB4" s="23" t="n"/>
-      <c r="AC4" s="23" t="n"/>
-      <c r="AD4" s="23" t="n"/>
-      <c r="AE4" s="23" t="n"/>
-      <c r="AF4" s="23" t="n"/>
-      <c r="AG4" s="23" t="n"/>
-      <c r="AH4" s="23" t="n"/>
-      <c r="AI4" s="23" t="n"/>
-      <c r="AJ4" s="23" t="n"/>
-      <c r="AK4" s="23" t="n"/>
+      <c r="F4" s="59" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G4" s="59" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H4" s="59" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I4" s="59" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J4" s="59" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K4" s="59" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($N$3,0),$M4&gt;=$N$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($O$3,0),$M4&gt;=$O$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($P$3,0),$M4&gt;=$P$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($Q$3,0),$M4&gt;=$Q$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($R$3,0),$M4&gt;=$R$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($S$3,0),$M4&gt;=$S$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($T$3,0),$M4&gt;=$T$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($U$3,0),$M4&gt;=$U$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($V$3,0),$M4&gt;=$V$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($W$3,0),$M4&gt;=$W$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($X$3,0),$M4&gt;=$X$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($Y$3,0),$M4&gt;=$Y$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($Z$3,0),$M4&gt;=$Z$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AA$3,0),$M4&gt;=$AA$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AB$3,0),$M4&gt;=$AB$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AC$3,0),$M4&gt;=$AC$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AD$3,0),$M4&gt;=$AD$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AE$3,0),$M4&gt;=$AE$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AF$3,0),$M4&gt;=$AF$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AG$3,0),$M4&gt;=$AG$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AH$3,0),$M4&gt;=$AH$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AI$3,0),$M4&gt;=$AI$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AJ$3,0),$M4&gt;=$AJ$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK4" s="62">
+        <f>IF(OR($L4="",$M4=""),"",IF(AND($L4&lt;=EOMONTH($AK$3,0),$M4&gt;=$AK$3),IF($D4&lt;&gt;"",$D4,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL4" s="23" t="n"/>
       <c r="AM4" s="23" t="n"/>
       <c r="AN4" s="23" t="n"/>
@@ -1503,61 +1838,129 @@
       <c r="BB4" s="23" t="n"/>
     </row>
     <row r="5" ht="45.5" customHeight="1">
-      <c r="A5" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="A5" s="59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="59" t="inlineStr">
         <is>
           <t>MOT0200</t>
         </is>
       </c>
-      <c r="C5" s="15" t="inlineStr">
+      <c r="C5" s="60" t="inlineStr">
         <is>
           <t>Dự án phát triển Motion 2</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="14" t="n"/>
-      <c r="J5" s="14" t="n"/>
-      <c r="K5" s="14" t="n"/>
-      <c r="L5" s="16" t="n"/>
-      <c r="M5" s="16" t="n"/>
-      <c r="N5" s="14" t="inlineStr">
-        <is>
-          <t>Plan</t>
-        </is>
-      </c>
-      <c r="O5" s="15" t="n"/>
-      <c r="P5" s="23" t="n"/>
-      <c r="Q5" s="23" t="n"/>
-      <c r="R5" s="23" t="n"/>
-      <c r="S5" s="23" t="n"/>
-      <c r="T5" s="23" t="n"/>
-      <c r="U5" s="23" t="n"/>
-      <c r="V5" s="23" t="n"/>
-      <c r="W5" s="23" t="n"/>
-      <c r="X5" s="23" t="n"/>
-      <c r="Y5" s="23" t="n"/>
-      <c r="Z5" s="23" t="n"/>
-      <c r="AA5" s="23" t="n"/>
-      <c r="AB5" s="23" t="n"/>
-      <c r="AC5" s="23" t="n"/>
-      <c r="AD5" s="23" t="n"/>
-      <c r="AE5" s="23" t="n"/>
-      <c r="AF5" s="23" t="n"/>
-      <c r="AG5" s="23" t="n"/>
-      <c r="AH5" s="23" t="n"/>
-      <c r="AI5" s="23" t="n"/>
-      <c r="AJ5" s="23" t="n"/>
-      <c r="AK5" s="23" t="n"/>
+      <c r="E5" s="59" t="n"/>
+      <c r="F5" s="59" t="n"/>
+      <c r="G5" s="59" t="n"/>
+      <c r="H5" s="59" t="n"/>
+      <c r="I5" s="59" t="n"/>
+      <c r="J5" s="59" t="n"/>
+      <c r="K5" s="59" t="n"/>
+      <c r="L5" s="61" t="n"/>
+      <c r="M5" s="61" t="n"/>
+      <c r="N5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($N$3,0),$M5&gt;=$N$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($O$3,0),$M5&gt;=$O$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($P$3,0),$M5&gt;=$P$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($Q$3,0),$M5&gt;=$Q$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($R$3,0),$M5&gt;=$R$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($S$3,0),$M5&gt;=$S$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($T$3,0),$M5&gt;=$T$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($U$3,0),$M5&gt;=$U$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($V$3,0),$M5&gt;=$V$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($W$3,0),$M5&gt;=$W$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($X$3,0),$M5&gt;=$X$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($Y$3,0),$M5&gt;=$Y$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($Z$3,0),$M5&gt;=$Z$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AA$3,0),$M5&gt;=$AA$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AB$3,0),$M5&gt;=$AB$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AC$3,0),$M5&gt;=$AC$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AD$3,0),$M5&gt;=$AD$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AE$3,0),$M5&gt;=$AE$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AF$3,0),$M5&gt;=$AF$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AG$3,0),$M5&gt;=$AG$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AH$3,0),$M5&gt;=$AH$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AI$3,0),$M5&gt;=$AI$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AJ$3,0),$M5&gt;=$AJ$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK5" s="62">
+        <f>IF(OR($L5="",$M5=""),"",IF(AND($L5&lt;=EOMONTH($AK$3,0),$M5&gt;=$AK$3),IF($D5&lt;&gt;"",$D5,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL5" s="23" t="n"/>
       <c r="AM5" s="23" t="n"/>
       <c r="AN5" s="23" t="n"/>
@@ -1577,65 +1980,129 @@
       <c r="BB5" s="23" t="n"/>
     </row>
     <row r="6" ht="45.5" customHeight="1">
-      <c r="A6" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="A6" s="59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="59" t="inlineStr">
         <is>
-          <t>MOT0300</t>
+          <t>MOT0200</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>Dự án phát triển Motion 3</t>
+          <t>Dự án phát triển Motion 2</t>
         </is>
       </c>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="inlineStr">
+      <c r="D6" s="59" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>C</t>
         </is>
       </c>
-      <c r="G6" s="14" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="14" t="n"/>
-      <c r="K6" s="14" t="n"/>
-      <c r="L6" s="16" t="n"/>
-      <c r="M6" s="16" t="n"/>
-      <c r="N6" s="14" t="inlineStr">
-        <is>
-          <t>Plan</t>
-        </is>
-      </c>
-      <c r="O6" s="15" t="n"/>
-      <c r="P6" s="23" t="n"/>
-      <c r="Q6" s="23" t="n"/>
-      <c r="R6" s="23" t="n"/>
-      <c r="S6" s="23" t="n"/>
-      <c r="T6" s="23" t="n"/>
-      <c r="U6" s="23" t="n"/>
-      <c r="V6" s="23" t="n"/>
-      <c r="W6" s="23" t="n"/>
-      <c r="X6" s="23" t="n"/>
-      <c r="Y6" s="23" t="n"/>
-      <c r="Z6" s="23" t="n"/>
-      <c r="AA6" s="23" t="n"/>
-      <c r="AB6" s="23" t="n"/>
-      <c r="AC6" s="23" t="n"/>
-      <c r="AD6" s="23" t="n"/>
-      <c r="AE6" s="23" t="n"/>
-      <c r="AF6" s="23" t="n"/>
-      <c r="AG6" s="23" t="n"/>
-      <c r="AH6" s="23" t="n"/>
-      <c r="AI6" s="23" t="n"/>
-      <c r="AJ6" s="23" t="n"/>
-      <c r="AK6" s="23" t="n"/>
+      <c r="E6" s="59" t="n"/>
+      <c r="F6" s="59" t="n"/>
+      <c r="G6" s="59" t="n"/>
+      <c r="H6" s="59" t="n"/>
+      <c r="I6" s="59" t="n"/>
+      <c r="J6" s="59" t="n"/>
+      <c r="K6" s="59" t="n"/>
+      <c r="L6" s="61" t="n"/>
+      <c r="M6" s="61" t="n"/>
+      <c r="N6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($N$3,0),$M6&gt;=$N$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($O$3,0),$M6&gt;=$O$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($P$3,0),$M6&gt;=$P$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($Q$3,0),$M6&gt;=$Q$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($R$3,0),$M6&gt;=$R$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($S$3,0),$M6&gt;=$S$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($T$3,0),$M6&gt;=$T$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($U$3,0),$M6&gt;=$U$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($V$3,0),$M6&gt;=$V$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($W$3,0),$M6&gt;=$W$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($X$3,0),$M6&gt;=$X$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($Y$3,0),$M6&gt;=$Y$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($Z$3,0),$M6&gt;=$Z$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AA$3,0),$M6&gt;=$AA$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AB$3,0),$M6&gt;=$AB$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AC$3,0),$M6&gt;=$AC$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AD$3,0),$M6&gt;=$AD$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AE$3,0),$M6&gt;=$AE$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AF$3,0),$M6&gt;=$AF$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AG$3,0),$M6&gt;=$AG$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AH$3,0),$M6&gt;=$AH$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AI$3,0),$M6&gt;=$AI$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AJ$3,0),$M6&gt;=$AJ$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK6" s="62">
+        <f>IF(OR($L6="",$M6=""),"",IF(AND($L6&lt;=EOMONTH($AK$3,0),$M6&gt;=$AK$3),IF($D6&lt;&gt;"",$D6,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL6" s="23" t="n"/>
       <c r="AM6" s="23" t="n"/>
       <c r="AN6" s="23" t="n"/>
@@ -1655,69 +2122,133 @@
       <c r="BB6" s="23" t="n"/>
     </row>
     <row r="7" ht="45.5" customHeight="1">
-      <c r="A7" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="A7" s="59" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="59" t="inlineStr">
         <is>
-          <t>HSCR01</t>
+          <t>MOT0300</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Dự án NC trạm sạc và thay pin cho Robot VMO</t>
+          <t>Dự án phát triển Motion 3</t>
         </is>
       </c>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="inlineStr">
+      <c r="D7" s="59" t="n"/>
+      <c r="E7" s="59" t="n"/>
+      <c r="F7" s="59" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G7" s="14" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="14" t="n"/>
-      <c r="J7" s="14" t="inlineStr">
+      <c r="G7" s="59" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="K7" s="14" t="n"/>
-      <c r="L7" s="16" t="n"/>
-      <c r="M7" s="16" t="n"/>
-      <c r="N7" s="14" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="O7" s="15" t="n"/>
-      <c r="P7" s="23" t="n"/>
-      <c r="Q7" s="23" t="n"/>
-      <c r="R7" s="23" t="n"/>
-      <c r="S7" s="23" t="n"/>
-      <c r="T7" s="23" t="n"/>
-      <c r="U7" s="23" t="n"/>
-      <c r="V7" s="23" t="n"/>
-      <c r="W7" s="23" t="n"/>
-      <c r="X7" s="23" t="n"/>
-      <c r="Y7" s="23" t="n"/>
-      <c r="Z7" s="23" t="n"/>
-      <c r="AA7" s="23" t="n"/>
-      <c r="AB7" s="23" t="n"/>
-      <c r="AC7" s="23" t="n"/>
-      <c r="AD7" s="23" t="n"/>
-      <c r="AE7" s="23" t="n"/>
-      <c r="AF7" s="23" t="n"/>
-      <c r="AG7" s="23" t="n"/>
-      <c r="AH7" s="23" t="n"/>
-      <c r="AI7" s="23" t="n"/>
-      <c r="AJ7" s="23" t="n"/>
-      <c r="AK7" s="23" t="n"/>
+      <c r="H7" s="59" t="n"/>
+      <c r="I7" s="59" t="n"/>
+      <c r="J7" s="59" t="n"/>
+      <c r="K7" s="59" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($N$3,0),$M7&gt;=$N$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($O$3,0),$M7&gt;=$O$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($P$3,0),$M7&gt;=$P$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($Q$3,0),$M7&gt;=$Q$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($R$3,0),$M7&gt;=$R$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($S$3,0),$M7&gt;=$S$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($T$3,0),$M7&gt;=$T$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($U$3,0),$M7&gt;=$U$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($V$3,0),$M7&gt;=$V$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($W$3,0),$M7&gt;=$W$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($X$3,0),$M7&gt;=$X$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($Y$3,0),$M7&gt;=$Y$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($Z$3,0),$M7&gt;=$Z$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AA$3,0),$M7&gt;=$AA$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AB$3,0),$M7&gt;=$AB$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AC$3,0),$M7&gt;=$AC$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AD$3,0),$M7&gt;=$AD$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AE$3,0),$M7&gt;=$AE$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AF$3,0),$M7&gt;=$AF$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AG$3,0),$M7&gt;=$AG$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AH$3,0),$M7&gt;=$AH$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AI$3,0),$M7&gt;=$AI$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AJ$3,0),$M7&gt;=$AJ$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK7" s="62">
+        <f>IF(OR($L7="",$M7=""),"",IF(AND($L7&lt;=EOMONTH($AK$3,0),$M7&gt;=$AK$3),IF($D7&lt;&gt;"",$D7,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL7" s="23" t="n"/>
       <c r="AM7" s="23" t="n"/>
       <c r="AN7" s="23" t="n"/>
@@ -1737,61 +2268,137 @@
       <c r="BB7" s="23" t="n"/>
     </row>
     <row r="8" ht="45.5" customHeight="1">
-      <c r="A8" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="A8" s="59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="59" t="inlineStr">
         <is>
-          <t>HBR00</t>
+          <t>HSCR01</t>
         </is>
       </c>
-      <c r="C8" s="15" t="inlineStr">
+      <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>Dự án NC bàn tay Robot VMO</t>
+          <t>Dự án NC trạm sạc và thay pin cho Robot VMO</t>
         </is>
       </c>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="14" t="inlineStr">
+      <c r="D8" s="59" t="n"/>
+      <c r="E8" s="59" t="n"/>
+      <c r="F8" s="59" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="14" t="n"/>
-      <c r="L8" s="16" t="n"/>
-      <c r="M8" s="16" t="n"/>
-      <c r="N8" s="14" t="inlineStr">
+      <c r="G8" s="59" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>R</t>
         </is>
       </c>
-      <c r="O8" s="15" t="n"/>
-      <c r="P8" s="23" t="n"/>
-      <c r="Q8" s="23" t="n"/>
-      <c r="R8" s="23" t="n"/>
-      <c r="S8" s="23" t="n"/>
-      <c r="T8" s="23" t="n"/>
-      <c r="U8" s="23" t="n"/>
-      <c r="V8" s="23" t="n"/>
-      <c r="W8" s="23" t="n"/>
-      <c r="X8" s="23" t="n"/>
-      <c r="Y8" s="23" t="n"/>
-      <c r="Z8" s="23" t="n"/>
-      <c r="AA8" s="23" t="n"/>
-      <c r="AB8" s="23" t="n"/>
-      <c r="AC8" s="23" t="n"/>
-      <c r="AD8" s="23" t="n"/>
-      <c r="AE8" s="23" t="n"/>
-      <c r="AF8" s="23" t="n"/>
-      <c r="AG8" s="23" t="n"/>
-      <c r="AH8" s="23" t="n"/>
-      <c r="AI8" s="23" t="n"/>
-      <c r="AJ8" s="23" t="n"/>
-      <c r="AK8" s="23" t="n"/>
+      <c r="H8" s="59" t="n"/>
+      <c r="I8" s="59" t="n"/>
+      <c r="J8" s="59" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K8" s="59" t="n"/>
+      <c r="L8" s="61" t="n"/>
+      <c r="M8" s="61" t="n"/>
+      <c r="N8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($N$3,0),$M8&gt;=$N$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($O$3,0),$M8&gt;=$O$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($P$3,0),$M8&gt;=$P$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($Q$3,0),$M8&gt;=$Q$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($R$3,0),$M8&gt;=$R$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($S$3,0),$M8&gt;=$S$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($T$3,0),$M8&gt;=$T$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($U$3,0),$M8&gt;=$U$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($V$3,0),$M8&gt;=$V$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($W$3,0),$M8&gt;=$W$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($X$3,0),$M8&gt;=$X$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($Y$3,0),$M8&gt;=$Y$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($Z$3,0),$M8&gt;=$Z$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AA$3,0),$M8&gt;=$AA$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AB$3,0),$M8&gt;=$AB$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AC$3,0),$M8&gt;=$AC$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AD$3,0),$M8&gt;=$AD$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AE$3,0),$M8&gt;=$AE$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AF$3,0),$M8&gt;=$AF$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AG$3,0),$M8&gt;=$AG$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AH$3,0),$M8&gt;=$AH$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AI$3,0),$M8&gt;=$AI$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AJ$3,0),$M8&gt;=$AJ$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK8" s="62">
+        <f>IF(OR($L8="",$M8=""),"",IF(AND($L8&lt;=EOMONTH($AK$3,0),$M8&gt;=$AK$3),IF($D8&lt;&gt;"",$D8,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL8" s="23" t="n"/>
       <c r="AM8" s="23" t="n"/>
       <c r="AN8" s="23" t="n"/>
@@ -1811,61 +2418,129 @@
       <c r="BB8" s="23" t="n"/>
     </row>
     <row r="9" ht="45.5" customHeight="1">
-      <c r="A9" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="A9" s="59" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="59" t="inlineStr">
         <is>
-          <t>EMBPC00</t>
+          <t>HBR00</t>
         </is>
       </c>
-      <c r="C9" s="15" t="inlineStr">
+      <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Dự án máy tính nhúng VMO</t>
+          <t>Dự án NC bàn tay Robot VMO</t>
         </is>
       </c>
-      <c r="D9" s="14" t="n"/>
-      <c r="E9" s="14" t="inlineStr">
+      <c r="D9" s="59" t="n"/>
+      <c r="E9" s="59" t="n"/>
+      <c r="F9" s="59" t="n"/>
+      <c r="G9" s="59" t="n"/>
+      <c r="H9" s="59" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="14" t="n"/>
-      <c r="H9" s="14" t="n"/>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="14" t="n"/>
-      <c r="L9" s="16" t="n"/>
-      <c r="M9" s="16" t="n"/>
-      <c r="N9" s="14" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="O9" s="15" t="n"/>
-      <c r="P9" s="23" t="n"/>
-      <c r="Q9" s="23" t="n"/>
-      <c r="R9" s="23" t="n"/>
-      <c r="S9" s="23" t="n"/>
-      <c r="T9" s="23" t="n"/>
-      <c r="U9" s="23" t="n"/>
-      <c r="V9" s="23" t="n"/>
-      <c r="W9" s="23" t="n"/>
-      <c r="X9" s="23" t="n"/>
-      <c r="Y9" s="23" t="n"/>
-      <c r="Z9" s="23" t="n"/>
-      <c r="AA9" s="23" t="n"/>
-      <c r="AB9" s="23" t="n"/>
-      <c r="AC9" s="23" t="n"/>
-      <c r="AD9" s="23" t="n"/>
-      <c r="AE9" s="23" t="n"/>
-      <c r="AF9" s="23" t="n"/>
-      <c r="AG9" s="23" t="n"/>
-      <c r="AH9" s="23" t="n"/>
-      <c r="AI9" s="23" t="n"/>
-      <c r="AJ9" s="23" t="n"/>
-      <c r="AK9" s="23" t="n"/>
+      <c r="I9" s="59" t="n"/>
+      <c r="J9" s="59" t="n"/>
+      <c r="K9" s="59" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($N$3,0),$M9&gt;=$N$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($O$3,0),$M9&gt;=$O$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($P$3,0),$M9&gt;=$P$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($Q$3,0),$M9&gt;=$Q$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($R$3,0),$M9&gt;=$R$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($S$3,0),$M9&gt;=$S$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($T$3,0),$M9&gt;=$T$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($U$3,0),$M9&gt;=$U$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($V$3,0),$M9&gt;=$V$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($W$3,0),$M9&gt;=$W$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($X$3,0),$M9&gt;=$X$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($Y$3,0),$M9&gt;=$Y$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($Z$3,0),$M9&gt;=$Z$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AA$3,0),$M9&gt;=$AA$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AB$3,0),$M9&gt;=$AB$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AC$3,0),$M9&gt;=$AC$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AD$3,0),$M9&gt;=$AD$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AE$3,0),$M9&gt;=$AE$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AF$3,0),$M9&gt;=$AF$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AG$3,0),$M9&gt;=$AG$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AH$3,0),$M9&gt;=$AH$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AI$3,0),$M9&gt;=$AI$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AJ$3,0),$M9&gt;=$AJ$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK9" s="62">
+        <f>IF(OR($L9="",$M9=""),"",IF(AND($L9&lt;=EOMONTH($AK$3,0),$M9&gt;=$AK$3),IF($D9&lt;&gt;"",$D9,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL9" s="23" t="n"/>
       <c r="AM9" s="23" t="n"/>
       <c r="AN9" s="23" t="n"/>
@@ -1885,69 +2560,129 @@
       <c r="BB9" s="23" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="A10" s="59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="59" t="inlineStr">
         <is>
-          <t>HCR00</t>
+          <t>EMBPC00</t>
         </is>
       </c>
-      <c r="C10" s="15" t="inlineStr">
+      <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Dự án tay cầm điều khiển từ xa VMO</t>
+          <t>Dự án máy tính nhúng VMO</t>
         </is>
       </c>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="14" t="inlineStr">
+      <c r="D10" s="59" t="n"/>
+      <c r="E10" s="59" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G10" s="14" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="H10" s="14" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I10" s="14" t="n"/>
-      <c r="J10" s="14" t="n"/>
-      <c r="K10" s="14" t="n"/>
-      <c r="L10" s="16" t="n"/>
-      <c r="M10" s="16" t="n"/>
-      <c r="N10" s="14" t="inlineStr">
-        <is>
-          <t>Plan</t>
-        </is>
-      </c>
-      <c r="O10" s="15" t="n"/>
-      <c r="P10" s="23" t="n"/>
-      <c r="Q10" s="23" t="n"/>
-      <c r="R10" s="23" t="n"/>
-      <c r="S10" s="23" t="n"/>
-      <c r="T10" s="23" t="n"/>
-      <c r="U10" s="23" t="n"/>
-      <c r="V10" s="23" t="n"/>
-      <c r="W10" s="23" t="n"/>
-      <c r="X10" s="23" t="n"/>
-      <c r="Y10" s="23" t="n"/>
-      <c r="Z10" s="23" t="n"/>
-      <c r="AA10" s="23" t="n"/>
-      <c r="AB10" s="23" t="n"/>
-      <c r="AC10" s="23" t="n"/>
-      <c r="AD10" s="23" t="n"/>
-      <c r="AE10" s="23" t="n"/>
-      <c r="AF10" s="23" t="n"/>
-      <c r="AG10" s="23" t="n"/>
-      <c r="AH10" s="23" t="n"/>
-      <c r="AI10" s="23" t="n"/>
-      <c r="AJ10" s="23" t="n"/>
-      <c r="AK10" s="23" t="n"/>
+      <c r="F10" s="59" t="n"/>
+      <c r="G10" s="59" t="n"/>
+      <c r="H10" s="59" t="n"/>
+      <c r="I10" s="59" t="n"/>
+      <c r="J10" s="59" t="n"/>
+      <c r="K10" s="59" t="n"/>
+      <c r="L10" s="61" t="n"/>
+      <c r="M10" s="61" t="n"/>
+      <c r="N10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($N$3,0),$M10&gt;=$N$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($O$3,0),$M10&gt;=$O$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($P$3,0),$M10&gt;=$P$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($Q$3,0),$M10&gt;=$Q$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($R$3,0),$M10&gt;=$R$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($S$3,0),$M10&gt;=$S$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($T$3,0),$M10&gt;=$T$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($U$3,0),$M10&gt;=$U$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($V$3,0),$M10&gt;=$V$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($W$3,0),$M10&gt;=$W$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($X$3,0),$M10&gt;=$X$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($Y$3,0),$M10&gt;=$Y$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($Z$3,0),$M10&gt;=$Z$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AA$3,0),$M10&gt;=$AA$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AB$3,0),$M10&gt;=$AB$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AC$3,0),$M10&gt;=$AC$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AD$3,0),$M10&gt;=$AD$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AE$3,0),$M10&gt;=$AE$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AF$3,0),$M10&gt;=$AF$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AG$3,0),$M10&gt;=$AG$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AH$3,0),$M10&gt;=$AH$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AI$3,0),$M10&gt;=$AI$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AJ$3,0),$M10&gt;=$AJ$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK10" s="62">
+        <f>IF(OR($L10="",$M10=""),"",IF(AND($L10&lt;=EOMONTH($AK$3,0),$M10&gt;=$AK$3),IF($D10&lt;&gt;"",$D10,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL10" s="23" t="n"/>
       <c r="AM10" s="23" t="n"/>
       <c r="AN10" s="23" t="n"/>
@@ -1967,61 +2702,137 @@
       <c r="BB10" s="23" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="A11" s="59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="59" t="inlineStr">
         <is>
-          <t>BATERY00</t>
+          <t>HCR00</t>
         </is>
       </c>
-      <c r="C11" s="15" t="inlineStr">
+      <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Dự án Pack pin cho Robot VMO</t>
+          <t>Dự án tay cầm điều khiển từ xa VMO</t>
         </is>
       </c>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="14" t="n"/>
-      <c r="F11" s="14" t="inlineStr">
+      <c r="D11" s="59" t="n"/>
+      <c r="E11" s="59" t="n"/>
+      <c r="F11" s="59" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G11" s="14" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="14" t="n"/>
-      <c r="J11" s="14" t="n"/>
-      <c r="K11" s="14" t="n"/>
-      <c r="L11" s="16" t="n"/>
-      <c r="M11" s="16" t="n"/>
-      <c r="N11" s="14" t="inlineStr">
+      <c r="G11" s="59" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>S</t>
         </is>
       </c>
-      <c r="O11" s="15" t="n"/>
-      <c r="P11" s="23" t="n"/>
-      <c r="Q11" s="23" t="n"/>
-      <c r="R11" s="23" t="n"/>
-      <c r="S11" s="23" t="n"/>
-      <c r="T11" s="23" t="n"/>
-      <c r="U11" s="23" t="n"/>
-      <c r="V11" s="23" t="n"/>
-      <c r="W11" s="23" t="n"/>
-      <c r="X11" s="23" t="n"/>
-      <c r="Y11" s="23" t="n"/>
-      <c r="Z11" s="23" t="n"/>
-      <c r="AA11" s="23" t="n"/>
-      <c r="AB11" s="23" t="n"/>
-      <c r="AC11" s="23" t="n"/>
-      <c r="AD11" s="23" t="n"/>
-      <c r="AE11" s="23" t="n"/>
-      <c r="AF11" s="23" t="n"/>
-      <c r="AG11" s="23" t="n"/>
-      <c r="AH11" s="23" t="n"/>
-      <c r="AI11" s="23" t="n"/>
-      <c r="AJ11" s="23" t="n"/>
-      <c r="AK11" s="23" t="n"/>
+      <c r="H11" s="59" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I11" s="59" t="n"/>
+      <c r="J11" s="59" t="n"/>
+      <c r="K11" s="59" t="n"/>
+      <c r="L11" s="61" t="n"/>
+      <c r="M11" s="61" t="n"/>
+      <c r="N11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($N$3,0),$M11&gt;=$N$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($O$3,0),$M11&gt;=$O$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($P$3,0),$M11&gt;=$P$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($Q$3,0),$M11&gt;=$Q$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($R$3,0),$M11&gt;=$R$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($S$3,0),$M11&gt;=$S$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($T$3,0),$M11&gt;=$T$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($U$3,0),$M11&gt;=$U$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($V$3,0),$M11&gt;=$V$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($W$3,0),$M11&gt;=$W$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($X$3,0),$M11&gt;=$X$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($Y$3,0),$M11&gt;=$Y$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($Z$3,0),$M11&gt;=$Z$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AA$3,0),$M11&gt;=$AA$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AB$3,0),$M11&gt;=$AB$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AC$3,0),$M11&gt;=$AC$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AD$3,0),$M11&gt;=$AD$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AE$3,0),$M11&gt;=$AE$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AF$3,0),$M11&gt;=$AF$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AG$3,0),$M11&gt;=$AG$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AH$3,0),$M11&gt;=$AH$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AI$3,0),$M11&gt;=$AI$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AJ$3,0),$M11&gt;=$AJ$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK11" s="62">
+        <f>IF(OR($L11="",$M11=""),"",IF(AND($L11&lt;=EOMONTH($AK$3,0),$M11&gt;=$AK$3),IF($D11&lt;&gt;"",$D11,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL11" s="23" t="n"/>
       <c r="AM11" s="23" t="n"/>
       <c r="AN11" s="23" t="n"/>
@@ -2041,43 +2852,129 @@
       <c r="BB11" s="23" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="52" t="n"/>
-      <c r="B12" s="52" t="n"/>
-      <c r="C12" s="53" t="n"/>
-      <c r="D12" s="52" t="n"/>
-      <c r="E12" s="52" t="n"/>
-      <c r="F12" s="52" t="n"/>
-      <c r="G12" s="52" t="n"/>
-      <c r="H12" s="52" t="n"/>
-      <c r="I12" s="52" t="n"/>
-      <c r="J12" s="52" t="n"/>
-      <c r="K12" s="52" t="n"/>
-      <c r="L12" s="54" t="n"/>
-      <c r="M12" s="54" t="n"/>
-      <c r="N12" s="52" t="n"/>
-      <c r="O12" s="53" t="n"/>
-      <c r="P12" s="23" t="n"/>
-      <c r="Q12" s="23" t="n"/>
-      <c r="R12" s="23" t="n"/>
-      <c r="S12" s="23" t="n"/>
-      <c r="T12" s="23" t="n"/>
-      <c r="U12" s="23" t="n"/>
-      <c r="V12" s="23" t="n"/>
-      <c r="W12" s="23" t="n"/>
-      <c r="X12" s="23" t="n"/>
-      <c r="Y12" s="23" t="n"/>
-      <c r="Z12" s="23" t="n"/>
-      <c r="AA12" s="23" t="n"/>
-      <c r="AB12" s="23" t="n"/>
-      <c r="AC12" s="23" t="n"/>
-      <c r="AD12" s="23" t="n"/>
-      <c r="AE12" s="23" t="n"/>
-      <c r="AF12" s="23" t="n"/>
-      <c r="AG12" s="23" t="n"/>
-      <c r="AH12" s="23" t="n"/>
-      <c r="AI12" s="23" t="n"/>
-      <c r="AJ12" s="23" t="n"/>
-      <c r="AK12" s="23" t="n"/>
+      <c r="A12" s="59" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="59" t="inlineStr">
+        <is>
+          <t>BATERY00</t>
+        </is>
+      </c>
+      <c r="C12" s="60" t="inlineStr">
+        <is>
+          <t>Dự án Pack pin cho Robot VMO</t>
+        </is>
+      </c>
+      <c r="D12" s="59" t="n"/>
+      <c r="E12" s="59" t="n"/>
+      <c r="F12" s="59" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G12" s="59" t="n"/>
+      <c r="H12" s="59" t="n"/>
+      <c r="I12" s="59" t="n"/>
+      <c r="J12" s="59" t="n"/>
+      <c r="K12" s="59" t="n"/>
+      <c r="L12" s="61" t="n"/>
+      <c r="M12" s="61" t="n"/>
+      <c r="N12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($N$3,0),$M12&gt;=$N$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($O$3,0),$M12&gt;=$O$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($P$3,0),$M12&gt;=$P$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($Q$3,0),$M12&gt;=$Q$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($R$3,0),$M12&gt;=$R$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($S$3,0),$M12&gt;=$S$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($T$3,0),$M12&gt;=$T$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($U$3,0),$M12&gt;=$U$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($V$3,0),$M12&gt;=$V$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($W$3,0),$M12&gt;=$W$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($X$3,0),$M12&gt;=$X$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($Y$3,0),$M12&gt;=$Y$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($Z$3,0),$M12&gt;=$Z$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AA$3,0),$M12&gt;=$AA$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AB$3,0),$M12&gt;=$AB$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AC$3,0),$M12&gt;=$AC$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AD$3,0),$M12&gt;=$AD$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AE$3,0),$M12&gt;=$AE$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AF$3,0),$M12&gt;=$AF$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AG$3,0),$M12&gt;=$AG$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AH$3,0),$M12&gt;=$AH$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AI$3,0),$M12&gt;=$AI$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AJ$3,0),$M12&gt;=$AJ$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK12" s="62">
+        <f>IF(OR($L12="",$M12=""),"",IF(AND($L12&lt;=EOMONTH($AK$3,0),$M12&gt;=$AK$3),IF($D12&lt;&gt;"",$D12,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL12" s="23" t="n"/>
       <c r="AM12" s="23" t="n"/>
       <c r="AN12" s="23" t="n"/>
@@ -2097,43 +2994,115 @@
       <c r="BB12" s="23" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="52" t="n"/>
-      <c r="B13" s="52" t="n"/>
-      <c r="C13" s="53" t="n"/>
-      <c r="D13" s="52" t="n"/>
-      <c r="E13" s="52" t="n"/>
-      <c r="F13" s="52" t="n"/>
-      <c r="G13" s="52" t="n"/>
-      <c r="H13" s="52" t="n"/>
-      <c r="I13" s="52" t="n"/>
-      <c r="J13" s="52" t="n"/>
-      <c r="K13" s="52" t="n"/>
-      <c r="L13" s="54" t="n"/>
-      <c r="M13" s="54" t="n"/>
-      <c r="N13" s="52" t="n"/>
-      <c r="O13" s="53" t="n"/>
-      <c r="P13" s="23" t="n"/>
-      <c r="Q13" s="23" t="n"/>
-      <c r="R13" s="23" t="n"/>
-      <c r="S13" s="23" t="n"/>
-      <c r="T13" s="23" t="n"/>
-      <c r="U13" s="23" t="n"/>
-      <c r="V13" s="23" t="n"/>
-      <c r="W13" s="23" t="n"/>
-      <c r="X13" s="23" t="n"/>
-      <c r="Y13" s="23" t="n"/>
-      <c r="Z13" s="23" t="n"/>
-      <c r="AA13" s="23" t="n"/>
-      <c r="AB13" s="23" t="n"/>
-      <c r="AC13" s="23" t="n"/>
-      <c r="AD13" s="23" t="n"/>
-      <c r="AE13" s="23" t="n"/>
-      <c r="AF13" s="23" t="n"/>
-      <c r="AG13" s="23" t="n"/>
-      <c r="AH13" s="23" t="n"/>
-      <c r="AI13" s="23" t="n"/>
-      <c r="AJ13" s="23" t="n"/>
-      <c r="AK13" s="23" t="n"/>
+      <c r="A13" s="26" t="n"/>
+      <c r="B13" s="26" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="26" t="n"/>
+      <c r="E13" s="26" t="n"/>
+      <c r="F13" s="26" t="n"/>
+      <c r="G13" s="26" t="n"/>
+      <c r="H13" s="26" t="n"/>
+      <c r="I13" s="26" t="n"/>
+      <c r="J13" s="26" t="n"/>
+      <c r="K13" s="26" t="n"/>
+      <c r="L13" s="63" t="n"/>
+      <c r="M13" s="63" t="n"/>
+      <c r="N13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($N$3,0),$M13&gt;=$N$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($O$3,0),$M13&gt;=$O$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($P$3,0),$M13&gt;=$P$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($Q$3,0),$M13&gt;=$Q$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($R$3,0),$M13&gt;=$R$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($S$3,0),$M13&gt;=$S$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($T$3,0),$M13&gt;=$T$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($U$3,0),$M13&gt;=$U$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($V$3,0),$M13&gt;=$V$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($W$3,0),$M13&gt;=$W$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($X$3,0),$M13&gt;=$X$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($Y$3,0),$M13&gt;=$Y$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($Z$3,0),$M13&gt;=$Z$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AA$3,0),$M13&gt;=$AA$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AB$3,0),$M13&gt;=$AB$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AC$3,0),$M13&gt;=$AC$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AD$3,0),$M13&gt;=$AD$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AE$3,0),$M13&gt;=$AE$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AF$3,0),$M13&gt;=$AF$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AG$3,0),$M13&gt;=$AG$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AH$3,0),$M13&gt;=$AH$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AI$3,0),$M13&gt;=$AI$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AJ$3,0),$M13&gt;=$AJ$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK13" s="62">
+        <f>IF(OR($L13="",$M13=""),"",IF(AND($L13&lt;=EOMONTH($AK$3,0),$M13&gt;=$AK$3),IF($D13&lt;&gt;"",$D13,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL13" s="23" t="n"/>
       <c r="AM13" s="23" t="n"/>
       <c r="AN13" s="23" t="n"/>
@@ -2153,43 +3122,115 @@
       <c r="BB13" s="23" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="52" t="n"/>
-      <c r="B14" s="52" t="n"/>
-      <c r="C14" s="53" t="n"/>
-      <c r="D14" s="52" t="n"/>
-      <c r="E14" s="52" t="n"/>
-      <c r="F14" s="52" t="n"/>
-      <c r="G14" s="52" t="n"/>
-      <c r="H14" s="52" t="n"/>
-      <c r="I14" s="52" t="n"/>
-      <c r="J14" s="52" t="n"/>
-      <c r="K14" s="52" t="n"/>
-      <c r="L14" s="54" t="n"/>
-      <c r="M14" s="54" t="n"/>
-      <c r="N14" s="52" t="n"/>
-      <c r="O14" s="53" t="n"/>
-      <c r="P14" s="23" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="23" t="n"/>
-      <c r="S14" s="23" t="n"/>
-      <c r="T14" s="23" t="n"/>
-      <c r="U14" s="23" t="n"/>
-      <c r="V14" s="23" t="n"/>
-      <c r="W14" s="23" t="n"/>
-      <c r="X14" s="23" t="n"/>
-      <c r="Y14" s="23" t="n"/>
-      <c r="Z14" s="23" t="n"/>
-      <c r="AA14" s="23" t="n"/>
-      <c r="AB14" s="23" t="n"/>
-      <c r="AC14" s="23" t="n"/>
-      <c r="AD14" s="23" t="n"/>
-      <c r="AE14" s="23" t="n"/>
-      <c r="AF14" s="23" t="n"/>
-      <c r="AG14" s="23" t="n"/>
-      <c r="AH14" s="23" t="n"/>
-      <c r="AI14" s="23" t="n"/>
-      <c r="AJ14" s="23" t="n"/>
-      <c r="AK14" s="23" t="n"/>
+      <c r="A14" s="26" t="n"/>
+      <c r="B14" s="26" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="26" t="n"/>
+      <c r="E14" s="26" t="n"/>
+      <c r="F14" s="26" t="n"/>
+      <c r="G14" s="26" t="n"/>
+      <c r="H14" s="26" t="n"/>
+      <c r="I14" s="26" t="n"/>
+      <c r="J14" s="26" t="n"/>
+      <c r="K14" s="26" t="n"/>
+      <c r="L14" s="63" t="n"/>
+      <c r="M14" s="63" t="n"/>
+      <c r="N14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($N$3,0),$M14&gt;=$N$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($O$3,0),$M14&gt;=$O$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($P$3,0),$M14&gt;=$P$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($Q$3,0),$M14&gt;=$Q$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($R$3,0),$M14&gt;=$R$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($S$3,0),$M14&gt;=$S$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($T$3,0),$M14&gt;=$T$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($U$3,0),$M14&gt;=$U$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($V$3,0),$M14&gt;=$V$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($W$3,0),$M14&gt;=$W$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($X$3,0),$M14&gt;=$X$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($Y$3,0),$M14&gt;=$Y$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($Z$3,0),$M14&gt;=$Z$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AA$3,0),$M14&gt;=$AA$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AB$3,0),$M14&gt;=$AB$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AC$3,0),$M14&gt;=$AC$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AD$3,0),$M14&gt;=$AD$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AE$3,0),$M14&gt;=$AE$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AF$3,0),$M14&gt;=$AF$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AG$3,0),$M14&gt;=$AG$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AH$3,0),$M14&gt;=$AH$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AI$3,0),$M14&gt;=$AI$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AJ$3,0),$M14&gt;=$AJ$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK14" s="62">
+        <f>IF(OR($L14="",$M14=""),"",IF(AND($L14&lt;=EOMONTH($AK$3,0),$M14&gt;=$AK$3),IF($D14&lt;&gt;"",$D14,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL14" s="23" t="n"/>
       <c r="AM14" s="23" t="n"/>
       <c r="AN14" s="23" t="n"/>
@@ -2209,43 +3250,115 @@
       <c r="BB14" s="23" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="52" t="n"/>
-      <c r="B15" s="52" t="n"/>
-      <c r="C15" s="53" t="n"/>
-      <c r="D15" s="52" t="n"/>
-      <c r="E15" s="52" t="n"/>
-      <c r="F15" s="52" t="n"/>
-      <c r="G15" s="52" t="n"/>
-      <c r="H15" s="52" t="n"/>
-      <c r="I15" s="52" t="n"/>
-      <c r="J15" s="52" t="n"/>
-      <c r="K15" s="52" t="n"/>
-      <c r="L15" s="54" t="n"/>
-      <c r="M15" s="54" t="n"/>
-      <c r="N15" s="52" t="n"/>
-      <c r="O15" s="53" t="n"/>
-      <c r="P15" s="23" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="23" t="n"/>
-      <c r="S15" s="23" t="n"/>
-      <c r="T15" s="23" t="n"/>
-      <c r="U15" s="23" t="n"/>
-      <c r="V15" s="23" t="n"/>
-      <c r="W15" s="23" t="n"/>
-      <c r="X15" s="23" t="n"/>
-      <c r="Y15" s="23" t="n"/>
-      <c r="Z15" s="23" t="n"/>
-      <c r="AA15" s="23" t="n"/>
-      <c r="AB15" s="23" t="n"/>
-      <c r="AC15" s="23" t="n"/>
-      <c r="AD15" s="23" t="n"/>
-      <c r="AE15" s="23" t="n"/>
-      <c r="AF15" s="23" t="n"/>
-      <c r="AG15" s="23" t="n"/>
-      <c r="AH15" s="23" t="n"/>
-      <c r="AI15" s="23" t="n"/>
-      <c r="AJ15" s="23" t="n"/>
-      <c r="AK15" s="23" t="n"/>
+      <c r="A15" s="26" t="n"/>
+      <c r="B15" s="26" t="n"/>
+      <c r="C15" s="35" t="n"/>
+      <c r="D15" s="26" t="n"/>
+      <c r="E15" s="26" t="n"/>
+      <c r="F15" s="26" t="n"/>
+      <c r="G15" s="26" t="n"/>
+      <c r="H15" s="26" t="n"/>
+      <c r="I15" s="26" t="n"/>
+      <c r="J15" s="26" t="n"/>
+      <c r="K15" s="26" t="n"/>
+      <c r="L15" s="63" t="n"/>
+      <c r="M15" s="63" t="n"/>
+      <c r="N15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($N$3,0),$M15&gt;=$N$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($O$3,0),$M15&gt;=$O$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($P$3,0),$M15&gt;=$P$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($Q$3,0),$M15&gt;=$Q$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($R$3,0),$M15&gt;=$R$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($S$3,0),$M15&gt;=$S$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($T$3,0),$M15&gt;=$T$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($U$3,0),$M15&gt;=$U$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($V$3,0),$M15&gt;=$V$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($W$3,0),$M15&gt;=$W$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($X$3,0),$M15&gt;=$X$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($Y$3,0),$M15&gt;=$Y$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($Z$3,0),$M15&gt;=$Z$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AA$3,0),$M15&gt;=$AA$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AB$3,0),$M15&gt;=$AB$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AC$3,0),$M15&gt;=$AC$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AD$3,0),$M15&gt;=$AD$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AE$3,0),$M15&gt;=$AE$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AF$3,0),$M15&gt;=$AF$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AG$3,0),$M15&gt;=$AG$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AH$3,0),$M15&gt;=$AH$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AI$3,0),$M15&gt;=$AI$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AJ$3,0),$M15&gt;=$AJ$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK15" s="62">
+        <f>IF(OR($L15="",$M15=""),"",IF(AND($L15&lt;=EOMONTH($AK$3,0),$M15&gt;=$AK$3),IF($D15&lt;&gt;"",$D15,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL15" s="23" t="n"/>
       <c r="AM15" s="23" t="n"/>
       <c r="AN15" s="23" t="n"/>
@@ -2265,43 +3378,115 @@
       <c r="BB15" s="23" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="52" t="n"/>
-      <c r="B16" s="52" t="n"/>
-      <c r="C16" s="53" t="n"/>
-      <c r="D16" s="52" t="n"/>
-      <c r="E16" s="52" t="n"/>
-      <c r="F16" s="52" t="n"/>
-      <c r="G16" s="52" t="n"/>
-      <c r="H16" s="52" t="n"/>
-      <c r="I16" s="52" t="n"/>
-      <c r="J16" s="52" t="n"/>
-      <c r="K16" s="52" t="n"/>
-      <c r="L16" s="54" t="n"/>
-      <c r="M16" s="54" t="n"/>
-      <c r="N16" s="52" t="n"/>
-      <c r="O16" s="53" t="n"/>
-      <c r="P16" s="23" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="23" t="n"/>
-      <c r="S16" s="23" t="n"/>
-      <c r="T16" s="23" t="n"/>
-      <c r="U16" s="23" t="n"/>
-      <c r="V16" s="23" t="n"/>
-      <c r="W16" s="23" t="n"/>
-      <c r="X16" s="23" t="n"/>
-      <c r="Y16" s="23" t="n"/>
-      <c r="Z16" s="23" t="n"/>
-      <c r="AA16" s="23" t="n"/>
-      <c r="AB16" s="23" t="n"/>
-      <c r="AC16" s="23" t="n"/>
-      <c r="AD16" s="23" t="n"/>
-      <c r="AE16" s="23" t="n"/>
-      <c r="AF16" s="23" t="n"/>
-      <c r="AG16" s="23" t="n"/>
-      <c r="AH16" s="23" t="n"/>
-      <c r="AI16" s="23" t="n"/>
-      <c r="AJ16" s="23" t="n"/>
-      <c r="AK16" s="23" t="n"/>
+      <c r="A16" s="26" t="n"/>
+      <c r="B16" s="26" t="n"/>
+      <c r="C16" s="35" t="n"/>
+      <c r="D16" s="26" t="n"/>
+      <c r="E16" s="26" t="n"/>
+      <c r="F16" s="26" t="n"/>
+      <c r="G16" s="26" t="n"/>
+      <c r="H16" s="26" t="n"/>
+      <c r="I16" s="26" t="n"/>
+      <c r="J16" s="26" t="n"/>
+      <c r="K16" s="26" t="n"/>
+      <c r="L16" s="63" t="n"/>
+      <c r="M16" s="63" t="n"/>
+      <c r="N16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($N$3,0),$M16&gt;=$N$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($O$3,0),$M16&gt;=$O$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($P$3,0),$M16&gt;=$P$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($Q$3,0),$M16&gt;=$Q$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($R$3,0),$M16&gt;=$R$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($S$3,0),$M16&gt;=$S$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($T$3,0),$M16&gt;=$T$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($U$3,0),$M16&gt;=$U$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($V$3,0),$M16&gt;=$V$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($W$3,0),$M16&gt;=$W$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($X$3,0),$M16&gt;=$X$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($Y$3,0),$M16&gt;=$Y$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($Z$3,0),$M16&gt;=$Z$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AA$3,0),$M16&gt;=$AA$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AB$3,0),$M16&gt;=$AB$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AC$3,0),$M16&gt;=$AC$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AD$3,0),$M16&gt;=$AD$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AE$3,0),$M16&gt;=$AE$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AF$3,0),$M16&gt;=$AF$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AG$3,0),$M16&gt;=$AG$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AH$3,0),$M16&gt;=$AH$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AI$3,0),$M16&gt;=$AI$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AJ$3,0),$M16&gt;=$AJ$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK16" s="62">
+        <f>IF(OR($L16="",$M16=""),"",IF(AND($L16&lt;=EOMONTH($AK$3,0),$M16&gt;=$AK$3),IF($D16&lt;&gt;"",$D16,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL16" s="23" t="n"/>
       <c r="AM16" s="23" t="n"/>
       <c r="AN16" s="23" t="n"/>
@@ -2321,43 +3506,115 @@
       <c r="BB16" s="23" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="52" t="n"/>
-      <c r="B17" s="52" t="n"/>
-      <c r="C17" s="53" t="n"/>
-      <c r="D17" s="52" t="n"/>
-      <c r="E17" s="52" t="n"/>
-      <c r="F17" s="52" t="n"/>
-      <c r="G17" s="52" t="n"/>
-      <c r="H17" s="52" t="n"/>
-      <c r="I17" s="52" t="n"/>
-      <c r="J17" s="52" t="n"/>
-      <c r="K17" s="52" t="n"/>
-      <c r="L17" s="54" t="n"/>
-      <c r="M17" s="54" t="n"/>
-      <c r="N17" s="52" t="n"/>
-      <c r="O17" s="53" t="n"/>
-      <c r="P17" s="23" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="23" t="n"/>
-      <c r="S17" s="23" t="n"/>
-      <c r="T17" s="23" t="n"/>
-      <c r="U17" s="23" t="n"/>
-      <c r="V17" s="23" t="n"/>
-      <c r="W17" s="23" t="n"/>
-      <c r="X17" s="23" t="n"/>
-      <c r="Y17" s="23" t="n"/>
-      <c r="Z17" s="23" t="n"/>
-      <c r="AA17" s="23" t="n"/>
-      <c r="AB17" s="23" t="n"/>
-      <c r="AC17" s="23" t="n"/>
-      <c r="AD17" s="23" t="n"/>
-      <c r="AE17" s="23" t="n"/>
-      <c r="AF17" s="23" t="n"/>
-      <c r="AG17" s="23" t="n"/>
-      <c r="AH17" s="23" t="n"/>
-      <c r="AI17" s="23" t="n"/>
-      <c r="AJ17" s="23" t="n"/>
-      <c r="AK17" s="23" t="n"/>
+      <c r="A17" s="26" t="n"/>
+      <c r="B17" s="26" t="n"/>
+      <c r="C17" s="35" t="n"/>
+      <c r="D17" s="26" t="n"/>
+      <c r="E17" s="26" t="n"/>
+      <c r="F17" s="26" t="n"/>
+      <c r="G17" s="26" t="n"/>
+      <c r="H17" s="26" t="n"/>
+      <c r="I17" s="26" t="n"/>
+      <c r="J17" s="26" t="n"/>
+      <c r="K17" s="26" t="n"/>
+      <c r="L17" s="63" t="n"/>
+      <c r="M17" s="63" t="n"/>
+      <c r="N17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($N$3,0),$M17&gt;=$N$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($O$3,0),$M17&gt;=$O$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($P$3,0),$M17&gt;=$P$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($Q$3,0),$M17&gt;=$Q$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($R$3,0),$M17&gt;=$R$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($S$3,0),$M17&gt;=$S$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($T$3,0),$M17&gt;=$T$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($U$3,0),$M17&gt;=$U$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($V$3,0),$M17&gt;=$V$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($W$3,0),$M17&gt;=$W$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($X$3,0),$M17&gt;=$X$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($Y$3,0),$M17&gt;=$Y$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($Z$3,0),$M17&gt;=$Z$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AA$3,0),$M17&gt;=$AA$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AB$3,0),$M17&gt;=$AB$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AC$3,0),$M17&gt;=$AC$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AD$3,0),$M17&gt;=$AD$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AE$3,0),$M17&gt;=$AE$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AF$3,0),$M17&gt;=$AF$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AG$3,0),$M17&gt;=$AG$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AH$3,0),$M17&gt;=$AH$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AI$3,0),$M17&gt;=$AI$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AJ$3,0),$M17&gt;=$AJ$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK17" s="62">
+        <f>IF(OR($L17="",$M17=""),"",IF(AND($L17&lt;=EOMONTH($AK$3,0),$M17&gt;=$AK$3),IF($D17&lt;&gt;"",$D17,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL17" s="23" t="n"/>
       <c r="AM17" s="23" t="n"/>
       <c r="AN17" s="23" t="n"/>
@@ -2377,43 +3634,115 @@
       <c r="BB17" s="23" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="n"/>
-      <c r="B18" s="52" t="n"/>
-      <c r="C18" s="53" t="n"/>
-      <c r="D18" s="52" t="n"/>
-      <c r="E18" s="52" t="n"/>
-      <c r="F18" s="52" t="n"/>
-      <c r="G18" s="52" t="n"/>
-      <c r="H18" s="52" t="n"/>
-      <c r="I18" s="52" t="n"/>
-      <c r="J18" s="52" t="n"/>
-      <c r="K18" s="52" t="n"/>
-      <c r="L18" s="54" t="n"/>
-      <c r="M18" s="54" t="n"/>
-      <c r="N18" s="52" t="n"/>
-      <c r="O18" s="53" t="n"/>
-      <c r="P18" s="23" t="n"/>
-      <c r="Q18" s="23" t="n"/>
-      <c r="R18" s="23" t="n"/>
-      <c r="S18" s="23" t="n"/>
-      <c r="T18" s="23" t="n"/>
-      <c r="U18" s="23" t="n"/>
-      <c r="V18" s="23" t="n"/>
-      <c r="W18" s="23" t="n"/>
-      <c r="X18" s="23" t="n"/>
-      <c r="Y18" s="23" t="n"/>
-      <c r="Z18" s="23" t="n"/>
-      <c r="AA18" s="23" t="n"/>
-      <c r="AB18" s="23" t="n"/>
-      <c r="AC18" s="23" t="n"/>
-      <c r="AD18" s="23" t="n"/>
-      <c r="AE18" s="23" t="n"/>
-      <c r="AF18" s="23" t="n"/>
-      <c r="AG18" s="23" t="n"/>
-      <c r="AH18" s="23" t="n"/>
-      <c r="AI18" s="23" t="n"/>
-      <c r="AJ18" s="23" t="n"/>
-      <c r="AK18" s="23" t="n"/>
+      <c r="A18" s="26" t="n"/>
+      <c r="B18" s="26" t="n"/>
+      <c r="C18" s="35" t="n"/>
+      <c r="D18" s="26" t="n"/>
+      <c r="E18" s="26" t="n"/>
+      <c r="F18" s="26" t="n"/>
+      <c r="G18" s="26" t="n"/>
+      <c r="H18" s="26" t="n"/>
+      <c r="I18" s="26" t="n"/>
+      <c r="J18" s="26" t="n"/>
+      <c r="K18" s="26" t="n"/>
+      <c r="L18" s="63" t="n"/>
+      <c r="M18" s="63" t="n"/>
+      <c r="N18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($N$3,0),$M18&gt;=$N$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($O$3,0),$M18&gt;=$O$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($P$3,0),$M18&gt;=$P$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($Q$3,0),$M18&gt;=$Q$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($R$3,0),$M18&gt;=$R$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($S$3,0),$M18&gt;=$S$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($T$3,0),$M18&gt;=$T$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($U$3,0),$M18&gt;=$U$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($V$3,0),$M18&gt;=$V$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($W$3,0),$M18&gt;=$W$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($X$3,0),$M18&gt;=$X$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($Y$3,0),$M18&gt;=$Y$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($Z$3,0),$M18&gt;=$Z$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AA$3,0),$M18&gt;=$AA$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AB$3,0),$M18&gt;=$AB$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AC$3,0),$M18&gt;=$AC$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AD$3,0),$M18&gt;=$AD$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AE$3,0),$M18&gt;=$AE$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AF$3,0),$M18&gt;=$AF$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AG$3,0),$M18&gt;=$AG$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AH$3,0),$M18&gt;=$AH$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AI$3,0),$M18&gt;=$AI$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AJ$3,0),$M18&gt;=$AJ$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK18" s="62">
+        <f>IF(OR($L18="",$M18=""),"",IF(AND($L18&lt;=EOMONTH($AK$3,0),$M18&gt;=$AK$3),IF($D18&lt;&gt;"",$D18,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL18" s="23" t="n"/>
       <c r="AM18" s="23" t="n"/>
       <c r="AN18" s="23" t="n"/>
@@ -2433,43 +3762,115 @@
       <c r="BB18" s="23" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="52" t="n"/>
-      <c r="B19" s="52" t="n"/>
-      <c r="C19" s="53" t="n"/>
-      <c r="D19" s="52" t="n"/>
-      <c r="E19" s="52" t="n"/>
-      <c r="F19" s="52" t="n"/>
-      <c r="G19" s="52" t="n"/>
-      <c r="H19" s="52" t="n"/>
-      <c r="I19" s="52" t="n"/>
-      <c r="J19" s="52" t="n"/>
-      <c r="K19" s="52" t="n"/>
-      <c r="L19" s="54" t="n"/>
-      <c r="M19" s="54" t="n"/>
-      <c r="N19" s="52" t="n"/>
-      <c r="O19" s="53" t="n"/>
-      <c r="P19" s="23" t="n"/>
-      <c r="Q19" s="23" t="n"/>
-      <c r="R19" s="23" t="n"/>
-      <c r="S19" s="23" t="n"/>
-      <c r="T19" s="23" t="n"/>
-      <c r="U19" s="23" t="n"/>
-      <c r="V19" s="23" t="n"/>
-      <c r="W19" s="23" t="n"/>
-      <c r="X19" s="23" t="n"/>
-      <c r="Y19" s="23" t="n"/>
-      <c r="Z19" s="23" t="n"/>
-      <c r="AA19" s="23" t="n"/>
-      <c r="AB19" s="23" t="n"/>
-      <c r="AC19" s="23" t="n"/>
-      <c r="AD19" s="23" t="n"/>
-      <c r="AE19" s="23" t="n"/>
-      <c r="AF19" s="23" t="n"/>
-      <c r="AG19" s="23" t="n"/>
-      <c r="AH19" s="23" t="n"/>
-      <c r="AI19" s="23" t="n"/>
-      <c r="AJ19" s="23" t="n"/>
-      <c r="AK19" s="23" t="n"/>
+      <c r="A19" s="26" t="n"/>
+      <c r="B19" s="26" t="n"/>
+      <c r="C19" s="35" t="n"/>
+      <c r="D19" s="26" t="n"/>
+      <c r="E19" s="26" t="n"/>
+      <c r="F19" s="26" t="n"/>
+      <c r="G19" s="26" t="n"/>
+      <c r="H19" s="26" t="n"/>
+      <c r="I19" s="26" t="n"/>
+      <c r="J19" s="26" t="n"/>
+      <c r="K19" s="26" t="n"/>
+      <c r="L19" s="63" t="n"/>
+      <c r="M19" s="63" t="n"/>
+      <c r="N19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($N$3,0),$M19&gt;=$N$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($O$3,0),$M19&gt;=$O$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($P$3,0),$M19&gt;=$P$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($Q$3,0),$M19&gt;=$Q$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($R$3,0),$M19&gt;=$R$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($S$3,0),$M19&gt;=$S$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($T$3,0),$M19&gt;=$T$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($U$3,0),$M19&gt;=$U$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($V$3,0),$M19&gt;=$V$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($W$3,0),$M19&gt;=$W$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($X$3,0),$M19&gt;=$X$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($Y$3,0),$M19&gt;=$Y$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($Z$3,0),$M19&gt;=$Z$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AA$3,0),$M19&gt;=$AA$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AB$3,0),$M19&gt;=$AB$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AC$3,0),$M19&gt;=$AC$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AD$3,0),$M19&gt;=$AD$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AE$3,0),$M19&gt;=$AE$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AF$3,0),$M19&gt;=$AF$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AG$3,0),$M19&gt;=$AG$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AH$3,0),$M19&gt;=$AH$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AI$3,0),$M19&gt;=$AI$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AJ$3,0),$M19&gt;=$AJ$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK19" s="62">
+        <f>IF(OR($L19="",$M19=""),"",IF(AND($L19&lt;=EOMONTH($AK$3,0),$M19&gt;=$AK$3),IF($D19&lt;&gt;"",$D19,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL19" s="23" t="n"/>
       <c r="AM19" s="23" t="n"/>
       <c r="AN19" s="23" t="n"/>
@@ -2489,43 +3890,115 @@
       <c r="BB19" s="23" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="52" t="n"/>
-      <c r="B20" s="52" t="n"/>
-      <c r="C20" s="53" t="n"/>
-      <c r="D20" s="52" t="n"/>
-      <c r="E20" s="52" t="n"/>
-      <c r="F20" s="52" t="n"/>
-      <c r="G20" s="52" t="n"/>
-      <c r="H20" s="52" t="n"/>
-      <c r="I20" s="52" t="n"/>
-      <c r="J20" s="52" t="n"/>
-      <c r="K20" s="52" t="n"/>
-      <c r="L20" s="54" t="n"/>
-      <c r="M20" s="54" t="n"/>
-      <c r="N20" s="52" t="n"/>
-      <c r="O20" s="53" t="n"/>
-      <c r="P20" s="23" t="n"/>
-      <c r="Q20" s="23" t="n"/>
-      <c r="R20" s="23" t="n"/>
-      <c r="S20" s="23" t="n"/>
-      <c r="T20" s="23" t="n"/>
-      <c r="U20" s="23" t="n"/>
-      <c r="V20" s="23" t="n"/>
-      <c r="W20" s="23" t="n"/>
-      <c r="X20" s="23" t="n"/>
-      <c r="Y20" s="23" t="n"/>
-      <c r="Z20" s="23" t="n"/>
-      <c r="AA20" s="23" t="n"/>
-      <c r="AB20" s="23" t="n"/>
-      <c r="AC20" s="23" t="n"/>
-      <c r="AD20" s="23" t="n"/>
-      <c r="AE20" s="23" t="n"/>
-      <c r="AF20" s="23" t="n"/>
-      <c r="AG20" s="23" t="n"/>
-      <c r="AH20" s="23" t="n"/>
-      <c r="AI20" s="23" t="n"/>
-      <c r="AJ20" s="23" t="n"/>
-      <c r="AK20" s="23" t="n"/>
+      <c r="A20" s="26" t="n"/>
+      <c r="B20" s="26" t="n"/>
+      <c r="C20" s="35" t="n"/>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="26" t="n"/>
+      <c r="F20" s="26" t="n"/>
+      <c r="G20" s="26" t="n"/>
+      <c r="H20" s="26" t="n"/>
+      <c r="I20" s="26" t="n"/>
+      <c r="J20" s="26" t="n"/>
+      <c r="K20" s="26" t="n"/>
+      <c r="L20" s="63" t="n"/>
+      <c r="M20" s="63" t="n"/>
+      <c r="N20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($N$3,0),$M20&gt;=$N$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($O$3,0),$M20&gt;=$O$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($P$3,0),$M20&gt;=$P$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($Q$3,0),$M20&gt;=$Q$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($R$3,0),$M20&gt;=$R$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($S$3,0),$M20&gt;=$S$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($T$3,0),$M20&gt;=$T$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($U$3,0),$M20&gt;=$U$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($V$3,0),$M20&gt;=$V$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($W$3,0),$M20&gt;=$W$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($X$3,0),$M20&gt;=$X$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($Y$3,0),$M20&gt;=$Y$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($Z$3,0),$M20&gt;=$Z$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AA$3,0),$M20&gt;=$AA$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AB$3,0),$M20&gt;=$AB$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AC$3,0),$M20&gt;=$AC$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AD$3,0),$M20&gt;=$AD$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AE$3,0),$M20&gt;=$AE$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AF$3,0),$M20&gt;=$AF$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AG$3,0),$M20&gt;=$AG$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AH$3,0),$M20&gt;=$AH$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AI$3,0),$M20&gt;=$AI$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AJ$3,0),$M20&gt;=$AJ$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK20" s="62">
+        <f>IF(OR($L20="",$M20=""),"",IF(AND($L20&lt;=EOMONTH($AK$3,0),$M20&gt;=$AK$3),IF($D20&lt;&gt;"",$D20,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL20" s="23" t="n"/>
       <c r="AM20" s="23" t="n"/>
       <c r="AN20" s="23" t="n"/>
@@ -2545,43 +4018,115 @@
       <c r="BB20" s="23" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="52" t="n"/>
-      <c r="B21" s="52" t="n"/>
-      <c r="C21" s="53" t="n"/>
-      <c r="D21" s="52" t="n"/>
-      <c r="E21" s="52" t="n"/>
-      <c r="F21" s="52" t="n"/>
-      <c r="G21" s="52" t="n"/>
-      <c r="H21" s="52" t="n"/>
-      <c r="I21" s="52" t="n"/>
-      <c r="J21" s="52" t="n"/>
-      <c r="K21" s="52" t="n"/>
-      <c r="L21" s="54" t="n"/>
-      <c r="M21" s="54" t="n"/>
-      <c r="N21" s="52" t="n"/>
-      <c r="O21" s="53" t="n"/>
-      <c r="P21" s="23" t="n"/>
-      <c r="Q21" s="23" t="n"/>
-      <c r="R21" s="23" t="n"/>
-      <c r="S21" s="23" t="n"/>
-      <c r="T21" s="23" t="n"/>
-      <c r="U21" s="23" t="n"/>
-      <c r="V21" s="23" t="n"/>
-      <c r="W21" s="23" t="n"/>
-      <c r="X21" s="23" t="n"/>
-      <c r="Y21" s="23" t="n"/>
-      <c r="Z21" s="23" t="n"/>
-      <c r="AA21" s="23" t="n"/>
-      <c r="AB21" s="23" t="n"/>
-      <c r="AC21" s="23" t="n"/>
-      <c r="AD21" s="23" t="n"/>
-      <c r="AE21" s="23" t="n"/>
-      <c r="AF21" s="23" t="n"/>
-      <c r="AG21" s="23" t="n"/>
-      <c r="AH21" s="23" t="n"/>
-      <c r="AI21" s="23" t="n"/>
-      <c r="AJ21" s="23" t="n"/>
-      <c r="AK21" s="23" t="n"/>
+      <c r="A21" s="26" t="n"/>
+      <c r="B21" s="26" t="n"/>
+      <c r="C21" s="35" t="n"/>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="26" t="n"/>
+      <c r="F21" s="26" t="n"/>
+      <c r="G21" s="26" t="n"/>
+      <c r="H21" s="26" t="n"/>
+      <c r="I21" s="26" t="n"/>
+      <c r="J21" s="26" t="n"/>
+      <c r="K21" s="26" t="n"/>
+      <c r="L21" s="63" t="n"/>
+      <c r="M21" s="63" t="n"/>
+      <c r="N21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($N$3,0),$M21&gt;=$N$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($O$3,0),$M21&gt;=$O$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($P$3,0),$M21&gt;=$P$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($Q$3,0),$M21&gt;=$Q$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($R$3,0),$M21&gt;=$R$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($S$3,0),$M21&gt;=$S$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($T$3,0),$M21&gt;=$T$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($U$3,0),$M21&gt;=$U$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($V$3,0),$M21&gt;=$V$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($W$3,0),$M21&gt;=$W$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($X$3,0),$M21&gt;=$X$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($Y$3,0),$M21&gt;=$Y$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($Z$3,0),$M21&gt;=$Z$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AA$3,0),$M21&gt;=$AA$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AB$3,0),$M21&gt;=$AB$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AC$3,0),$M21&gt;=$AC$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AD$3,0),$M21&gt;=$AD$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AE$3,0),$M21&gt;=$AE$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AF$3,0),$M21&gt;=$AF$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AG$3,0),$M21&gt;=$AG$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AH$3,0),$M21&gt;=$AH$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AI$3,0),$M21&gt;=$AI$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AJ$3,0),$M21&gt;=$AJ$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK21" s="62">
+        <f>IF(OR($L21="",$M21=""),"",IF(AND($L21&lt;=EOMONTH($AK$3,0),$M21&gt;=$AK$3),IF($D21&lt;&gt;"",$D21,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL21" s="23" t="n"/>
       <c r="AM21" s="23" t="n"/>
       <c r="AN21" s="23" t="n"/>
@@ -2601,43 +4146,115 @@
       <c r="BB21" s="23" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="52" t="n"/>
-      <c r="B22" s="52" t="n"/>
-      <c r="C22" s="53" t="n"/>
-      <c r="D22" s="52" t="n"/>
-      <c r="E22" s="52" t="n"/>
-      <c r="F22" s="52" t="n"/>
-      <c r="G22" s="52" t="n"/>
-      <c r="H22" s="52" t="n"/>
-      <c r="I22" s="52" t="n"/>
-      <c r="J22" s="52" t="n"/>
-      <c r="K22" s="52" t="n"/>
-      <c r="L22" s="54" t="n"/>
-      <c r="M22" s="54" t="n"/>
-      <c r="N22" s="52" t="n"/>
-      <c r="O22" s="53" t="n"/>
-      <c r="P22" s="23" t="n"/>
-      <c r="Q22" s="23" t="n"/>
-      <c r="R22" s="23" t="n"/>
-      <c r="S22" s="23" t="n"/>
-      <c r="T22" s="23" t="n"/>
-      <c r="U22" s="23" t="n"/>
-      <c r="V22" s="23" t="n"/>
-      <c r="W22" s="23" t="n"/>
-      <c r="X22" s="23" t="n"/>
-      <c r="Y22" s="23" t="n"/>
-      <c r="Z22" s="23" t="n"/>
-      <c r="AA22" s="23" t="n"/>
-      <c r="AB22" s="23" t="n"/>
-      <c r="AC22" s="23" t="n"/>
-      <c r="AD22" s="23" t="n"/>
-      <c r="AE22" s="23" t="n"/>
-      <c r="AF22" s="23" t="n"/>
-      <c r="AG22" s="23" t="n"/>
-      <c r="AH22" s="23" t="n"/>
-      <c r="AI22" s="23" t="n"/>
-      <c r="AJ22" s="23" t="n"/>
-      <c r="AK22" s="23" t="n"/>
+      <c r="A22" s="26" t="n"/>
+      <c r="B22" s="26" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="26" t="n"/>
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="26" t="n"/>
+      <c r="G22" s="26" t="n"/>
+      <c r="H22" s="26" t="n"/>
+      <c r="I22" s="26" t="n"/>
+      <c r="J22" s="26" t="n"/>
+      <c r="K22" s="26" t="n"/>
+      <c r="L22" s="63" t="n"/>
+      <c r="M22" s="63" t="n"/>
+      <c r="N22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($N$3,0),$M22&gt;=$N$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($O$3,0),$M22&gt;=$O$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($P$3,0),$M22&gt;=$P$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($Q$3,0),$M22&gt;=$Q$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($R$3,0),$M22&gt;=$R$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($S$3,0),$M22&gt;=$S$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($T$3,0),$M22&gt;=$T$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($U$3,0),$M22&gt;=$U$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($V$3,0),$M22&gt;=$V$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($W$3,0),$M22&gt;=$W$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($X$3,0),$M22&gt;=$X$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($Y$3,0),$M22&gt;=$Y$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($Z$3,0),$M22&gt;=$Z$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AA$3,0),$M22&gt;=$AA$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AB$3,0),$M22&gt;=$AB$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AC$3,0),$M22&gt;=$AC$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AD$3,0),$M22&gt;=$AD$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AE$3,0),$M22&gt;=$AE$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AF$3,0),$M22&gt;=$AF$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AG$3,0),$M22&gt;=$AG$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AH$3,0),$M22&gt;=$AH$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AI$3,0),$M22&gt;=$AI$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AJ$3,0),$M22&gt;=$AJ$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK22" s="62">
+        <f>IF(OR($L22="",$M22=""),"",IF(AND($L22&lt;=EOMONTH($AK$3,0),$M22&gt;=$AK$3),IF($D22&lt;&gt;"",$D22,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL22" s="23" t="n"/>
       <c r="AM22" s="23" t="n"/>
       <c r="AN22" s="23" t="n"/>
@@ -2657,43 +4274,115 @@
       <c r="BB22" s="23" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="52" t="n"/>
-      <c r="B23" s="52" t="n"/>
-      <c r="C23" s="53" t="n"/>
-      <c r="D23" s="52" t="n"/>
-      <c r="E23" s="52" t="n"/>
-      <c r="F23" s="52" t="n"/>
-      <c r="G23" s="52" t="n"/>
-      <c r="H23" s="52" t="n"/>
-      <c r="I23" s="52" t="n"/>
-      <c r="J23" s="52" t="n"/>
-      <c r="K23" s="52" t="n"/>
-      <c r="L23" s="54" t="n"/>
-      <c r="M23" s="54" t="n"/>
-      <c r="N23" s="52" t="n"/>
-      <c r="O23" s="53" t="n"/>
-      <c r="P23" s="23" t="n"/>
-      <c r="Q23" s="23" t="n"/>
-      <c r="R23" s="23" t="n"/>
-      <c r="S23" s="23" t="n"/>
-      <c r="T23" s="23" t="n"/>
-      <c r="U23" s="23" t="n"/>
-      <c r="V23" s="23" t="n"/>
-      <c r="W23" s="23" t="n"/>
-      <c r="X23" s="23" t="n"/>
-      <c r="Y23" s="23" t="n"/>
-      <c r="Z23" s="23" t="n"/>
-      <c r="AA23" s="23" t="n"/>
-      <c r="AB23" s="23" t="n"/>
-      <c r="AC23" s="23" t="n"/>
-      <c r="AD23" s="23" t="n"/>
-      <c r="AE23" s="23" t="n"/>
-      <c r="AF23" s="23" t="n"/>
-      <c r="AG23" s="23" t="n"/>
-      <c r="AH23" s="23" t="n"/>
-      <c r="AI23" s="23" t="n"/>
-      <c r="AJ23" s="23" t="n"/>
-      <c r="AK23" s="23" t="n"/>
+      <c r="A23" s="26" t="n"/>
+      <c r="B23" s="26" t="n"/>
+      <c r="C23" s="35" t="n"/>
+      <c r="D23" s="26" t="n"/>
+      <c r="E23" s="26" t="n"/>
+      <c r="F23" s="26" t="n"/>
+      <c r="G23" s="26" t="n"/>
+      <c r="H23" s="26" t="n"/>
+      <c r="I23" s="26" t="n"/>
+      <c r="J23" s="26" t="n"/>
+      <c r="K23" s="26" t="n"/>
+      <c r="L23" s="63" t="n"/>
+      <c r="M23" s="63" t="n"/>
+      <c r="N23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($N$3,0),$M23&gt;=$N$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($O$3,0),$M23&gt;=$O$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($P$3,0),$M23&gt;=$P$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($Q$3,0),$M23&gt;=$Q$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($R$3,0),$M23&gt;=$R$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($S$3,0),$M23&gt;=$S$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($T$3,0),$M23&gt;=$T$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($U$3,0),$M23&gt;=$U$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($V$3,0),$M23&gt;=$V$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($W$3,0),$M23&gt;=$W$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($X$3,0),$M23&gt;=$X$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($Y$3,0),$M23&gt;=$Y$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($Z$3,0),$M23&gt;=$Z$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AA$3,0),$M23&gt;=$AA$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AB$3,0),$M23&gt;=$AB$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AC$3,0),$M23&gt;=$AC$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AD$3,0),$M23&gt;=$AD$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AE$3,0),$M23&gt;=$AE$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AF$3,0),$M23&gt;=$AF$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AG$3,0),$M23&gt;=$AG$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AH$3,0),$M23&gt;=$AH$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AI$3,0),$M23&gt;=$AI$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AJ$3,0),$M23&gt;=$AJ$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK23" s="62">
+        <f>IF(OR($L23="",$M23=""),"",IF(AND($L23&lt;=EOMONTH($AK$3,0),$M23&gt;=$AK$3),IF($D23&lt;&gt;"",$D23,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL23" s="23" t="n"/>
       <c r="AM23" s="23" t="n"/>
       <c r="AN23" s="23" t="n"/>
@@ -2713,43 +4402,115 @@
       <c r="BB23" s="23" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="52" t="n"/>
-      <c r="B24" s="52" t="n"/>
-      <c r="C24" s="53" t="n"/>
-      <c r="D24" s="52" t="n"/>
-      <c r="E24" s="52" t="n"/>
-      <c r="F24" s="52" t="n"/>
-      <c r="G24" s="52" t="n"/>
-      <c r="H24" s="52" t="n"/>
-      <c r="I24" s="52" t="n"/>
-      <c r="J24" s="52" t="n"/>
-      <c r="K24" s="52" t="n"/>
-      <c r="L24" s="54" t="n"/>
-      <c r="M24" s="54" t="n"/>
-      <c r="N24" s="52" t="n"/>
-      <c r="O24" s="53" t="n"/>
-      <c r="P24" s="23" t="n"/>
-      <c r="Q24" s="23" t="n"/>
-      <c r="R24" s="23" t="n"/>
-      <c r="S24" s="23" t="n"/>
-      <c r="T24" s="23" t="n"/>
-      <c r="U24" s="23" t="n"/>
-      <c r="V24" s="23" t="n"/>
-      <c r="W24" s="23" t="n"/>
-      <c r="X24" s="23" t="n"/>
-      <c r="Y24" s="23" t="n"/>
-      <c r="Z24" s="23" t="n"/>
-      <c r="AA24" s="23" t="n"/>
-      <c r="AB24" s="23" t="n"/>
-      <c r="AC24" s="23" t="n"/>
-      <c r="AD24" s="23" t="n"/>
-      <c r="AE24" s="23" t="n"/>
-      <c r="AF24" s="23" t="n"/>
-      <c r="AG24" s="23" t="n"/>
-      <c r="AH24" s="23" t="n"/>
-      <c r="AI24" s="23" t="n"/>
-      <c r="AJ24" s="23" t="n"/>
-      <c r="AK24" s="23" t="n"/>
+      <c r="A24" s="26" t="n"/>
+      <c r="B24" s="26" t="n"/>
+      <c r="C24" s="35" t="n"/>
+      <c r="D24" s="26" t="n"/>
+      <c r="E24" s="26" t="n"/>
+      <c r="F24" s="26" t="n"/>
+      <c r="G24" s="26" t="n"/>
+      <c r="H24" s="26" t="n"/>
+      <c r="I24" s="26" t="n"/>
+      <c r="J24" s="26" t="n"/>
+      <c r="K24" s="26" t="n"/>
+      <c r="L24" s="63" t="n"/>
+      <c r="M24" s="63" t="n"/>
+      <c r="N24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($N$3,0),$M24&gt;=$N$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($O$3,0),$M24&gt;=$O$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($P$3,0),$M24&gt;=$P$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($Q$3,0),$M24&gt;=$Q$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($R$3,0),$M24&gt;=$R$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($S$3,0),$M24&gt;=$S$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($T$3,0),$M24&gt;=$T$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($U$3,0),$M24&gt;=$U$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($V$3,0),$M24&gt;=$V$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($W$3,0),$M24&gt;=$W$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($X$3,0),$M24&gt;=$X$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($Y$3,0),$M24&gt;=$Y$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($Z$3,0),$M24&gt;=$Z$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AA$3,0),$M24&gt;=$AA$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AB$3,0),$M24&gt;=$AB$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AC$3,0),$M24&gt;=$AC$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AD$3,0),$M24&gt;=$AD$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AE$3,0),$M24&gt;=$AE$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AF$3,0),$M24&gt;=$AF$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AG$3,0),$M24&gt;=$AG$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AH$3,0),$M24&gt;=$AH$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AI$3,0),$M24&gt;=$AI$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AJ$3,0),$M24&gt;=$AJ$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK24" s="62">
+        <f>IF(OR($L24="",$M24=""),"",IF(AND($L24&lt;=EOMONTH($AK$3,0),$M24&gt;=$AK$3),IF($D24&lt;&gt;"",$D24,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL24" s="23" t="n"/>
       <c r="AM24" s="23" t="n"/>
       <c r="AN24" s="23" t="n"/>
@@ -2769,43 +4530,115 @@
       <c r="BB24" s="23" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="52" t="n"/>
-      <c r="B25" s="52" t="n"/>
-      <c r="C25" s="53" t="n"/>
-      <c r="D25" s="52" t="n"/>
-      <c r="E25" s="52" t="n"/>
-      <c r="F25" s="52" t="n"/>
-      <c r="G25" s="52" t="n"/>
-      <c r="H25" s="52" t="n"/>
-      <c r="I25" s="52" t="n"/>
-      <c r="J25" s="52" t="n"/>
-      <c r="K25" s="52" t="n"/>
-      <c r="L25" s="54" t="n"/>
-      <c r="M25" s="54" t="n"/>
-      <c r="N25" s="52" t="n"/>
-      <c r="O25" s="53" t="n"/>
-      <c r="P25" s="23" t="n"/>
-      <c r="Q25" s="23" t="n"/>
-      <c r="R25" s="23" t="n"/>
-      <c r="S25" s="23" t="n"/>
-      <c r="T25" s="23" t="n"/>
-      <c r="U25" s="23" t="n"/>
-      <c r="V25" s="23" t="n"/>
-      <c r="W25" s="23" t="n"/>
-      <c r="X25" s="23" t="n"/>
-      <c r="Y25" s="23" t="n"/>
-      <c r="Z25" s="23" t="n"/>
-      <c r="AA25" s="23" t="n"/>
-      <c r="AB25" s="23" t="n"/>
-      <c r="AC25" s="23" t="n"/>
-      <c r="AD25" s="23" t="n"/>
-      <c r="AE25" s="23" t="n"/>
-      <c r="AF25" s="23" t="n"/>
-      <c r="AG25" s="23" t="n"/>
-      <c r="AH25" s="23" t="n"/>
-      <c r="AI25" s="23" t="n"/>
-      <c r="AJ25" s="23" t="n"/>
-      <c r="AK25" s="23" t="n"/>
+      <c r="A25" s="26" t="n"/>
+      <c r="B25" s="26" t="n"/>
+      <c r="C25" s="35" t="n"/>
+      <c r="D25" s="26" t="n"/>
+      <c r="E25" s="26" t="n"/>
+      <c r="F25" s="26" t="n"/>
+      <c r="G25" s="26" t="n"/>
+      <c r="H25" s="26" t="n"/>
+      <c r="I25" s="26" t="n"/>
+      <c r="J25" s="26" t="n"/>
+      <c r="K25" s="26" t="n"/>
+      <c r="L25" s="63" t="n"/>
+      <c r="M25" s="63" t="n"/>
+      <c r="N25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($N$3,0),$M25&gt;=$N$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($O$3,0),$M25&gt;=$O$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($P$3,0),$M25&gt;=$P$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($Q$3,0),$M25&gt;=$Q$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($R$3,0),$M25&gt;=$R$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($S$3,0),$M25&gt;=$S$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($T$3,0),$M25&gt;=$T$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($U$3,0),$M25&gt;=$U$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($V$3,0),$M25&gt;=$V$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($W$3,0),$M25&gt;=$W$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($X$3,0),$M25&gt;=$X$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($Y$3,0),$M25&gt;=$Y$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($Z$3,0),$M25&gt;=$Z$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AA$3,0),$M25&gt;=$AA$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AB$3,0),$M25&gt;=$AB$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AC$3,0),$M25&gt;=$AC$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AD$3,0),$M25&gt;=$AD$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AE$3,0),$M25&gt;=$AE$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AF$3,0),$M25&gt;=$AF$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AG$3,0),$M25&gt;=$AG$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AH$3,0),$M25&gt;=$AH$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AI$3,0),$M25&gt;=$AI$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AJ$3,0),$M25&gt;=$AJ$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK25" s="62">
+        <f>IF(OR($L25="",$M25=""),"",IF(AND($L25&lt;=EOMONTH($AK$3,0),$M25&gt;=$AK$3),IF($D25&lt;&gt;"",$D25,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL25" s="23" t="n"/>
       <c r="AM25" s="23" t="n"/>
       <c r="AN25" s="23" t="n"/>
@@ -2825,43 +4658,115 @@
       <c r="BB25" s="23" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="52" t="n"/>
-      <c r="B26" s="52" t="n"/>
-      <c r="C26" s="53" t="n"/>
-      <c r="D26" s="52" t="n"/>
-      <c r="E26" s="52" t="n"/>
-      <c r="F26" s="52" t="n"/>
-      <c r="G26" s="52" t="n"/>
-      <c r="H26" s="52" t="n"/>
-      <c r="I26" s="52" t="n"/>
-      <c r="J26" s="52" t="n"/>
-      <c r="K26" s="52" t="n"/>
-      <c r="L26" s="54" t="n"/>
-      <c r="M26" s="54" t="n"/>
-      <c r="N26" s="52" t="n"/>
-      <c r="O26" s="53" t="n"/>
-      <c r="P26" s="23" t="n"/>
-      <c r="Q26" s="23" t="n"/>
-      <c r="R26" s="23" t="n"/>
-      <c r="S26" s="23" t="n"/>
-      <c r="T26" s="23" t="n"/>
-      <c r="U26" s="23" t="n"/>
-      <c r="V26" s="23" t="n"/>
-      <c r="W26" s="23" t="n"/>
-      <c r="X26" s="23" t="n"/>
-      <c r="Y26" s="23" t="n"/>
-      <c r="Z26" s="23" t="n"/>
-      <c r="AA26" s="23" t="n"/>
-      <c r="AB26" s="23" t="n"/>
-      <c r="AC26" s="23" t="n"/>
-      <c r="AD26" s="23" t="n"/>
-      <c r="AE26" s="23" t="n"/>
-      <c r="AF26" s="23" t="n"/>
-      <c r="AG26" s="23" t="n"/>
-      <c r="AH26" s="23" t="n"/>
-      <c r="AI26" s="23" t="n"/>
-      <c r="AJ26" s="23" t="n"/>
-      <c r="AK26" s="23" t="n"/>
+      <c r="A26" s="26" t="n"/>
+      <c r="B26" s="26" t="n"/>
+      <c r="C26" s="35" t="n"/>
+      <c r="D26" s="26" t="n"/>
+      <c r="E26" s="26" t="n"/>
+      <c r="F26" s="26" t="n"/>
+      <c r="G26" s="26" t="n"/>
+      <c r="H26" s="26" t="n"/>
+      <c r="I26" s="26" t="n"/>
+      <c r="J26" s="26" t="n"/>
+      <c r="K26" s="26" t="n"/>
+      <c r="L26" s="63" t="n"/>
+      <c r="M26" s="63" t="n"/>
+      <c r="N26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($N$3,0),$M26&gt;=$N$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($O$3,0),$M26&gt;=$O$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($P$3,0),$M26&gt;=$P$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($Q$3,0),$M26&gt;=$Q$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($R$3,0),$M26&gt;=$R$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($S$3,0),$M26&gt;=$S$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($T$3,0),$M26&gt;=$T$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($U$3,0),$M26&gt;=$U$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($V$3,0),$M26&gt;=$V$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($W$3,0),$M26&gt;=$W$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($X$3,0),$M26&gt;=$X$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($Y$3,0),$M26&gt;=$Y$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($Z$3,0),$M26&gt;=$Z$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AA$3,0),$M26&gt;=$AA$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AB$3,0),$M26&gt;=$AB$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AC$3,0),$M26&gt;=$AC$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AD$3,0),$M26&gt;=$AD$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AE$3,0),$M26&gt;=$AE$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AF$3,0),$M26&gt;=$AF$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AG$3,0),$M26&gt;=$AG$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AH$3,0),$M26&gt;=$AH$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AI$3,0),$M26&gt;=$AI$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AJ$3,0),$M26&gt;=$AJ$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK26" s="62">
+        <f>IF(OR($L26="",$M26=""),"",IF(AND($L26&lt;=EOMONTH($AK$3,0),$M26&gt;=$AK$3),IF($D26&lt;&gt;"",$D26,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL26" s="23" t="n"/>
       <c r="AM26" s="23" t="n"/>
       <c r="AN26" s="23" t="n"/>
@@ -2881,43 +4786,115 @@
       <c r="BB26" s="23" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="52" t="n"/>
-      <c r="B27" s="52" t="n"/>
-      <c r="C27" s="53" t="n"/>
-      <c r="D27" s="52" t="n"/>
-      <c r="E27" s="52" t="n"/>
-      <c r="F27" s="52" t="n"/>
-      <c r="G27" s="52" t="n"/>
-      <c r="H27" s="52" t="n"/>
-      <c r="I27" s="52" t="n"/>
-      <c r="J27" s="52" t="n"/>
-      <c r="K27" s="52" t="n"/>
-      <c r="L27" s="54" t="n"/>
-      <c r="M27" s="54" t="n"/>
-      <c r="N27" s="52" t="n"/>
-      <c r="O27" s="53" t="n"/>
-      <c r="P27" s="23" t="n"/>
-      <c r="Q27" s="23" t="n"/>
-      <c r="R27" s="23" t="n"/>
-      <c r="S27" s="23" t="n"/>
-      <c r="T27" s="23" t="n"/>
-      <c r="U27" s="23" t="n"/>
-      <c r="V27" s="23" t="n"/>
-      <c r="W27" s="23" t="n"/>
-      <c r="X27" s="23" t="n"/>
-      <c r="Y27" s="23" t="n"/>
-      <c r="Z27" s="23" t="n"/>
-      <c r="AA27" s="23" t="n"/>
-      <c r="AB27" s="23" t="n"/>
-      <c r="AC27" s="23" t="n"/>
-      <c r="AD27" s="23" t="n"/>
-      <c r="AE27" s="23" t="n"/>
-      <c r="AF27" s="23" t="n"/>
-      <c r="AG27" s="23" t="n"/>
-      <c r="AH27" s="23" t="n"/>
-      <c r="AI27" s="23" t="n"/>
-      <c r="AJ27" s="23" t="n"/>
-      <c r="AK27" s="23" t="n"/>
+      <c r="A27" s="26" t="n"/>
+      <c r="B27" s="26" t="n"/>
+      <c r="C27" s="35" t="n"/>
+      <c r="D27" s="26" t="n"/>
+      <c r="E27" s="26" t="n"/>
+      <c r="F27" s="26" t="n"/>
+      <c r="G27" s="26" t="n"/>
+      <c r="H27" s="26" t="n"/>
+      <c r="I27" s="26" t="n"/>
+      <c r="J27" s="26" t="n"/>
+      <c r="K27" s="26" t="n"/>
+      <c r="L27" s="63" t="n"/>
+      <c r="M27" s="63" t="n"/>
+      <c r="N27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($N$3,0),$M27&gt;=$N$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($O$3,0),$M27&gt;=$O$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($P$3,0),$M27&gt;=$P$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($Q$3,0),$M27&gt;=$Q$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($R$3,0),$M27&gt;=$R$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($S$3,0),$M27&gt;=$S$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($T$3,0),$M27&gt;=$T$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($U$3,0),$M27&gt;=$U$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($V$3,0),$M27&gt;=$V$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($W$3,0),$M27&gt;=$W$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($X$3,0),$M27&gt;=$X$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($Y$3,0),$M27&gt;=$Y$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($Z$3,0),$M27&gt;=$Z$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AA$3,0),$M27&gt;=$AA$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AB$3,0),$M27&gt;=$AB$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AC$3,0),$M27&gt;=$AC$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AD$3,0),$M27&gt;=$AD$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AE$3,0),$M27&gt;=$AE$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AF$3,0),$M27&gt;=$AF$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AG$3,0),$M27&gt;=$AG$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AH$3,0),$M27&gt;=$AH$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AI$3,0),$M27&gt;=$AI$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AJ$3,0),$M27&gt;=$AJ$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK27" s="62">
+        <f>IF(OR($L27="",$M27=""),"",IF(AND($L27&lt;=EOMONTH($AK$3,0),$M27&gt;=$AK$3),IF($D27&lt;&gt;"",$D27,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL27" s="23" t="n"/>
       <c r="AM27" s="23" t="n"/>
       <c r="AN27" s="23" t="n"/>
@@ -2937,43 +4914,115 @@
       <c r="BB27" s="23" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="52" t="n"/>
-      <c r="B28" s="52" t="n"/>
-      <c r="C28" s="53" t="n"/>
-      <c r="D28" s="52" t="n"/>
-      <c r="E28" s="52" t="n"/>
-      <c r="F28" s="52" t="n"/>
-      <c r="G28" s="52" t="n"/>
-      <c r="H28" s="52" t="n"/>
-      <c r="I28" s="52" t="n"/>
-      <c r="J28" s="52" t="n"/>
-      <c r="K28" s="52" t="n"/>
-      <c r="L28" s="54" t="n"/>
-      <c r="M28" s="54" t="n"/>
-      <c r="N28" s="52" t="n"/>
-      <c r="O28" s="53" t="n"/>
-      <c r="P28" s="23" t="n"/>
-      <c r="Q28" s="23" t="n"/>
-      <c r="R28" s="23" t="n"/>
-      <c r="S28" s="23" t="n"/>
-      <c r="T28" s="23" t="n"/>
-      <c r="U28" s="23" t="n"/>
-      <c r="V28" s="23" t="n"/>
-      <c r="W28" s="23" t="n"/>
-      <c r="X28" s="23" t="n"/>
-      <c r="Y28" s="23" t="n"/>
-      <c r="Z28" s="23" t="n"/>
-      <c r="AA28" s="23" t="n"/>
-      <c r="AB28" s="23" t="n"/>
-      <c r="AC28" s="23" t="n"/>
-      <c r="AD28" s="23" t="n"/>
-      <c r="AE28" s="23" t="n"/>
-      <c r="AF28" s="23" t="n"/>
-      <c r="AG28" s="23" t="n"/>
-      <c r="AH28" s="23" t="n"/>
-      <c r="AI28" s="23" t="n"/>
-      <c r="AJ28" s="23" t="n"/>
-      <c r="AK28" s="23" t="n"/>
+      <c r="A28" s="26" t="n"/>
+      <c r="B28" s="26" t="n"/>
+      <c r="C28" s="35" t="n"/>
+      <c r="D28" s="26" t="n"/>
+      <c r="E28" s="26" t="n"/>
+      <c r="F28" s="26" t="n"/>
+      <c r="G28" s="26" t="n"/>
+      <c r="H28" s="26" t="n"/>
+      <c r="I28" s="26" t="n"/>
+      <c r="J28" s="26" t="n"/>
+      <c r="K28" s="26" t="n"/>
+      <c r="L28" s="63" t="n"/>
+      <c r="M28" s="63" t="n"/>
+      <c r="N28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($N$3,0),$M28&gt;=$N$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($O$3,0),$M28&gt;=$O$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($P$3,0),$M28&gt;=$P$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($Q$3,0),$M28&gt;=$Q$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($R$3,0),$M28&gt;=$R$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($S$3,0),$M28&gt;=$S$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($T$3,0),$M28&gt;=$T$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($U$3,0),$M28&gt;=$U$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($V$3,0),$M28&gt;=$V$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($W$3,0),$M28&gt;=$W$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($X$3,0),$M28&gt;=$X$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($Y$3,0),$M28&gt;=$Y$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($Z$3,0),$M28&gt;=$Z$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AA$3,0),$M28&gt;=$AA$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AB$3,0),$M28&gt;=$AB$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AC$3,0),$M28&gt;=$AC$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AD$3,0),$M28&gt;=$AD$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AE$3,0),$M28&gt;=$AE$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AF$3,0),$M28&gt;=$AF$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AG$3,0),$M28&gt;=$AG$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AH$3,0),$M28&gt;=$AH$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AI$3,0),$M28&gt;=$AI$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AJ$3,0),$M28&gt;=$AJ$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK28" s="62">
+        <f>IF(OR($L28="",$M28=""),"",IF(AND($L28&lt;=EOMONTH($AK$3,0),$M28&gt;=$AK$3),IF($D28&lt;&gt;"",$D28,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL28" s="23" t="n"/>
       <c r="AM28" s="23" t="n"/>
       <c r="AN28" s="23" t="n"/>
@@ -2993,43 +5042,115 @@
       <c r="BB28" s="23" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="52" t="n"/>
-      <c r="B29" s="52" t="n"/>
-      <c r="C29" s="53" t="n"/>
-      <c r="D29" s="52" t="n"/>
-      <c r="E29" s="52" t="n"/>
-      <c r="F29" s="52" t="n"/>
-      <c r="G29" s="52" t="n"/>
-      <c r="H29" s="52" t="n"/>
-      <c r="I29" s="52" t="n"/>
-      <c r="J29" s="52" t="n"/>
-      <c r="K29" s="52" t="n"/>
-      <c r="L29" s="54" t="n"/>
-      <c r="M29" s="54" t="n"/>
-      <c r="N29" s="52" t="n"/>
-      <c r="O29" s="53" t="n"/>
-      <c r="P29" s="23" t="n"/>
-      <c r="Q29" s="23" t="n"/>
-      <c r="R29" s="23" t="n"/>
-      <c r="S29" s="23" t="n"/>
-      <c r="T29" s="23" t="n"/>
-      <c r="U29" s="23" t="n"/>
-      <c r="V29" s="23" t="n"/>
-      <c r="W29" s="23" t="n"/>
-      <c r="X29" s="23" t="n"/>
-      <c r="Y29" s="23" t="n"/>
-      <c r="Z29" s="23" t="n"/>
-      <c r="AA29" s="23" t="n"/>
-      <c r="AB29" s="23" t="n"/>
-      <c r="AC29" s="23" t="n"/>
-      <c r="AD29" s="23" t="n"/>
-      <c r="AE29" s="23" t="n"/>
-      <c r="AF29" s="23" t="n"/>
-      <c r="AG29" s="23" t="n"/>
-      <c r="AH29" s="23" t="n"/>
-      <c r="AI29" s="23" t="n"/>
-      <c r="AJ29" s="23" t="n"/>
-      <c r="AK29" s="23" t="n"/>
+      <c r="A29" s="26" t="n"/>
+      <c r="B29" s="26" t="n"/>
+      <c r="C29" s="35" t="n"/>
+      <c r="D29" s="26" t="n"/>
+      <c r="E29" s="26" t="n"/>
+      <c r="F29" s="26" t="n"/>
+      <c r="G29" s="26" t="n"/>
+      <c r="H29" s="26" t="n"/>
+      <c r="I29" s="26" t="n"/>
+      <c r="J29" s="26" t="n"/>
+      <c r="K29" s="26" t="n"/>
+      <c r="L29" s="63" t="n"/>
+      <c r="M29" s="63" t="n"/>
+      <c r="N29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($N$3,0),$M29&gt;=$N$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($O$3,0),$M29&gt;=$O$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($P$3,0),$M29&gt;=$P$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($Q$3,0),$M29&gt;=$Q$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($R$3,0),$M29&gt;=$R$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($S$3,0),$M29&gt;=$S$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($T$3,0),$M29&gt;=$T$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($U$3,0),$M29&gt;=$U$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($V$3,0),$M29&gt;=$V$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($W$3,0),$M29&gt;=$W$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($X$3,0),$M29&gt;=$X$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($Y$3,0),$M29&gt;=$Y$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($Z$3,0),$M29&gt;=$Z$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AA$3,0),$M29&gt;=$AA$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AB$3,0),$M29&gt;=$AB$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AC$3,0),$M29&gt;=$AC$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AD$3,0),$M29&gt;=$AD$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AE$3,0),$M29&gt;=$AE$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AF$3,0),$M29&gt;=$AF$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AG$3,0),$M29&gt;=$AG$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AH$3,0),$M29&gt;=$AH$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AI$3,0),$M29&gt;=$AI$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AJ$3,0),$M29&gt;=$AJ$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK29" s="62">
+        <f>IF(OR($L29="",$M29=""),"",IF(AND($L29&lt;=EOMONTH($AK$3,0),$M29&gt;=$AK$3),IF($D29&lt;&gt;"",$D29,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL29" s="23" t="n"/>
       <c r="AM29" s="23" t="n"/>
       <c r="AN29" s="23" t="n"/>
@@ -3049,43 +5170,115 @@
       <c r="BB29" s="23" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="52" t="n"/>
-      <c r="B30" s="52" t="n"/>
-      <c r="C30" s="53" t="n"/>
-      <c r="D30" s="52" t="n"/>
-      <c r="E30" s="52" t="n"/>
-      <c r="F30" s="52" t="n"/>
-      <c r="G30" s="52" t="n"/>
-      <c r="H30" s="52" t="n"/>
-      <c r="I30" s="52" t="n"/>
-      <c r="J30" s="52" t="n"/>
-      <c r="K30" s="52" t="n"/>
-      <c r="L30" s="54" t="n"/>
-      <c r="M30" s="54" t="n"/>
-      <c r="N30" s="52" t="n"/>
-      <c r="O30" s="53" t="n"/>
-      <c r="P30" s="23" t="n"/>
-      <c r="Q30" s="23" t="n"/>
-      <c r="R30" s="23" t="n"/>
-      <c r="S30" s="23" t="n"/>
-      <c r="T30" s="23" t="n"/>
-      <c r="U30" s="23" t="n"/>
-      <c r="V30" s="23" t="n"/>
-      <c r="W30" s="23" t="n"/>
-      <c r="X30" s="23" t="n"/>
-      <c r="Y30" s="23" t="n"/>
-      <c r="Z30" s="23" t="n"/>
-      <c r="AA30" s="23" t="n"/>
-      <c r="AB30" s="23" t="n"/>
-      <c r="AC30" s="23" t="n"/>
-      <c r="AD30" s="23" t="n"/>
-      <c r="AE30" s="23" t="n"/>
-      <c r="AF30" s="23" t="n"/>
-      <c r="AG30" s="23" t="n"/>
-      <c r="AH30" s="23" t="n"/>
-      <c r="AI30" s="23" t="n"/>
-      <c r="AJ30" s="23" t="n"/>
-      <c r="AK30" s="23" t="n"/>
+      <c r="A30" s="26" t="n"/>
+      <c r="B30" s="26" t="n"/>
+      <c r="C30" s="35" t="n"/>
+      <c r="D30" s="26" t="n"/>
+      <c r="E30" s="26" t="n"/>
+      <c r="F30" s="26" t="n"/>
+      <c r="G30" s="26" t="n"/>
+      <c r="H30" s="26" t="n"/>
+      <c r="I30" s="26" t="n"/>
+      <c r="J30" s="26" t="n"/>
+      <c r="K30" s="26" t="n"/>
+      <c r="L30" s="63" t="n"/>
+      <c r="M30" s="63" t="n"/>
+      <c r="N30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($N$3,0),$M30&gt;=$N$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($O$3,0),$M30&gt;=$O$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($P$3,0),$M30&gt;=$P$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($Q$3,0),$M30&gt;=$Q$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($R$3,0),$M30&gt;=$R$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($S$3,0),$M30&gt;=$S$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($T$3,0),$M30&gt;=$T$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($U$3,0),$M30&gt;=$U$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($V$3,0),$M30&gt;=$V$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($W$3,0),$M30&gt;=$W$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($X$3,0),$M30&gt;=$X$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($Y$3,0),$M30&gt;=$Y$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($Z$3,0),$M30&gt;=$Z$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AA$3,0),$M30&gt;=$AA$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AB$3,0),$M30&gt;=$AB$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AC$3,0),$M30&gt;=$AC$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AD$3,0),$M30&gt;=$AD$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AE$3,0),$M30&gt;=$AE$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AF$3,0),$M30&gt;=$AF$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AG$3,0),$M30&gt;=$AG$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AH$3,0),$M30&gt;=$AH$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AI$3,0),$M30&gt;=$AI$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AJ$3,0),$M30&gt;=$AJ$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK30" s="62">
+        <f>IF(OR($L30="",$M30=""),"",IF(AND($L30&lt;=EOMONTH($AK$3,0),$M30&gt;=$AK$3),IF($D30&lt;&gt;"",$D30,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL30" s="23" t="n"/>
       <c r="AM30" s="23" t="n"/>
       <c r="AN30" s="23" t="n"/>
@@ -3105,43 +5298,115 @@
       <c r="BB30" s="23" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="52" t="n"/>
-      <c r="B31" s="52" t="n"/>
-      <c r="C31" s="53" t="n"/>
-      <c r="D31" s="52" t="n"/>
-      <c r="E31" s="52" t="n"/>
-      <c r="F31" s="52" t="n"/>
-      <c r="G31" s="52" t="n"/>
-      <c r="H31" s="52" t="n"/>
-      <c r="I31" s="52" t="n"/>
-      <c r="J31" s="52" t="n"/>
-      <c r="K31" s="52" t="n"/>
-      <c r="L31" s="54" t="n"/>
-      <c r="M31" s="54" t="n"/>
-      <c r="N31" s="52" t="n"/>
-      <c r="O31" s="53" t="n"/>
-      <c r="P31" s="23" t="n"/>
-      <c r="Q31" s="23" t="n"/>
-      <c r="R31" s="23" t="n"/>
-      <c r="S31" s="23" t="n"/>
-      <c r="T31" s="23" t="n"/>
-      <c r="U31" s="23" t="n"/>
-      <c r="V31" s="23" t="n"/>
-      <c r="W31" s="23" t="n"/>
-      <c r="X31" s="23" t="n"/>
-      <c r="Y31" s="23" t="n"/>
-      <c r="Z31" s="23" t="n"/>
-      <c r="AA31" s="23" t="n"/>
-      <c r="AB31" s="23" t="n"/>
-      <c r="AC31" s="23" t="n"/>
-      <c r="AD31" s="23" t="n"/>
-      <c r="AE31" s="23" t="n"/>
-      <c r="AF31" s="23" t="n"/>
-      <c r="AG31" s="23" t="n"/>
-      <c r="AH31" s="23" t="n"/>
-      <c r="AI31" s="23" t="n"/>
-      <c r="AJ31" s="23" t="n"/>
-      <c r="AK31" s="23" t="n"/>
+      <c r="A31" s="26" t="n"/>
+      <c r="B31" s="26" t="n"/>
+      <c r="C31" s="35" t="n"/>
+      <c r="D31" s="26" t="n"/>
+      <c r="E31" s="26" t="n"/>
+      <c r="F31" s="26" t="n"/>
+      <c r="G31" s="26" t="n"/>
+      <c r="H31" s="26" t="n"/>
+      <c r="I31" s="26" t="n"/>
+      <c r="J31" s="26" t="n"/>
+      <c r="K31" s="26" t="n"/>
+      <c r="L31" s="63" t="n"/>
+      <c r="M31" s="63" t="n"/>
+      <c r="N31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($N$3,0),$M31&gt;=$N$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($O$3,0),$M31&gt;=$O$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($P$3,0),$M31&gt;=$P$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($Q$3,0),$M31&gt;=$Q$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($R$3,0),$M31&gt;=$R$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($S$3,0),$M31&gt;=$S$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($T$3,0),$M31&gt;=$T$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($U$3,0),$M31&gt;=$U$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($V$3,0),$M31&gt;=$V$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($W$3,0),$M31&gt;=$W$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($X$3,0),$M31&gt;=$X$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($Y$3,0),$M31&gt;=$Y$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($Z$3,0),$M31&gt;=$Z$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AA$3,0),$M31&gt;=$AA$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AB$3,0),$M31&gt;=$AB$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AC$3,0),$M31&gt;=$AC$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AD$3,0),$M31&gt;=$AD$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AE$3,0),$M31&gt;=$AE$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AF$3,0),$M31&gt;=$AF$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AG$3,0),$M31&gt;=$AG$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AH$3,0),$M31&gt;=$AH$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AI$3,0),$M31&gt;=$AI$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AJ$3,0),$M31&gt;=$AJ$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK31" s="62">
+        <f>IF(OR($L31="",$M31=""),"",IF(AND($L31&lt;=EOMONTH($AK$3,0),$M31&gt;=$AK$3),IF($D31&lt;&gt;"",$D31,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL31" s="23" t="n"/>
       <c r="AM31" s="23" t="n"/>
       <c r="AN31" s="23" t="n"/>
@@ -3161,43 +5426,115 @@
       <c r="BB31" s="23" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="52" t="n"/>
-      <c r="B32" s="52" t="n"/>
-      <c r="C32" s="53" t="n"/>
-      <c r="D32" s="52" t="n"/>
-      <c r="E32" s="52" t="n"/>
-      <c r="F32" s="52" t="n"/>
-      <c r="G32" s="52" t="n"/>
-      <c r="H32" s="52" t="n"/>
-      <c r="I32" s="52" t="n"/>
-      <c r="J32" s="52" t="n"/>
-      <c r="K32" s="52" t="n"/>
-      <c r="L32" s="54" t="n"/>
-      <c r="M32" s="54" t="n"/>
-      <c r="N32" s="52" t="n"/>
-      <c r="O32" s="53" t="n"/>
-      <c r="P32" s="23" t="n"/>
-      <c r="Q32" s="23" t="n"/>
-      <c r="R32" s="23" t="n"/>
-      <c r="S32" s="23" t="n"/>
-      <c r="T32" s="23" t="n"/>
-      <c r="U32" s="23" t="n"/>
-      <c r="V32" s="23" t="n"/>
-      <c r="W32" s="23" t="n"/>
-      <c r="X32" s="23" t="n"/>
-      <c r="Y32" s="23" t="n"/>
-      <c r="Z32" s="23" t="n"/>
-      <c r="AA32" s="23" t="n"/>
-      <c r="AB32" s="23" t="n"/>
-      <c r="AC32" s="23" t="n"/>
-      <c r="AD32" s="23" t="n"/>
-      <c r="AE32" s="23" t="n"/>
-      <c r="AF32" s="23" t="n"/>
-      <c r="AG32" s="23" t="n"/>
-      <c r="AH32" s="23" t="n"/>
-      <c r="AI32" s="23" t="n"/>
-      <c r="AJ32" s="23" t="n"/>
-      <c r="AK32" s="23" t="n"/>
+      <c r="A32" s="26" t="n"/>
+      <c r="B32" s="26" t="n"/>
+      <c r="C32" s="35" t="n"/>
+      <c r="D32" s="26" t="n"/>
+      <c r="E32" s="26" t="n"/>
+      <c r="F32" s="26" t="n"/>
+      <c r="G32" s="26" t="n"/>
+      <c r="H32" s="26" t="n"/>
+      <c r="I32" s="26" t="n"/>
+      <c r="J32" s="26" t="n"/>
+      <c r="K32" s="26" t="n"/>
+      <c r="L32" s="63" t="n"/>
+      <c r="M32" s="63" t="n"/>
+      <c r="N32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($N$3,0),$M32&gt;=$N$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($O$3,0),$M32&gt;=$O$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($P$3,0),$M32&gt;=$P$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($Q$3,0),$M32&gt;=$Q$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($R$3,0),$M32&gt;=$R$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($S$3,0),$M32&gt;=$S$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($T$3,0),$M32&gt;=$T$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($U$3,0),$M32&gt;=$U$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($V$3,0),$M32&gt;=$V$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($W$3,0),$M32&gt;=$W$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($X$3,0),$M32&gt;=$X$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($Y$3,0),$M32&gt;=$Y$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($Z$3,0),$M32&gt;=$Z$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AA$3,0),$M32&gt;=$AA$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AB$3,0),$M32&gt;=$AB$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AC$3,0),$M32&gt;=$AC$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AD$3,0),$M32&gt;=$AD$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AE$3,0),$M32&gt;=$AE$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AF$3,0),$M32&gt;=$AF$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AG$3,0),$M32&gt;=$AG$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AH$3,0),$M32&gt;=$AH$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AI$3,0),$M32&gt;=$AI$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AJ$3,0),$M32&gt;=$AJ$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK32" s="62">
+        <f>IF(OR($L32="",$M32=""),"",IF(AND($L32&lt;=EOMONTH($AK$3,0),$M32&gt;=$AK$3),IF($D32&lt;&gt;"",$D32,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL32" s="23" t="n"/>
       <c r="AM32" s="23" t="n"/>
       <c r="AN32" s="23" t="n"/>
@@ -3217,43 +5554,115 @@
       <c r="BB32" s="23" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="52" t="n"/>
-      <c r="B33" s="52" t="n"/>
-      <c r="C33" s="53" t="n"/>
-      <c r="D33" s="52" t="n"/>
-      <c r="E33" s="52" t="n"/>
-      <c r="F33" s="52" t="n"/>
-      <c r="G33" s="52" t="n"/>
-      <c r="H33" s="52" t="n"/>
-      <c r="I33" s="52" t="n"/>
-      <c r="J33" s="52" t="n"/>
-      <c r="K33" s="52" t="n"/>
-      <c r="L33" s="54" t="n"/>
-      <c r="M33" s="54" t="n"/>
-      <c r="N33" s="52" t="n"/>
-      <c r="O33" s="53" t="n"/>
-      <c r="P33" s="23" t="n"/>
-      <c r="Q33" s="23" t="n"/>
-      <c r="R33" s="23" t="n"/>
-      <c r="S33" s="23" t="n"/>
-      <c r="T33" s="23" t="n"/>
-      <c r="U33" s="23" t="n"/>
-      <c r="V33" s="23" t="n"/>
-      <c r="W33" s="23" t="n"/>
-      <c r="X33" s="23" t="n"/>
-      <c r="Y33" s="23" t="n"/>
-      <c r="Z33" s="23" t="n"/>
-      <c r="AA33" s="23" t="n"/>
-      <c r="AB33" s="23" t="n"/>
-      <c r="AC33" s="23" t="n"/>
-      <c r="AD33" s="23" t="n"/>
-      <c r="AE33" s="23" t="n"/>
-      <c r="AF33" s="23" t="n"/>
-      <c r="AG33" s="23" t="n"/>
-      <c r="AH33" s="23" t="n"/>
-      <c r="AI33" s="23" t="n"/>
-      <c r="AJ33" s="23" t="n"/>
-      <c r="AK33" s="23" t="n"/>
+      <c r="A33" s="26" t="n"/>
+      <c r="B33" s="26" t="n"/>
+      <c r="C33" s="35" t="n"/>
+      <c r="D33" s="26" t="n"/>
+      <c r="E33" s="26" t="n"/>
+      <c r="F33" s="26" t="n"/>
+      <c r="G33" s="26" t="n"/>
+      <c r="H33" s="26" t="n"/>
+      <c r="I33" s="26" t="n"/>
+      <c r="J33" s="26" t="n"/>
+      <c r="K33" s="26" t="n"/>
+      <c r="L33" s="63" t="n"/>
+      <c r="M33" s="63" t="n"/>
+      <c r="N33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($N$3,0),$M33&gt;=$N$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($O$3,0),$M33&gt;=$O$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($P$3,0),$M33&gt;=$P$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($Q$3,0),$M33&gt;=$Q$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($R$3,0),$M33&gt;=$R$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($S$3,0),$M33&gt;=$S$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($T$3,0),$M33&gt;=$T$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($U$3,0),$M33&gt;=$U$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($V$3,0),$M33&gt;=$V$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($W$3,0),$M33&gt;=$W$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($X$3,0),$M33&gt;=$X$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($Y$3,0),$M33&gt;=$Y$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($Z$3,0),$M33&gt;=$Z$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AA$3,0),$M33&gt;=$AA$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AB$3,0),$M33&gt;=$AB$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AC$3,0),$M33&gt;=$AC$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AD$3,0),$M33&gt;=$AD$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AE$3,0),$M33&gt;=$AE$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AF$3,0),$M33&gt;=$AF$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AG$3,0),$M33&gt;=$AG$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AH$3,0),$M33&gt;=$AH$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AI$3,0),$M33&gt;=$AI$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AJ$3,0),$M33&gt;=$AJ$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK33" s="62">
+        <f>IF(OR($L33="",$M33=""),"",IF(AND($L33&lt;=EOMONTH($AK$3,0),$M33&gt;=$AK$3),IF($D33&lt;&gt;"",$D33,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL33" s="23" t="n"/>
       <c r="AM33" s="23" t="n"/>
       <c r="AN33" s="23" t="n"/>
@@ -3273,43 +5682,115 @@
       <c r="BB33" s="23" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="52" t="n"/>
-      <c r="B34" s="52" t="n"/>
-      <c r="C34" s="53" t="n"/>
-      <c r="D34" s="52" t="n"/>
-      <c r="E34" s="52" t="n"/>
-      <c r="F34" s="52" t="n"/>
-      <c r="G34" s="52" t="n"/>
-      <c r="H34" s="52" t="n"/>
-      <c r="I34" s="52" t="n"/>
-      <c r="J34" s="52" t="n"/>
-      <c r="K34" s="52" t="n"/>
-      <c r="L34" s="54" t="n"/>
-      <c r="M34" s="54" t="n"/>
-      <c r="N34" s="52" t="n"/>
-      <c r="O34" s="53" t="n"/>
-      <c r="P34" s="23" t="n"/>
-      <c r="Q34" s="23" t="n"/>
-      <c r="R34" s="23" t="n"/>
-      <c r="S34" s="23" t="n"/>
-      <c r="T34" s="23" t="n"/>
-      <c r="U34" s="23" t="n"/>
-      <c r="V34" s="23" t="n"/>
-      <c r="W34" s="23" t="n"/>
-      <c r="X34" s="23" t="n"/>
-      <c r="Y34" s="23" t="n"/>
-      <c r="Z34" s="23" t="n"/>
-      <c r="AA34" s="23" t="n"/>
-      <c r="AB34" s="23" t="n"/>
-      <c r="AC34" s="23" t="n"/>
-      <c r="AD34" s="23" t="n"/>
-      <c r="AE34" s="23" t="n"/>
-      <c r="AF34" s="23" t="n"/>
-      <c r="AG34" s="23" t="n"/>
-      <c r="AH34" s="23" t="n"/>
-      <c r="AI34" s="23" t="n"/>
-      <c r="AJ34" s="23" t="n"/>
-      <c r="AK34" s="23" t="n"/>
+      <c r="A34" s="26" t="n"/>
+      <c r="B34" s="26" t="n"/>
+      <c r="C34" s="35" t="n"/>
+      <c r="D34" s="26" t="n"/>
+      <c r="E34" s="26" t="n"/>
+      <c r="F34" s="26" t="n"/>
+      <c r="G34" s="26" t="n"/>
+      <c r="H34" s="26" t="n"/>
+      <c r="I34" s="26" t="n"/>
+      <c r="J34" s="26" t="n"/>
+      <c r="K34" s="26" t="n"/>
+      <c r="L34" s="63" t="n"/>
+      <c r="M34" s="63" t="n"/>
+      <c r="N34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($N$3,0),$M34&gt;=$N$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($O$3,0),$M34&gt;=$O$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($P$3,0),$M34&gt;=$P$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($Q$3,0),$M34&gt;=$Q$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($R$3,0),$M34&gt;=$R$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($S$3,0),$M34&gt;=$S$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($T$3,0),$M34&gt;=$T$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($U$3,0),$M34&gt;=$U$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($V$3,0),$M34&gt;=$V$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($W$3,0),$M34&gt;=$W$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($X$3,0),$M34&gt;=$X$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($Y$3,0),$M34&gt;=$Y$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($Z$3,0),$M34&gt;=$Z$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AA$3,0),$M34&gt;=$AA$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AB$3,0),$M34&gt;=$AB$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AC$3,0),$M34&gt;=$AC$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AD$3,0),$M34&gt;=$AD$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AE$3,0),$M34&gt;=$AE$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AF$3,0),$M34&gt;=$AF$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AG$3,0),$M34&gt;=$AG$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AH$3,0),$M34&gt;=$AH$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AI$3,0),$M34&gt;=$AI$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AJ$3,0),$M34&gt;=$AJ$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK34" s="62">
+        <f>IF(OR($L34="",$M34=""),"",IF(AND($L34&lt;=EOMONTH($AK$3,0),$M34&gt;=$AK$3),IF($D34&lt;&gt;"",$D34,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL34" s="23" t="n"/>
       <c r="AM34" s="23" t="n"/>
       <c r="AN34" s="23" t="n"/>
@@ -3329,783 +5810,2208 @@
       <c r="BB34" s="23" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="52" t="n"/>
-      <c r="B35" s="52" t="n"/>
-      <c r="C35" s="53" t="n"/>
-      <c r="D35" s="52" t="n"/>
-      <c r="E35" s="52" t="n"/>
-      <c r="F35" s="52" t="n"/>
-      <c r="G35" s="52" t="n"/>
-      <c r="H35" s="52" t="n"/>
-      <c r="I35" s="52" t="n"/>
-      <c r="J35" s="52" t="n"/>
-      <c r="K35" s="52" t="n"/>
-      <c r="L35" s="54" t="n"/>
-      <c r="M35" s="54" t="n"/>
-      <c r="N35" s="52" t="n"/>
-      <c r="O35" s="53" t="n"/>
-      <c r="P35" s="23" t="n"/>
-      <c r="Q35" s="23" t="n"/>
-      <c r="R35" s="23" t="n"/>
-      <c r="S35" s="23" t="n"/>
-      <c r="T35" s="23" t="n"/>
-      <c r="U35" s="23" t="n"/>
-      <c r="V35" s="23" t="n"/>
-      <c r="W35" s="23" t="n"/>
-      <c r="X35" s="23" t="n"/>
-      <c r="Y35" s="23" t="n"/>
-      <c r="Z35" s="23" t="n"/>
-      <c r="AA35" s="23" t="n"/>
-      <c r="AB35" s="23" t="n"/>
-      <c r="AC35" s="23" t="n"/>
-      <c r="AD35" s="23" t="n"/>
-      <c r="AE35" s="23" t="n"/>
-      <c r="AF35" s="23" t="n"/>
-      <c r="AG35" s="23" t="n"/>
-      <c r="AH35" s="23" t="n"/>
-      <c r="AI35" s="23" t="n"/>
-      <c r="AJ35" s="23" t="n"/>
-      <c r="AK35" s="23" t="n"/>
+      <c r="A35" s="26" t="n"/>
+      <c r="B35" s="26" t="n"/>
+      <c r="C35" s="35" t="n"/>
+      <c r="D35" s="26" t="n"/>
+      <c r="E35" s="26" t="n"/>
+      <c r="F35" s="26" t="n"/>
+      <c r="G35" s="26" t="n"/>
+      <c r="H35" s="26" t="n"/>
+      <c r="I35" s="26" t="n"/>
+      <c r="J35" s="26" t="n"/>
+      <c r="K35" s="26" t="n"/>
+      <c r="L35" s="63" t="n"/>
+      <c r="M35" s="63" t="n"/>
+      <c r="N35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($N$3,0),$M35&gt;=$N$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($O$3,0),$M35&gt;=$O$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($P$3,0),$M35&gt;=$P$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($Q$3,0),$M35&gt;=$Q$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($R$3,0),$M35&gt;=$R$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($S$3,0),$M35&gt;=$S$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($T$3,0),$M35&gt;=$T$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($U$3,0),$M35&gt;=$U$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($V$3,0),$M35&gt;=$V$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($W$3,0),$M35&gt;=$W$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($X$3,0),$M35&gt;=$X$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($Y$3,0),$M35&gt;=$Y$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($Z$3,0),$M35&gt;=$Z$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AA$3,0),$M35&gt;=$AA$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AB$3,0),$M35&gt;=$AB$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AC$3,0),$M35&gt;=$AC$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AD$3,0),$M35&gt;=$AD$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AE$3,0),$M35&gt;=$AE$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AF$3,0),$M35&gt;=$AF$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AG$3,0),$M35&gt;=$AG$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AH$3,0),$M35&gt;=$AH$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AI$3,0),$M35&gt;=$AI$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AJ$3,0),$M35&gt;=$AJ$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK35" s="62">
+        <f>IF(OR($L35="",$M35=""),"",IF(AND($L35&lt;=EOMONTH($AK$3,0),$M35&gt;=$AK$3),IF($D35&lt;&gt;"",$D35,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL35" s="23" t="n"/>
       <c r="AM35" s="23" t="n"/>
+      <c r="AN35" s="23" t="n"/>
+      <c r="AO35" s="23" t="n"/>
+      <c r="AP35" s="23" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="52" t="n"/>
-      <c r="B36" s="52" t="n"/>
-      <c r="C36" s="53" t="n"/>
-      <c r="D36" s="52" t="n"/>
-      <c r="E36" s="52" t="n"/>
-      <c r="F36" s="52" t="n"/>
-      <c r="G36" s="52" t="n"/>
-      <c r="H36" s="52" t="n"/>
-      <c r="I36" s="52" t="n"/>
-      <c r="J36" s="52" t="n"/>
-      <c r="K36" s="52" t="n"/>
-      <c r="L36" s="54" t="n"/>
-      <c r="M36" s="54" t="n"/>
-      <c r="N36" s="52" t="n"/>
-      <c r="O36" s="53" t="n"/>
-      <c r="P36" s="23" t="n"/>
-      <c r="Q36" s="23" t="n"/>
-      <c r="R36" s="23" t="n"/>
-      <c r="S36" s="23" t="n"/>
-      <c r="T36" s="23" t="n"/>
-      <c r="U36" s="23" t="n"/>
-      <c r="V36" s="23" t="n"/>
-      <c r="W36" s="23" t="n"/>
-      <c r="X36" s="23" t="n"/>
-      <c r="Y36" s="23" t="n"/>
-      <c r="Z36" s="23" t="n"/>
-      <c r="AA36" s="23" t="n"/>
-      <c r="AB36" s="23" t="n"/>
-      <c r="AC36" s="23" t="n"/>
-      <c r="AD36" s="23" t="n"/>
-      <c r="AE36" s="23" t="n"/>
-      <c r="AF36" s="23" t="n"/>
-      <c r="AG36" s="23" t="n"/>
-      <c r="AH36" s="23" t="n"/>
-      <c r="AI36" s="23" t="n"/>
-      <c r="AJ36" s="23" t="n"/>
-      <c r="AK36" s="23" t="n"/>
+      <c r="A36" s="26" t="n"/>
+      <c r="B36" s="26" t="n"/>
+      <c r="C36" s="35" t="n"/>
+      <c r="D36" s="26" t="n"/>
+      <c r="E36" s="26" t="n"/>
+      <c r="F36" s="26" t="n"/>
+      <c r="G36" s="26" t="n"/>
+      <c r="H36" s="26" t="n"/>
+      <c r="I36" s="26" t="n"/>
+      <c r="J36" s="26" t="n"/>
+      <c r="K36" s="26" t="n"/>
+      <c r="L36" s="63" t="n"/>
+      <c r="M36" s="63" t="n"/>
+      <c r="N36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($N$3,0),$M36&gt;=$N$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($O$3,0),$M36&gt;=$O$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($P$3,0),$M36&gt;=$P$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($Q$3,0),$M36&gt;=$Q$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($R$3,0),$M36&gt;=$R$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($S$3,0),$M36&gt;=$S$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($T$3,0),$M36&gt;=$T$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($U$3,0),$M36&gt;=$U$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($V$3,0),$M36&gt;=$V$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($W$3,0),$M36&gt;=$W$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($X$3,0),$M36&gt;=$X$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($Y$3,0),$M36&gt;=$Y$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($Z$3,0),$M36&gt;=$Z$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AA$3,0),$M36&gt;=$AA$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AB$3,0),$M36&gt;=$AB$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AC$3,0),$M36&gt;=$AC$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AD$3,0),$M36&gt;=$AD$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AE$3,0),$M36&gt;=$AE$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AF$3,0),$M36&gt;=$AF$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AG$3,0),$M36&gt;=$AG$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AH$3,0),$M36&gt;=$AH$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AI$3,0),$M36&gt;=$AI$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AJ$3,0),$M36&gt;=$AJ$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK36" s="62">
+        <f>IF(OR($L36="",$M36=""),"",IF(AND($L36&lt;=EOMONTH($AK$3,0),$M36&gt;=$AK$3),IF($D36&lt;&gt;"",$D36,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL36" s="23" t="n"/>
       <c r="AM36" s="23" t="n"/>
+      <c r="AN36" s="23" t="n"/>
+      <c r="AO36" s="23" t="n"/>
+      <c r="AP36" s="23" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="52" t="n"/>
-      <c r="B37" s="52" t="n"/>
-      <c r="C37" s="53" t="n"/>
-      <c r="D37" s="52" t="n"/>
-      <c r="E37" s="52" t="n"/>
-      <c r="F37" s="52" t="n"/>
-      <c r="G37" s="52" t="n"/>
-      <c r="H37" s="52" t="n"/>
-      <c r="I37" s="52" t="n"/>
-      <c r="J37" s="52" t="n"/>
-      <c r="K37" s="52" t="n"/>
-      <c r="L37" s="54" t="n"/>
-      <c r="M37" s="54" t="n"/>
-      <c r="N37" s="52" t="n"/>
-      <c r="O37" s="53" t="n"/>
-      <c r="P37" s="23" t="n"/>
-      <c r="Q37" s="23" t="n"/>
-      <c r="R37" s="23" t="n"/>
-      <c r="S37" s="23" t="n"/>
-      <c r="T37" s="23" t="n"/>
-      <c r="U37" s="23" t="n"/>
-      <c r="V37" s="23" t="n"/>
-      <c r="W37" s="23" t="n"/>
-      <c r="X37" s="23" t="n"/>
-      <c r="Y37" s="23" t="n"/>
-      <c r="Z37" s="23" t="n"/>
-      <c r="AA37" s="23" t="n"/>
-      <c r="AB37" s="23" t="n"/>
-      <c r="AC37" s="23" t="n"/>
-      <c r="AD37" s="23" t="n"/>
-      <c r="AE37" s="23" t="n"/>
-      <c r="AF37" s="23" t="n"/>
-      <c r="AG37" s="23" t="n"/>
-      <c r="AH37" s="23" t="n"/>
-      <c r="AI37" s="23" t="n"/>
-      <c r="AJ37" s="23" t="n"/>
-      <c r="AK37" s="23" t="n"/>
+      <c r="A37" s="26" t="n"/>
+      <c r="B37" s="26" t="n"/>
+      <c r="C37" s="35" t="n"/>
+      <c r="D37" s="26" t="n"/>
+      <c r="E37" s="26" t="n"/>
+      <c r="F37" s="26" t="n"/>
+      <c r="G37" s="26" t="n"/>
+      <c r="H37" s="26" t="n"/>
+      <c r="I37" s="26" t="n"/>
+      <c r="J37" s="26" t="n"/>
+      <c r="K37" s="26" t="n"/>
+      <c r="L37" s="63" t="n"/>
+      <c r="M37" s="63" t="n"/>
+      <c r="N37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($N$3,0),$M37&gt;=$N$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($O$3,0),$M37&gt;=$O$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($P$3,0),$M37&gt;=$P$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($Q$3,0),$M37&gt;=$Q$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($R$3,0),$M37&gt;=$R$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($S$3,0),$M37&gt;=$S$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($T$3,0),$M37&gt;=$T$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($U$3,0),$M37&gt;=$U$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($V$3,0),$M37&gt;=$V$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($W$3,0),$M37&gt;=$W$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($X$3,0),$M37&gt;=$X$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($Y$3,0),$M37&gt;=$Y$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($Z$3,0),$M37&gt;=$Z$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AA$3,0),$M37&gt;=$AA$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AB$3,0),$M37&gt;=$AB$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AC$3,0),$M37&gt;=$AC$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AD$3,0),$M37&gt;=$AD$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AE$3,0),$M37&gt;=$AE$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AF$3,0),$M37&gt;=$AF$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AG$3,0),$M37&gt;=$AG$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AH$3,0),$M37&gt;=$AH$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AI$3,0),$M37&gt;=$AI$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AJ$3,0),$M37&gt;=$AJ$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK37" s="62">
+        <f>IF(OR($L37="",$M37=""),"",IF(AND($L37&lt;=EOMONTH($AK$3,0),$M37&gt;=$AK$3),IF($D37&lt;&gt;"",$D37,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL37" s="23" t="n"/>
       <c r="AM37" s="23" t="n"/>
+      <c r="AN37" s="23" t="n"/>
+      <c r="AO37" s="23" t="n"/>
+      <c r="AP37" s="23" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="52" t="n"/>
-      <c r="B38" s="52" t="n"/>
-      <c r="C38" s="53" t="n"/>
-      <c r="D38" s="52" t="n"/>
-      <c r="E38" s="52" t="n"/>
-      <c r="F38" s="52" t="n"/>
-      <c r="G38" s="52" t="n"/>
-      <c r="H38" s="52" t="n"/>
-      <c r="I38" s="52" t="n"/>
-      <c r="J38" s="52" t="n"/>
-      <c r="K38" s="52" t="n"/>
-      <c r="L38" s="54" t="n"/>
-      <c r="M38" s="54" t="n"/>
-      <c r="N38" s="52" t="n"/>
-      <c r="O38" s="53" t="n"/>
-      <c r="P38" s="23" t="n"/>
-      <c r="Q38" s="23" t="n"/>
-      <c r="R38" s="23" t="n"/>
-      <c r="S38" s="23" t="n"/>
-      <c r="T38" s="23" t="n"/>
-      <c r="U38" s="23" t="n"/>
-      <c r="V38" s="23" t="n"/>
-      <c r="W38" s="23" t="n"/>
-      <c r="X38" s="23" t="n"/>
-      <c r="Y38" s="23" t="n"/>
-      <c r="Z38" s="23" t="n"/>
-      <c r="AA38" s="23" t="n"/>
-      <c r="AB38" s="23" t="n"/>
-      <c r="AC38" s="23" t="n"/>
-      <c r="AD38" s="23" t="n"/>
-      <c r="AE38" s="23" t="n"/>
-      <c r="AF38" s="23" t="n"/>
-      <c r="AG38" s="23" t="n"/>
-      <c r="AH38" s="23" t="n"/>
-      <c r="AI38" s="23" t="n"/>
-      <c r="AJ38" s="23" t="n"/>
-      <c r="AK38" s="23" t="n"/>
+      <c r="A38" s="26" t="n"/>
+      <c r="B38" s="26" t="n"/>
+      <c r="C38" s="35" t="n"/>
+      <c r="D38" s="26" t="n"/>
+      <c r="E38" s="26" t="n"/>
+      <c r="F38" s="26" t="n"/>
+      <c r="G38" s="26" t="n"/>
+      <c r="H38" s="26" t="n"/>
+      <c r="I38" s="26" t="n"/>
+      <c r="J38" s="26" t="n"/>
+      <c r="K38" s="26" t="n"/>
+      <c r="L38" s="63" t="n"/>
+      <c r="M38" s="63" t="n"/>
+      <c r="N38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($N$3,0),$M38&gt;=$N$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($O$3,0),$M38&gt;=$O$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($P$3,0),$M38&gt;=$P$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($Q$3,0),$M38&gt;=$Q$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($R$3,0),$M38&gt;=$R$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($S$3,0),$M38&gt;=$S$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($T$3,0),$M38&gt;=$T$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($U$3,0),$M38&gt;=$U$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($V$3,0),$M38&gt;=$V$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($W$3,0),$M38&gt;=$W$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($X$3,0),$M38&gt;=$X$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($Y$3,0),$M38&gt;=$Y$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($Z$3,0),$M38&gt;=$Z$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AA$3,0),$M38&gt;=$AA$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AB$3,0),$M38&gt;=$AB$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AC$3,0),$M38&gt;=$AC$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AD$3,0),$M38&gt;=$AD$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AE$3,0),$M38&gt;=$AE$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AF$3,0),$M38&gt;=$AF$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AG$3,0),$M38&gt;=$AG$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AH$3,0),$M38&gt;=$AH$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AI$3,0),$M38&gt;=$AI$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AJ$3,0),$M38&gt;=$AJ$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK38" s="62">
+        <f>IF(OR($L38="",$M38=""),"",IF(AND($L38&lt;=EOMONTH($AK$3,0),$M38&gt;=$AK$3),IF($D38&lt;&gt;"",$D38,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL38" s="23" t="n"/>
       <c r="AM38" s="23" t="n"/>
+      <c r="AN38" s="23" t="n"/>
+      <c r="AO38" s="23" t="n"/>
+      <c r="AP38" s="23" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="52" t="n"/>
-      <c r="B39" s="52" t="n"/>
-      <c r="C39" s="53" t="n"/>
-      <c r="D39" s="52" t="n"/>
-      <c r="E39" s="52" t="n"/>
-      <c r="F39" s="52" t="n"/>
-      <c r="G39" s="52" t="n"/>
-      <c r="H39" s="52" t="n"/>
-      <c r="I39" s="52" t="n"/>
-      <c r="J39" s="52" t="n"/>
-      <c r="K39" s="52" t="n"/>
-      <c r="L39" s="54" t="n"/>
-      <c r="M39" s="54" t="n"/>
-      <c r="N39" s="52" t="n"/>
-      <c r="O39" s="53" t="n"/>
-      <c r="P39" s="23" t="n"/>
-      <c r="Q39" s="23" t="n"/>
-      <c r="R39" s="23" t="n"/>
-      <c r="S39" s="23" t="n"/>
-      <c r="T39" s="23" t="n"/>
-      <c r="U39" s="23" t="n"/>
-      <c r="V39" s="23" t="n"/>
-      <c r="W39" s="23" t="n"/>
-      <c r="X39" s="23" t="n"/>
-      <c r="Y39" s="23" t="n"/>
-      <c r="Z39" s="23" t="n"/>
-      <c r="AA39" s="23" t="n"/>
-      <c r="AB39" s="23" t="n"/>
-      <c r="AC39" s="23" t="n"/>
-      <c r="AD39" s="23" t="n"/>
-      <c r="AE39" s="23" t="n"/>
-      <c r="AF39" s="23" t="n"/>
-      <c r="AG39" s="23" t="n"/>
-      <c r="AH39" s="23" t="n"/>
-      <c r="AI39" s="23" t="n"/>
-      <c r="AJ39" s="23" t="n"/>
-      <c r="AK39" s="23" t="n"/>
+      <c r="A39" s="26" t="n"/>
+      <c r="B39" s="26" t="n"/>
+      <c r="C39" s="35" t="n"/>
+      <c r="D39" s="26" t="n"/>
+      <c r="E39" s="26" t="n"/>
+      <c r="F39" s="26" t="n"/>
+      <c r="G39" s="26" t="n"/>
+      <c r="H39" s="26" t="n"/>
+      <c r="I39" s="26" t="n"/>
+      <c r="J39" s="26" t="n"/>
+      <c r="K39" s="26" t="n"/>
+      <c r="L39" s="63" t="n"/>
+      <c r="M39" s="63" t="n"/>
+      <c r="N39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($N$3,0),$M39&gt;=$N$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($O$3,0),$M39&gt;=$O$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($P$3,0),$M39&gt;=$P$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($Q$3,0),$M39&gt;=$Q$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($R$3,0),$M39&gt;=$R$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($S$3,0),$M39&gt;=$S$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($T$3,0),$M39&gt;=$T$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($U$3,0),$M39&gt;=$U$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($V$3,0),$M39&gt;=$V$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($W$3,0),$M39&gt;=$W$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($X$3,0),$M39&gt;=$X$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($Y$3,0),$M39&gt;=$Y$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($Z$3,0),$M39&gt;=$Z$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AA$3,0),$M39&gt;=$AA$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AB$3,0),$M39&gt;=$AB$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AC$3,0),$M39&gt;=$AC$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AD$3,0),$M39&gt;=$AD$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AE$3,0),$M39&gt;=$AE$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AF$3,0),$M39&gt;=$AF$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AG$3,0),$M39&gt;=$AG$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AH$3,0),$M39&gt;=$AH$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AI$3,0),$M39&gt;=$AI$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AJ$3,0),$M39&gt;=$AJ$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK39" s="62">
+        <f>IF(OR($L39="",$M39=""),"",IF(AND($L39&lt;=EOMONTH($AK$3,0),$M39&gt;=$AK$3),IF($D39&lt;&gt;"",$D39,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL39" s="23" t="n"/>
       <c r="AM39" s="23" t="n"/>
+      <c r="AN39" s="23" t="n"/>
+      <c r="AO39" s="23" t="n"/>
+      <c r="AP39" s="23" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="52" t="n"/>
-      <c r="B40" s="52" t="n"/>
-      <c r="C40" s="53" t="n"/>
-      <c r="D40" s="52" t="n"/>
-      <c r="E40" s="52" t="n"/>
-      <c r="F40" s="52" t="n"/>
-      <c r="G40" s="52" t="n"/>
-      <c r="H40" s="52" t="n"/>
-      <c r="I40" s="52" t="n"/>
-      <c r="J40" s="52" t="n"/>
-      <c r="K40" s="52" t="n"/>
-      <c r="L40" s="54" t="n"/>
-      <c r="M40" s="54" t="n"/>
-      <c r="N40" s="52" t="n"/>
-      <c r="O40" s="53" t="n"/>
-      <c r="P40" s="23" t="n"/>
-      <c r="Q40" s="23" t="n"/>
-      <c r="R40" s="23" t="n"/>
-      <c r="S40" s="23" t="n"/>
-      <c r="T40" s="23" t="n"/>
-      <c r="U40" s="23" t="n"/>
-      <c r="V40" s="23" t="n"/>
-      <c r="W40" s="23" t="n"/>
-      <c r="X40" s="23" t="n"/>
-      <c r="Y40" s="23" t="n"/>
-      <c r="Z40" s="23" t="n"/>
-      <c r="AA40" s="23" t="n"/>
-      <c r="AB40" s="23" t="n"/>
-      <c r="AC40" s="23" t="n"/>
-      <c r="AD40" s="23" t="n"/>
-      <c r="AE40" s="23" t="n"/>
-      <c r="AF40" s="23" t="n"/>
-      <c r="AG40" s="23" t="n"/>
-      <c r="AH40" s="23" t="n"/>
-      <c r="AI40" s="23" t="n"/>
-      <c r="AJ40" s="23" t="n"/>
-      <c r="AK40" s="23" t="n"/>
+      <c r="A40" s="26" t="n"/>
+      <c r="B40" s="26" t="n"/>
+      <c r="C40" s="35" t="n"/>
+      <c r="D40" s="26" t="n"/>
+      <c r="E40" s="26" t="n"/>
+      <c r="F40" s="26" t="n"/>
+      <c r="G40" s="26" t="n"/>
+      <c r="H40" s="26" t="n"/>
+      <c r="I40" s="26" t="n"/>
+      <c r="J40" s="26" t="n"/>
+      <c r="K40" s="26" t="n"/>
+      <c r="L40" s="63" t="n"/>
+      <c r="M40" s="63" t="n"/>
+      <c r="N40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($N$3,0),$M40&gt;=$N$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($O$3,0),$M40&gt;=$O$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($P$3,0),$M40&gt;=$P$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($Q$3,0),$M40&gt;=$Q$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($R$3,0),$M40&gt;=$R$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($S$3,0),$M40&gt;=$S$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($T$3,0),$M40&gt;=$T$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($U$3,0),$M40&gt;=$U$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($V$3,0),$M40&gt;=$V$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($W$3,0),$M40&gt;=$W$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($X$3,0),$M40&gt;=$X$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($Y$3,0),$M40&gt;=$Y$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($Z$3,0),$M40&gt;=$Z$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AA$3,0),$M40&gt;=$AA$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AB$3,0),$M40&gt;=$AB$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AC$3,0),$M40&gt;=$AC$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AD$3,0),$M40&gt;=$AD$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AE$3,0),$M40&gt;=$AE$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AF$3,0),$M40&gt;=$AF$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AG$3,0),$M40&gt;=$AG$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AH$3,0),$M40&gt;=$AH$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AI$3,0),$M40&gt;=$AI$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AJ$3,0),$M40&gt;=$AJ$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK40" s="62">
+        <f>IF(OR($L40="",$M40=""),"",IF(AND($L40&lt;=EOMONTH($AK$3,0),$M40&gt;=$AK$3),IF($D40&lt;&gt;"",$D40,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL40" s="23" t="n"/>
       <c r="AM40" s="23" t="n"/>
+      <c r="AN40" s="23" t="n"/>
+      <c r="AO40" s="23" t="n"/>
+      <c r="AP40" s="23" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="52" t="n"/>
-      <c r="B41" s="52" t="n"/>
-      <c r="C41" s="53" t="n"/>
-      <c r="D41" s="52" t="n"/>
-      <c r="E41" s="52" t="n"/>
-      <c r="F41" s="52" t="n"/>
-      <c r="G41" s="52" t="n"/>
-      <c r="H41" s="52" t="n"/>
-      <c r="I41" s="52" t="n"/>
-      <c r="J41" s="52" t="n"/>
-      <c r="K41" s="52" t="n"/>
-      <c r="L41" s="54" t="n"/>
-      <c r="M41" s="54" t="n"/>
-      <c r="N41" s="52" t="n"/>
-      <c r="O41" s="53" t="n"/>
-      <c r="P41" s="23" t="n"/>
-      <c r="Q41" s="23" t="n"/>
-      <c r="R41" s="23" t="n"/>
-      <c r="S41" s="23" t="n"/>
-      <c r="T41" s="23" t="n"/>
-      <c r="U41" s="23" t="n"/>
-      <c r="V41" s="23" t="n"/>
-      <c r="W41" s="23" t="n"/>
-      <c r="X41" s="23" t="n"/>
-      <c r="Y41" s="23" t="n"/>
-      <c r="Z41" s="23" t="n"/>
-      <c r="AA41" s="23" t="n"/>
-      <c r="AB41" s="23" t="n"/>
-      <c r="AC41" s="23" t="n"/>
-      <c r="AD41" s="23" t="n"/>
-      <c r="AE41" s="23" t="n"/>
-      <c r="AF41" s="23" t="n"/>
-      <c r="AG41" s="23" t="n"/>
-      <c r="AH41" s="23" t="n"/>
-      <c r="AI41" s="23" t="n"/>
-      <c r="AJ41" s="23" t="n"/>
-      <c r="AK41" s="23" t="n"/>
+      <c r="A41" s="26" t="n"/>
+      <c r="B41" s="26" t="n"/>
+      <c r="C41" s="35" t="n"/>
+      <c r="D41" s="26" t="n"/>
+      <c r="E41" s="26" t="n"/>
+      <c r="F41" s="26" t="n"/>
+      <c r="G41" s="26" t="n"/>
+      <c r="H41" s="26" t="n"/>
+      <c r="I41" s="26" t="n"/>
+      <c r="J41" s="26" t="n"/>
+      <c r="K41" s="26" t="n"/>
+      <c r="L41" s="63" t="n"/>
+      <c r="M41" s="63" t="n"/>
+      <c r="N41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($N$3,0),$M41&gt;=$N$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($O$3,0),$M41&gt;=$O$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($P$3,0),$M41&gt;=$P$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($Q$3,0),$M41&gt;=$Q$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($R$3,0),$M41&gt;=$R$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($S$3,0),$M41&gt;=$S$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($T$3,0),$M41&gt;=$T$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($U$3,0),$M41&gt;=$U$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($V$3,0),$M41&gt;=$V$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($W$3,0),$M41&gt;=$W$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($X$3,0),$M41&gt;=$X$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($Y$3,0),$M41&gt;=$Y$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($Z$3,0),$M41&gt;=$Z$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AA$3,0),$M41&gt;=$AA$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AB$3,0),$M41&gt;=$AB$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AC$3,0),$M41&gt;=$AC$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AD$3,0),$M41&gt;=$AD$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AE$3,0),$M41&gt;=$AE$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AF$3,0),$M41&gt;=$AF$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AG$3,0),$M41&gt;=$AG$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AH$3,0),$M41&gt;=$AH$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AI$3,0),$M41&gt;=$AI$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AJ$3,0),$M41&gt;=$AJ$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK41" s="62">
+        <f>IF(OR($L41="",$M41=""),"",IF(AND($L41&lt;=EOMONTH($AK$3,0),$M41&gt;=$AK$3),IF($D41&lt;&gt;"",$D41,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL41" s="23" t="n"/>
       <c r="AM41" s="23" t="n"/>
+      <c r="AN41" s="23" t="n"/>
+      <c r="AO41" s="23" t="n"/>
+      <c r="AP41" s="23" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="52" t="n"/>
-      <c r="B42" s="52" t="n"/>
-      <c r="C42" s="53" t="n"/>
-      <c r="D42" s="52" t="n"/>
-      <c r="E42" s="52" t="n"/>
-      <c r="F42" s="52" t="n"/>
-      <c r="G42" s="52" t="n"/>
-      <c r="H42" s="52" t="n"/>
-      <c r="I42" s="52" t="n"/>
-      <c r="J42" s="52" t="n"/>
-      <c r="K42" s="52" t="n"/>
-      <c r="L42" s="54" t="n"/>
-      <c r="M42" s="54" t="n"/>
-      <c r="N42" s="52" t="n"/>
-      <c r="O42" s="53" t="n"/>
-      <c r="P42" s="23" t="n"/>
-      <c r="Q42" s="23" t="n"/>
-      <c r="R42" s="23" t="n"/>
-      <c r="S42" s="23" t="n"/>
-      <c r="T42" s="23" t="n"/>
-      <c r="U42" s="23" t="n"/>
-      <c r="V42" s="23" t="n"/>
-      <c r="W42" s="23" t="n"/>
-      <c r="X42" s="23" t="n"/>
-      <c r="Y42" s="23" t="n"/>
-      <c r="Z42" s="23" t="n"/>
-      <c r="AA42" s="23" t="n"/>
-      <c r="AB42" s="23" t="n"/>
-      <c r="AC42" s="23" t="n"/>
-      <c r="AD42" s="23" t="n"/>
-      <c r="AE42" s="23" t="n"/>
-      <c r="AF42" s="23" t="n"/>
-      <c r="AG42" s="23" t="n"/>
-      <c r="AH42" s="23" t="n"/>
-      <c r="AI42" s="23" t="n"/>
-      <c r="AJ42" s="23" t="n"/>
-      <c r="AK42" s="23" t="n"/>
+      <c r="A42" s="26" t="n"/>
+      <c r="B42" s="26" t="n"/>
+      <c r="C42" s="35" t="n"/>
+      <c r="D42" s="26" t="n"/>
+      <c r="E42" s="26" t="n"/>
+      <c r="F42" s="26" t="n"/>
+      <c r="G42" s="26" t="n"/>
+      <c r="H42" s="26" t="n"/>
+      <c r="I42" s="26" t="n"/>
+      <c r="J42" s="26" t="n"/>
+      <c r="K42" s="26" t="n"/>
+      <c r="L42" s="63" t="n"/>
+      <c r="M42" s="63" t="n"/>
+      <c r="N42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($N$3,0),$M42&gt;=$N$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($O$3,0),$M42&gt;=$O$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($P$3,0),$M42&gt;=$P$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($Q$3,0),$M42&gt;=$Q$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($R$3,0),$M42&gt;=$R$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($S$3,0),$M42&gt;=$S$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($T$3,0),$M42&gt;=$T$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($U$3,0),$M42&gt;=$U$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($V$3,0),$M42&gt;=$V$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($W$3,0),$M42&gt;=$W$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($X$3,0),$M42&gt;=$X$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($Y$3,0),$M42&gt;=$Y$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($Z$3,0),$M42&gt;=$Z$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AA$3,0),$M42&gt;=$AA$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AB$3,0),$M42&gt;=$AB$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AC$3,0),$M42&gt;=$AC$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AD$3,0),$M42&gt;=$AD$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AE$3,0),$M42&gt;=$AE$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AF$3,0),$M42&gt;=$AF$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AG$3,0),$M42&gt;=$AG$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AH$3,0),$M42&gt;=$AH$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AI$3,0),$M42&gt;=$AI$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AJ$3,0),$M42&gt;=$AJ$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK42" s="62">
+        <f>IF(OR($L42="",$M42=""),"",IF(AND($L42&lt;=EOMONTH($AK$3,0),$M42&gt;=$AK$3),IF($D42&lt;&gt;"",$D42,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL42" s="23" t="n"/>
       <c r="AM42" s="23" t="n"/>
+      <c r="AN42" s="23" t="n"/>
+      <c r="AO42" s="23" t="n"/>
+      <c r="AP42" s="23" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="52" t="n"/>
-      <c r="B43" s="52" t="n"/>
-      <c r="C43" s="53" t="n"/>
-      <c r="D43" s="52" t="n"/>
-      <c r="E43" s="52" t="n"/>
-      <c r="F43" s="52" t="n"/>
-      <c r="G43" s="52" t="n"/>
-      <c r="H43" s="52" t="n"/>
-      <c r="I43" s="52" t="n"/>
-      <c r="J43" s="52" t="n"/>
-      <c r="K43" s="52" t="n"/>
-      <c r="L43" s="54" t="n"/>
-      <c r="M43" s="54" t="n"/>
-      <c r="N43" s="52" t="n"/>
-      <c r="O43" s="53" t="n"/>
-      <c r="P43" s="23" t="n"/>
-      <c r="Q43" s="23" t="n"/>
-      <c r="R43" s="23" t="n"/>
-      <c r="S43" s="23" t="n"/>
-      <c r="T43" s="23" t="n"/>
-      <c r="U43" s="23" t="n"/>
-      <c r="V43" s="23" t="n"/>
-      <c r="W43" s="23" t="n"/>
-      <c r="X43" s="23" t="n"/>
-      <c r="Y43" s="23" t="n"/>
-      <c r="Z43" s="23" t="n"/>
-      <c r="AA43" s="23" t="n"/>
-      <c r="AB43" s="23" t="n"/>
-      <c r="AC43" s="23" t="n"/>
-      <c r="AD43" s="23" t="n"/>
-      <c r="AE43" s="23" t="n"/>
-      <c r="AF43" s="23" t="n"/>
-      <c r="AG43" s="23" t="n"/>
-      <c r="AH43" s="23" t="n"/>
-      <c r="AI43" s="23" t="n"/>
-      <c r="AJ43" s="23" t="n"/>
-      <c r="AK43" s="23" t="n"/>
+      <c r="A43" s="26" t="n"/>
+      <c r="B43" s="26" t="n"/>
+      <c r="C43" s="35" t="n"/>
+      <c r="D43" s="26" t="n"/>
+      <c r="E43" s="26" t="n"/>
+      <c r="F43" s="26" t="n"/>
+      <c r="G43" s="26" t="n"/>
+      <c r="H43" s="26" t="n"/>
+      <c r="I43" s="26" t="n"/>
+      <c r="J43" s="26" t="n"/>
+      <c r="K43" s="26" t="n"/>
+      <c r="L43" s="63" t="n"/>
+      <c r="M43" s="63" t="n"/>
+      <c r="N43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($N$3,0),$M43&gt;=$N$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($O$3,0),$M43&gt;=$O$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($P$3,0),$M43&gt;=$P$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($Q$3,0),$M43&gt;=$Q$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($R$3,0),$M43&gt;=$R$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($S$3,0),$M43&gt;=$S$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($T$3,0),$M43&gt;=$T$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($U$3,0),$M43&gt;=$U$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($V$3,0),$M43&gt;=$V$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($W$3,0),$M43&gt;=$W$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($X$3,0),$M43&gt;=$X$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($Y$3,0),$M43&gt;=$Y$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($Z$3,0),$M43&gt;=$Z$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AA$3,0),$M43&gt;=$AA$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AB$3,0),$M43&gt;=$AB$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AC$3,0),$M43&gt;=$AC$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AD$3,0),$M43&gt;=$AD$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AE$3,0),$M43&gt;=$AE$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AF$3,0),$M43&gt;=$AF$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AG$3,0),$M43&gt;=$AG$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AH$3,0),$M43&gt;=$AH$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AI$3,0),$M43&gt;=$AI$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AJ$3,0),$M43&gt;=$AJ$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK43" s="62">
+        <f>IF(OR($L43="",$M43=""),"",IF(AND($L43&lt;=EOMONTH($AK$3,0),$M43&gt;=$AK$3),IF($D43&lt;&gt;"",$D43,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL43" s="23" t="n"/>
       <c r="AM43" s="23" t="n"/>
+      <c r="AN43" s="23" t="n"/>
+      <c r="AO43" s="23" t="n"/>
+      <c r="AP43" s="23" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="52" t="n"/>
-      <c r="B44" s="52" t="n"/>
-      <c r="C44" s="53" t="n"/>
-      <c r="D44" s="52" t="n"/>
-      <c r="E44" s="52" t="n"/>
-      <c r="F44" s="52" t="n"/>
-      <c r="G44" s="52" t="n"/>
-      <c r="H44" s="52" t="n"/>
-      <c r="I44" s="52" t="n"/>
-      <c r="J44" s="52" t="n"/>
-      <c r="K44" s="52" t="n"/>
-      <c r="L44" s="54" t="n"/>
-      <c r="M44" s="54" t="n"/>
-      <c r="N44" s="52" t="n"/>
-      <c r="O44" s="53" t="n"/>
-      <c r="P44" s="23" t="n"/>
-      <c r="Q44" s="23" t="n"/>
-      <c r="R44" s="23" t="n"/>
-      <c r="S44" s="23" t="n"/>
-      <c r="T44" s="23" t="n"/>
-      <c r="U44" s="23" t="n"/>
-      <c r="V44" s="23" t="n"/>
-      <c r="W44" s="23" t="n"/>
-      <c r="X44" s="23" t="n"/>
-      <c r="Y44" s="23" t="n"/>
-      <c r="Z44" s="23" t="n"/>
-      <c r="AA44" s="23" t="n"/>
-      <c r="AB44" s="23" t="n"/>
-      <c r="AC44" s="23" t="n"/>
-      <c r="AD44" s="23" t="n"/>
-      <c r="AE44" s="23" t="n"/>
-      <c r="AF44" s="23" t="n"/>
-      <c r="AG44" s="23" t="n"/>
-      <c r="AH44" s="23" t="n"/>
-      <c r="AI44" s="23" t="n"/>
-      <c r="AJ44" s="23" t="n"/>
-      <c r="AK44" s="23" t="n"/>
+      <c r="A44" s="26" t="n"/>
+      <c r="B44" s="26" t="n"/>
+      <c r="C44" s="35" t="n"/>
+      <c r="D44" s="26" t="n"/>
+      <c r="E44" s="26" t="n"/>
+      <c r="F44" s="26" t="n"/>
+      <c r="G44" s="26" t="n"/>
+      <c r="H44" s="26" t="n"/>
+      <c r="I44" s="26" t="n"/>
+      <c r="J44" s="26" t="n"/>
+      <c r="K44" s="26" t="n"/>
+      <c r="L44" s="63" t="n"/>
+      <c r="M44" s="63" t="n"/>
+      <c r="N44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($N$3,0),$M44&gt;=$N$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($O$3,0),$M44&gt;=$O$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($P$3,0),$M44&gt;=$P$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($Q$3,0),$M44&gt;=$Q$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($R$3,0),$M44&gt;=$R$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($S$3,0),$M44&gt;=$S$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($T$3,0),$M44&gt;=$T$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($U$3,0),$M44&gt;=$U$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($V$3,0),$M44&gt;=$V$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($W$3,0),$M44&gt;=$W$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($X$3,0),$M44&gt;=$X$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($Y$3,0),$M44&gt;=$Y$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($Z$3,0),$M44&gt;=$Z$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AA$3,0),$M44&gt;=$AA$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AB$3,0),$M44&gt;=$AB$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AC$3,0),$M44&gt;=$AC$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AD$3,0),$M44&gt;=$AD$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AE$3,0),$M44&gt;=$AE$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AF$3,0),$M44&gt;=$AF$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AG$3,0),$M44&gt;=$AG$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AH$3,0),$M44&gt;=$AH$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AI$3,0),$M44&gt;=$AI$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AJ$3,0),$M44&gt;=$AJ$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK44" s="62">
+        <f>IF(OR($L44="",$M44=""),"",IF(AND($L44&lt;=EOMONTH($AK$3,0),$M44&gt;=$AK$3),IF($D44&lt;&gt;"",$D44,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL44" s="23" t="n"/>
       <c r="AM44" s="23" t="n"/>
+      <c r="AN44" s="23" t="n"/>
+      <c r="AO44" s="23" t="n"/>
+      <c r="AP44" s="23" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="52" t="n"/>
-      <c r="B45" s="52" t="n"/>
-      <c r="C45" s="53" t="n"/>
-      <c r="D45" s="52" t="n"/>
-      <c r="E45" s="52" t="n"/>
-      <c r="F45" s="52" t="n"/>
-      <c r="G45" s="52" t="n"/>
-      <c r="H45" s="52" t="n"/>
-      <c r="I45" s="52" t="n"/>
-      <c r="J45" s="52" t="n"/>
-      <c r="K45" s="52" t="n"/>
-      <c r="L45" s="54" t="n"/>
-      <c r="M45" s="54" t="n"/>
-      <c r="N45" s="52" t="n"/>
-      <c r="O45" s="53" t="n"/>
-      <c r="P45" s="23" t="n"/>
-      <c r="Q45" s="23" t="n"/>
-      <c r="R45" s="23" t="n"/>
-      <c r="S45" s="23" t="n"/>
-      <c r="T45" s="23" t="n"/>
-      <c r="U45" s="23" t="n"/>
-      <c r="V45" s="23" t="n"/>
-      <c r="W45" s="23" t="n"/>
-      <c r="X45" s="23" t="n"/>
-      <c r="Y45" s="23" t="n"/>
-      <c r="Z45" s="23" t="n"/>
-      <c r="AA45" s="23" t="n"/>
-      <c r="AB45" s="23" t="n"/>
-      <c r="AC45" s="23" t="n"/>
-      <c r="AD45" s="23" t="n"/>
-      <c r="AE45" s="23" t="n"/>
-      <c r="AF45" s="23" t="n"/>
-      <c r="AG45" s="23" t="n"/>
-      <c r="AH45" s="23" t="n"/>
-      <c r="AI45" s="23" t="n"/>
-      <c r="AJ45" s="23" t="n"/>
-      <c r="AK45" s="23" t="n"/>
+      <c r="A45" s="26" t="n"/>
+      <c r="B45" s="26" t="n"/>
+      <c r="C45" s="35" t="n"/>
+      <c r="D45" s="26" t="n"/>
+      <c r="E45" s="26" t="n"/>
+      <c r="F45" s="26" t="n"/>
+      <c r="G45" s="26" t="n"/>
+      <c r="H45" s="26" t="n"/>
+      <c r="I45" s="26" t="n"/>
+      <c r="J45" s="26" t="n"/>
+      <c r="K45" s="26" t="n"/>
+      <c r="L45" s="63" t="n"/>
+      <c r="M45" s="63" t="n"/>
+      <c r="N45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($N$3,0),$M45&gt;=$N$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($O$3,0),$M45&gt;=$O$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($P$3,0),$M45&gt;=$P$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($Q$3,0),$M45&gt;=$Q$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($R$3,0),$M45&gt;=$R$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($S$3,0),$M45&gt;=$S$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($T$3,0),$M45&gt;=$T$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($U$3,0),$M45&gt;=$U$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($V$3,0),$M45&gt;=$V$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($W$3,0),$M45&gt;=$W$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($X$3,0),$M45&gt;=$X$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($Y$3,0),$M45&gt;=$Y$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($Z$3,0),$M45&gt;=$Z$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AA$3,0),$M45&gt;=$AA$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AB$3,0),$M45&gt;=$AB$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AC$3,0),$M45&gt;=$AC$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AD$3,0),$M45&gt;=$AD$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AE$3,0),$M45&gt;=$AE$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AF$3,0),$M45&gt;=$AF$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AG$3,0),$M45&gt;=$AG$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AH$3,0),$M45&gt;=$AH$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AI$3,0),$M45&gt;=$AI$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AJ$3,0),$M45&gt;=$AJ$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK45" s="62">
+        <f>IF(OR($L45="",$M45=""),"",IF(AND($L45&lt;=EOMONTH($AK$3,0),$M45&gt;=$AK$3),IF($D45&lt;&gt;"",$D45,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL45" s="23" t="n"/>
       <c r="AM45" s="23" t="n"/>
+      <c r="AN45" s="23" t="n"/>
+      <c r="AO45" s="23" t="n"/>
+      <c r="AP45" s="23" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="52" t="n"/>
-      <c r="B46" s="52" t="n"/>
-      <c r="C46" s="53" t="n"/>
-      <c r="D46" s="52" t="n"/>
-      <c r="E46" s="52" t="n"/>
-      <c r="F46" s="52" t="n"/>
-      <c r="G46" s="52" t="n"/>
-      <c r="H46" s="52" t="n"/>
-      <c r="I46" s="52" t="n"/>
-      <c r="J46" s="52" t="n"/>
-      <c r="K46" s="52" t="n"/>
-      <c r="L46" s="54" t="n"/>
-      <c r="M46" s="54" t="n"/>
-      <c r="N46" s="52" t="n"/>
-      <c r="O46" s="53" t="n"/>
-      <c r="P46" s="23" t="n"/>
-      <c r="Q46" s="23" t="n"/>
-      <c r="R46" s="23" t="n"/>
-      <c r="S46" s="23" t="n"/>
-      <c r="T46" s="23" t="n"/>
-      <c r="U46" s="23" t="n"/>
-      <c r="V46" s="23" t="n"/>
-      <c r="W46" s="23" t="n"/>
-      <c r="X46" s="23" t="n"/>
-      <c r="Y46" s="23" t="n"/>
-      <c r="Z46" s="23" t="n"/>
-      <c r="AA46" s="23" t="n"/>
-      <c r="AB46" s="23" t="n"/>
-      <c r="AC46" s="23" t="n"/>
-      <c r="AD46" s="23" t="n"/>
-      <c r="AE46" s="23" t="n"/>
-      <c r="AF46" s="23" t="n"/>
-      <c r="AG46" s="23" t="n"/>
-      <c r="AH46" s="23" t="n"/>
-      <c r="AI46" s="23" t="n"/>
-      <c r="AJ46" s="23" t="n"/>
-      <c r="AK46" s="23" t="n"/>
+      <c r="A46" s="26" t="n"/>
+      <c r="B46" s="26" t="n"/>
+      <c r="C46" s="35" t="n"/>
+      <c r="D46" s="26" t="n"/>
+      <c r="E46" s="26" t="n"/>
+      <c r="F46" s="26" t="n"/>
+      <c r="G46" s="26" t="n"/>
+      <c r="H46" s="26" t="n"/>
+      <c r="I46" s="26" t="n"/>
+      <c r="J46" s="26" t="n"/>
+      <c r="K46" s="26" t="n"/>
+      <c r="L46" s="63" t="n"/>
+      <c r="M46" s="63" t="n"/>
+      <c r="N46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($N$3,0),$M46&gt;=$N$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($O$3,0),$M46&gt;=$O$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($P$3,0),$M46&gt;=$P$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($Q$3,0),$M46&gt;=$Q$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($R$3,0),$M46&gt;=$R$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($S$3,0),$M46&gt;=$S$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($T$3,0),$M46&gt;=$T$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($U$3,0),$M46&gt;=$U$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($V$3,0),$M46&gt;=$V$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($W$3,0),$M46&gt;=$W$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($X$3,0),$M46&gt;=$X$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($Y$3,0),$M46&gt;=$Y$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($Z$3,0),$M46&gt;=$Z$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AA$3,0),$M46&gt;=$AA$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AB$3,0),$M46&gt;=$AB$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AC$3,0),$M46&gt;=$AC$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AD$3,0),$M46&gt;=$AD$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AE$3,0),$M46&gt;=$AE$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AF$3,0),$M46&gt;=$AF$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AG$3,0),$M46&gt;=$AG$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AH$3,0),$M46&gt;=$AH$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AI$3,0),$M46&gt;=$AI$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AJ$3,0),$M46&gt;=$AJ$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK46" s="62">
+        <f>IF(OR($L46="",$M46=""),"",IF(AND($L46&lt;=EOMONTH($AK$3,0),$M46&gt;=$AK$3),IF($D46&lt;&gt;"",$D46,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL46" s="23" t="n"/>
       <c r="AM46" s="23" t="n"/>
+      <c r="AN46" s="23" t="n"/>
+      <c r="AO46" s="23" t="n"/>
+      <c r="AP46" s="23" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="52" t="n"/>
-      <c r="B47" s="52" t="n"/>
-      <c r="C47" s="53" t="n"/>
-      <c r="D47" s="52" t="n"/>
-      <c r="E47" s="52" t="n"/>
-      <c r="F47" s="52" t="n"/>
-      <c r="G47" s="52" t="n"/>
-      <c r="H47" s="52" t="n"/>
-      <c r="I47" s="52" t="n"/>
-      <c r="J47" s="52" t="n"/>
-      <c r="K47" s="52" t="n"/>
-      <c r="L47" s="54" t="n"/>
-      <c r="M47" s="54" t="n"/>
-      <c r="N47" s="52" t="n"/>
-      <c r="O47" s="53" t="n"/>
-      <c r="P47" s="23" t="n"/>
-      <c r="Q47" s="23" t="n"/>
-      <c r="R47" s="23" t="n"/>
-      <c r="S47" s="23" t="n"/>
-      <c r="T47" s="23" t="n"/>
-      <c r="U47" s="23" t="n"/>
-      <c r="V47" s="23" t="n"/>
-      <c r="W47" s="23" t="n"/>
-      <c r="X47" s="23" t="n"/>
-      <c r="Y47" s="23" t="n"/>
-      <c r="Z47" s="23" t="n"/>
-      <c r="AA47" s="23" t="n"/>
-      <c r="AB47" s="23" t="n"/>
-      <c r="AC47" s="23" t="n"/>
-      <c r="AD47" s="23" t="n"/>
-      <c r="AE47" s="23" t="n"/>
-      <c r="AF47" s="23" t="n"/>
-      <c r="AG47" s="23" t="n"/>
-      <c r="AH47" s="23" t="n"/>
-      <c r="AI47" s="23" t="n"/>
-      <c r="AJ47" s="23" t="n"/>
-      <c r="AK47" s="23" t="n"/>
+      <c r="A47" s="26" t="n"/>
+      <c r="B47" s="26" t="n"/>
+      <c r="C47" s="35" t="n"/>
+      <c r="D47" s="26" t="n"/>
+      <c r="E47" s="26" t="n"/>
+      <c r="F47" s="26" t="n"/>
+      <c r="G47" s="26" t="n"/>
+      <c r="H47" s="26" t="n"/>
+      <c r="I47" s="26" t="n"/>
+      <c r="J47" s="26" t="n"/>
+      <c r="K47" s="26" t="n"/>
+      <c r="L47" s="63" t="n"/>
+      <c r="M47" s="63" t="n"/>
+      <c r="N47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($N$3,0),$M47&gt;=$N$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($O$3,0),$M47&gt;=$O$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($P$3,0),$M47&gt;=$P$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($Q$3,0),$M47&gt;=$Q$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($R$3,0),$M47&gt;=$R$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($S$3,0),$M47&gt;=$S$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($T$3,0),$M47&gt;=$T$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($U$3,0),$M47&gt;=$U$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($V$3,0),$M47&gt;=$V$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($W$3,0),$M47&gt;=$W$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($X$3,0),$M47&gt;=$X$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($Y$3,0),$M47&gt;=$Y$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($Z$3,0),$M47&gt;=$Z$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AA$3,0),$M47&gt;=$AA$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AB$3,0),$M47&gt;=$AB$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AC$3,0),$M47&gt;=$AC$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AD$3,0),$M47&gt;=$AD$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AE$3,0),$M47&gt;=$AE$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AF$3,0),$M47&gt;=$AF$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AG$3,0),$M47&gt;=$AG$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AH$3,0),$M47&gt;=$AH$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AI$3,0),$M47&gt;=$AI$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AJ$3,0),$M47&gt;=$AJ$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK47" s="62">
+        <f>IF(OR($L47="",$M47=""),"",IF(AND($L47&lt;=EOMONTH($AK$3,0),$M47&gt;=$AK$3),IF($D47&lt;&gt;"",$D47,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL47" s="23" t="n"/>
       <c r="AM47" s="23" t="n"/>
+      <c r="AN47" s="23" t="n"/>
+      <c r="AO47" s="23" t="n"/>
+      <c r="AP47" s="23" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="52" t="n"/>
-      <c r="B48" s="52" t="n"/>
-      <c r="C48" s="53" t="n"/>
-      <c r="D48" s="52" t="n"/>
-      <c r="E48" s="52" t="n"/>
-      <c r="F48" s="52" t="n"/>
-      <c r="G48" s="52" t="n"/>
-      <c r="H48" s="52" t="n"/>
-      <c r="I48" s="52" t="n"/>
-      <c r="J48" s="52" t="n"/>
-      <c r="K48" s="52" t="n"/>
-      <c r="L48" s="54" t="n"/>
-      <c r="M48" s="54" t="n"/>
-      <c r="N48" s="52" t="n"/>
-      <c r="O48" s="53" t="n"/>
-      <c r="P48" s="23" t="n"/>
-      <c r="Q48" s="23" t="n"/>
-      <c r="R48" s="23" t="n"/>
-      <c r="S48" s="23" t="n"/>
-      <c r="T48" s="23" t="n"/>
-      <c r="U48" s="23" t="n"/>
-      <c r="V48" s="23" t="n"/>
-      <c r="W48" s="23" t="n"/>
-      <c r="X48" s="23" t="n"/>
-      <c r="Y48" s="23" t="n"/>
-      <c r="Z48" s="23" t="n"/>
-      <c r="AA48" s="23" t="n"/>
-      <c r="AB48" s="23" t="n"/>
-      <c r="AC48" s="23" t="n"/>
-      <c r="AD48" s="23" t="n"/>
-      <c r="AE48" s="23" t="n"/>
-      <c r="AF48" s="23" t="n"/>
-      <c r="AG48" s="23" t="n"/>
-      <c r="AH48" s="23" t="n"/>
-      <c r="AI48" s="23" t="n"/>
-      <c r="AJ48" s="23" t="n"/>
-      <c r="AK48" s="23" t="n"/>
+      <c r="A48" s="26" t="n"/>
+      <c r="B48" s="26" t="n"/>
+      <c r="C48" s="35" t="n"/>
+      <c r="D48" s="26" t="n"/>
+      <c r="E48" s="26" t="n"/>
+      <c r="F48" s="26" t="n"/>
+      <c r="G48" s="26" t="n"/>
+      <c r="H48" s="26" t="n"/>
+      <c r="I48" s="26" t="n"/>
+      <c r="J48" s="26" t="n"/>
+      <c r="K48" s="26" t="n"/>
+      <c r="L48" s="63" t="n"/>
+      <c r="M48" s="63" t="n"/>
+      <c r="N48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($N$3,0),$M48&gt;=$N$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($O$3,0),$M48&gt;=$O$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($P$3,0),$M48&gt;=$P$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($Q$3,0),$M48&gt;=$Q$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($R$3,0),$M48&gt;=$R$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($S$3,0),$M48&gt;=$S$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($T$3,0),$M48&gt;=$T$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($U$3,0),$M48&gt;=$U$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($V$3,0),$M48&gt;=$V$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($W$3,0),$M48&gt;=$W$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($X$3,0),$M48&gt;=$X$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($Y$3,0),$M48&gt;=$Y$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($Z$3,0),$M48&gt;=$Z$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AA$3,0),$M48&gt;=$AA$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AB$3,0),$M48&gt;=$AB$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AC$3,0),$M48&gt;=$AC$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AD$3,0),$M48&gt;=$AD$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AE$3,0),$M48&gt;=$AE$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AF$3,0),$M48&gt;=$AF$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AG$3,0),$M48&gt;=$AG$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AH$3,0),$M48&gt;=$AH$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AI$3,0),$M48&gt;=$AI$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AJ$3,0),$M48&gt;=$AJ$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK48" s="62">
+        <f>IF(OR($L48="",$M48=""),"",IF(AND($L48&lt;=EOMONTH($AK$3,0),$M48&gt;=$AK$3),IF($D48&lt;&gt;"",$D48,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL48" s="23" t="n"/>
       <c r="AM48" s="23" t="n"/>
+      <c r="AN48" s="23" t="n"/>
+      <c r="AO48" s="23" t="n"/>
+      <c r="AP48" s="23" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="52" t="n"/>
-      <c r="B49" s="52" t="n"/>
-      <c r="C49" s="53" t="n"/>
-      <c r="D49" s="52" t="n"/>
-      <c r="E49" s="52" t="n"/>
-      <c r="F49" s="52" t="n"/>
-      <c r="G49" s="52" t="n"/>
-      <c r="H49" s="52" t="n"/>
-      <c r="I49" s="52" t="n"/>
-      <c r="J49" s="52" t="n"/>
-      <c r="K49" s="52" t="n"/>
-      <c r="L49" s="54" t="n"/>
-      <c r="M49" s="54" t="n"/>
-      <c r="N49" s="52" t="n"/>
-      <c r="O49" s="53" t="n"/>
-      <c r="P49" s="23" t="n"/>
-      <c r="Q49" s="23" t="n"/>
-      <c r="R49" s="23" t="n"/>
-      <c r="S49" s="23" t="n"/>
-      <c r="T49" s="23" t="n"/>
-      <c r="U49" s="23" t="n"/>
-      <c r="V49" s="23" t="n"/>
-      <c r="W49" s="23" t="n"/>
-      <c r="X49" s="23" t="n"/>
-      <c r="Y49" s="23" t="n"/>
-      <c r="Z49" s="23" t="n"/>
-      <c r="AA49" s="23" t="n"/>
-      <c r="AB49" s="23" t="n"/>
-      <c r="AC49" s="23" t="n"/>
-      <c r="AD49" s="23" t="n"/>
-      <c r="AE49" s="23" t="n"/>
-      <c r="AF49" s="23" t="n"/>
-      <c r="AG49" s="23" t="n"/>
-      <c r="AH49" s="23" t="n"/>
-      <c r="AI49" s="23" t="n"/>
-      <c r="AJ49" s="23" t="n"/>
-      <c r="AK49" s="23" t="n"/>
+      <c r="A49" s="26" t="n"/>
+      <c r="B49" s="26" t="n"/>
+      <c r="C49" s="35" t="n"/>
+      <c r="D49" s="26" t="n"/>
+      <c r="E49" s="26" t="n"/>
+      <c r="F49" s="26" t="n"/>
+      <c r="G49" s="26" t="n"/>
+      <c r="H49" s="26" t="n"/>
+      <c r="I49" s="26" t="n"/>
+      <c r="J49" s="26" t="n"/>
+      <c r="K49" s="26" t="n"/>
+      <c r="L49" s="63" t="n"/>
+      <c r="M49" s="63" t="n"/>
+      <c r="N49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($N$3,0),$M49&gt;=$N$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($O$3,0),$M49&gt;=$O$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($P$3,0),$M49&gt;=$P$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($Q$3,0),$M49&gt;=$Q$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($R$3,0),$M49&gt;=$R$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($S$3,0),$M49&gt;=$S$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($T$3,0),$M49&gt;=$T$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($U$3,0),$M49&gt;=$U$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($V$3,0),$M49&gt;=$V$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($W$3,0),$M49&gt;=$W$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($X$3,0),$M49&gt;=$X$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($Y$3,0),$M49&gt;=$Y$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($Z$3,0),$M49&gt;=$Z$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AA$3,0),$M49&gt;=$AA$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AB$3,0),$M49&gt;=$AB$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AC$3,0),$M49&gt;=$AC$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AD$3,0),$M49&gt;=$AD$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AE$3,0),$M49&gt;=$AE$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AF$3,0),$M49&gt;=$AF$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AG$3,0),$M49&gt;=$AG$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AH$3,0),$M49&gt;=$AH$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AI$3,0),$M49&gt;=$AI$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AJ$3,0),$M49&gt;=$AJ$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK49" s="62">
+        <f>IF(OR($L49="",$M49=""),"",IF(AND($L49&lt;=EOMONTH($AK$3,0),$M49&gt;=$AK$3),IF($D49&lt;&gt;"",$D49,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL49" s="23" t="n"/>
       <c r="AM49" s="23" t="n"/>
+      <c r="AN49" s="23" t="n"/>
+      <c r="AO49" s="23" t="n"/>
+      <c r="AP49" s="23" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="52" t="n"/>
-      <c r="B50" s="52" t="n"/>
-      <c r="C50" s="53" t="n"/>
-      <c r="D50" s="52" t="n"/>
-      <c r="E50" s="52" t="n"/>
-      <c r="F50" s="52" t="n"/>
-      <c r="G50" s="52" t="n"/>
-      <c r="H50" s="52" t="n"/>
-      <c r="I50" s="52" t="n"/>
-      <c r="J50" s="52" t="n"/>
-      <c r="K50" s="52" t="n"/>
-      <c r="L50" s="54" t="n"/>
-      <c r="M50" s="54" t="n"/>
-      <c r="N50" s="52" t="n"/>
-      <c r="O50" s="53" t="n"/>
-      <c r="P50" s="23" t="n"/>
-      <c r="Q50" s="23" t="n"/>
-      <c r="R50" s="23" t="n"/>
-      <c r="S50" s="23" t="n"/>
-      <c r="T50" s="23" t="n"/>
-      <c r="U50" s="23" t="n"/>
-      <c r="V50" s="23" t="n"/>
-      <c r="W50" s="23" t="n"/>
-      <c r="X50" s="23" t="n"/>
-      <c r="Y50" s="23" t="n"/>
-      <c r="Z50" s="23" t="n"/>
-      <c r="AA50" s="23" t="n"/>
-      <c r="AB50" s="23" t="n"/>
-      <c r="AC50" s="23" t="n"/>
-      <c r="AD50" s="23" t="n"/>
-      <c r="AE50" s="23" t="n"/>
-      <c r="AF50" s="23" t="n"/>
-      <c r="AG50" s="23" t="n"/>
-      <c r="AH50" s="23" t="n"/>
-      <c r="AI50" s="23" t="n"/>
-      <c r="AJ50" s="23" t="n"/>
-      <c r="AK50" s="23" t="n"/>
+      <c r="A50" s="26" t="n"/>
+      <c r="B50" s="26" t="n"/>
+      <c r="C50" s="35" t="n"/>
+      <c r="D50" s="26" t="n"/>
+      <c r="E50" s="26" t="n"/>
+      <c r="F50" s="26" t="n"/>
+      <c r="G50" s="26" t="n"/>
+      <c r="H50" s="26" t="n"/>
+      <c r="I50" s="26" t="n"/>
+      <c r="J50" s="26" t="n"/>
+      <c r="K50" s="26" t="n"/>
+      <c r="L50" s="63" t="n"/>
+      <c r="M50" s="63" t="n"/>
+      <c r="N50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($N$3,0),$M50&gt;=$N$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($O$3,0),$M50&gt;=$O$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($P$3,0),$M50&gt;=$P$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($Q$3,0),$M50&gt;=$Q$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($R$3,0),$M50&gt;=$R$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($S$3,0),$M50&gt;=$S$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($T$3,0),$M50&gt;=$T$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($U$3,0),$M50&gt;=$U$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($V$3,0),$M50&gt;=$V$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($W$3,0),$M50&gt;=$W$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($X$3,0),$M50&gt;=$X$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($Y$3,0),$M50&gt;=$Y$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($Z$3,0),$M50&gt;=$Z$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AA$3,0),$M50&gt;=$AA$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AB$3,0),$M50&gt;=$AB$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AC$3,0),$M50&gt;=$AC$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AD$3,0),$M50&gt;=$AD$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AE$3,0),$M50&gt;=$AE$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AF$3,0),$M50&gt;=$AF$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AG$3,0),$M50&gt;=$AG$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AH$3,0),$M50&gt;=$AH$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AI$3,0),$M50&gt;=$AI$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AJ$3,0),$M50&gt;=$AJ$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK50" s="62">
+        <f>IF(OR($L50="",$M50=""),"",IF(AND($L50&lt;=EOMONTH($AK$3,0),$M50&gt;=$AK$3),IF($D50&lt;&gt;"",$D50,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL50" s="23" t="n"/>
       <c r="AM50" s="23" t="n"/>
+      <c r="AN50" s="23" t="n"/>
+      <c r="AO50" s="23" t="n"/>
+      <c r="AP50" s="23" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="23" t="n"/>
-      <c r="B51" s="23" t="n"/>
-      <c r="C51" s="23" t="n"/>
-      <c r="D51" s="23" t="n"/>
-      <c r="E51" s="23" t="n"/>
-      <c r="F51" s="23" t="n"/>
-      <c r="G51" s="23" t="n"/>
-      <c r="H51" s="23" t="n"/>
-      <c r="I51" s="23" t="n"/>
-      <c r="J51" s="23" t="n"/>
-      <c r="K51" s="23" t="n"/>
-      <c r="L51" s="23" t="n"/>
-      <c r="M51" s="23" t="n"/>
-      <c r="N51" s="23" t="n"/>
-      <c r="O51" s="23" t="n"/>
-      <c r="P51" s="23" t="n"/>
-      <c r="Q51" s="23" t="n"/>
-      <c r="R51" s="23" t="n"/>
-      <c r="S51" s="23" t="n"/>
-      <c r="T51" s="23" t="n"/>
-      <c r="U51" s="23" t="n"/>
-      <c r="V51" s="23" t="n"/>
-      <c r="W51" s="23" t="n"/>
-      <c r="X51" s="23" t="n"/>
-      <c r="Y51" s="23" t="n"/>
-      <c r="Z51" s="23" t="n"/>
-      <c r="AA51" s="23" t="n"/>
-      <c r="AB51" s="23" t="n"/>
-      <c r="AC51" s="23" t="n"/>
-      <c r="AD51" s="23" t="n"/>
-      <c r="AE51" s="23" t="n"/>
-      <c r="AF51" s="23" t="n"/>
-      <c r="AG51" s="23" t="n"/>
-      <c r="AH51" s="23" t="n"/>
-      <c r="AI51" s="23" t="n"/>
-      <c r="AJ51" s="23" t="n"/>
-      <c r="AK51" s="23" t="n"/>
+      <c r="A51" s="26" t="n"/>
+      <c r="B51" s="26" t="n"/>
+      <c r="C51" s="35" t="n"/>
+      <c r="D51" s="26" t="n"/>
+      <c r="E51" s="26" t="n"/>
+      <c r="F51" s="26" t="n"/>
+      <c r="G51" s="26" t="n"/>
+      <c r="H51" s="26" t="n"/>
+      <c r="I51" s="26" t="n"/>
+      <c r="J51" s="26" t="n"/>
+      <c r="K51" s="26" t="n"/>
+      <c r="L51" s="63" t="n"/>
+      <c r="M51" s="63" t="n"/>
+      <c r="N51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($N$3,0),$M51&gt;=$N$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($O$3,0),$M51&gt;=$O$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($P$3,0),$M51&gt;=$P$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($Q$3,0),$M51&gt;=$Q$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($R$3,0),$M51&gt;=$R$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($S$3,0),$M51&gt;=$S$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($T$3,0),$M51&gt;=$T$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($U$3,0),$M51&gt;=$U$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($V$3,0),$M51&gt;=$V$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($W$3,0),$M51&gt;=$W$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($X$3,0),$M51&gt;=$X$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($Y$3,0),$M51&gt;=$Y$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($Z$3,0),$M51&gt;=$Z$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AA$3,0),$M51&gt;=$AA$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AB$3,0),$M51&gt;=$AB$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AC$3,0),$M51&gt;=$AC$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AD$3,0),$M51&gt;=$AD$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AE$3,0),$M51&gt;=$AE$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AF$3,0),$M51&gt;=$AF$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AG$3,0),$M51&gt;=$AG$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AH$3,0),$M51&gt;=$AH$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AI$3,0),$M51&gt;=$AI$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AJ$3,0),$M51&gt;=$AJ$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK51" s="62">
+        <f>IF(OR($L51="",$M51=""),"",IF(AND($L51&lt;=EOMONTH($AK$3,0),$M51&gt;=$AK$3),IF($D51&lt;&gt;"",$D51,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL51" s="23" t="n"/>
       <c r="AM51" s="23" t="n"/>
+      <c r="AN51" s="23" t="n"/>
+      <c r="AO51" s="23" t="n"/>
+      <c r="AP51" s="23" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="23" t="n"/>
-      <c r="B52" s="23" t="n"/>
-      <c r="C52" s="23" t="n"/>
-      <c r="D52" s="23" t="n"/>
-      <c r="E52" s="23" t="n"/>
-      <c r="F52" s="23" t="n"/>
-      <c r="G52" s="23" t="n"/>
-      <c r="H52" s="23" t="n"/>
-      <c r="I52" s="23" t="n"/>
-      <c r="J52" s="23" t="n"/>
-      <c r="K52" s="23" t="n"/>
-      <c r="L52" s="23" t="n"/>
-      <c r="M52" s="23" t="n"/>
-      <c r="N52" s="23" t="n"/>
-      <c r="O52" s="23" t="n"/>
-      <c r="P52" s="23" t="n"/>
-      <c r="Q52" s="23" t="n"/>
-      <c r="R52" s="23" t="n"/>
-      <c r="S52" s="23" t="n"/>
-      <c r="T52" s="23" t="n"/>
-      <c r="U52" s="23" t="n"/>
-      <c r="V52" s="23" t="n"/>
-      <c r="W52" s="23" t="n"/>
-      <c r="X52" s="23" t="n"/>
-      <c r="Y52" s="23" t="n"/>
-      <c r="Z52" s="23" t="n"/>
-      <c r="AA52" s="23" t="n"/>
-      <c r="AB52" s="23" t="n"/>
-      <c r="AC52" s="23" t="n"/>
-      <c r="AD52" s="23" t="n"/>
-      <c r="AE52" s="23" t="n"/>
-      <c r="AF52" s="23" t="n"/>
-      <c r="AG52" s="23" t="n"/>
-      <c r="AH52" s="23" t="n"/>
-      <c r="AI52" s="23" t="n"/>
-      <c r="AJ52" s="23" t="n"/>
-      <c r="AK52" s="23" t="n"/>
+      <c r="A52" s="26" t="n"/>
+      <c r="B52" s="26" t="n"/>
+      <c r="C52" s="35" t="n"/>
+      <c r="D52" s="26" t="n"/>
+      <c r="E52" s="26" t="n"/>
+      <c r="F52" s="26" t="n"/>
+      <c r="G52" s="26" t="n"/>
+      <c r="H52" s="26" t="n"/>
+      <c r="I52" s="26" t="n"/>
+      <c r="J52" s="26" t="n"/>
+      <c r="K52" s="26" t="n"/>
+      <c r="L52" s="63" t="n"/>
+      <c r="M52" s="63" t="n"/>
+      <c r="N52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($N$3,0),$M52&gt;=$N$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($O$3,0),$M52&gt;=$O$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($P$3,0),$M52&gt;=$P$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($Q$3,0),$M52&gt;=$Q$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($R$3,0),$M52&gt;=$R$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($S$3,0),$M52&gt;=$S$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($T$3,0),$M52&gt;=$T$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($U$3,0),$M52&gt;=$U$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($V$3,0),$M52&gt;=$V$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($W$3,0),$M52&gt;=$W$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($X$3,0),$M52&gt;=$X$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($Y$3,0),$M52&gt;=$Y$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($Z$3,0),$M52&gt;=$Z$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AA$3,0),$M52&gt;=$AA$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AB$3,0),$M52&gt;=$AB$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AC$3,0),$M52&gt;=$AC$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AD$3,0),$M52&gt;=$AD$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AE$3,0),$M52&gt;=$AE$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AF$3,0),$M52&gt;=$AF$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AG$3,0),$M52&gt;=$AG$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AH$3,0),$M52&gt;=$AH$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AI$3,0),$M52&gt;=$AI$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AJ$3,0),$M52&gt;=$AJ$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK52" s="62">
+        <f>IF(OR($L52="",$M52=""),"",IF(AND($L52&lt;=EOMONTH($AK$3,0),$M52&gt;=$AK$3),IF($D52&lt;&gt;"",$D52,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL52" s="23" t="n"/>
       <c r="AM52" s="23" t="n"/>
+      <c r="AN52" s="23" t="n"/>
+      <c r="AO52" s="23" t="n"/>
+      <c r="AP52" s="23" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="23" t="n"/>
-      <c r="B53" s="23" t="n"/>
-      <c r="C53" s="23" t="n"/>
-      <c r="D53" s="23" t="n"/>
-      <c r="E53" s="23" t="n"/>
-      <c r="F53" s="23" t="n"/>
-      <c r="G53" s="23" t="n"/>
-      <c r="H53" s="23" t="n"/>
-      <c r="I53" s="23" t="n"/>
-      <c r="J53" s="23" t="n"/>
-      <c r="K53" s="23" t="n"/>
-      <c r="L53" s="23" t="n"/>
-      <c r="M53" s="23" t="n"/>
-      <c r="N53" s="23" t="n"/>
-      <c r="O53" s="23" t="n"/>
-      <c r="P53" s="23" t="n"/>
-      <c r="Q53" s="23" t="n"/>
-      <c r="R53" s="23" t="n"/>
-      <c r="S53" s="23" t="n"/>
-      <c r="T53" s="23" t="n"/>
-      <c r="U53" s="23" t="n"/>
-      <c r="V53" s="23" t="n"/>
-      <c r="W53" s="23" t="n"/>
-      <c r="X53" s="23" t="n"/>
-      <c r="Y53" s="23" t="n"/>
-      <c r="Z53" s="23" t="n"/>
-      <c r="AA53" s="23" t="n"/>
-      <c r="AB53" s="23" t="n"/>
-      <c r="AC53" s="23" t="n"/>
-      <c r="AD53" s="23" t="n"/>
-      <c r="AE53" s="23" t="n"/>
-      <c r="AF53" s="23" t="n"/>
-      <c r="AG53" s="23" t="n"/>
-      <c r="AH53" s="23" t="n"/>
-      <c r="AI53" s="23" t="n"/>
-      <c r="AJ53" s="23" t="n"/>
-      <c r="AK53" s="23" t="n"/>
+      <c r="A53" s="26" t="n"/>
+      <c r="B53" s="26" t="n"/>
+      <c r="C53" s="35" t="n"/>
+      <c r="D53" s="26" t="n"/>
+      <c r="E53" s="26" t="n"/>
+      <c r="F53" s="26" t="n"/>
+      <c r="G53" s="26" t="n"/>
+      <c r="H53" s="26" t="n"/>
+      <c r="I53" s="26" t="n"/>
+      <c r="J53" s="26" t="n"/>
+      <c r="K53" s="26" t="n"/>
+      <c r="L53" s="63" t="n"/>
+      <c r="M53" s="63" t="n"/>
+      <c r="N53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($N$3,0),$M53&gt;=$N$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="O53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($O$3,0),$M53&gt;=$O$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="P53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($P$3,0),$M53&gt;=$P$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Q53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($Q$3,0),$M53&gt;=$Q$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="R53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($R$3,0),$M53&gt;=$R$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="S53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($S$3,0),$M53&gt;=$S$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="T53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($T$3,0),$M53&gt;=$T$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="U53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($U$3,0),$M53&gt;=$U$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="V53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($V$3,0),$M53&gt;=$V$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="W53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($W$3,0),$M53&gt;=$W$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="X53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($X$3,0),$M53&gt;=$X$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Y53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($Y$3,0),$M53&gt;=$Y$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="Z53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($Z$3,0),$M53&gt;=$Z$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AA53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AA$3,0),$M53&gt;=$AA$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AB53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AB$3,0),$M53&gt;=$AB$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AC53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AC$3,0),$M53&gt;=$AC$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AD53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AD$3,0),$M53&gt;=$AD$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AE53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AE$3,0),$M53&gt;=$AE$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AF53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AF$3,0),$M53&gt;=$AF$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AG53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AG$3,0),$M53&gt;=$AG$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AH53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AH$3,0),$M53&gt;=$AH$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AI53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AI$3,0),$M53&gt;=$AI$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AJ53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AJ$3,0),$M53&gt;=$AJ$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
+      <c r="AK53" s="62">
+        <f>IF(OR($L53="",$M53=""),"",IF(AND($L53&lt;=EOMONTH($AK$3,0),$M53&gt;=$AK$3),IF($D53&lt;&gt;"",$D53,"●"),""))</f>
+        <v/>
+      </c>
       <c r="AL53" s="23" t="n"/>
       <c r="AM53" s="23" t="n"/>
+      <c r="AN53" s="23" t="n"/>
+      <c r="AO53" s="23" t="n"/>
+      <c r="AP53" s="23" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="23" t="n"/>
@@ -4147,57 +8053,85 @@
       <c r="AK54" s="23" t="n"/>
       <c r="AL54" s="23" t="n"/>
       <c r="AM54" s="23" t="n"/>
+      <c r="AN54" s="23" t="n"/>
+      <c r="AO54" s="23" t="n"/>
+      <c r="AP54" s="23" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O50"/>
-  <mergeCells count="9">
+  <autoFilter ref="A3:AK3"/>
+  <mergeCells count="31">
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:K1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:K50">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="2">
+  <conditionalFormatting sqref="N4:AK53">
+    <cfRule type="expression" priority="1" dxfId="19">
+      <formula>=N4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="20">
+      <formula>=N4="B"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="21">
+      <formula>=N4="C"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" dxfId="22">
+      <formula>=N4="D"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" dxfId="23">
+      <formula>=N4="E"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="24">
+      <formula>=N4="●"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:K53">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="2">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="16">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="16">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="0">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="6">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="13">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="13">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N50">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="8">
-      <formula>"Plan"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="11">
-      <formula>"Active"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="10">
-      <formula>"Done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="7">
-      <formula>"Delay"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="E3:K50" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="1">
+    <dataValidation sqref="E4:K53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>RASI_List</formula1>
-    </dataValidation>
-    <dataValidation sqref="N3:N50" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>Status_List</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4329,7 +8263,7 @@
         </is>
       </c>
       <c r="C2" s="15">
-        <f>IF(B2="","",VLOOKUP(B2,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B2="","",VLOOKUP(B2,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D2" s="14" t="n"/>
@@ -4387,7 +8321,7 @@
         </is>
       </c>
       <c r="C3" s="15">
-        <f>IF(B3="","",VLOOKUP(B3,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B3="","",VLOOKUP(B3,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D3" s="14" t="inlineStr">
@@ -4449,7 +8383,7 @@
         </is>
       </c>
       <c r="C4" s="15">
-        <f>IF(B4="","",VLOOKUP(B4,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B4="","",VLOOKUP(B4,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D4" s="14" t="inlineStr">
@@ -4511,7 +8445,7 @@
         </is>
       </c>
       <c r="C5" s="15">
-        <f>IF(B5="","",VLOOKUP(B5,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B5="","",VLOOKUP(B5,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D5" s="14" t="inlineStr">
@@ -4573,7 +8507,7 @@
         </is>
       </c>
       <c r="C6" s="15">
-        <f>IF(B6="","",VLOOKUP(B6,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B6="","",VLOOKUP(B6,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D6" s="14" t="n"/>
@@ -4631,7 +8565,7 @@
         </is>
       </c>
       <c r="C7" s="15">
-        <f>IF(B7="","",VLOOKUP(B7,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B7="","",VLOOKUP(B7,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -4689,7 +8623,7 @@
         </is>
       </c>
       <c r="C8" s="15">
-        <f>IF(B8="","",VLOOKUP(B8,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B8="","",VLOOKUP(B8,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D8" s="14" t="n"/>
@@ -4747,7 +8681,7 @@
         </is>
       </c>
       <c r="C9" s="15">
-        <f>IF(B9="","",VLOOKUP(B9,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B9="","",VLOOKUP(B9,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D9" s="14" t="inlineStr">
@@ -4809,7 +8743,7 @@
         </is>
       </c>
       <c r="C10" s="15">
-        <f>IF(B10="","",VLOOKUP(B10,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B10="","",VLOOKUP(B10,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D10" s="14" t="inlineStr">
@@ -4871,7 +8805,7 @@
         </is>
       </c>
       <c r="C11" s="15">
-        <f>IF(B11="","",VLOOKUP(B11,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B11="","",VLOOKUP(B11,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D11" s="14" t="inlineStr">
@@ -4933,7 +8867,7 @@
         </is>
       </c>
       <c r="C12" s="15">
-        <f>IF(B12="","",VLOOKUP(B12,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B12="","",VLOOKUP(B12,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D12" s="14" t="inlineStr">
@@ -4995,7 +8929,7 @@
         </is>
       </c>
       <c r="C13" s="15">
-        <f>IF(B13="","",VLOOKUP(B13,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B13="","",VLOOKUP(B13,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D13" s="14" t="inlineStr">
@@ -5057,7 +8991,7 @@
         </is>
       </c>
       <c r="C14" s="15">
-        <f>IF(B14="","",VLOOKUP(B14,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B14="","",VLOOKUP(B14,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D14" s="14" t="inlineStr">
@@ -5119,7 +9053,7 @@
         </is>
       </c>
       <c r="C15" s="15">
-        <f>IF(B15="","",VLOOKUP(B15,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B15="","",VLOOKUP(B15,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D15" s="14" t="inlineStr">
@@ -5181,7 +9115,7 @@
         </is>
       </c>
       <c r="C16" s="15">
-        <f>IF(B16="","",VLOOKUP(B16,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B16="","",VLOOKUP(B16,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D16" s="14" t="inlineStr">
@@ -5243,7 +9177,7 @@
         </is>
       </c>
       <c r="C17" s="15">
-        <f>IF(B17="","",VLOOKUP(B17,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B17="","",VLOOKUP(B17,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D17" s="14" t="inlineStr">
@@ -5305,7 +9239,7 @@
         </is>
       </c>
       <c r="C18" s="15">
-        <f>IF(B18="","",VLOOKUP(B18,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B18="","",VLOOKUP(B18,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -5367,7 +9301,7 @@
         </is>
       </c>
       <c r="C19" s="15">
-        <f>IF(B19="","",VLOOKUP(B19,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B19="","",VLOOKUP(B19,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D19" s="14" t="inlineStr">
@@ -5429,7 +9363,7 @@
         </is>
       </c>
       <c r="C20" s="15">
-        <f>IF(B20="","",VLOOKUP(B20,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B20="","",VLOOKUP(B20,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D20" s="14" t="inlineStr">
@@ -5491,7 +9425,7 @@
         </is>
       </c>
       <c r="C21" s="15">
-        <f>IF(B21="","",VLOOKUP(B21,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B21="","",VLOOKUP(B21,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D21" s="14" t="n"/>
@@ -5549,7 +9483,7 @@
         </is>
       </c>
       <c r="C22" s="15">
-        <f>IF(B22="","",VLOOKUP(B22,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B22="","",VLOOKUP(B22,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D22" s="14" t="n"/>
@@ -5607,7 +9541,7 @@
         </is>
       </c>
       <c r="C23" s="15">
-        <f>IF(B23="","",VLOOKUP(B23,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B23="","",VLOOKUP(B23,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D23" s="14" t="n"/>
@@ -5665,7 +9599,7 @@
         </is>
       </c>
       <c r="C24" s="15">
-        <f>IF(B24="","",VLOOKUP(B24,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B24="","",VLOOKUP(B24,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D24" s="14" t="n"/>
@@ -5723,7 +9657,7 @@
         </is>
       </c>
       <c r="C25" s="15">
-        <f>IF(B25="","",VLOOKUP(B25,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B25="","",VLOOKUP(B25,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D25" s="14" t="n"/>
@@ -5781,7 +9715,7 @@
         </is>
       </c>
       <c r="C26" s="15">
-        <f>IF(B26="","",VLOOKUP(B26,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B26="","",VLOOKUP(B26,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D26" s="14" t="n"/>
@@ -5839,7 +9773,7 @@
         </is>
       </c>
       <c r="C27" s="15">
-        <f>IF(B27="","",VLOOKUP(B27,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B27="","",VLOOKUP(B27,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D27" s="14" t="inlineStr">
@@ -5901,7 +9835,7 @@
         </is>
       </c>
       <c r="C28" s="15">
-        <f>IF(B28="","",VLOOKUP(B28,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B28="","",VLOOKUP(B28,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D28" s="14" t="inlineStr">
@@ -5963,7 +9897,7 @@
         </is>
       </c>
       <c r="C29" s="15">
-        <f>IF(B29="","",VLOOKUP(B29,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B29="","",VLOOKUP(B29,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D29" s="14" t="inlineStr">
@@ -6025,7 +9959,7 @@
         </is>
       </c>
       <c r="C30" s="15">
-        <f>IF(B30="","",VLOOKUP(B30,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B30="","",VLOOKUP(B30,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D30" s="14" t="inlineStr">
@@ -6087,7 +10021,7 @@
         </is>
       </c>
       <c r="C31" s="15">
-        <f>IF(B31="","",VLOOKUP(B31,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B31="","",VLOOKUP(B31,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D31" s="14" t="n"/>
@@ -6145,7 +10079,7 @@
         </is>
       </c>
       <c r="C32" s="15">
-        <f>IF(B32="","",VLOOKUP(B32,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B32="","",VLOOKUP(B32,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D32" s="14" t="n"/>
@@ -6203,7 +10137,7 @@
         </is>
       </c>
       <c r="C33" s="15">
-        <f>IF(B33="","",VLOOKUP(B33,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B33="","",VLOOKUP(B33,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D33" s="14" t="n"/>
@@ -6261,7 +10195,7 @@
         </is>
       </c>
       <c r="C34" s="15">
-        <f>IF(B34="","",VLOOKUP(B34,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B34="","",VLOOKUP(B34,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D34" s="14" t="n"/>
@@ -6319,7 +10253,7 @@
         </is>
       </c>
       <c r="C35" s="15">
-        <f>IF(B35="","",VLOOKUP(B35,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B35="","",VLOOKUP(B35,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D35" s="14" t="n"/>
@@ -6377,7 +10311,7 @@
         </is>
       </c>
       <c r="C36" s="15">
-        <f>IF(B36="","",VLOOKUP(B36,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B36="","",VLOOKUP(B36,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D36" s="14" t="n"/>
@@ -6435,7 +10369,7 @@
         </is>
       </c>
       <c r="C37" s="15">
-        <f>IF(B37="","",VLOOKUP(B37,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B37="","",VLOOKUP(B37,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D37" s="14" t="n"/>
@@ -6493,7 +10427,7 @@
         </is>
       </c>
       <c r="C38" s="15">
-        <f>IF(B38="","",VLOOKUP(B38,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B38="","",VLOOKUP(B38,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D38" s="14" t="n"/>
@@ -6547,7 +10481,7 @@
       </c>
       <c r="B39" s="14" t="n"/>
       <c r="C39" s="15">
-        <f>IF(B39="","",VLOOKUP(B39,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B39="","",VLOOKUP(B39,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D39" s="14" t="n"/>
@@ -6583,7 +10517,7 @@
       </c>
       <c r="B40" s="14" t="n"/>
       <c r="C40" s="15">
-        <f>IF(B40="","",VLOOKUP(B40,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B40="","",VLOOKUP(B40,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D40" s="14" t="n"/>
@@ -6619,7 +10553,7 @@
       </c>
       <c r="B41" s="14" t="n"/>
       <c r="C41" s="15">
-        <f>IF(B41="","",VLOOKUP(B41,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B41="","",VLOOKUP(B41,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D41" s="14" t="n"/>
@@ -6655,7 +10589,7 @@
       </c>
       <c r="B42" s="14" t="n"/>
       <c r="C42" s="15">
-        <f>IF(B42="","",VLOOKUP(B42,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B42="","",VLOOKUP(B42,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D42" s="14" t="n"/>
@@ -6691,7 +10625,7 @@
       </c>
       <c r="B43" s="14" t="n"/>
       <c r="C43" s="15">
-        <f>IF(B43="","",VLOOKUP(B43,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B43="","",VLOOKUP(B43,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D43" s="14" t="n"/>
@@ -6727,7 +10661,7 @@
       </c>
       <c r="B44" s="14" t="n"/>
       <c r="C44" s="15">
-        <f>IF(B44="","",VLOOKUP(B44,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B44="","",VLOOKUP(B44,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D44" s="14" t="n"/>
@@ -6763,7 +10697,7 @@
       </c>
       <c r="B45" s="14" t="n"/>
       <c r="C45" s="15">
-        <f>IF(B45="","",VLOOKUP(B45,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B45="","",VLOOKUP(B45,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D45" s="14" t="n"/>
@@ -6799,7 +10733,7 @@
       </c>
       <c r="B46" s="14" t="n"/>
       <c r="C46" s="15">
-        <f>IF(B46="","",VLOOKUP(B46,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B46="","",VLOOKUP(B46,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D46" s="14" t="n"/>
@@ -6835,7 +10769,7 @@
       </c>
       <c r="B47" s="14" t="n"/>
       <c r="C47" s="15">
-        <f>IF(B47="","",VLOOKUP(B47,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B47="","",VLOOKUP(B47,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D47" s="14" t="n"/>
@@ -6871,7 +10805,7 @@
       </c>
       <c r="B48" s="14" t="n"/>
       <c r="C48" s="15">
-        <f>IF(B48="","",VLOOKUP(B48,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B48="","",VLOOKUP(B48,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D48" s="14" t="n"/>
@@ -6907,7 +10841,7 @@
       </c>
       <c r="B49" s="14" t="n"/>
       <c r="C49" s="15">
-        <f>IF(B49="","",VLOOKUP(B49,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B49="","",VLOOKUP(B49,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D49" s="14" t="n"/>
@@ -6943,7 +10877,7 @@
       </c>
       <c r="B50" s="14" t="n"/>
       <c r="C50" s="15">
-        <f>IF(B50="","",VLOOKUP(B50,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B50="","",VLOOKUP(B50,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D50" s="14" t="n"/>
@@ -6979,7 +10913,7 @@
       </c>
       <c r="B51" s="14" t="n"/>
       <c r="C51" s="15">
-        <f>IF(B51="","",VLOOKUP(B51,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B51="","",VLOOKUP(B51,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D51" s="14" t="n"/>
@@ -7015,7 +10949,7 @@
       </c>
       <c r="B52" s="14" t="n"/>
       <c r="C52" s="15">
-        <f>IF(B52="","",VLOOKUP(B52,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B52="","",VLOOKUP(B52,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D52" s="14" t="n"/>
@@ -7051,7 +10985,7 @@
       </c>
       <c r="B53" s="14" t="n"/>
       <c r="C53" s="15">
-        <f>IF(B53="","",VLOOKUP(B53,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B53="","",VLOOKUP(B53,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D53" s="14" t="n"/>
@@ -7087,7 +11021,7 @@
       </c>
       <c r="B54" s="14" t="n"/>
       <c r="C54" s="15">
-        <f>IF(B54="","",VLOOKUP(B54,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B54="","",VLOOKUP(B54,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D54" s="14" t="n"/>
@@ -7123,7 +11057,7 @@
       </c>
       <c r="B55" s="14" t="n"/>
       <c r="C55" s="15">
-        <f>IF(B55="","",VLOOKUP(B55,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B55="","",VLOOKUP(B55,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D55" s="14" t="n"/>
@@ -7159,7 +11093,7 @@
       </c>
       <c r="B56" s="14" t="n"/>
       <c r="C56" s="15">
-        <f>IF(B56="","",VLOOKUP(B56,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B56="","",VLOOKUP(B56,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D56" s="14" t="n"/>
@@ -7195,7 +11129,7 @@
       </c>
       <c r="B57" s="14" t="n"/>
       <c r="C57" s="15">
-        <f>IF(B57="","",VLOOKUP(B57,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B57="","",VLOOKUP(B57,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D57" s="14" t="n"/>
@@ -7231,7 +11165,7 @@
       </c>
       <c r="B58" s="14" t="n"/>
       <c r="C58" s="15">
-        <f>IF(B58="","",VLOOKUP(B58,Roadmap!$B$3:$C$100,2,FALSE()))</f>
+        <f>IF(B58="","",VLOOKUP(B58,Roadmap!$B$4:$C$100,2,FALSE()))</f>
         <v/>
       </c>
       <c r="D58" s="14" t="n"/>
@@ -34139,9 +38073,9 @@
   </conditionalFormatting>
   <dataValidations count="6">
     <dataValidation sqref="B2:B58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>Roadmap!$B$3:$B$100</formula1>
+      <formula1>Roadmap!$B$4:$B$100</formula1>
     </dataValidation>
-    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Sub Project" error="Sub Project không hợp lệ cho dự án này." promptTitle="Sub Project" prompt="Chọn Sub Project (nếu có)" type="list">
+    <dataValidation sqref="D2:D58" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" errorTitle="Sub Project" error="Sub Project không hợp lệ." promptTitle="Sub Project" prompt="Chọn Sub Project (nếu có)" type="list">
       <formula1>INDIRECT("PRJ_"&amp;$B2)</formula1>
     </dataValidation>
     <dataValidation sqref="F2:F58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
